--- a/WIP/Documents/Report 3/WS_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Documents/Report 3/WS_Integration Test Case_v1.0_EN.xlsx
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="720">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1932,15 +1932,6 @@
 6. Request has been denied by admin</t>
   </si>
   <si>
-    <t xml:space="preserve">1.The Homepage is displayed 
-2. Go to user homepage
-3. Create organization page displayed
-4. All input are displayed
-5. Create Organization successful and display waiting approve notice
-6. Display notification request status
-</t>
-  </si>
-  <si>
     <t>Create Organization and has been approved by admin</t>
   </si>
   <si>
@@ -3394,6 +3385,24 @@
 6. Click on "Thông tin tài khoản" button
 7. Click on "Sửa thông tin cá nhân"
 8. Delete the deletable datas and click "Lưu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The Homepage is displayed 
+2. Go to user homepage
+3. Create organization page displayed
+4. All input are displayed
+5. Create Organization successful and display waiting approve notice
+6. Recive emai denied from Admin
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The Homepage is displayed 
+2. Go to user homepage
+3. Create organization page displayed
+4. All input are displayed
+5. Create Organization successful and display waiting approve notice
+6. Recive emai accept from Admin
+</t>
   </si>
 </sst>
 </file>
@@ -5131,6 +5140,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="26" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5182,9 +5194,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5665,13 +5674,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="244" t="s">
+      <c r="C2" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -5682,11 +5691,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="245" t="s">
+      <c r="C4" s="246" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="245"/>
-      <c r="E4" s="245"/>
+      <c r="D4" s="246"/>
+      <c r="E4" s="246"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
@@ -5698,11 +5707,11 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="245" t="s">
+      <c r="C5" s="246" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
@@ -5711,15 +5720,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="246" t="s">
+      <c r="B6" s="247" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="247" t="str">
+      <c r="C6" s="248" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>WS_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="247"/>
-      <c r="E6" s="247"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -5728,10 +5737,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="246"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="247"/>
-      <c r="E7" s="247"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -5893,39 +5902,39 @@
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="250" t="s">
+      <c r="B3" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="250"/>
-      <c r="D3" s="251" t="str">
+      <c r="C3" s="251"/>
+      <c r="D3" s="252" t="str">
         <f>Cover!C4</f>
         <v>WingS</v>
       </c>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="250" t="s">
+      <c r="B4" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="250"/>
-      <c r="D4" s="251" t="str">
+      <c r="C4" s="251"/>
+      <c r="D4" s="252" t="str">
         <f>Cover!C5</f>
         <v>WS</v>
       </c>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
     </row>
     <row r="5" spans="2:6" s="35" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="248" t="s">
+      <c r="B5" s="249" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="248"/>
-      <c r="D5" s="249" t="s">
+      <c r="C5" s="249"/>
+      <c r="D5" s="250" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="250"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="36"/>
@@ -6103,15 +6112,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="254" t="s">
+      <c r="B1" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="62"/>
@@ -6127,15 +6136,15 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="251" t="str">
+      <c r="C3" s="252" t="str">
         <f>Cover!C4</f>
         <v>WingS</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="252" t="s">
+      <c r="D3" s="252"/>
+      <c r="E3" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="252"/>
+      <c r="F3" s="253"/>
       <c r="G3" s="10" t="s">
         <v>181</v>
       </c>
@@ -6145,15 +6154,15 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="251" t="str">
+      <c r="C4" s="252" t="str">
         <f>Cover!C5</f>
         <v>WS</v>
       </c>
-      <c r="D4" s="251"/>
-      <c r="E4" s="252" t="s">
+      <c r="D4" s="252"/>
+      <c r="E4" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="252"/>
+      <c r="F4" s="253"/>
       <c r="G4" s="10" t="s">
         <v>176</v>
       </c>
@@ -6163,15 +6172,15 @@
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="251" t="str">
+      <c r="C5" s="252" t="str">
         <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>WS_Integration Test Report_v1.0</v>
       </c>
-      <c r="D5" s="251"/>
-      <c r="E5" s="252" t="s">
+      <c r="D5" s="252"/>
+      <c r="E5" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="252"/>
+      <c r="F5" s="253"/>
       <c r="G5" s="115"/>
       <c r="H5" s="67"/>
     </row>
@@ -6180,12 +6189,12 @@
       <c r="B6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="253"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253"/>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
+      <c r="C6" s="254"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="254"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="62"/>
@@ -6250,7 +6259,7 @@
       </c>
       <c r="D11" s="76">
         <f>User_Function!A6</f>
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E11" s="76">
         <f>User_Function!B6</f>
@@ -6258,7 +6267,7 @@
       </c>
       <c r="F11" s="76">
         <f>User_Function!C6</f>
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G11" s="76">
         <f>User_Function!D6</f>
@@ -6306,7 +6315,7 @@
       </c>
       <c r="D13" s="79">
         <f>SUM(D9:D12)</f>
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E13" s="79">
         <f>SUM(E9:E12)</f>
@@ -6314,7 +6323,7 @@
       </c>
       <c r="F13" s="79">
         <f>SUM(F9:F12)</f>
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G13" s="79">
         <f>SUM(G9:G12)</f>
@@ -6344,7 +6353,7 @@
       <c r="D15" s="70"/>
       <c r="E15" s="85">
         <f>(D13+E13)*100/(H13-G13)</f>
-        <v>32.579185520361989</v>
+        <v>34.841628959276015</v>
       </c>
       <c r="F15" s="70" t="s">
         <v>43</v>
@@ -6361,7 +6370,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="85">
         <f>D13*100/(H13-G13)</f>
-        <v>30.76923076923077</v>
+        <v>33.0316742081448</v>
       </c>
       <c r="F16" s="70" t="s">
         <v>43</v>
@@ -6414,11 +6423,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="256" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
@@ -6671,7 +6680,7 @@
         <v>109</v>
       </c>
       <c r="B30" s="161" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C30" s="161"/>
     </row>
@@ -6680,7 +6689,7 @@
         <v>110</v>
       </c>
       <c r="B31" s="161" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C31" s="161"/>
     </row>
@@ -6718,8 +6727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:XFD96"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -6992,14 +7001,14 @@
       <c r="A2" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
       <c r="H2" s="149" t="s">
         <v>22</v>
       </c>
@@ -7247,14 +7256,14 @@
       <c r="A3" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="256" t="s">
+      <c r="B3" s="257" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
       <c r="H3" s="149" t="s">
         <v>24</v>
       </c>
@@ -7502,14 +7511,14 @@
       <c r="A4" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="257" t="s">
+      <c r="B4" s="258" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="257"/>
-      <c r="G4" s="257"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="258"/>
       <c r="H4" s="149" t="s">
         <v>27</v>
       </c>
@@ -7764,11 +7773,11 @@
       <c r="D5" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="258" t="s">
+      <c r="E5" s="259" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
+      <c r="F5" s="259"/>
+      <c r="G5" s="259"/>
       <c r="H5" s="150" t="s">
         <v>26</v>
       </c>
@@ -8015,7 +8024,7 @@
     <row r="6" spans="1:252" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="130">
         <f>COUNTIF(F11:G340,"Pass")</f>
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B6" s="101">
         <f>COUNTIF(F11:G787,"Fail")</f>
@@ -8023,18 +8032,18 @@
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D6" s="102">
         <f>COUNTIF(F11:G787,"N/A")</f>
         <v>8</v>
       </c>
-      <c r="E6" s="259">
+      <c r="E6" s="260">
         <f>COUNTA(A12:A184)*2</f>
         <v>318</v>
       </c>
-      <c r="F6" s="259"/>
-      <c r="G6" s="259"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="260"/>
       <c r="H6" s="99"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95" t="s">
@@ -10869,7 +10878,7 @@
       <c r="G17" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="262">
+      <c r="H17" s="244">
         <v>42381</v>
       </c>
       <c r="I17" s="124"/>
@@ -11131,7 +11140,7 @@
       <c r="G18" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="262">
+      <c r="H18" s="244">
         <v>42381</v>
       </c>
       <c r="I18" s="124"/>
@@ -11393,7 +11402,7 @@
       <c r="G19" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="262">
+      <c r="H19" s="244">
         <v>42381</v>
       </c>
       <c r="I19" s="218"/>
@@ -11655,7 +11664,7 @@
       <c r="G20" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="262">
+      <c r="H20" s="244">
         <v>42381</v>
       </c>
       <c r="I20" s="218"/>
@@ -12150,10 +12159,10 @@
         <v>114</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D22" s="91" t="s">
         <v>264</v>
@@ -12411,13 +12420,13 @@
         <v>115</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C23" s="91" t="s">
+        <v>673</v>
+      </c>
+      <c r="D23" s="91" t="s">
         <v>674</v>
-      </c>
-      <c r="D23" s="91" t="s">
-        <v>675</v>
       </c>
       <c r="E23" s="146"/>
       <c r="F23" s="117" t="s">
@@ -12672,13 +12681,13 @@
         <v>116</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E24" s="146"/>
       <c r="F24" s="117" t="s">
@@ -12933,10 +12942,10 @@
         <v>117</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D25" s="91" t="s">
         <v>359</v>
@@ -13194,10 +13203,10 @@
         <v>266</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D26" s="91" t="s">
         <v>360</v>
@@ -13455,13 +13464,13 @@
         <v>267</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C27" s="91" t="s">
+        <v>702</v>
+      </c>
+      <c r="D27" s="91" t="s">
         <v>703</v>
-      </c>
-      <c r="D27" s="91" t="s">
-        <v>704</v>
       </c>
       <c r="E27" s="146"/>
       <c r="F27" s="117" t="s">
@@ -13716,13 +13725,13 @@
         <v>268</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C28" s="91" t="s">
         <v>259</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E28" s="146"/>
       <c r="F28" s="117" t="s">
@@ -13977,7 +13986,7 @@
         <v>269</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C29" s="91" t="s">
         <v>259</v>
@@ -14238,7 +14247,7 @@
         <v>367</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C30" s="91" t="s">
         <v>259</v>
@@ -14499,7 +14508,7 @@
         <v>368</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C31" s="91" t="s">
         <v>259</v>
@@ -14760,7 +14769,7 @@
         <v>369</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C32" s="91" t="s">
         <v>260</v>
@@ -15021,13 +15030,13 @@
         <v>370</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C33" s="91" t="s">
         <v>260</v>
       </c>
       <c r="D33" s="91" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E33" s="146"/>
       <c r="F33" s="117" t="s">
@@ -15282,7 +15291,7 @@
         <v>371</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C34" s="91" t="s">
         <v>260</v>
@@ -15543,7 +15552,7 @@
         <v>372</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C35" s="91" t="s">
         <v>260</v>
@@ -15804,7 +15813,7 @@
         <v>373</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C36" s="91" t="s">
         <v>260</v>
@@ -16065,7 +16074,7 @@
         <v>374</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C37" s="91" t="s">
         <v>265</v>
@@ -16326,13 +16335,13 @@
         <v>375</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C38" s="91" t="s">
         <v>265</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E38" s="146"/>
       <c r="F38" s="117" t="s">
@@ -16587,7 +16596,7 @@
         <v>376</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C39" s="91" t="s">
         <v>364</v>
@@ -16848,7 +16857,7 @@
         <v>377</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C40" s="91" t="s">
         <v>364</v>
@@ -17109,7 +17118,7 @@
         <v>378</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C41" s="91" t="s">
         <v>364</v>
@@ -17370,7 +17379,7 @@
         <v>379</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C42" s="91" t="s">
         <v>261</v>
@@ -17631,13 +17640,13 @@
         <v>380</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C43" s="91" t="s">
         <v>365</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E43" s="146"/>
       <c r="F43" s="117" t="s">
@@ -17892,7 +17901,7 @@
         <v>381</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C44" s="91" t="s">
         <v>365</v>
@@ -18153,7 +18162,7 @@
         <v>382</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C45" s="91" t="s">
         <v>365</v>
@@ -18414,7 +18423,7 @@
         <v>383</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C46" s="91" t="s">
         <v>365</v>
@@ -18675,7 +18684,7 @@
         <v>384</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C47" s="91" t="s">
         <v>270</v>
@@ -18936,7 +18945,7 @@
         <v>385</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C48" s="91" t="s">
         <v>272</v>
@@ -19197,7 +19206,7 @@
         <v>386</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C49" s="91" t="s">
         <v>366</v>
@@ -19458,7 +19467,7 @@
         <v>387</v>
       </c>
       <c r="B50" s="91" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C50" s="91" t="s">
         <v>366</v>
@@ -24179,7 +24188,7 @@
         <v>241</v>
       </c>
       <c r="D68" s="136" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E68" s="91"/>
       <c r="F68" s="117" t="s">
@@ -26840,10 +26849,10 @@
         <v>68</v>
       </c>
       <c r="C78" s="91" t="s">
+        <v>708</v>
+      </c>
+      <c r="D78" s="91" t="s">
         <v>709</v>
-      </c>
-      <c r="D78" s="91" t="s">
-        <v>710</v>
       </c>
       <c r="E78" s="91"/>
       <c r="F78" s="117" t="s">
@@ -28880,7 +28889,7 @@
     <row r="86" spans="1:245" ht="14.25" customHeight="1">
       <c r="A86" s="223"/>
       <c r="B86" s="223" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C86" s="224"/>
       <c r="D86" s="224"/>
@@ -28927,10 +28936,10 @@
         <v>285</v>
       </c>
       <c r="C88" s="106" t="s">
+        <v>710</v>
+      </c>
+      <c r="D88" s="104" t="s">
         <v>711</v>
-      </c>
-      <c r="D88" s="104" t="s">
-        <v>712</v>
       </c>
       <c r="E88" s="167"/>
       <c r="F88" s="117" t="s">
@@ -28954,7 +28963,7 @@
         <v>389</v>
       </c>
       <c r="C89" s="106" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D89" s="104" t="s">
         <v>390</v>
@@ -28981,7 +28990,7 @@
         <v>391</v>
       </c>
       <c r="C90" s="106" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D90" s="104" t="s">
         <v>392</v>
@@ -29005,13 +29014,13 @@
         <v>[User_login-81]</v>
       </c>
       <c r="B91" s="91" t="s">
+        <v>478</v>
+      </c>
+      <c r="C91" s="106" t="s">
+        <v>714</v>
+      </c>
+      <c r="D91" s="104" t="s">
         <v>479</v>
-      </c>
-      <c r="C91" s="106" t="s">
-        <v>715</v>
-      </c>
-      <c r="D91" s="104" t="s">
-        <v>480</v>
       </c>
       <c r="E91" s="167"/>
       <c r="F91" s="117" t="s">
@@ -29032,10 +29041,10 @@
         <v>[User_login-82]</v>
       </c>
       <c r="B92" s="91" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C92" s="106" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D92" s="104" t="s">
         <v>392</v>
@@ -29059,13 +29068,13 @@
         <v>[User_login-83]</v>
       </c>
       <c r="B93" s="91" t="s">
+        <v>481</v>
+      </c>
+      <c r="C93" s="106" t="s">
+        <v>716</v>
+      </c>
+      <c r="D93" s="104" t="s">
         <v>482</v>
-      </c>
-      <c r="C93" s="106" t="s">
-        <v>717</v>
-      </c>
-      <c r="D93" s="104" t="s">
-        <v>483</v>
       </c>
       <c r="E93" s="167"/>
       <c r="F93" s="117" t="s">
@@ -29086,13 +29095,13 @@
         <v>[User_login-84]</v>
       </c>
       <c r="B94" s="91" t="s">
+        <v>483</v>
+      </c>
+      <c r="C94" s="106" t="s">
+        <v>717</v>
+      </c>
+      <c r="D94" s="104" t="s">
         <v>484</v>
-      </c>
-      <c r="C94" s="106" t="s">
-        <v>718</v>
-      </c>
-      <c r="D94" s="104" t="s">
-        <v>485</v>
       </c>
       <c r="E94" s="167"/>
       <c r="F94" s="117" t="s">
@@ -29113,7 +29122,7 @@
         <v>[User_login-85]</v>
       </c>
       <c r="B95" s="223" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C95" s="231"/>
       <c r="D95" s="231"/>
@@ -29139,9 +29148,15 @@
         <v>286</v>
       </c>
       <c r="E96" s="163"/>
-      <c r="F96" s="117"/>
-      <c r="G96" s="117"/>
-      <c r="H96" s="119"/>
+      <c r="F96" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="112">
+        <v>42412</v>
+      </c>
       <c r="I96" s="164"/>
       <c r="J96" s="105"/>
     </row>
@@ -29160,9 +29175,15 @@
         <v>293</v>
       </c>
       <c r="E97" s="163"/>
-      <c r="F97" s="117"/>
-      <c r="G97" s="117"/>
-      <c r="H97" s="119"/>
+      <c r="F97" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="112">
+        <v>42412</v>
+      </c>
       <c r="I97" s="164"/>
       <c r="J97" s="105"/>
     </row>
@@ -29181,9 +29202,15 @@
         <v>293</v>
       </c>
       <c r="E98" s="163"/>
-      <c r="F98" s="117"/>
-      <c r="G98" s="117"/>
-      <c r="H98" s="119"/>
+      <c r="F98" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" s="112">
+        <v>42412</v>
+      </c>
       <c r="I98" s="164"/>
       <c r="J98" s="105"/>
     </row>
@@ -29202,9 +29229,15 @@
         <v>417</v>
       </c>
       <c r="E99" s="163"/>
-      <c r="F99" s="117"/>
-      <c r="G99" s="117"/>
-      <c r="H99" s="119"/>
+      <c r="F99" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="112">
+        <v>42412</v>
+      </c>
       <c r="I99" s="164"/>
       <c r="J99" s="105"/>
     </row>
@@ -29220,12 +29253,18 @@
         <v>419</v>
       </c>
       <c r="D100" s="117" t="s">
-        <v>420</v>
+        <v>718</v>
       </c>
       <c r="E100" s="163"/>
-      <c r="F100" s="117"/>
-      <c r="G100" s="117"/>
-      <c r="H100" s="119"/>
+      <c r="F100" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" s="112">
+        <v>42412</v>
+      </c>
       <c r="I100" s="164"/>
       <c r="J100" s="105"/>
     </row>
@@ -29235,18 +29274,20 @@
         <v>[User_login-91]</v>
       </c>
       <c r="B101" s="175" t="s">
+        <v>420</v>
+      </c>
+      <c r="C101" s="166" t="s">
         <v>421</v>
       </c>
-      <c r="C101" s="166" t="s">
-        <v>422</v>
-      </c>
       <c r="D101" s="117" t="s">
-        <v>420</v>
+        <v>719</v>
       </c>
       <c r="E101" s="163"/>
       <c r="F101" s="117"/>
       <c r="G101" s="117"/>
-      <c r="H101" s="119"/>
+      <c r="H101" s="112">
+        <v>42412</v>
+      </c>
       <c r="I101" s="164"/>
       <c r="J101" s="105"/>
     </row>
@@ -29256,18 +29297,20 @@
         <v>[User_login-92]</v>
       </c>
       <c r="B102" s="175" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C102" s="166" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D102" s="117" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E102" s="163"/>
       <c r="F102" s="117"/>
       <c r="G102" s="117"/>
-      <c r="H102" s="119"/>
+      <c r="H102" s="112">
+        <v>42412</v>
+      </c>
       <c r="I102" s="164"/>
       <c r="J102" s="105"/>
     </row>
@@ -29277,18 +29320,20 @@
         <v>[User_login-93]</v>
       </c>
       <c r="B103" s="175" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C103" s="166" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D103" s="117" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E103" s="163"/>
       <c r="F103" s="117"/>
       <c r="G103" s="117"/>
-      <c r="H103" s="119"/>
+      <c r="H103" s="112">
+        <v>42412</v>
+      </c>
       <c r="I103" s="164"/>
       <c r="J103" s="105"/>
     </row>
@@ -29298,18 +29343,20 @@
         <v>[User_login-94]</v>
       </c>
       <c r="B104" s="175" t="s">
+        <v>428</v>
+      </c>
+      <c r="C104" s="166" t="s">
         <v>429</v>
       </c>
-      <c r="C104" s="166" t="s">
+      <c r="D104" s="117" t="s">
         <v>430</v>
-      </c>
-      <c r="D104" s="117" t="s">
-        <v>431</v>
       </c>
       <c r="E104" s="163"/>
       <c r="F104" s="117"/>
       <c r="G104" s="117"/>
-      <c r="H104" s="119"/>
+      <c r="H104" s="112">
+        <v>42412</v>
+      </c>
       <c r="I104" s="164"/>
       <c r="J104" s="105"/>
     </row>
@@ -29319,18 +29366,20 @@
         <v>[User_login-95]</v>
       </c>
       <c r="B105" s="175" t="s">
+        <v>431</v>
+      </c>
+      <c r="C105" s="166" t="s">
         <v>432</v>
       </c>
-      <c r="C105" s="166" t="s">
+      <c r="D105" s="117" t="s">
         <v>433</v>
-      </c>
-      <c r="D105" s="117" t="s">
-        <v>434</v>
       </c>
       <c r="E105" s="163"/>
       <c r="F105" s="117"/>
       <c r="G105" s="117"/>
-      <c r="H105" s="119"/>
+      <c r="H105" s="112">
+        <v>42412</v>
+      </c>
       <c r="I105" s="164"/>
       <c r="J105" s="105"/>
     </row>
@@ -29340,18 +29389,20 @@
         <v>[User_login-96]</v>
       </c>
       <c r="B106" s="175" t="s">
+        <v>434</v>
+      </c>
+      <c r="C106" s="166" t="s">
         <v>435</v>
       </c>
-      <c r="C106" s="166" t="s">
+      <c r="D106" s="117" t="s">
         <v>436</v>
-      </c>
-      <c r="D106" s="117" t="s">
-        <v>437</v>
       </c>
       <c r="E106" s="163"/>
       <c r="F106" s="117"/>
       <c r="G106" s="117"/>
-      <c r="H106" s="119"/>
+      <c r="H106" s="112">
+        <v>42412</v>
+      </c>
       <c r="I106" s="164"/>
       <c r="J106" s="105"/>
     </row>
@@ -29361,18 +29412,20 @@
         <v>[User_login-97]</v>
       </c>
       <c r="B107" s="175" t="s">
+        <v>437</v>
+      </c>
+      <c r="C107" s="166" t="s">
         <v>438</v>
       </c>
-      <c r="C107" s="166" t="s">
-        <v>439</v>
-      </c>
       <c r="D107" s="117" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E107" s="163"/>
       <c r="F107" s="117"/>
       <c r="G107" s="117"/>
-      <c r="H107" s="119"/>
+      <c r="H107" s="112">
+        <v>42412</v>
+      </c>
       <c r="I107" s="164"/>
       <c r="J107" s="105"/>
     </row>
@@ -29382,14 +29435,16 @@
         <v>[User_login-98]</v>
       </c>
       <c r="B108" s="223" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C108" s="231"/>
       <c r="D108" s="231"/>
       <c r="E108" s="231"/>
       <c r="F108" s="231"/>
       <c r="G108" s="231"/>
-      <c r="H108" s="231"/>
+      <c r="H108" s="112">
+        <v>42412</v>
+      </c>
       <c r="I108" s="231"/>
       <c r="J108" s="105"/>
     </row>
@@ -29410,7 +29465,9 @@
       <c r="E109" s="163"/>
       <c r="F109" s="117"/>
       <c r="G109" s="117"/>
-      <c r="H109" s="119"/>
+      <c r="H109" s="112">
+        <v>42412</v>
+      </c>
       <c r="I109" s="164"/>
       <c r="J109" s="105"/>
     </row>
@@ -29431,7 +29488,9 @@
       <c r="E110" s="163"/>
       <c r="F110" s="117"/>
       <c r="G110" s="117"/>
-      <c r="H110" s="119"/>
+      <c r="H110" s="112">
+        <v>42412</v>
+      </c>
       <c r="I110" s="164"/>
       <c r="J110" s="105"/>
     </row>
@@ -29452,7 +29511,9 @@
       <c r="E111" s="163"/>
       <c r="F111" s="117"/>
       <c r="G111" s="117"/>
-      <c r="H111" s="119"/>
+      <c r="H111" s="112">
+        <v>42412</v>
+      </c>
       <c r="I111" s="164"/>
       <c r="J111" s="105"/>
     </row>
@@ -29462,18 +29523,20 @@
         <v>[User_login-102]</v>
       </c>
       <c r="B112" s="175" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C112" s="166" t="s">
+        <v>446</v>
+      </c>
+      <c r="D112" s="117" t="s">
         <v>447</v>
-      </c>
-      <c r="D112" s="117" t="s">
-        <v>448</v>
       </c>
       <c r="E112" s="163"/>
       <c r="F112" s="117"/>
       <c r="G112" s="117"/>
-      <c r="H112" s="119"/>
+      <c r="H112" s="112">
+        <v>42412</v>
+      </c>
       <c r="I112" s="164"/>
       <c r="J112" s="105"/>
     </row>
@@ -29483,18 +29546,20 @@
         <v>[User_login-103]</v>
       </c>
       <c r="B113" s="175" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C113" s="166" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D113" s="117" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E113" s="163"/>
       <c r="F113" s="117"/>
       <c r="G113" s="117"/>
-      <c r="H113" s="119"/>
+      <c r="H113" s="112">
+        <v>42412</v>
+      </c>
       <c r="I113" s="164"/>
       <c r="J113" s="105"/>
     </row>
@@ -29504,18 +29569,20 @@
         <v>[User_login-104]</v>
       </c>
       <c r="B114" s="175" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C114" s="166" t="s">
+        <v>449</v>
+      </c>
+      <c r="D114" s="117" t="s">
         <v>450</v>
-      </c>
-      <c r="D114" s="117" t="s">
-        <v>451</v>
       </c>
       <c r="E114" s="163"/>
       <c r="F114" s="117"/>
       <c r="G114" s="117"/>
-      <c r="H114" s="119"/>
+      <c r="H114" s="112">
+        <v>42412</v>
+      </c>
       <c r="I114" s="164"/>
       <c r="J114" s="105"/>
     </row>
@@ -29525,18 +29592,20 @@
         <v>[User_login-105]</v>
       </c>
       <c r="B115" s="175" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C115" s="166" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D115" s="117" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E115" s="163"/>
       <c r="F115" s="117"/>
       <c r="G115" s="117"/>
-      <c r="H115" s="119"/>
+      <c r="H115" s="112">
+        <v>42412</v>
+      </c>
       <c r="I115" s="164"/>
       <c r="J115" s="105"/>
     </row>
@@ -29546,18 +29615,20 @@
         <v>[User_login-106]</v>
       </c>
       <c r="B116" s="175" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C116" s="166" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D116" s="117" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E116" s="163"/>
       <c r="F116" s="117"/>
       <c r="G116" s="117"/>
-      <c r="H116" s="119"/>
+      <c r="H116" s="112">
+        <v>42412</v>
+      </c>
       <c r="I116" s="164"/>
       <c r="J116" s="105"/>
     </row>
@@ -29567,18 +29638,20 @@
         <v>[User_login-107]</v>
       </c>
       <c r="B117" s="175" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C117" s="166" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D117" s="117" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E117" s="163"/>
       <c r="F117" s="117"/>
       <c r="G117" s="117"/>
-      <c r="H117" s="119"/>
+      <c r="H117" s="112">
+        <v>42412</v>
+      </c>
       <c r="I117" s="164"/>
       <c r="J117" s="105"/>
     </row>
@@ -29588,14 +29661,16 @@
         <v>[User_login-108]</v>
       </c>
       <c r="B118" s="223" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C118" s="231"/>
       <c r="D118" s="231"/>
       <c r="E118" s="231"/>
       <c r="F118" s="231"/>
       <c r="G118" s="231"/>
-      <c r="H118" s="231"/>
+      <c r="H118" s="112">
+        <v>42412</v>
+      </c>
       <c r="I118" s="231"/>
       <c r="J118" s="105"/>
     </row>
@@ -29616,7 +29691,9 @@
       <c r="E119" s="163"/>
       <c r="F119" s="117"/>
       <c r="G119" s="117"/>
-      <c r="H119" s="119"/>
+      <c r="H119" s="112">
+        <v>42412</v>
+      </c>
       <c r="I119" s="164"/>
       <c r="J119" s="105"/>
     </row>
@@ -29637,7 +29714,9 @@
       <c r="E120" s="163"/>
       <c r="F120" s="117"/>
       <c r="G120" s="117"/>
-      <c r="H120" s="119"/>
+      <c r="H120" s="112">
+        <v>42412</v>
+      </c>
       <c r="I120" s="164"/>
       <c r="J120" s="105"/>
     </row>
@@ -29658,7 +29737,9 @@
       <c r="E121" s="163"/>
       <c r="F121" s="117"/>
       <c r="G121" s="117"/>
-      <c r="H121" s="119"/>
+      <c r="H121" s="112">
+        <v>42412</v>
+      </c>
       <c r="I121" s="164"/>
       <c r="J121" s="105"/>
     </row>
@@ -29668,18 +29749,20 @@
         <v>[User_login-112]</v>
       </c>
       <c r="B122" s="175" t="s">
+        <v>457</v>
+      </c>
+      <c r="C122" s="166" t="s">
         <v>458</v>
       </c>
-      <c r="C122" s="166" t="s">
+      <c r="D122" s="117" t="s">
         <v>459</v>
-      </c>
-      <c r="D122" s="117" t="s">
-        <v>460</v>
       </c>
       <c r="E122" s="163"/>
       <c r="F122" s="117"/>
       <c r="G122" s="117"/>
-      <c r="H122" s="119"/>
+      <c r="H122" s="112">
+        <v>42412</v>
+      </c>
       <c r="I122" s="164"/>
       <c r="J122" s="105"/>
     </row>
@@ -29689,18 +29772,20 @@
         <v>[User_login-113]</v>
       </c>
       <c r="B123" s="175" t="s">
+        <v>460</v>
+      </c>
+      <c r="C123" s="166" t="s">
+        <v>458</v>
+      </c>
+      <c r="D123" s="117" t="s">
         <v>461</v>
-      </c>
-      <c r="C123" s="166" t="s">
-        <v>459</v>
-      </c>
-      <c r="D123" s="117" t="s">
-        <v>462</v>
       </c>
       <c r="E123" s="163"/>
       <c r="F123" s="117"/>
       <c r="G123" s="117"/>
-      <c r="H123" s="119"/>
+      <c r="H123" s="112">
+        <v>42412</v>
+      </c>
       <c r="I123" s="164"/>
       <c r="J123" s="105"/>
     </row>
@@ -29710,18 +29795,20 @@
         <v>[User_login-114]</v>
       </c>
       <c r="B124" s="175" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C124" s="166" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D124" s="117" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E124" s="163"/>
       <c r="F124" s="117"/>
       <c r="G124" s="117"/>
-      <c r="H124" s="119"/>
+      <c r="H124" s="112">
+        <v>42412</v>
+      </c>
       <c r="I124" s="164"/>
       <c r="J124" s="105"/>
     </row>
@@ -29731,18 +29818,20 @@
         <v>[User_login-115]</v>
       </c>
       <c r="B125" s="175" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C125" s="166" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D125" s="117" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E125" s="163"/>
       <c r="F125" s="117"/>
       <c r="G125" s="117"/>
-      <c r="H125" s="119"/>
+      <c r="H125" s="112">
+        <v>42412</v>
+      </c>
       <c r="I125" s="164"/>
       <c r="J125" s="105"/>
     </row>
@@ -29752,18 +29841,20 @@
         <v>[User_login-116]</v>
       </c>
       <c r="B126" s="175" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C126" s="166" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D126" s="117" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E126" s="163"/>
       <c r="F126" s="117"/>
       <c r="G126" s="117"/>
-      <c r="H126" s="119"/>
+      <c r="H126" s="112">
+        <v>42412</v>
+      </c>
       <c r="I126" s="164"/>
       <c r="J126" s="105"/>
     </row>
@@ -29773,18 +29864,20 @@
         <v>[User_login-117]</v>
       </c>
       <c r="B127" s="175" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C127" s="166" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E127" s="163"/>
       <c r="F127" s="117"/>
       <c r="G127" s="117"/>
-      <c r="H127" s="119"/>
+      <c r="H127" s="112">
+        <v>42412</v>
+      </c>
       <c r="I127" s="164"/>
       <c r="J127" s="105"/>
     </row>
@@ -29794,18 +29887,20 @@
         <v>[User_login-118]</v>
       </c>
       <c r="B128" s="175" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C128" s="166" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D128" s="117" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E128" s="163"/>
       <c r="F128" s="117"/>
       <c r="G128" s="117"/>
-      <c r="H128" s="119"/>
+      <c r="H128" s="112">
+        <v>42412</v>
+      </c>
       <c r="I128" s="164"/>
       <c r="J128" s="105"/>
     </row>
@@ -29815,18 +29910,20 @@
         <v>[User_login-119]</v>
       </c>
       <c r="B129" s="175" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C129" s="166" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D129" s="117" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E129" s="163"/>
       <c r="F129" s="117"/>
       <c r="G129" s="117"/>
-      <c r="H129" s="119"/>
+      <c r="H129" s="112">
+        <v>42412</v>
+      </c>
       <c r="I129" s="164"/>
       <c r="J129" s="105"/>
     </row>
@@ -29836,14 +29933,16 @@
         <v>[User_login-120]</v>
       </c>
       <c r="B130" s="223" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C130" s="231"/>
       <c r="D130" s="231"/>
       <c r="E130" s="231"/>
       <c r="F130" s="231"/>
       <c r="G130" s="231"/>
-      <c r="H130" s="231"/>
+      <c r="H130" s="112">
+        <v>42412</v>
+      </c>
       <c r="I130" s="231"/>
       <c r="J130" s="105"/>
     </row>
@@ -29853,18 +29952,20 @@
         <v>[User_login-121]</v>
       </c>
       <c r="B131" s="175" t="s">
+        <v>486</v>
+      </c>
+      <c r="C131" s="166" t="s">
         <v>487</v>
       </c>
-      <c r="C131" s="166" t="s">
-        <v>488</v>
-      </c>
       <c r="D131" s="117" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E131" s="163"/>
       <c r="F131" s="117"/>
       <c r="G131" s="117"/>
-      <c r="H131" s="119"/>
+      <c r="H131" s="112">
+        <v>42412</v>
+      </c>
       <c r="I131" s="164"/>
       <c r="J131" s="105"/>
     </row>
@@ -29874,18 +29975,20 @@
         <v>[User_login-122]</v>
       </c>
       <c r="B132" s="175" t="s">
+        <v>492</v>
+      </c>
+      <c r="C132" s="166" t="s">
+        <v>494</v>
+      </c>
+      <c r="D132" s="117" t="s">
         <v>493</v>
-      </c>
-      <c r="C132" s="166" t="s">
-        <v>495</v>
-      </c>
-      <c r="D132" s="117" t="s">
-        <v>494</v>
       </c>
       <c r="E132" s="163"/>
       <c r="F132" s="117"/>
       <c r="G132" s="117"/>
-      <c r="H132" s="119"/>
+      <c r="H132" s="112">
+        <v>42412</v>
+      </c>
       <c r="I132" s="164"/>
       <c r="J132" s="105"/>
     </row>
@@ -29895,18 +29998,20 @@
         <v>[User_login-123]</v>
       </c>
       <c r="B133" s="117" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C133" s="117" t="s">
+        <v>497</v>
+      </c>
+      <c r="D133" s="117" t="s">
         <v>498</v>
-      </c>
-      <c r="D133" s="117" t="s">
-        <v>499</v>
       </c>
       <c r="E133" s="163"/>
       <c r="F133" s="117"/>
       <c r="G133" s="117"/>
-      <c r="H133" s="119"/>
+      <c r="H133" s="112">
+        <v>42412</v>
+      </c>
       <c r="I133" s="164"/>
       <c r="J133" s="105"/>
     </row>
@@ -29916,18 +30021,20 @@
         <v>[User_login-124]</v>
       </c>
       <c r="B134" s="117" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C134" s="117" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D134" s="117" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E134" s="163"/>
       <c r="F134" s="117"/>
       <c r="G134" s="117"/>
-      <c r="H134" s="119"/>
+      <c r="H134" s="112">
+        <v>42412</v>
+      </c>
       <c r="I134" s="164"/>
       <c r="J134" s="105"/>
     </row>
@@ -29937,13 +30044,13 @@
         <v>[User_login-125]</v>
       </c>
       <c r="B135" s="117" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C135" s="117" t="s">
+        <v>497</v>
+      </c>
+      <c r="D135" s="117" t="s">
         <v>498</v>
-      </c>
-      <c r="D135" s="117" t="s">
-        <v>499</v>
       </c>
       <c r="E135" s="163"/>
       <c r="F135" s="117"/>
@@ -29958,13 +30065,13 @@
         <v>[User_login-126]</v>
       </c>
       <c r="B136" s="117" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C136" s="117" t="s">
+        <v>497</v>
+      </c>
+      <c r="D136" s="117" t="s">
         <v>498</v>
-      </c>
-      <c r="D136" s="117" t="s">
-        <v>499</v>
       </c>
       <c r="E136" s="163"/>
       <c r="F136" s="117"/>
@@ -29979,13 +30086,13 @@
         <v>[User_login-127]</v>
       </c>
       <c r="B137" s="117" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C137" s="117" t="s">
+        <v>497</v>
+      </c>
+      <c r="D137" s="117" t="s">
         <v>498</v>
-      </c>
-      <c r="D137" s="117" t="s">
-        <v>499</v>
       </c>
       <c r="E137" s="163"/>
       <c r="F137" s="117"/>
@@ -30000,13 +30107,13 @@
         <v>[User_login-128]</v>
       </c>
       <c r="B138" s="117" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C138" s="117" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D138" s="117" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E138" s="163"/>
       <c r="F138" s="117"/>
@@ -30021,13 +30128,13 @@
         <v>[User_login-129]</v>
       </c>
       <c r="B139" s="117" t="s">
+        <v>499</v>
+      </c>
+      <c r="C139" s="117" t="s">
         <v>500</v>
       </c>
-      <c r="C139" s="117" t="s">
-        <v>501</v>
-      </c>
       <c r="D139" s="117" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E139" s="163"/>
       <c r="F139" s="117"/>
@@ -30042,13 +30149,13 @@
         <v>[User_login-130]</v>
       </c>
       <c r="B140" s="117" t="s">
+        <v>507</v>
+      </c>
+      <c r="C140" s="117" t="s">
         <v>508</v>
       </c>
-      <c r="C140" s="117" t="s">
+      <c r="D140" s="117" t="s">
         <v>509</v>
-      </c>
-      <c r="D140" s="117" t="s">
-        <v>510</v>
       </c>
       <c r="E140" s="163"/>
       <c r="F140" s="117"/>
@@ -30063,13 +30170,13 @@
         <v>[User_login-131]</v>
       </c>
       <c r="B141" s="117" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C141" s="117" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D141" s="117" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E141" s="163"/>
       <c r="F141" s="117"/>
@@ -30084,13 +30191,13 @@
         <v>[User_login-132]</v>
       </c>
       <c r="B142" s="117" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C142" s="117" t="s">
+        <v>512</v>
+      </c>
+      <c r="D142" s="117" t="s">
         <v>513</v>
-      </c>
-      <c r="D142" s="117" t="s">
-        <v>514</v>
       </c>
       <c r="E142" s="178"/>
       <c r="F142" s="117"/>
@@ -30165,7 +30272,7 @@
         <v>[User_login-137]</v>
       </c>
       <c r="B147" s="223" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C147" s="231"/>
       <c r="D147" s="231"/>
@@ -30182,13 +30289,13 @@
         <v>[User_login-138]</v>
       </c>
       <c r="B148" s="175" t="s">
+        <v>516</v>
+      </c>
+      <c r="C148" s="117" t="s">
         <v>517</v>
       </c>
-      <c r="C148" s="117" t="s">
+      <c r="D148" s="117" t="s">
         <v>518</v>
-      </c>
-      <c r="D148" s="117" t="s">
-        <v>519</v>
       </c>
       <c r="E148" s="163"/>
       <c r="F148" s="117"/>
@@ -30203,13 +30310,13 @@
         <v>[User_login-139]</v>
       </c>
       <c r="B149" s="175" t="s">
+        <v>519</v>
+      </c>
+      <c r="C149" s="117" t="s">
+        <v>517</v>
+      </c>
+      <c r="D149" s="117" t="s">
         <v>520</v>
-      </c>
-      <c r="C149" s="117" t="s">
-        <v>518</v>
-      </c>
-      <c r="D149" s="117" t="s">
-        <v>521</v>
       </c>
       <c r="E149" s="163"/>
       <c r="F149" s="117"/>
@@ -30224,13 +30331,13 @@
         <v>[User_login-140]</v>
       </c>
       <c r="B150" s="175" t="s">
+        <v>521</v>
+      </c>
+      <c r="C150" s="117" t="s">
+        <v>517</v>
+      </c>
+      <c r="D150" s="117" t="s">
         <v>522</v>
-      </c>
-      <c r="C150" s="117" t="s">
-        <v>518</v>
-      </c>
-      <c r="D150" s="117" t="s">
-        <v>523</v>
       </c>
       <c r="E150" s="163"/>
       <c r="F150" s="117"/>
@@ -30245,13 +30352,13 @@
         <v>[User_login-141]</v>
       </c>
       <c r="B151" s="175" t="s">
+        <v>523</v>
+      </c>
+      <c r="C151" s="117" t="s">
         <v>524</v>
       </c>
-      <c r="C151" s="117" t="s">
-        <v>525</v>
-      </c>
       <c r="D151" s="117" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E151" s="163"/>
       <c r="F151" s="117"/>
@@ -30266,13 +30373,13 @@
         <v>[User_login-142]</v>
       </c>
       <c r="B152" s="175" t="s">
+        <v>525</v>
+      </c>
+      <c r="C152" s="117" t="s">
         <v>526</v>
       </c>
-      <c r="C152" s="117" t="s">
+      <c r="D152" s="117" t="s">
         <v>527</v>
-      </c>
-      <c r="D152" s="117" t="s">
-        <v>528</v>
       </c>
       <c r="E152" s="163"/>
       <c r="F152" s="117"/>
@@ -30287,7 +30394,7 @@
         <v>[User_login-143]</v>
       </c>
       <c r="B153" s="223" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C153" s="231"/>
       <c r="D153" s="231"/>
@@ -30304,13 +30411,13 @@
         <v>[User_login-144]</v>
       </c>
       <c r="B154" s="175" t="s">
+        <v>530</v>
+      </c>
+      <c r="C154" s="117" t="s">
         <v>531</v>
       </c>
-      <c r="C154" s="117" t="s">
+      <c r="D154" s="117" t="s">
         <v>532</v>
-      </c>
-      <c r="D154" s="117" t="s">
-        <v>533</v>
       </c>
       <c r="E154" s="118"/>
       <c r="F154" s="117"/>
@@ -30325,13 +30432,13 @@
         <v>[User_login-145]</v>
       </c>
       <c r="B155" s="175" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C155" s="117" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D155" s="117" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E155" s="118"/>
       <c r="F155" s="117"/>
@@ -30346,13 +30453,13 @@
         <v>[User_login-146]</v>
       </c>
       <c r="B156" s="175" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C156" s="117" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D156" s="117" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E156" s="118"/>
       <c r="F156" s="117"/>
@@ -30367,13 +30474,13 @@
         <v>[User_login-147]</v>
       </c>
       <c r="B157" s="175" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C157" s="117" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D157" s="117" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E157" s="118"/>
       <c r="F157" s="117"/>
@@ -30388,13 +30495,13 @@
         <v>[User_login-148]</v>
       </c>
       <c r="B158" s="175" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C158" s="117" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D158" s="117" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E158" s="118"/>
       <c r="F158" s="117"/>
@@ -30409,13 +30516,13 @@
         <v>[User_login-149]</v>
       </c>
       <c r="B159" s="243" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C159" s="117" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D159" s="117" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E159" s="118"/>
       <c r="F159" s="117"/>
@@ -30769,13 +30876,13 @@
         <v>ID-154</v>
       </c>
       <c r="B175" s="117" t="s">
+        <v>699</v>
+      </c>
+      <c r="C175" s="117" t="s">
         <v>700</v>
       </c>
-      <c r="C175" s="117" t="s">
+      <c r="D175" s="117" t="s">
         <v>701</v>
-      </c>
-      <c r="D175" s="117" t="s">
-        <v>702</v>
       </c>
       <c r="E175" s="117"/>
       <c r="F175" s="117"/>
@@ -31026,14 +31133,14 @@
       <c r="A2" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="257" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
       <c r="J2" s="95" t="s">
         <v>22</v>
       </c>
@@ -31042,14 +31149,14 @@
       <c r="A3" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="256" t="s">
+      <c r="B3" s="257" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
       <c r="J3" s="95" t="s">
         <v>24</v>
       </c>
@@ -31058,14 +31165,14 @@
       <c r="A4" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="257" t="s">
+      <c r="B4" s="258" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="257"/>
-      <c r="G4" s="257"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="258"/>
       <c r="J4" s="96"/>
     </row>
     <row r="5" spans="1:10" s="137" customFormat="1" ht="14.25">
@@ -31081,11 +31188,11 @@
       <c r="D5" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="261" t="s">
+      <c r="E5" s="262" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="261"/>
-      <c r="G5" s="261"/>
+      <c r="F5" s="262"/>
+      <c r="G5" s="262"/>
       <c r="J5" s="95" t="s">
         <v>29</v>
       </c>
@@ -31107,12 +31214,12 @@
         <f>COUNTIF(F11:G761,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="259">
+      <c r="E6" s="260">
         <f>COUNTA(A11:A318)*2</f>
         <v>132</v>
       </c>
-      <c r="F6" s="259"/>
-      <c r="G6" s="259"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="260"/>
       <c r="J6" s="95" t="s">
         <v>27</v>
       </c>
@@ -31169,16 +31276,16 @@
     </row>
     <row r="11" spans="1:10" s="137" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="179"/>
-      <c r="B11" s="260" t="s">
+      <c r="B11" s="261" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="260"/>
-      <c r="H11" s="260"/>
-      <c r="I11" s="260"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="261"/>
+      <c r="F11" s="261"/>
+      <c r="G11" s="261"/>
+      <c r="H11" s="261"/>
+      <c r="I11" s="261"/>
     </row>
     <row r="12" spans="1:10" s="111" customFormat="1" ht="48.75" customHeight="1">
       <c r="A12" s="134" t="str">
@@ -31364,7 +31471,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="185"/>
       <c r="B21" s="186" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C21" s="185"/>
       <c r="D21" s="185"/>
@@ -31447,7 +31554,7 @@
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
       <c r="A25" s="185"/>
       <c r="B25" s="186" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C25" s="185"/>
       <c r="D25" s="185"/>
@@ -31527,13 +31634,13 @@
         <v>[Admin_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D29" s="189" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E29" s="188"/>
       <c r="F29" s="117"/>
@@ -31548,13 +31655,13 @@
         <v>[Admin_login-20]</v>
       </c>
       <c r="B30" s="117" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C30" s="117" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D30" s="189" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E30" s="188"/>
       <c r="F30" s="117"/>
@@ -31569,7 +31676,7 @@
         <v>[Admin_login-21]</v>
       </c>
       <c r="B31" s="186" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C31" s="185"/>
       <c r="D31" s="185"/>
@@ -31586,13 +31693,13 @@
         <v>[Admin_login-22]</v>
       </c>
       <c r="B32" s="117" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C32" s="117" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D32" s="189" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E32" s="188"/>
       <c r="F32" s="117"/>
@@ -31607,13 +31714,13 @@
         <v>[Admin_login-23]</v>
       </c>
       <c r="B33" s="117" t="s">
+        <v>542</v>
+      </c>
+      <c r="C33" s="117" t="s">
         <v>543</v>
       </c>
-      <c r="C33" s="117" t="s">
-        <v>544</v>
-      </c>
       <c r="D33" s="189" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E33" s="188"/>
       <c r="F33" s="117"/>
@@ -31628,13 +31735,13 @@
         <v>[Admin_login-24]</v>
       </c>
       <c r="B34" s="117" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C34" s="117" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D34" s="189" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E34" s="188"/>
       <c r="F34" s="117"/>
@@ -31649,13 +31756,13 @@
         <v>[Admin_login-25]</v>
       </c>
       <c r="B35" s="117" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C35" s="117" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D35" s="189" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E35" s="188"/>
       <c r="F35" s="117"/>
@@ -31670,13 +31777,13 @@
         <v>[Admin_login-26]</v>
       </c>
       <c r="B36" s="117" t="s">
+        <v>563</v>
+      </c>
+      <c r="C36" s="117" t="s">
+        <v>543</v>
+      </c>
+      <c r="D36" s="189" t="s">
         <v>564</v>
-      </c>
-      <c r="C36" s="117" t="s">
-        <v>544</v>
-      </c>
-      <c r="D36" s="189" t="s">
-        <v>565</v>
       </c>
       <c r="E36" s="188"/>
       <c r="F36" s="117"/>
@@ -31691,13 +31798,13 @@
         <v>[Admin_login-27]</v>
       </c>
       <c r="B37" s="117" t="s">
+        <v>553</v>
+      </c>
+      <c r="C37" s="117" t="s">
         <v>554</v>
       </c>
-      <c r="C37" s="117" t="s">
+      <c r="D37" s="189" t="s">
         <v>555</v>
-      </c>
-      <c r="D37" s="189" t="s">
-        <v>556</v>
       </c>
       <c r="E37" s="188"/>
       <c r="F37" s="117"/>
@@ -31712,13 +31819,13 @@
         <v>[Admin_login-28]</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C38" s="117" t="s">
+        <v>587</v>
+      </c>
+      <c r="D38" s="189" t="s">
         <v>588</v>
-      </c>
-      <c r="D38" s="189" t="s">
-        <v>589</v>
       </c>
       <c r="E38" s="188"/>
       <c r="F38" s="117"/>
@@ -31733,13 +31840,13 @@
         <v>[Admin_login-29]</v>
       </c>
       <c r="B39" s="117" t="s">
+        <v>582</v>
+      </c>
+      <c r="C39" s="117" t="s">
         <v>583</v>
       </c>
-      <c r="C39" s="117" t="s">
+      <c r="D39" s="189" t="s">
         <v>584</v>
-      </c>
-      <c r="D39" s="189" t="s">
-        <v>585</v>
       </c>
       <c r="E39" s="188"/>
       <c r="F39" s="117"/>
@@ -31754,13 +31861,13 @@
         <v>[Admin_login-30]</v>
       </c>
       <c r="B40" s="117" t="s">
+        <v>544</v>
+      </c>
+      <c r="C40" s="117" t="s">
         <v>545</v>
       </c>
-      <c r="C40" s="117" t="s">
-        <v>546</v>
-      </c>
       <c r="D40" s="189" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E40" s="188"/>
       <c r="F40" s="117"/>
@@ -31775,7 +31882,7 @@
         <v>[Admin_login-31]</v>
       </c>
       <c r="B41" s="186" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C41" s="185"/>
       <c r="D41" s="185"/>
@@ -31792,13 +31899,13 @@
         <v>[Admin_login-32]</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C42" s="117" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D42" s="189" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E42" s="188"/>
       <c r="F42" s="117"/>
@@ -31813,13 +31920,13 @@
         <v>[Admin_login-33]</v>
       </c>
       <c r="B43" s="117" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C43" s="117" t="s">
+        <v>567</v>
+      </c>
+      <c r="D43" s="189" t="s">
         <v>568</v>
-      </c>
-      <c r="D43" s="189" t="s">
-        <v>569</v>
       </c>
       <c r="E43" s="188"/>
       <c r="F43" s="117"/>
@@ -31834,13 +31941,13 @@
         <v>[Admin_login-34]</v>
       </c>
       <c r="B44" s="117" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C44" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D44" s="189" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E44" s="188"/>
       <c r="F44" s="117"/>
@@ -31855,13 +31962,13 @@
         <v>[Admin_login-35]</v>
       </c>
       <c r="B45" s="117" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C45" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D45" s="189" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E45" s="188"/>
       <c r="F45" s="117"/>
@@ -31876,13 +31983,13 @@
         <v>[Admin_login-36]</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C46" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D46" s="189" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E46" s="188"/>
       <c r="F46" s="117"/>
@@ -31897,13 +32004,13 @@
         <v>[Admin_login-37]</v>
       </c>
       <c r="B47" s="117" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C47" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="D47" s="189" t="s">
         <v>566</v>
-      </c>
-      <c r="D47" s="189" t="s">
-        <v>567</v>
       </c>
       <c r="E47" s="188"/>
       <c r="F47" s="117"/>
@@ -31918,13 +32025,13 @@
         <v>[Admin_login-38]</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C48" s="117" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D48" s="189" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E48" s="188"/>
       <c r="F48" s="188"/>
@@ -31939,13 +32046,13 @@
         <v>[Admin_login-39]</v>
       </c>
       <c r="B49" s="117" t="s">
+        <v>594</v>
+      </c>
+      <c r="C49" s="117" t="s">
+        <v>565</v>
+      </c>
+      <c r="D49" s="189" t="s">
         <v>595</v>
-      </c>
-      <c r="C49" s="117" t="s">
-        <v>566</v>
-      </c>
-      <c r="D49" s="189" t="s">
-        <v>596</v>
       </c>
       <c r="E49" s="188"/>
       <c r="F49" s="188"/>
@@ -31960,13 +32067,13 @@
         <v>[Admin_login-40]</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D50" s="189" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E50" s="188"/>
       <c r="F50" s="117"/>
@@ -31981,13 +32088,13 @@
         <v>[Admin_login-41]</v>
       </c>
       <c r="B51" s="117" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C51" s="117" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D51" s="189" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E51" s="188"/>
       <c r="F51" s="117"/>
@@ -32002,13 +32109,13 @@
         <v>[Admin_login-42]</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C52" s="117" t="s">
+        <v>589</v>
+      </c>
+      <c r="D52" s="189" t="s">
         <v>590</v>
-      </c>
-      <c r="D52" s="189" t="s">
-        <v>591</v>
       </c>
       <c r="E52" s="188"/>
       <c r="F52" s="117"/>
@@ -32020,7 +32127,7 @@
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
       <c r="A53" s="165"/>
       <c r="B53" s="186" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C53" s="185"/>
       <c r="D53" s="185"/>
@@ -32037,13 +32144,13 @@
         <v>[Admin_login-44]</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C54" s="117" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D54" s="189" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E54" s="188"/>
       <c r="F54" s="117"/>
@@ -32058,13 +32165,13 @@
         <v>[Admin_login-45]</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C55" s="117" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D55" s="189" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E55" s="188"/>
       <c r="F55" s="117"/>
@@ -32079,13 +32186,13 @@
         <v>[Admin_login-46]</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C56" s="117" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D56" s="189" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E56" s="188"/>
       <c r="F56" s="117"/>
@@ -32100,13 +32207,13 @@
         <v>[Admin_login-47]</v>
       </c>
       <c r="B57" s="117" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C57" s="117" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D57" s="189" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E57" s="188"/>
       <c r="F57" s="117"/>
@@ -32121,13 +32228,13 @@
         <v>[Admin_login-48]</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C58" s="117" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D58" s="189" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E58" s="188"/>
       <c r="F58" s="117"/>
@@ -32142,13 +32249,13 @@
         <v>[Admin_login-49]</v>
       </c>
       <c r="B59" s="117" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C59" s="117" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D59" s="189" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E59" s="188"/>
       <c r="F59" s="117"/>
@@ -32163,13 +32270,13 @@
         <v>[Admin_login-50]</v>
       </c>
       <c r="B60" s="117" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C60" s="117" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D60" s="189" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E60" s="188"/>
       <c r="F60" s="117"/>
@@ -32184,13 +32291,13 @@
         <v>[Admin_login-51]</v>
       </c>
       <c r="B61" s="117" t="s">
+        <v>607</v>
+      </c>
+      <c r="C61" s="117" t="s">
+        <v>614</v>
+      </c>
+      <c r="D61" s="189" t="s">
         <v>608</v>
-      </c>
-      <c r="C61" s="117" t="s">
-        <v>615</v>
-      </c>
-      <c r="D61" s="189" t="s">
-        <v>609</v>
       </c>
       <c r="E61" s="188"/>
       <c r="F61" s="117"/>
@@ -32205,13 +32312,13 @@
         <v>[Admin_login-52]</v>
       </c>
       <c r="B62" s="117" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C62" s="117" t="s">
+        <v>618</v>
+      </c>
+      <c r="D62" s="189" t="s">
         <v>619</v>
-      </c>
-      <c r="D62" s="189" t="s">
-        <v>620</v>
       </c>
       <c r="E62" s="188"/>
       <c r="F62" s="117"/>
@@ -32226,13 +32333,13 @@
         <v>[Admin_login-53]</v>
       </c>
       <c r="B63" s="117" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C63" s="117" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D63" s="189" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E63" s="188"/>
       <c r="F63" s="117"/>
@@ -32247,13 +32354,13 @@
         <v>[Admin_login-54]</v>
       </c>
       <c r="B64" s="117" t="s">
+        <v>624</v>
+      </c>
+      <c r="C64" s="117" t="s">
         <v>625</v>
       </c>
-      <c r="C64" s="117" t="s">
+      <c r="D64" s="189" t="s">
         <v>626</v>
-      </c>
-      <c r="D64" s="189" t="s">
-        <v>627</v>
       </c>
       <c r="E64" s="188"/>
       <c r="F64" s="117"/>
@@ -32268,13 +32375,13 @@
         <v>[Admin_login-55]</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C65" s="117" t="s">
+        <v>627</v>
+      </c>
+      <c r="D65" s="189" t="s">
         <v>628</v>
-      </c>
-      <c r="D65" s="189" t="s">
-        <v>629</v>
       </c>
       <c r="E65" s="168"/>
       <c r="F65" s="117"/>
@@ -32289,13 +32396,13 @@
         <v>[Admin_login-56]</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D66" s="189" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E66" s="168"/>
       <c r="F66" s="117"/>
@@ -32310,13 +32417,13 @@
         <v>[Admin_login-57]</v>
       </c>
       <c r="B67" s="117" t="s">
+        <v>632</v>
+      </c>
+      <c r="C67" s="117" t="s">
         <v>633</v>
       </c>
-      <c r="C67" s="117" t="s">
+      <c r="D67" s="189" t="s">
         <v>634</v>
-      </c>
-      <c r="D67" s="189" t="s">
-        <v>635</v>
       </c>
       <c r="E67" s="168"/>
       <c r="F67" s="117"/>
@@ -32331,13 +32438,13 @@
         <v>[Admin_login-58]</v>
       </c>
       <c r="B68" s="117" t="s">
+        <v>635</v>
+      </c>
+      <c r="C68" s="117" t="s">
         <v>636</v>
       </c>
-      <c r="C68" s="117" t="s">
-        <v>637</v>
-      </c>
       <c r="D68" s="189" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E68" s="168"/>
       <c r="F68" s="117"/>
@@ -32352,13 +32459,13 @@
         <v>[Admin_login-59]</v>
       </c>
       <c r="B69" s="117" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C69" s="117" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D69" s="189" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E69" s="168"/>
       <c r="F69" s="117"/>
@@ -32373,13 +32480,13 @@
         <v>[Admin_login-60]</v>
       </c>
       <c r="B70" s="117" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C70" s="117" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D70" s="189" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E70" s="168"/>
       <c r="F70" s="117"/>
@@ -32394,13 +32501,13 @@
         <v>[Admin_login-61]</v>
       </c>
       <c r="B71" s="117" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C71" s="117" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D71" s="189" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E71" s="168"/>
       <c r="F71" s="117"/>
@@ -32415,13 +32522,13 @@
         <v>[Admin_login-62]</v>
       </c>
       <c r="B72" s="117" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C72" s="117" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D72" s="189" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E72" s="168"/>
       <c r="F72" s="117"/>
@@ -32436,13 +32543,13 @@
         <v>[Admin_login-63]</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C73" s="117" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D73" s="189" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E73" s="168"/>
       <c r="F73" s="117"/>
@@ -32457,13 +32564,13 @@
         <v>[Admin_login-64]</v>
       </c>
       <c r="B74" s="117" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C74" s="117" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D74" s="189" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E74" s="168"/>
       <c r="F74" s="117"/>
@@ -32478,13 +32585,13 @@
         <v>[Admin_login-65]</v>
       </c>
       <c r="B75" s="117" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C75" s="117" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D75" s="189" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E75" s="168"/>
       <c r="F75" s="117"/>
@@ -32499,13 +32606,13 @@
         <v>[Admin_login-66]</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C76" s="117" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D76" s="189" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E76" s="168"/>
       <c r="F76" s="117"/>
@@ -32520,13 +32627,13 @@
         <v>[Admin_login-67]</v>
       </c>
       <c r="B77" s="117" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C77" s="117" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D77" s="189" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E77" s="168"/>
       <c r="F77" s="117"/>
@@ -32541,13 +32648,13 @@
         <v>[Admin_login-68]</v>
       </c>
       <c r="B78" s="117" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C78" s="117" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D78" s="189" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E78" s="168"/>
       <c r="F78" s="117"/>
@@ -32562,13 +32669,13 @@
         <v>[Admin_login-69]</v>
       </c>
       <c r="B79" s="117" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C79" s="117" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D79" s="189" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E79" s="168"/>
       <c r="F79" s="117"/>
@@ -32583,13 +32690,13 @@
         <v>[Admin_login-70]</v>
       </c>
       <c r="B80" s="117" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C80" s="117" t="s">
+        <v>663</v>
+      </c>
+      <c r="D80" s="189" t="s">
         <v>664</v>
-      </c>
-      <c r="D80" s="189" t="s">
-        <v>665</v>
       </c>
       <c r="E80" s="168"/>
       <c r="F80" s="117"/>

--- a/WIP/Documents/Report 3/WS_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Documents/Report 3/WS_Integration Test Case_v1.0_EN.xlsx
@@ -18,9 +18,10 @@
     <sheet name="Message Rules" sheetId="11" r:id="rId4"/>
     <sheet name="User_Function" sheetId="9" r:id="rId5"/>
     <sheet name="Admin_Function" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="12" state="hidden" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACTION" localSheetId="3">#REF!</definedName>
@@ -32,6 +33,7 @@
     <definedName name="Lỗi">#REF!</definedName>
     <definedName name="Pass">#REF!</definedName>
     <definedName name="Statistic" comment="fsfsdfs">#REF!</definedName>
+    <definedName name="TestList">Sheet1!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr calcId="152511" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
@@ -200,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="723">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -2057,12 +2059,6 @@
     <t>Edit Thread with delete all data in not-require field</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Go to wings.com
-2. Login with available account
-3. Click on "Thông tin tài khoản" -&gt; "Thảo luận"
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.The Homepage is displayed 
 2. Go to user homepage
 3. Created thread page displayed and status is Active
@@ -2072,14 +2068,6 @@
     <t xml:space="preserve">1.The Homepage is displayed 
 2. Go to user homepage
 3. Created thread page displayed and status is De-Active
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to wings.com
-2. Login with available account
-3. Click on "Thông tin tài khoản" -&gt; "Thảo luận"
-4. Click Edit
-5. Do no change data and click save
 </t>
   </si>
   <si>
@@ -3402,6 +3390,35 @@
 4. All input are displayed
 5. Create Organization successful and display waiting approve notice
 6. Recive emai accept from Admin
+</t>
+  </si>
+  <si>
+    <t>Untest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to wings.com
+2. Login with available account
+3. Click on "Thông tin tài khoản" -&gt; "Bài viết đã tạo"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The Homepage is displayed 
+2. Go to user homepage
+3. Created thread tab displayed and status is Active
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The Homepage is displayed 
+2. Go to user homepage
+3. Created thread tab displayed and status is De-Active
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to wings.com
+2. Login with available account
+3. Click on "Thông tin tài khoản" -&gt; "Bài viết đã tạo"
+4. Click Edit
+5. Do no change data and click save
 </t>
   </si>
 </sst>
@@ -6259,7 +6276,7 @@
       </c>
       <c r="D11" s="76">
         <f>User_Function!A6</f>
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="E11" s="76">
         <f>User_Function!B6</f>
@@ -6267,7 +6284,7 @@
       </c>
       <c r="F11" s="76">
         <f>User_Function!C6</f>
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="G11" s="76">
         <f>User_Function!D6</f>
@@ -6315,7 +6332,7 @@
       </c>
       <c r="D13" s="79">
         <f>SUM(D9:D12)</f>
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="E13" s="79">
         <f>SUM(E9:E12)</f>
@@ -6323,7 +6340,7 @@
       </c>
       <c r="F13" s="79">
         <f>SUM(F9:F12)</f>
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="G13" s="79">
         <f>SUM(G9:G12)</f>
@@ -6353,7 +6370,7 @@
       <c r="D15" s="70"/>
       <c r="E15" s="85">
         <f>(D13+E13)*100/(H13-G13)</f>
-        <v>34.841628959276015</v>
+        <v>40.271493212669682</v>
       </c>
       <c r="F15" s="70" t="s">
         <v>43</v>
@@ -6370,7 +6387,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="85">
         <f>D13*100/(H13-G13)</f>
-        <v>33.0316742081448</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="F16" s="70" t="s">
         <v>43</v>
@@ -6680,7 +6697,7 @@
         <v>109</v>
       </c>
       <c r="B30" s="161" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C30" s="161"/>
     </row>
@@ -6689,7 +6706,7 @@
         <v>110</v>
       </c>
       <c r="B31" s="161" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C31" s="161"/>
     </row>
@@ -6727,8 +6744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -8024,7 +8041,7 @@
     <row r="6" spans="1:252" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="130">
         <f>COUNTIF(F11:G340,"Pass")</f>
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B6" s="101">
         <f>COUNTIF(F11:G787,"Fail")</f>
@@ -8032,7 +8049,7 @@
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D6" s="102">
         <f>COUNTIF(F11:G787,"N/A")</f>
@@ -12159,10 +12176,10 @@
         <v>114</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D22" s="91" t="s">
         <v>264</v>
@@ -12420,13 +12437,13 @@
         <v>115</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E23" s="146"/>
       <c r="F23" s="117" t="s">
@@ -12681,13 +12698,13 @@
         <v>116</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C24" s="91" t="s">
+        <v>671</v>
+      </c>
+      <c r="D24" s="91" t="s">
         <v>673</v>
-      </c>
-      <c r="D24" s="91" t="s">
-        <v>675</v>
       </c>
       <c r="E24" s="146"/>
       <c r="F24" s="117" t="s">
@@ -12942,10 +12959,10 @@
         <v>117</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D25" s="91" t="s">
         <v>359</v>
@@ -13203,10 +13220,10 @@
         <v>266</v>
       </c>
       <c r="B26" s="91" t="s">
+        <v>669</v>
+      </c>
+      <c r="C26" s="91" t="s">
         <v>671</v>
-      </c>
-      <c r="C26" s="91" t="s">
-        <v>673</v>
       </c>
       <c r="D26" s="91" t="s">
         <v>360</v>
@@ -13464,13 +13481,13 @@
         <v>267</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E27" s="146"/>
       <c r="F27" s="117" t="s">
@@ -13725,13 +13742,13 @@
         <v>268</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C28" s="91" t="s">
         <v>259</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E28" s="146"/>
       <c r="F28" s="117" t="s">
@@ -13986,7 +14003,7 @@
         <v>269</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C29" s="91" t="s">
         <v>259</v>
@@ -14247,7 +14264,7 @@
         <v>367</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C30" s="91" t="s">
         <v>259</v>
@@ -14508,7 +14525,7 @@
         <v>368</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C31" s="91" t="s">
         <v>259</v>
@@ -14769,7 +14786,7 @@
         <v>369</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C32" s="91" t="s">
         <v>260</v>
@@ -15030,13 +15047,13 @@
         <v>370</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C33" s="91" t="s">
         <v>260</v>
       </c>
       <c r="D33" s="91" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E33" s="146"/>
       <c r="F33" s="117" t="s">
@@ -15291,7 +15308,7 @@
         <v>371</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C34" s="91" t="s">
         <v>260</v>
@@ -15552,7 +15569,7 @@
         <v>372</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C35" s="91" t="s">
         <v>260</v>
@@ -15813,7 +15830,7 @@
         <v>373</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C36" s="91" t="s">
         <v>260</v>
@@ -16074,7 +16091,7 @@
         <v>374</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C37" s="91" t="s">
         <v>265</v>
@@ -16335,13 +16352,13 @@
         <v>375</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C38" s="91" t="s">
         <v>265</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E38" s="146"/>
       <c r="F38" s="117" t="s">
@@ -16596,7 +16613,7 @@
         <v>376</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C39" s="91" t="s">
         <v>364</v>
@@ -16857,7 +16874,7 @@
         <v>377</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C40" s="91" t="s">
         <v>364</v>
@@ -17118,7 +17135,7 @@
         <v>378</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C41" s="91" t="s">
         <v>364</v>
@@ -17379,7 +17396,7 @@
         <v>379</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C42" s="91" t="s">
         <v>261</v>
@@ -17640,13 +17657,13 @@
         <v>380</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C43" s="91" t="s">
         <v>365</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E43" s="146"/>
       <c r="F43" s="117" t="s">
@@ -17901,7 +17918,7 @@
         <v>381</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C44" s="91" t="s">
         <v>365</v>
@@ -18162,7 +18179,7 @@
         <v>382</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C45" s="91" t="s">
         <v>365</v>
@@ -18423,7 +18440,7 @@
         <v>383</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C46" s="91" t="s">
         <v>365</v>
@@ -18684,7 +18701,7 @@
         <v>384</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C47" s="91" t="s">
         <v>270</v>
@@ -18945,7 +18962,7 @@
         <v>385</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C48" s="91" t="s">
         <v>272</v>
@@ -19206,7 +19223,7 @@
         <v>386</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C49" s="91" t="s">
         <v>366</v>
@@ -19467,7 +19484,7 @@
         <v>387</v>
       </c>
       <c r="B50" s="91" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C50" s="91" t="s">
         <v>366</v>
@@ -24188,7 +24205,7 @@
         <v>241</v>
       </c>
       <c r="D68" s="136" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E68" s="91"/>
       <c r="F68" s="117" t="s">
@@ -26849,10 +26866,10 @@
         <v>68</v>
       </c>
       <c r="C78" s="91" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E78" s="91"/>
       <c r="F78" s="117" t="s">
@@ -28889,7 +28906,7 @@
     <row r="86" spans="1:245" ht="14.25" customHeight="1">
       <c r="A86" s="223"/>
       <c r="B86" s="223" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C86" s="224"/>
       <c r="D86" s="224"/>
@@ -28936,10 +28953,10 @@
         <v>285</v>
       </c>
       <c r="C88" s="106" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D88" s="104" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E88" s="167"/>
       <c r="F88" s="117" t="s">
@@ -28963,7 +28980,7 @@
         <v>389</v>
       </c>
       <c r="C89" s="106" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D89" s="104" t="s">
         <v>390</v>
@@ -28990,7 +29007,7 @@
         <v>391</v>
       </c>
       <c r="C90" s="106" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D90" s="104" t="s">
         <v>392</v>
@@ -29014,13 +29031,13 @@
         <v>[User_login-81]</v>
       </c>
       <c r="B91" s="91" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C91" s="106" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D91" s="104" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E91" s="167"/>
       <c r="F91" s="117" t="s">
@@ -29041,10 +29058,10 @@
         <v>[User_login-82]</v>
       </c>
       <c r="B92" s="91" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C92" s="106" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D92" s="104" t="s">
         <v>392</v>
@@ -29068,13 +29085,13 @@
         <v>[User_login-83]</v>
       </c>
       <c r="B93" s="91" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C93" s="106" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D93" s="104" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E93" s="167"/>
       <c r="F93" s="117" t="s">
@@ -29095,13 +29112,13 @@
         <v>[User_login-84]</v>
       </c>
       <c r="B94" s="91" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C94" s="106" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D94" s="104" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E94" s="167"/>
       <c r="F94" s="117" t="s">
@@ -29253,7 +29270,7 @@
         <v>419</v>
       </c>
       <c r="D100" s="117" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E100" s="163"/>
       <c r="F100" s="117" t="s">
@@ -29280,11 +29297,15 @@
         <v>421</v>
       </c>
       <c r="D101" s="117" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E101" s="163"/>
-      <c r="F101" s="117"/>
-      <c r="G101" s="117"/>
+      <c r="F101" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H101" s="112">
         <v>42412</v>
       </c>
@@ -29306,8 +29327,12 @@
         <v>426</v>
       </c>
       <c r="E102" s="163"/>
-      <c r="F102" s="117"/>
-      <c r="G102" s="117"/>
+      <c r="F102" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H102" s="112">
         <v>42412</v>
       </c>
@@ -29329,8 +29354,12 @@
         <v>427</v>
       </c>
       <c r="E103" s="163"/>
-      <c r="F103" s="117"/>
-      <c r="G103" s="117"/>
+      <c r="F103" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H103" s="112">
         <v>42412</v>
       </c>
@@ -29352,8 +29381,12 @@
         <v>430</v>
       </c>
       <c r="E104" s="163"/>
-      <c r="F104" s="117"/>
-      <c r="G104" s="117"/>
+      <c r="F104" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H104" s="112">
         <v>42412</v>
       </c>
@@ -29375,8 +29408,12 @@
         <v>433</v>
       </c>
       <c r="E105" s="163"/>
-      <c r="F105" s="117"/>
-      <c r="G105" s="117"/>
+      <c r="F105" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H105" s="112">
         <v>42412</v>
       </c>
@@ -29398,8 +29435,12 @@
         <v>436</v>
       </c>
       <c r="E106" s="163"/>
-      <c r="F106" s="117"/>
-      <c r="G106" s="117"/>
+      <c r="F106" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H106" s="112">
         <v>42412</v>
       </c>
@@ -29421,8 +29462,12 @@
         <v>433</v>
       </c>
       <c r="E107" s="163"/>
-      <c r="F107" s="117"/>
-      <c r="G107" s="117"/>
+      <c r="F107" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H107" s="112">
         <v>42412</v>
       </c>
@@ -29442,9 +29487,7 @@
       <c r="E108" s="231"/>
       <c r="F108" s="231"/>
       <c r="G108" s="231"/>
-      <c r="H108" s="112">
-        <v>42412</v>
-      </c>
+      <c r="H108" s="112"/>
       <c r="I108" s="231"/>
       <c r="J108" s="105"/>
     </row>
@@ -29463,8 +29506,12 @@
         <v>297</v>
       </c>
       <c r="E109" s="163"/>
-      <c r="F109" s="117"/>
-      <c r="G109" s="117"/>
+      <c r="F109" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H109" s="112">
         <v>42412</v>
       </c>
@@ -29486,8 +29533,12 @@
         <v>298</v>
       </c>
       <c r="E110" s="163"/>
-      <c r="F110" s="117"/>
-      <c r="G110" s="117"/>
+      <c r="F110" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H110" s="112">
         <v>42412</v>
       </c>
@@ -29509,8 +29560,12 @@
         <v>321</v>
       </c>
       <c r="E111" s="163"/>
-      <c r="F111" s="117"/>
-      <c r="G111" s="117"/>
+      <c r="F111" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H111" s="112">
         <v>42412</v>
       </c>
@@ -29526,14 +29581,18 @@
         <v>440</v>
       </c>
       <c r="C112" s="166" t="s">
-        <v>446</v>
+        <v>719</v>
       </c>
       <c r="D112" s="117" t="s">
-        <v>447</v>
+        <v>720</v>
       </c>
       <c r="E112" s="163"/>
-      <c r="F112" s="117"/>
-      <c r="G112" s="117"/>
+      <c r="F112" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H112" s="112">
         <v>42412</v>
       </c>
@@ -29549,14 +29608,18 @@
         <v>441</v>
       </c>
       <c r="C113" s="166" t="s">
-        <v>446</v>
+        <v>719</v>
       </c>
       <c r="D113" s="117" t="s">
-        <v>448</v>
+        <v>721</v>
       </c>
       <c r="E113" s="163"/>
-      <c r="F113" s="117"/>
-      <c r="G113" s="117"/>
+      <c r="F113" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H113" s="112">
         <v>42412</v>
       </c>
@@ -29572,10 +29635,10 @@
         <v>442</v>
       </c>
       <c r="C114" s="166" t="s">
-        <v>449</v>
+        <v>722</v>
       </c>
       <c r="D114" s="117" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E114" s="163"/>
       <c r="F114" s="117"/>
@@ -29595,10 +29658,10 @@
         <v>443</v>
       </c>
       <c r="C115" s="166" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D115" s="117" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E115" s="163"/>
       <c r="F115" s="117"/>
@@ -29618,10 +29681,10 @@
         <v>444</v>
       </c>
       <c r="C116" s="166" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D116" s="117" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E116" s="163"/>
       <c r="F116" s="117"/>
@@ -29641,10 +29704,10 @@
         <v>445</v>
       </c>
       <c r="C117" s="166" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D117" s="117" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E117" s="163"/>
       <c r="F117" s="117"/>
@@ -29661,7 +29724,7 @@
         <v>[User_login-108]</v>
       </c>
       <c r="B118" s="223" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C118" s="231"/>
       <c r="D118" s="231"/>
@@ -29749,13 +29812,13 @@
         <v>[User_login-112]</v>
       </c>
       <c r="B122" s="175" t="s">
+        <v>455</v>
+      </c>
+      <c r="C122" s="166" t="s">
+        <v>456</v>
+      </c>
+      <c r="D122" s="117" t="s">
         <v>457</v>
-      </c>
-      <c r="C122" s="166" t="s">
-        <v>458</v>
-      </c>
-      <c r="D122" s="117" t="s">
-        <v>459</v>
       </c>
       <c r="E122" s="163"/>
       <c r="F122" s="117"/>
@@ -29772,13 +29835,13 @@
         <v>[User_login-113]</v>
       </c>
       <c r="B123" s="175" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C123" s="166" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D123" s="117" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E123" s="163"/>
       <c r="F123" s="117"/>
@@ -29795,13 +29858,13 @@
         <v>[User_login-114]</v>
       </c>
       <c r="B124" s="175" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C124" s="166" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D124" s="117" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E124" s="163"/>
       <c r="F124" s="117"/>
@@ -29818,13 +29881,13 @@
         <v>[User_login-115]</v>
       </c>
       <c r="B125" s="175" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C125" s="166" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D125" s="117" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E125" s="163"/>
       <c r="F125" s="117"/>
@@ -29841,13 +29904,13 @@
         <v>[User_login-116]</v>
       </c>
       <c r="B126" s="175" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C126" s="166" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D126" s="117" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E126" s="163"/>
       <c r="F126" s="117"/>
@@ -29864,13 +29927,13 @@
         <v>[User_login-117]</v>
       </c>
       <c r="B127" s="175" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C127" s="166" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E127" s="163"/>
       <c r="F127" s="117"/>
@@ -29887,13 +29950,13 @@
         <v>[User_login-118]</v>
       </c>
       <c r="B128" s="175" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C128" s="166" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D128" s="117" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E128" s="163"/>
       <c r="F128" s="117"/>
@@ -29910,13 +29973,13 @@
         <v>[User_login-119]</v>
       </c>
       <c r="B129" s="175" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C129" s="166" t="s">
+        <v>472</v>
+      </c>
+      <c r="D129" s="117" t="s">
         <v>474</v>
-      </c>
-      <c r="D129" s="117" t="s">
-        <v>476</v>
       </c>
       <c r="E129" s="163"/>
       <c r="F129" s="117"/>
@@ -29933,7 +29996,7 @@
         <v>[User_login-120]</v>
       </c>
       <c r="B130" s="223" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C130" s="231"/>
       <c r="D130" s="231"/>
@@ -29952,13 +30015,13 @@
         <v>[User_login-121]</v>
       </c>
       <c r="B131" s="175" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C131" s="166" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D131" s="117" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E131" s="163"/>
       <c r="F131" s="117"/>
@@ -29975,13 +30038,13 @@
         <v>[User_login-122]</v>
       </c>
       <c r="B132" s="175" t="s">
+        <v>490</v>
+      </c>
+      <c r="C132" s="166" t="s">
         <v>492</v>
       </c>
-      <c r="C132" s="166" t="s">
-        <v>494</v>
-      </c>
       <c r="D132" s="117" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E132" s="163"/>
       <c r="F132" s="117"/>
@@ -29998,13 +30061,13 @@
         <v>[User_login-123]</v>
       </c>
       <c r="B133" s="117" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C133" s="117" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D133" s="117" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E133" s="163"/>
       <c r="F133" s="117"/>
@@ -30021,13 +30084,13 @@
         <v>[User_login-124]</v>
       </c>
       <c r="B134" s="117" t="s">
+        <v>493</v>
+      </c>
+      <c r="C134" s="117" t="s">
         <v>495</v>
       </c>
-      <c r="C134" s="117" t="s">
-        <v>497</v>
-      </c>
       <c r="D134" s="117" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E134" s="163"/>
       <c r="F134" s="117"/>
@@ -30044,13 +30107,13 @@
         <v>[User_login-125]</v>
       </c>
       <c r="B135" s="117" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C135" s="117" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D135" s="117" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E135" s="163"/>
       <c r="F135" s="117"/>
@@ -30065,13 +30128,13 @@
         <v>[User_login-126]</v>
       </c>
       <c r="B136" s="117" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C136" s="117" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D136" s="117" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E136" s="163"/>
       <c r="F136" s="117"/>
@@ -30086,13 +30149,13 @@
         <v>[User_login-127]</v>
       </c>
       <c r="B137" s="117" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C137" s="117" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D137" s="117" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E137" s="163"/>
       <c r="F137" s="117"/>
@@ -30107,13 +30170,13 @@
         <v>[User_login-128]</v>
       </c>
       <c r="B138" s="117" t="s">
+        <v>494</v>
+      </c>
+      <c r="C138" s="117" t="s">
+        <v>498</v>
+      </c>
+      <c r="D138" s="117" t="s">
         <v>496</v>
-      </c>
-      <c r="C138" s="117" t="s">
-        <v>500</v>
-      </c>
-      <c r="D138" s="117" t="s">
-        <v>498</v>
       </c>
       <c r="E138" s="163"/>
       <c r="F138" s="117"/>
@@ -30128,13 +30191,13 @@
         <v>[User_login-129]</v>
       </c>
       <c r="B139" s="117" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C139" s="117" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D139" s="117" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E139" s="163"/>
       <c r="F139" s="117"/>
@@ -30149,13 +30212,13 @@
         <v>[User_login-130]</v>
       </c>
       <c r="B140" s="117" t="s">
+        <v>505</v>
+      </c>
+      <c r="C140" s="117" t="s">
+        <v>506</v>
+      </c>
+      <c r="D140" s="117" t="s">
         <v>507</v>
-      </c>
-      <c r="C140" s="117" t="s">
-        <v>508</v>
-      </c>
-      <c r="D140" s="117" t="s">
-        <v>509</v>
       </c>
       <c r="E140" s="163"/>
       <c r="F140" s="117"/>
@@ -30170,13 +30233,13 @@
         <v>[User_login-131]</v>
       </c>
       <c r="B141" s="117" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C141" s="117" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D141" s="117" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E141" s="163"/>
       <c r="F141" s="117"/>
@@ -30191,13 +30254,13 @@
         <v>[User_login-132]</v>
       </c>
       <c r="B142" s="117" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C142" s="117" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D142" s="117" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E142" s="178"/>
       <c r="F142" s="117"/>
@@ -30272,7 +30335,7 @@
         <v>[User_login-137]</v>
       </c>
       <c r="B147" s="223" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C147" s="231"/>
       <c r="D147" s="231"/>
@@ -30289,13 +30352,13 @@
         <v>[User_login-138]</v>
       </c>
       <c r="B148" s="175" t="s">
+        <v>514</v>
+      </c>
+      <c r="C148" s="117" t="s">
+        <v>515</v>
+      </c>
+      <c r="D148" s="117" t="s">
         <v>516</v>
-      </c>
-      <c r="C148" s="117" t="s">
-        <v>517</v>
-      </c>
-      <c r="D148" s="117" t="s">
-        <v>518</v>
       </c>
       <c r="E148" s="163"/>
       <c r="F148" s="117"/>
@@ -30310,13 +30373,13 @@
         <v>[User_login-139]</v>
       </c>
       <c r="B149" s="175" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C149" s="117" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D149" s="117" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E149" s="163"/>
       <c r="F149" s="117"/>
@@ -30331,13 +30394,13 @@
         <v>[User_login-140]</v>
       </c>
       <c r="B150" s="175" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C150" s="117" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D150" s="117" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E150" s="163"/>
       <c r="F150" s="117"/>
@@ -30352,13 +30415,13 @@
         <v>[User_login-141]</v>
       </c>
       <c r="B151" s="175" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C151" s="117" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D151" s="117" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E151" s="163"/>
       <c r="F151" s="117"/>
@@ -30373,13 +30436,13 @@
         <v>[User_login-142]</v>
       </c>
       <c r="B152" s="175" t="s">
+        <v>523</v>
+      </c>
+      <c r="C152" s="117" t="s">
+        <v>524</v>
+      </c>
+      <c r="D152" s="117" t="s">
         <v>525</v>
-      </c>
-      <c r="C152" s="117" t="s">
-        <v>526</v>
-      </c>
-      <c r="D152" s="117" t="s">
-        <v>527</v>
       </c>
       <c r="E152" s="163"/>
       <c r="F152" s="117"/>
@@ -30394,7 +30457,7 @@
         <v>[User_login-143]</v>
       </c>
       <c r="B153" s="223" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C153" s="231"/>
       <c r="D153" s="231"/>
@@ -30411,13 +30474,13 @@
         <v>[User_login-144]</v>
       </c>
       <c r="B154" s="175" t="s">
+        <v>528</v>
+      </c>
+      <c r="C154" s="117" t="s">
+        <v>529</v>
+      </c>
+      <c r="D154" s="117" t="s">
         <v>530</v>
-      </c>
-      <c r="C154" s="117" t="s">
-        <v>531</v>
-      </c>
-      <c r="D154" s="117" t="s">
-        <v>532</v>
       </c>
       <c r="E154" s="118"/>
       <c r="F154" s="117"/>
@@ -30432,13 +30495,13 @@
         <v>[User_login-145]</v>
       </c>
       <c r="B155" s="175" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C155" s="117" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D155" s="117" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E155" s="118"/>
       <c r="F155" s="117"/>
@@ -30453,13 +30516,13 @@
         <v>[User_login-146]</v>
       </c>
       <c r="B156" s="175" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C156" s="117" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D156" s="117" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E156" s="118"/>
       <c r="F156" s="117"/>
@@ -30474,13 +30537,13 @@
         <v>[User_login-147]</v>
       </c>
       <c r="B157" s="175" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C157" s="117" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D157" s="117" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E157" s="118"/>
       <c r="F157" s="117"/>
@@ -30495,13 +30558,13 @@
         <v>[User_login-148]</v>
       </c>
       <c r="B158" s="175" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C158" s="117" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D158" s="117" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E158" s="118"/>
       <c r="F158" s="117"/>
@@ -30516,13 +30579,13 @@
         <v>[User_login-149]</v>
       </c>
       <c r="B159" s="243" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C159" s="117" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D159" s="117" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E159" s="118"/>
       <c r="F159" s="117"/>
@@ -30876,13 +30939,13 @@
         <v>ID-154</v>
       </c>
       <c r="B175" s="117" t="s">
+        <v>697</v>
+      </c>
+      <c r="C175" s="117" t="s">
+        <v>698</v>
+      </c>
+      <c r="D175" s="117" t="s">
         <v>699</v>
-      </c>
-      <c r="C175" s="117" t="s">
-        <v>700</v>
-      </c>
-      <c r="D175" s="117" t="s">
-        <v>701</v>
       </c>
       <c r="E175" s="117"/>
       <c r="F175" s="117"/>
@@ -31097,7 +31160,7 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G6"/>
+      <selection activeCell="G12" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -31302,8 +31365,12 @@
         <v>299</v>
       </c>
       <c r="E12" s="180"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
+      <c r="F12" s="117" t="s">
+        <v>718</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>29</v>
+      </c>
       <c r="H12" s="183"/>
       <c r="I12" s="181"/>
     </row>
@@ -31471,7 +31538,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="185"/>
       <c r="B21" s="186" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C21" s="185"/>
       <c r="D21" s="185"/>
@@ -31554,7 +31621,7 @@
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
       <c r="A25" s="185"/>
       <c r="B25" s="186" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C25" s="185"/>
       <c r="D25" s="185"/>
@@ -31634,13 +31701,13 @@
         <v>[Admin_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
+        <v>573</v>
+      </c>
+      <c r="C29" s="117" t="s">
         <v>575</v>
       </c>
-      <c r="C29" s="117" t="s">
+      <c r="D29" s="189" t="s">
         <v>577</v>
-      </c>
-      <c r="D29" s="189" t="s">
-        <v>579</v>
       </c>
       <c r="E29" s="188"/>
       <c r="F29" s="117"/>
@@ -31655,13 +31722,13 @@
         <v>[Admin_login-20]</v>
       </c>
       <c r="B30" s="117" t="s">
+        <v>574</v>
+      </c>
+      <c r="C30" s="117" t="s">
         <v>576</v>
       </c>
-      <c r="C30" s="117" t="s">
+      <c r="D30" s="189" t="s">
         <v>578</v>
-      </c>
-      <c r="D30" s="189" t="s">
-        <v>580</v>
       </c>
       <c r="E30" s="188"/>
       <c r="F30" s="117"/>
@@ -31676,7 +31743,7 @@
         <v>[Admin_login-21]</v>
       </c>
       <c r="B31" s="186" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C31" s="185"/>
       <c r="D31" s="185"/>
@@ -31693,13 +31760,13 @@
         <v>[Admin_login-22]</v>
       </c>
       <c r="B32" s="117" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C32" s="117" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D32" s="189" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E32" s="188"/>
       <c r="F32" s="117"/>
@@ -31714,13 +31781,13 @@
         <v>[Admin_login-23]</v>
       </c>
       <c r="B33" s="117" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C33" s="117" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D33" s="189" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E33" s="188"/>
       <c r="F33" s="117"/>
@@ -31735,13 +31802,13 @@
         <v>[Admin_login-24]</v>
       </c>
       <c r="B34" s="117" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C34" s="117" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D34" s="189" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E34" s="188"/>
       <c r="F34" s="117"/>
@@ -31756,13 +31823,13 @@
         <v>[Admin_login-25]</v>
       </c>
       <c r="B35" s="117" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C35" s="117" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D35" s="189" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E35" s="188"/>
       <c r="F35" s="117"/>
@@ -31777,13 +31844,13 @@
         <v>[Admin_login-26]</v>
       </c>
       <c r="B36" s="117" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C36" s="117" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D36" s="189" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E36" s="188"/>
       <c r="F36" s="117"/>
@@ -31798,13 +31865,13 @@
         <v>[Admin_login-27]</v>
       </c>
       <c r="B37" s="117" t="s">
+        <v>551</v>
+      </c>
+      <c r="C37" s="117" t="s">
+        <v>552</v>
+      </c>
+      <c r="D37" s="189" t="s">
         <v>553</v>
-      </c>
-      <c r="C37" s="117" t="s">
-        <v>554</v>
-      </c>
-      <c r="D37" s="189" t="s">
-        <v>555</v>
       </c>
       <c r="E37" s="188"/>
       <c r="F37" s="117"/>
@@ -31819,13 +31886,13 @@
         <v>[Admin_login-28]</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C38" s="117" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D38" s="189" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E38" s="188"/>
       <c r="F38" s="117"/>
@@ -31840,13 +31907,13 @@
         <v>[Admin_login-29]</v>
       </c>
       <c r="B39" s="117" t="s">
+        <v>580</v>
+      </c>
+      <c r="C39" s="117" t="s">
+        <v>581</v>
+      </c>
+      <c r="D39" s="189" t="s">
         <v>582</v>
-      </c>
-      <c r="C39" s="117" t="s">
-        <v>583</v>
-      </c>
-      <c r="D39" s="189" t="s">
-        <v>584</v>
       </c>
       <c r="E39" s="188"/>
       <c r="F39" s="117"/>
@@ -31861,13 +31928,13 @@
         <v>[Admin_login-30]</v>
       </c>
       <c r="B40" s="117" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C40" s="117" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D40" s="189" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E40" s="188"/>
       <c r="F40" s="117"/>
@@ -31882,7 +31949,7 @@
         <v>[Admin_login-31]</v>
       </c>
       <c r="B41" s="186" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C41" s="185"/>
       <c r="D41" s="185"/>
@@ -31899,13 +31966,13 @@
         <v>[Admin_login-32]</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C42" s="117" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D42" s="189" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E42" s="188"/>
       <c r="F42" s="117"/>
@@ -31920,13 +31987,13 @@
         <v>[Admin_login-33]</v>
       </c>
       <c r="B43" s="117" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C43" s="117" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D43" s="189" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E43" s="188"/>
       <c r="F43" s="117"/>
@@ -31941,13 +32008,13 @@
         <v>[Admin_login-34]</v>
       </c>
       <c r="B44" s="117" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C44" s="117" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D44" s="189" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E44" s="188"/>
       <c r="F44" s="117"/>
@@ -31962,13 +32029,13 @@
         <v>[Admin_login-35]</v>
       </c>
       <c r="B45" s="117" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C45" s="117" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D45" s="189" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E45" s="188"/>
       <c r="F45" s="117"/>
@@ -31983,13 +32050,13 @@
         <v>[Admin_login-36]</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C46" s="117" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D46" s="189" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E46" s="188"/>
       <c r="F46" s="117"/>
@@ -32004,13 +32071,13 @@
         <v>[Admin_login-37]</v>
       </c>
       <c r="B47" s="117" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C47" s="117" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D47" s="189" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E47" s="188"/>
       <c r="F47" s="117"/>
@@ -32025,13 +32092,13 @@
         <v>[Admin_login-38]</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C48" s="117" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D48" s="189" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E48" s="188"/>
       <c r="F48" s="188"/>
@@ -32046,13 +32113,13 @@
         <v>[Admin_login-39]</v>
       </c>
       <c r="B49" s="117" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C49" s="117" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D49" s="189" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E49" s="188"/>
       <c r="F49" s="188"/>
@@ -32067,13 +32134,13 @@
         <v>[Admin_login-40]</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D50" s="189" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E50" s="188"/>
       <c r="F50" s="117"/>
@@ -32088,13 +32155,13 @@
         <v>[Admin_login-41]</v>
       </c>
       <c r="B51" s="117" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C51" s="117" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D51" s="189" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E51" s="188"/>
       <c r="F51" s="117"/>
@@ -32109,13 +32176,13 @@
         <v>[Admin_login-42]</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C52" s="117" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D52" s="189" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E52" s="188"/>
       <c r="F52" s="117"/>
@@ -32127,7 +32194,7 @@
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
       <c r="A53" s="165"/>
       <c r="B53" s="186" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C53" s="185"/>
       <c r="D53" s="185"/>
@@ -32144,13 +32211,13 @@
         <v>[Admin_login-44]</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C54" s="117" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D54" s="189" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E54" s="188"/>
       <c r="F54" s="117"/>
@@ -32165,13 +32232,13 @@
         <v>[Admin_login-45]</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C55" s="117" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D55" s="189" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E55" s="188"/>
       <c r="F55" s="117"/>
@@ -32186,13 +32253,13 @@
         <v>[Admin_login-46]</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C56" s="117" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D56" s="189" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E56" s="188"/>
       <c r="F56" s="117"/>
@@ -32207,13 +32274,13 @@
         <v>[Admin_login-47]</v>
       </c>
       <c r="B57" s="117" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C57" s="117" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D57" s="189" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E57" s="188"/>
       <c r="F57" s="117"/>
@@ -32228,13 +32295,13 @@
         <v>[Admin_login-48]</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C58" s="117" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D58" s="189" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E58" s="188"/>
       <c r="F58" s="117"/>
@@ -32249,13 +32316,13 @@
         <v>[Admin_login-49]</v>
       </c>
       <c r="B59" s="117" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C59" s="117" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D59" s="189" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E59" s="188"/>
       <c r="F59" s="117"/>
@@ -32270,13 +32337,13 @@
         <v>[Admin_login-50]</v>
       </c>
       <c r="B60" s="117" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C60" s="117" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D60" s="189" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E60" s="188"/>
       <c r="F60" s="117"/>
@@ -32291,13 +32358,13 @@
         <v>[Admin_login-51]</v>
       </c>
       <c r="B61" s="117" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C61" s="117" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D61" s="189" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E61" s="188"/>
       <c r="F61" s="117"/>
@@ -32312,13 +32379,13 @@
         <v>[Admin_login-52]</v>
       </c>
       <c r="B62" s="117" t="s">
+        <v>614</v>
+      </c>
+      <c r="C62" s="117" t="s">
         <v>616</v>
       </c>
-      <c r="C62" s="117" t="s">
-        <v>618</v>
-      </c>
       <c r="D62" s="189" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E62" s="188"/>
       <c r="F62" s="117"/>
@@ -32333,13 +32400,13 @@
         <v>[Admin_login-53]</v>
       </c>
       <c r="B63" s="117" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C63" s="117" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D63" s="189" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E63" s="188"/>
       <c r="F63" s="117"/>
@@ -32354,13 +32421,13 @@
         <v>[Admin_login-54]</v>
       </c>
       <c r="B64" s="117" t="s">
+        <v>622</v>
+      </c>
+      <c r="C64" s="117" t="s">
+        <v>623</v>
+      </c>
+      <c r="D64" s="189" t="s">
         <v>624</v>
-      </c>
-      <c r="C64" s="117" t="s">
-        <v>625</v>
-      </c>
-      <c r="D64" s="189" t="s">
-        <v>626</v>
       </c>
       <c r="E64" s="188"/>
       <c r="F64" s="117"/>
@@ -32375,13 +32442,13 @@
         <v>[Admin_login-55]</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C65" s="117" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D65" s="189" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E65" s="168"/>
       <c r="F65" s="117"/>
@@ -32396,13 +32463,13 @@
         <v>[Admin_login-56]</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C66" s="117" t="s">
+        <v>625</v>
+      </c>
+      <c r="D66" s="189" t="s">
         <v>627</v>
-      </c>
-      <c r="D66" s="189" t="s">
-        <v>629</v>
       </c>
       <c r="E66" s="168"/>
       <c r="F66" s="117"/>
@@ -32417,13 +32484,13 @@
         <v>[Admin_login-57]</v>
       </c>
       <c r="B67" s="117" t="s">
+        <v>630</v>
+      </c>
+      <c r="C67" s="117" t="s">
+        <v>631</v>
+      </c>
+      <c r="D67" s="189" t="s">
         <v>632</v>
-      </c>
-      <c r="C67" s="117" t="s">
-        <v>633</v>
-      </c>
-      <c r="D67" s="189" t="s">
-        <v>634</v>
       </c>
       <c r="E67" s="168"/>
       <c r="F67" s="117"/>
@@ -32438,13 +32505,13 @@
         <v>[Admin_login-58]</v>
       </c>
       <c r="B68" s="117" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C68" s="117" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D68" s="189" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E68" s="168"/>
       <c r="F68" s="117"/>
@@ -32459,13 +32526,13 @@
         <v>[Admin_login-59]</v>
       </c>
       <c r="B69" s="117" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C69" s="117" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D69" s="189" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E69" s="168"/>
       <c r="F69" s="117"/>
@@ -32480,13 +32547,13 @@
         <v>[Admin_login-60]</v>
       </c>
       <c r="B70" s="117" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C70" s="117" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D70" s="189" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E70" s="168"/>
       <c r="F70" s="117"/>
@@ -32501,13 +32568,13 @@
         <v>[Admin_login-61]</v>
       </c>
       <c r="B71" s="117" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C71" s="117" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D71" s="189" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E71" s="168"/>
       <c r="F71" s="117"/>
@@ -32522,13 +32589,13 @@
         <v>[Admin_login-62]</v>
       </c>
       <c r="B72" s="117" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C72" s="117" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D72" s="189" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E72" s="168"/>
       <c r="F72" s="117"/>
@@ -32543,13 +32610,13 @@
         <v>[Admin_login-63]</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C73" s="117" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D73" s="189" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E73" s="168"/>
       <c r="F73" s="117"/>
@@ -32564,13 +32631,13 @@
         <v>[Admin_login-64]</v>
       </c>
       <c r="B74" s="117" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C74" s="117" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D74" s="189" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E74" s="168"/>
       <c r="F74" s="117"/>
@@ -32585,13 +32652,13 @@
         <v>[Admin_login-65]</v>
       </c>
       <c r="B75" s="117" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C75" s="117" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D75" s="189" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E75" s="168"/>
       <c r="F75" s="117"/>
@@ -32606,13 +32673,13 @@
         <v>[Admin_login-66]</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C76" s="117" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D76" s="189" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E76" s="168"/>
       <c r="F76" s="117"/>
@@ -32627,13 +32694,13 @@
         <v>[Admin_login-67]</v>
       </c>
       <c r="B77" s="117" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C77" s="117" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D77" s="189" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E77" s="168"/>
       <c r="F77" s="117"/>
@@ -32648,13 +32715,13 @@
         <v>[Admin_login-68]</v>
       </c>
       <c r="B78" s="117" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C78" s="117" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D78" s="189" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E78" s="168"/>
       <c r="F78" s="117"/>
@@ -32669,13 +32736,13 @@
         <v>[Admin_login-69]</v>
       </c>
       <c r="B79" s="117" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C79" s="117" t="s">
+        <v>660</v>
+      </c>
+      <c r="D79" s="189" t="s">
         <v>662</v>
-      </c>
-      <c r="D79" s="189" t="s">
-        <v>664</v>
       </c>
       <c r="E79" s="168"/>
       <c r="F79" s="117"/>
@@ -32690,13 +32757,13 @@
         <v>[Admin_login-70]</v>
       </c>
       <c r="B80" s="117" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C80" s="117" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D80" s="189" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E80" s="168"/>
       <c r="F80" s="117"/>
@@ -32714,12 +32781,15 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G8">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F26:G26 F32:G40 F42:G48 F50:G52 F22:G24 F12:G20 F28:G30 F54:G80">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F26:G26 F32:G40 F42:G48 F50:G52 F22:G24 F54:G80 F28:G30 G12:G20 F13:F20">
       <formula1>$J$2:$J$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12">
+      <formula1>TestList</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -32729,4 +32799,39 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WIP/Documents/Report 3/WS_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Documents/Report 3/WS_Integration Test Case_v1.0_EN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="821" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="821" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="729">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1427,9 +1427,6 @@
     <t>Donated List</t>
   </si>
   <si>
-    <t>Followed List</t>
-  </si>
-  <si>
     <t>1. Login on one browser
 2. Go to .../Messages.com
 4. Change to other browser
@@ -1438,11 +1435,6 @@
   <si>
     <t xml:space="preserve">1. Login on one browser
 2. Go to ../CreatedEvent
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login on one browser
-2. Go to …/FollowedEvent
 </t>
   </si>
   <si>
@@ -1634,13 +1626,6 @@
 3. Siderbar is showed</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Admin Page is displayed with the following list:
-- Header
-- Right Side bar
-- Content details left
-</t>
-  </si>
-  <si>
     <t>[Admin_login-3]</t>
   </si>
   <si>
@@ -1657,13 +1642,6 @@
   </si>
   <si>
     <t>Check  User button in sidebar</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. Dropdowlist is displayed with:
-+ Dashboard
-+ User list
-3. Content about dashboard of user is displayed</t>
   </si>
   <si>
     <t>Check  User list button in User menu</t>
@@ -2061,18 +2039,6 @@
   <si>
     <t xml:space="preserve">1.The Homepage is displayed 
 2. Go to user homepage
-3. Created thread page displayed and status is Active
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.The Homepage is displayed 
-2. Go to user homepage
-3. Created thread page displayed and status is De-Active
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.The Homepage is displayed 
-2. Go to user homepage
 3. Created thread page displayed and status is De-Active
 4. Edit Thread page is displayed
 5. All data do not has been changed
@@ -2134,30 +2100,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.The Homepage is displayed 
-2. Go to user homepage
-3. Notification that user need have Organization
-</t>
-  </si>
-  <si>
-    <t>Create Event when user have been banned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.The Homepage is displayed 
-2. Go to user homepage
-3. Notification about user status
-</t>
-  </si>
-  <si>
     <t>Integration Login with Manage Event</t>
   </si>
   <si>
-    <t>View own created Event  information when Thread active</t>
-  </si>
-  <si>
-    <t>View own created Event  information when Thread de-active by admin</t>
-  </si>
-  <si>
     <t>Edit Event with no data changing</t>
   </si>
   <si>
@@ -2168,64 +2113,6 @@
   </si>
   <si>
     <t>Edit Event with delete all data in not-require field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to wings.com
-2. Login with available account
-3. Click on "Thông tin tài khoản" -&gt; "Sự kiện"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to wings.com
-2. Login with available account
-3. Click on "Thông tin tài khoản" -&gt;  "Sự kiện"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to wings.com
-2. Login with available account
-3. Click on "Thông tin tài khoản" -&gt;  "Sự kiện"
-4. Click Edit
-5. Do no change data and click save
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to wings.com
-2. Login with available account
-3. Click on "Thông tin tài khoản" -&gt;  "Sự kiện"
-4. Click Edit
-5. Change data and click save
-</t>
-  </si>
-  <si>
-    <t>1. Go to wings.com
-2. Login with available account
-3. Click on "Thông tin tài khoản" -&gt;  "Sự kiện"
-4. Click Edit
-5. Delete all data and click save</t>
-  </si>
-  <si>
-    <t>1. Go to wings.com
-2. Login with available account
-3. Click on "Thông tin tài khoản" -&gt;  "Sự kiện"
-4. Click Edit
-5. Delete all data in not-require filed and click save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.The Homepage is displayed 
-2. Go to user homepage
-3. Created event page displayed and status is De-Active
-4. Edit event page is displayed
-5. All data do not has been changed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.The Homepage is displayed 
-2. Go to user homepage
-3. Created event page displayed and status is De-Active
-4. Edit event page is displayed
-5. All data has been changed as edit
-</t>
   </si>
   <si>
     <t>Integration Login with Account</t>
@@ -2268,14 +2155,6 @@
 3. go to …/Profile/TestAccount
 4. Click on "Gửi tin nhắn" and input content without subject
 5. Click "Gửi"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.The Homepage is displayed 
-2. Go to user homepage
-3. Created event page displayed and status is De-Active
-4. Edit event page is displayed
-5. Warnning about require field can not be empty
-</t>
   </si>
   <si>
     <t>Cần nhập tiêu đề tin nhắn</t>
@@ -2508,11 +2387,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Log in website with Member role
-2.Click on Donate page
-3. </t>
-  </si>
-  <si>
     <t>User donate successful by Internet Banking</t>
   </si>
   <si>
@@ -3420,6 +3294,172 @@
 4. Click Edit
 5. Do no change data and click save
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The Homepage is displayed 
+2. Go to user homepage
+3. Event page displayed
+4. Notification that user need have Organization
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to wings.com
+2. Login with available account
+3. Go to"Sự kiện" page
+4. Click on "Tạo Sự kiện" button
+</t>
+  </si>
+  <si>
+    <t>View own created Event  information when Event active</t>
+  </si>
+  <si>
+    <t>View own created Event  information when Event de-active by admin</t>
+  </si>
+  <si>
+    <t>Create Event when organization have been banned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The Homepage is displayed 
+2. Go to user homepage
+3. Notification about organization status
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to wings.com
+2. Login with available account
+3. Click on  "Tổ chức của tôi"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to wings.com
+2. Login with available account
+3. Click on "Tổ chức của tôi"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The Homepage is displayed 
+2. Go to homepage
+3. Created event  displayed and status is Active
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The Homepage is displayed 
+2. Go to user homepage
+3. Created event page displayed and status is De-Active
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to wings.com
+2. Login with available account
+3. Click on "Tổ chức của tôi"
+4. Click event want to edit
+5. Click "Sửa thông tin" button
+6. Do no change data and click save
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The Homepage is displayed 
+2. Go to user homepage
+3. Created event displayed and status is Active
+4. Event detail page is displayed
+5. Edit event page is displayed
+6. All data do not has been changed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to wings.com
+2. Login with available account
+3. Click on "Tổ chức của tôi"
+4. Click event want to edit
+5. Click "Sửa thông tin" button
+6. Change data and click save
+</t>
+  </si>
+  <si>
+    <t>1. Go to wings.com
+2. Login with available account
+3. Click on "Tổ chức của tôi"
+4. Click event want to edit
+5. Click "Sửa thông tin" button
+6. Delete all data and click save</t>
+  </si>
+  <si>
+    <t>1. Go to wings.com
+2. Login with available account
+3. Click on "Tổ chức của tôi"
+4. Click event want to edit
+5. Click "Sửa thông tin" button
+6. Delete all data in not-require filed and click save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The Homepage is displayed 
+2. Go to user homepage
+3. Created event displayed and status is Active
+4. Event detail page is displayed
+5. Edit event page is displayed
+6. All data has been changed as edit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The Homepage is displayed 
+2. Go to user homepage
+3. Created event displayed and status is Active
+4. Event detail page is displayed
+5. Edit event page is displayed
+6. Warnning about require field can not be empty
+</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed 
+2. Donation page is displayed
+3. Display information of payment methods</t>
+  </si>
+  <si>
+    <t>1. Log in website with Member role
+2.Click on"Quyên góp" button
+3. Choose "Thanh toán bằng thẻ Visa hoặc MasterCard"</t>
+  </si>
+  <si>
+    <t>1. Log in website with Member role
+2.Click on "Quyên góp" button
+3. Choose "Thanh toán bằng Ví điện tử NgânLượng"</t>
+  </si>
+  <si>
+    <t>1. Log in website with Member role
+2.Click on"Quyên góp" button
+3. Choose "Thanh toán online bằng thẻ ngân hàng nội địa"</t>
+  </si>
+  <si>
+    <t>1. Log in website with Member role
+2.Click on "Quyên góp" button
+3. Enter correct all data and click on "Thanh toán"</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed 
+2. Donation page is displayed
+3. Donate success page displayed</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed 
+2. Donation page is displayed
+3. Donate fail page displayed</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Admin Page is displayed with the following list:
+- Header
+- Left Side bar
+- Content details right
+</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. Dropdowlist is displayed with:
++ Thống kê chung
++ Thành viên
+3. Content about dashboard of user is displayed</t>
   </si>
 </sst>
 </file>
@@ -3744,7 +3784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -4250,15 +4290,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -4499,7 +4530,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4950,28 +4981,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4990,13 +5015,13 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5023,10 +5048,10 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5038,16 +5063,13 @@
     <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5058,36 +5080,36 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="48" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="46" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5100,8 +5122,26 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5109,52 +5149,34 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="51" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="51" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="51" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="52" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="54" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="26" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5211,6 +5233,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5691,13 +5716,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="245" t="s">
+      <c r="C2" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -5708,11 +5733,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="246" t="s">
+      <c r="C4" s="243" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="246"/>
-      <c r="E4" s="246"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
@@ -5724,11 +5749,11 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="246" t="s">
+      <c r="C5" s="243" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
@@ -5737,15 +5762,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="247" t="s">
+      <c r="B6" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="248" t="str">
+      <c r="C6" s="245" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>WS_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="248"/>
-      <c r="E6" s="248"/>
+      <c r="D6" s="245"/>
+      <c r="E6" s="245"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -5754,10 +5779,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="247"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
-      <c r="E7" s="248"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="245"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -5919,39 +5944,39 @@
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="251" t="s">
+      <c r="B3" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252" t="str">
+      <c r="C3" s="248"/>
+      <c r="D3" s="249" t="str">
         <f>Cover!C4</f>
         <v>WingS</v>
       </c>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="251" t="s">
+      <c r="B4" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="251"/>
-      <c r="D4" s="252" t="str">
+      <c r="C4" s="248"/>
+      <c r="D4" s="249" t="str">
         <f>Cover!C5</f>
         <v>WS</v>
       </c>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="249"/>
     </row>
     <row r="5" spans="2:6" s="35" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="249"/>
-      <c r="D5" s="250" t="s">
+      <c r="C5" s="246"/>
+      <c r="D5" s="247" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="36"/>
@@ -6129,15 +6154,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="255" t="s">
+      <c r="B1" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="62"/>
@@ -6153,15 +6178,15 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="252" t="str">
+      <c r="C3" s="249" t="str">
         <f>Cover!C4</f>
         <v>WingS</v>
       </c>
-      <c r="D3" s="252"/>
-      <c r="E3" s="253" t="s">
+      <c r="D3" s="249"/>
+      <c r="E3" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="253"/>
+      <c r="F3" s="250"/>
       <c r="G3" s="10" t="s">
         <v>181</v>
       </c>
@@ -6171,15 +6196,15 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="252" t="str">
+      <c r="C4" s="249" t="str">
         <f>Cover!C5</f>
         <v>WS</v>
       </c>
-      <c r="D4" s="252"/>
-      <c r="E4" s="253" t="s">
+      <c r="D4" s="249"/>
+      <c r="E4" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="253"/>
+      <c r="F4" s="250"/>
       <c r="G4" s="10" t="s">
         <v>176</v>
       </c>
@@ -6189,15 +6214,15 @@
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="252" t="str">
+      <c r="C5" s="249" t="str">
         <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>WS_Integration Test Report_v1.0</v>
       </c>
-      <c r="D5" s="252"/>
-      <c r="E5" s="253" t="s">
+      <c r="D5" s="249"/>
+      <c r="E5" s="250" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="253"/>
+      <c r="F5" s="250"/>
       <c r="G5" s="115"/>
       <c r="H5" s="67"/>
     </row>
@@ -6206,12 +6231,12 @@
       <c r="B6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="251"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="251"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="62"/>
@@ -6276,15 +6301,15 @@
       </c>
       <c r="D11" s="76">
         <f>User_Function!A6</f>
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="E11" s="76">
         <f>User_Function!B6</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F11" s="76">
         <f>User_Function!C6</f>
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="G11" s="76">
         <f>User_Function!D6</f>
@@ -6292,7 +6317,7 @@
       </c>
       <c r="H11" s="77">
         <f>User_Function!E6</f>
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6305,7 +6330,7 @@
       </c>
       <c r="D12" s="76">
         <f>Admin_Function!A6</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E12" s="76">
         <f>Admin_Function!B6</f>
@@ -6313,7 +6338,7 @@
       </c>
       <c r="F12" s="76">
         <f>Admin_Function!C6</f>
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G12" s="76">
         <f>Admin_Function!D6</f>
@@ -6332,15 +6357,15 @@
       </c>
       <c r="D13" s="79">
         <f>SUM(D9:D12)</f>
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="E13" s="79">
         <f>SUM(E9:E12)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F13" s="79">
         <f>SUM(F9:F12)</f>
-        <v>264</v>
+        <v>152</v>
       </c>
       <c r="G13" s="79">
         <f>SUM(G9:G12)</f>
@@ -6348,7 +6373,7 @@
       </c>
       <c r="H13" s="80">
         <f>SUM(H9:H12)</f>
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6370,7 +6395,7 @@
       <c r="D15" s="70"/>
       <c r="E15" s="85">
         <f>(D13+E13)*100/(H13-G13)</f>
-        <v>40.271493212669682</v>
+        <v>64.485981308411212</v>
       </c>
       <c r="F15" s="70" t="s">
         <v>43</v>
@@ -6387,7 +6412,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="85">
         <f>D13*100/(H13-G13)</f>
-        <v>38.46153846153846</v>
+        <v>61.682242990654203</v>
       </c>
       <c r="F16" s="70" t="s">
         <v>43</v>
@@ -6440,11 +6465,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="253" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
@@ -6462,7 +6487,7 @@
       <c r="A4" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="203" t="s">
         <v>186</v>
       </c>
       <c r="C4" s="161"/>
@@ -6471,7 +6496,7 @@
       <c r="A5" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="203" t="s">
         <v>186</v>
       </c>
       <c r="C5" s="161"/>
@@ -6480,7 +6505,7 @@
       <c r="A6" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="207" t="s">
+      <c r="B6" s="204" t="s">
         <v>216</v>
       </c>
       <c r="C6" s="161"/>
@@ -6489,7 +6514,7 @@
       <c r="A7" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>187</v>
       </c>
       <c r="C7" s="161"/>
@@ -6498,7 +6523,7 @@
       <c r="A8" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="206" t="s">
+      <c r="B8" s="203" t="s">
         <v>215</v>
       </c>
       <c r="C8" s="161"/>
@@ -6507,7 +6532,7 @@
       <c r="A9" s="160" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="204" t="s">
         <v>217</v>
       </c>
       <c r="C9" s="161"/>
@@ -6516,7 +6541,7 @@
       <c r="A10" s="160" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="204" t="s">
         <v>218</v>
       </c>
       <c r="C10" s="161"/>
@@ -6525,7 +6550,7 @@
       <c r="A11" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="204" t="s">
         <v>219</v>
       </c>
       <c r="C11" s="161"/>
@@ -6534,7 +6559,7 @@
       <c r="A12" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="204" t="s">
         <v>188</v>
       </c>
       <c r="C12" s="161"/>
@@ -6543,7 +6568,7 @@
       <c r="A13" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="204" t="s">
         <v>220</v>
       </c>
       <c r="C13" s="161"/>
@@ -6552,7 +6577,7 @@
       <c r="A14" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="207" t="s">
+      <c r="B14" s="204" t="s">
         <v>189</v>
       </c>
       <c r="C14" s="161"/>
@@ -6561,7 +6586,7 @@
       <c r="A15" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="207" t="s">
+      <c r="B15" s="204" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="161"/>
@@ -6570,7 +6595,7 @@
       <c r="A16" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="207" t="s">
+      <c r="B16" s="204" t="s">
         <v>221</v>
       </c>
       <c r="C16" s="161"/>
@@ -6579,7 +6604,7 @@
       <c r="A17" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="207" t="s">
+      <c r="B17" s="204" t="s">
         <v>222</v>
       </c>
       <c r="C17" s="161"/>
@@ -6588,7 +6613,7 @@
       <c r="A18" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="207" t="s">
+      <c r="B18" s="204" t="s">
         <v>191</v>
       </c>
       <c r="C18" s="161"/>
@@ -6597,7 +6622,7 @@
       <c r="A19" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="207" t="s">
+      <c r="B19" s="204" t="s">
         <v>223</v>
       </c>
       <c r="C19" s="161"/>
@@ -6606,7 +6631,7 @@
       <c r="A20" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="206" t="s">
+      <c r="B20" s="203" t="s">
         <v>196</v>
       </c>
       <c r="C20" s="161"/>
@@ -6615,7 +6640,7 @@
       <c r="A21" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="206" t="s">
+      <c r="B21" s="203" t="s">
         <v>192</v>
       </c>
       <c r="C21" s="161"/>
@@ -6624,7 +6649,7 @@
       <c r="A22" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="206" t="s">
+      <c r="B22" s="203" t="s">
         <v>197</v>
       </c>
       <c r="C22" s="161"/>
@@ -6633,7 +6658,7 @@
       <c r="A23" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="208" t="s">
+      <c r="B23" s="205" t="s">
         <v>193</v>
       </c>
       <c r="C23" s="161"/>
@@ -6642,7 +6667,7 @@
       <c r="A24" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="206" t="s">
+      <c r="B24" s="203" t="s">
         <v>194</v>
       </c>
       <c r="C24" s="161"/>
@@ -6651,7 +6676,7 @@
       <c r="A25" s="160" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="206" t="s">
+      <c r="B25" s="203" t="s">
         <v>195</v>
       </c>
       <c r="C25" s="161"/>
@@ -6660,7 +6685,7 @@
       <c r="A26" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="206" t="s">
+      <c r="B26" s="203" t="s">
         <v>203</v>
       </c>
       <c r="C26" s="161"/>
@@ -6697,7 +6722,7 @@
         <v>109</v>
       </c>
       <c r="B30" s="161" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="C30" s="161"/>
     </row>
@@ -6706,7 +6731,7 @@
         <v>110</v>
       </c>
       <c r="B31" s="161" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="C31" s="161"/>
     </row>
@@ -6742,10 +6767,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV181"/>
+  <dimension ref="A1:IV176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView topLeftCell="A81" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -7018,14 +7043,14 @@
       <c r="A2" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="257" t="s">
+      <c r="B2" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="257"/>
-      <c r="D2" s="257"/>
-      <c r="E2" s="257"/>
-      <c r="F2" s="257"/>
-      <c r="G2" s="257"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
       <c r="H2" s="149" t="s">
         <v>22</v>
       </c>
@@ -7273,14 +7298,14 @@
       <c r="A3" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="257" t="s">
+      <c r="B3" s="254" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
       <c r="H3" s="149" t="s">
         <v>24</v>
       </c>
@@ -7528,14 +7553,14 @@
       <c r="A4" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="258" t="s">
+      <c r="B4" s="255" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
       <c r="H4" s="149" t="s">
         <v>27</v>
       </c>
@@ -7785,16 +7810,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="97" t="s">
-        <v>26</v>
+        <v>697</v>
       </c>
       <c r="D5" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="259" t="s">
+      <c r="E5" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="259"/>
-      <c r="G5" s="259"/>
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
       <c r="H5" s="150" t="s">
         <v>26</v>
       </c>
@@ -8040,27 +8065,27 @@
     </row>
     <row r="6" spans="1:252" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="130">
-        <f>COUNTIF(F11:G340,"Pass")</f>
-        <v>170</v>
+        <f>COUNTIF(F11:G335,"Pass")</f>
+        <v>240</v>
       </c>
       <c r="B6" s="101">
-        <f>COUNTIF(F11:G787,"Fail")</f>
-        <v>8</v>
+        <f>COUNTIF(F11:G782,"Fail")</f>
+        <v>12</v>
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="D6" s="102">
-        <f>COUNTIF(F11:G787,"N/A")</f>
+        <f>COUNTIF(F11:G782,"N/A")</f>
         <v>8</v>
       </c>
-      <c r="E6" s="260">
-        <f>COUNTA(A12:A184)*2</f>
-        <v>318</v>
-      </c>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
+      <c r="E6" s="257">
+        <f>COUNTA(A12:A179)*2</f>
+        <v>304</v>
+      </c>
+      <c r="F6" s="257"/>
+      <c r="G6" s="257"/>
       <c r="H6" s="99"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95" t="s">
@@ -8303,13 +8328,13 @@
       <c r="IK6" s="95"/>
     </row>
     <row r="7" spans="1:252" ht="13.5" customHeight="1">
-      <c r="A7" s="191"/>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="191"/>
       <c r="H7" s="99"/>
       <c r="I7" s="95"/>
       <c r="J7" s="95"/>
@@ -8550,13 +8575,13 @@
       <c r="IK7" s="95"/>
     </row>
     <row r="8" spans="1:252" ht="13.5" customHeight="1">
-      <c r="A8" s="191"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
       <c r="H8" s="99"/>
       <c r="I8" s="95"/>
       <c r="J8" s="95"/>
@@ -9326,7 +9351,7 @@
       <c r="F11" s="58"/>
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
-      <c r="I11" s="201"/>
+      <c r="I11" s="199"/>
       <c r="J11" s="95"/>
       <c r="K11" s="95"/>
       <c r="L11" s="95"/>
@@ -10102,7 +10127,7 @@
       <c r="D14" s="117" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="211"/>
+      <c r="E14" s="208"/>
       <c r="F14" s="117" t="s">
         <v>22</v>
       </c>
@@ -10364,7 +10389,7 @@
       <c r="D15" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="212"/>
+      <c r="E15" s="209"/>
       <c r="F15" s="117" t="s">
         <v>22</v>
       </c>
@@ -10374,7 +10399,7 @@
       <c r="H15" s="119">
         <v>42381</v>
       </c>
-      <c r="I15" s="205"/>
+      <c r="I15" s="202"/>
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
       <c r="L15" s="95"/>
@@ -10626,7 +10651,7 @@
       <c r="D16" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="213"/>
+      <c r="E16" s="210"/>
       <c r="F16" s="117" t="s">
         <v>22</v>
       </c>
@@ -10875,7 +10900,7 @@
       <c r="IK16" s="95"/>
     </row>
     <row r="17" spans="1:245" ht="55.5" customHeight="1">
-      <c r="A17" s="209" t="str">
+      <c r="A17" s="206" t="str">
         <f t="shared" ref="A17:A18" si="2">IF(OR(B17&lt;&gt;"",D17&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-7]</v>
       </c>
@@ -10895,7 +10920,7 @@
       <c r="G17" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="244">
+      <c r="H17" s="241">
         <v>42381</v>
       </c>
       <c r="I17" s="124"/>
@@ -11157,7 +11182,7 @@
       <c r="G18" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="244">
+      <c r="H18" s="241">
         <v>42381</v>
       </c>
       <c r="I18" s="124"/>
@@ -11398,529 +11423,529 @@
       <c r="IJ18" s="95"/>
       <c r="IK18" s="95"/>
     </row>
-    <row r="19" spans="1:245" s="220" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A19" s="216" t="str">
+    <row r="19" spans="1:245" s="217" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A19" s="213" t="str">
         <f t="shared" ref="A19" si="3">IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-9]</v>
       </c>
-      <c r="B19" s="217" t="s">
+      <c r="B19" s="214" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="217" t="s">
+      <c r="C19" s="214" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="217" t="s">
+      <c r="D19" s="214" t="s">
         <v>204</v>
       </c>
-      <c r="E19" s="218"/>
-      <c r="F19" s="217" t="s">
+      <c r="E19" s="215"/>
+      <c r="F19" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="217" t="s">
+      <c r="G19" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="244">
+      <c r="H19" s="241">
         <v>42381</v>
       </c>
-      <c r="I19" s="218"/>
-      <c r="J19" s="219"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="216"/>
       <c r="K19" s="95"/>
       <c r="L19" s="95"/>
       <c r="M19" s="95"/>
       <c r="N19" s="95"/>
       <c r="O19" s="95"/>
       <c r="P19" s="95"/>
-      <c r="Q19" s="219"/>
-      <c r="R19" s="219"/>
-      <c r="S19" s="219"/>
-      <c r="T19" s="219"/>
-      <c r="U19" s="219"/>
-      <c r="V19" s="219"/>
-      <c r="W19" s="219"/>
-      <c r="X19" s="219"/>
-      <c r="Y19" s="219"/>
-      <c r="Z19" s="219"/>
-      <c r="AA19" s="219"/>
-      <c r="AB19" s="219"/>
-      <c r="AC19" s="219"/>
-      <c r="AD19" s="219"/>
-      <c r="AE19" s="219"/>
-      <c r="AF19" s="219"/>
-      <c r="AG19" s="219"/>
-      <c r="AH19" s="219"/>
-      <c r="AI19" s="219"/>
-      <c r="AJ19" s="219"/>
-      <c r="AK19" s="219"/>
-      <c r="AL19" s="219"/>
-      <c r="AM19" s="219"/>
-      <c r="AN19" s="219"/>
-      <c r="AO19" s="219"/>
-      <c r="AP19" s="219"/>
-      <c r="AQ19" s="219"/>
-      <c r="AR19" s="219"/>
-      <c r="AS19" s="219"/>
-      <c r="AT19" s="219"/>
-      <c r="AU19" s="219"/>
-      <c r="AV19" s="219"/>
-      <c r="AW19" s="219"/>
-      <c r="AX19" s="219"/>
-      <c r="AY19" s="219"/>
-      <c r="AZ19" s="219"/>
-      <c r="BA19" s="219"/>
-      <c r="BB19" s="219"/>
-      <c r="BC19" s="219"/>
-      <c r="BD19" s="219"/>
-      <c r="BE19" s="219"/>
-      <c r="BF19" s="219"/>
-      <c r="BG19" s="219"/>
-      <c r="BH19" s="219"/>
-      <c r="BI19" s="219"/>
-      <c r="BJ19" s="219"/>
-      <c r="BK19" s="219"/>
-      <c r="BL19" s="219"/>
-      <c r="BM19" s="219"/>
-      <c r="BN19" s="219"/>
-      <c r="BO19" s="219"/>
-      <c r="BP19" s="219"/>
-      <c r="BQ19" s="219"/>
-      <c r="BR19" s="219"/>
-      <c r="BS19" s="219"/>
-      <c r="BT19" s="219"/>
-      <c r="BU19" s="219"/>
-      <c r="BV19" s="219"/>
-      <c r="BW19" s="219"/>
-      <c r="BX19" s="219"/>
-      <c r="BY19" s="219"/>
-      <c r="BZ19" s="219"/>
-      <c r="CA19" s="219"/>
-      <c r="CB19" s="219"/>
-      <c r="CC19" s="219"/>
-      <c r="CD19" s="219"/>
-      <c r="CE19" s="219"/>
-      <c r="CF19" s="219"/>
-      <c r="CG19" s="219"/>
-      <c r="CH19" s="219"/>
-      <c r="CI19" s="219"/>
-      <c r="CJ19" s="219"/>
-      <c r="CK19" s="219"/>
-      <c r="CL19" s="219"/>
-      <c r="CM19" s="219"/>
-      <c r="CN19" s="219"/>
-      <c r="CO19" s="219"/>
-      <c r="CP19" s="219"/>
-      <c r="CQ19" s="219"/>
-      <c r="CR19" s="219"/>
-      <c r="CS19" s="219"/>
-      <c r="CT19" s="219"/>
-      <c r="CU19" s="219"/>
-      <c r="CV19" s="219"/>
-      <c r="CW19" s="219"/>
-      <c r="CX19" s="219"/>
-      <c r="CY19" s="219"/>
-      <c r="CZ19" s="219"/>
-      <c r="DA19" s="219"/>
-      <c r="DB19" s="219"/>
-      <c r="DC19" s="219"/>
-      <c r="DD19" s="219"/>
-      <c r="DE19" s="219"/>
-      <c r="DF19" s="219"/>
-      <c r="DG19" s="219"/>
-      <c r="DH19" s="219"/>
-      <c r="DI19" s="219"/>
-      <c r="DJ19" s="219"/>
-      <c r="DK19" s="219"/>
-      <c r="DL19" s="219"/>
-      <c r="DM19" s="219"/>
-      <c r="DN19" s="219"/>
-      <c r="DO19" s="219"/>
-      <c r="DP19" s="219"/>
-      <c r="DQ19" s="219"/>
-      <c r="DR19" s="219"/>
-      <c r="DS19" s="219"/>
-      <c r="DT19" s="219"/>
-      <c r="DU19" s="219"/>
-      <c r="DV19" s="219"/>
-      <c r="DW19" s="219"/>
-      <c r="DX19" s="219"/>
-      <c r="DY19" s="219"/>
-      <c r="DZ19" s="219"/>
-      <c r="EA19" s="219"/>
-      <c r="EB19" s="219"/>
-      <c r="EC19" s="219"/>
-      <c r="ED19" s="219"/>
-      <c r="EE19" s="219"/>
-      <c r="EF19" s="219"/>
-      <c r="EG19" s="219"/>
-      <c r="EH19" s="219"/>
-      <c r="EI19" s="219"/>
-      <c r="EJ19" s="219"/>
-      <c r="EK19" s="219"/>
-      <c r="EL19" s="219"/>
-      <c r="EM19" s="219"/>
-      <c r="EN19" s="219"/>
-      <c r="EO19" s="219"/>
-      <c r="EP19" s="219"/>
-      <c r="EQ19" s="219"/>
-      <c r="ER19" s="219"/>
-      <c r="ES19" s="219"/>
-      <c r="ET19" s="219"/>
-      <c r="EU19" s="219"/>
-      <c r="EV19" s="219"/>
-      <c r="EW19" s="219"/>
-      <c r="EX19" s="219"/>
-      <c r="EY19" s="219"/>
-      <c r="EZ19" s="219"/>
-      <c r="FA19" s="219"/>
-      <c r="FB19" s="219"/>
-      <c r="FC19" s="219"/>
-      <c r="FD19" s="219"/>
-      <c r="FE19" s="219"/>
-      <c r="FF19" s="219"/>
-      <c r="FG19" s="219"/>
-      <c r="FH19" s="219"/>
-      <c r="FI19" s="219"/>
-      <c r="FJ19" s="219"/>
-      <c r="FK19" s="219"/>
-      <c r="FL19" s="219"/>
-      <c r="FM19" s="219"/>
-      <c r="FN19" s="219"/>
-      <c r="FO19" s="219"/>
-      <c r="FP19" s="219"/>
-      <c r="FQ19" s="219"/>
-      <c r="FR19" s="219"/>
-      <c r="FS19" s="219"/>
-      <c r="FT19" s="219"/>
-      <c r="FU19" s="219"/>
-      <c r="FV19" s="219"/>
-      <c r="FW19" s="219"/>
-      <c r="FX19" s="219"/>
-      <c r="FY19" s="219"/>
-      <c r="FZ19" s="219"/>
-      <c r="GA19" s="219"/>
-      <c r="GB19" s="219"/>
-      <c r="GC19" s="219"/>
-      <c r="GD19" s="219"/>
-      <c r="GE19" s="219"/>
-      <c r="GF19" s="219"/>
-      <c r="GG19" s="219"/>
-      <c r="GH19" s="219"/>
-      <c r="GI19" s="219"/>
-      <c r="GJ19" s="219"/>
-      <c r="GK19" s="219"/>
-      <c r="GL19" s="219"/>
-      <c r="GM19" s="219"/>
-      <c r="GN19" s="219"/>
-      <c r="GO19" s="219"/>
-      <c r="GP19" s="219"/>
-      <c r="GQ19" s="219"/>
-      <c r="GR19" s="219"/>
-      <c r="GS19" s="219"/>
-      <c r="GT19" s="219"/>
-      <c r="GU19" s="219"/>
-      <c r="GV19" s="219"/>
-      <c r="GW19" s="219"/>
-      <c r="GX19" s="219"/>
-      <c r="GY19" s="219"/>
-      <c r="GZ19" s="219"/>
-      <c r="HA19" s="219"/>
-      <c r="HB19" s="219"/>
-      <c r="HC19" s="219"/>
-      <c r="HD19" s="219"/>
-      <c r="HE19" s="219"/>
-      <c r="HF19" s="219"/>
-      <c r="HG19" s="219"/>
-      <c r="HH19" s="219"/>
-      <c r="HI19" s="219"/>
-      <c r="HJ19" s="219"/>
-      <c r="HK19" s="219"/>
-      <c r="HL19" s="219"/>
-      <c r="HM19" s="219"/>
-      <c r="HN19" s="219"/>
-      <c r="HO19" s="219"/>
-      <c r="HP19" s="219"/>
-      <c r="HQ19" s="219"/>
-      <c r="HR19" s="219"/>
-      <c r="HS19" s="219"/>
-      <c r="HT19" s="219"/>
-      <c r="HU19" s="219"/>
-      <c r="HV19" s="219"/>
-      <c r="HW19" s="219"/>
-      <c r="HX19" s="219"/>
-      <c r="HY19" s="219"/>
-      <c r="HZ19" s="219"/>
-      <c r="IA19" s="219"/>
-      <c r="IB19" s="219"/>
-      <c r="IC19" s="219"/>
-      <c r="ID19" s="219"/>
-      <c r="IE19" s="219"/>
-      <c r="IF19" s="219"/>
-      <c r="IG19" s="219"/>
-      <c r="IH19" s="219"/>
-      <c r="II19" s="219"/>
-      <c r="IJ19" s="219"/>
-      <c r="IK19" s="219"/>
-    </row>
-    <row r="20" spans="1:245" s="220" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A20" s="216" t="str">
+      <c r="Q19" s="216"/>
+      <c r="R19" s="216"/>
+      <c r="S19" s="216"/>
+      <c r="T19" s="216"/>
+      <c r="U19" s="216"/>
+      <c r="V19" s="216"/>
+      <c r="W19" s="216"/>
+      <c r="X19" s="216"/>
+      <c r="Y19" s="216"/>
+      <c r="Z19" s="216"/>
+      <c r="AA19" s="216"/>
+      <c r="AB19" s="216"/>
+      <c r="AC19" s="216"/>
+      <c r="AD19" s="216"/>
+      <c r="AE19" s="216"/>
+      <c r="AF19" s="216"/>
+      <c r="AG19" s="216"/>
+      <c r="AH19" s="216"/>
+      <c r="AI19" s="216"/>
+      <c r="AJ19" s="216"/>
+      <c r="AK19" s="216"/>
+      <c r="AL19" s="216"/>
+      <c r="AM19" s="216"/>
+      <c r="AN19" s="216"/>
+      <c r="AO19" s="216"/>
+      <c r="AP19" s="216"/>
+      <c r="AQ19" s="216"/>
+      <c r="AR19" s="216"/>
+      <c r="AS19" s="216"/>
+      <c r="AT19" s="216"/>
+      <c r="AU19" s="216"/>
+      <c r="AV19" s="216"/>
+      <c r="AW19" s="216"/>
+      <c r="AX19" s="216"/>
+      <c r="AY19" s="216"/>
+      <c r="AZ19" s="216"/>
+      <c r="BA19" s="216"/>
+      <c r="BB19" s="216"/>
+      <c r="BC19" s="216"/>
+      <c r="BD19" s="216"/>
+      <c r="BE19" s="216"/>
+      <c r="BF19" s="216"/>
+      <c r="BG19" s="216"/>
+      <c r="BH19" s="216"/>
+      <c r="BI19" s="216"/>
+      <c r="BJ19" s="216"/>
+      <c r="BK19" s="216"/>
+      <c r="BL19" s="216"/>
+      <c r="BM19" s="216"/>
+      <c r="BN19" s="216"/>
+      <c r="BO19" s="216"/>
+      <c r="BP19" s="216"/>
+      <c r="BQ19" s="216"/>
+      <c r="BR19" s="216"/>
+      <c r="BS19" s="216"/>
+      <c r="BT19" s="216"/>
+      <c r="BU19" s="216"/>
+      <c r="BV19" s="216"/>
+      <c r="BW19" s="216"/>
+      <c r="BX19" s="216"/>
+      <c r="BY19" s="216"/>
+      <c r="BZ19" s="216"/>
+      <c r="CA19" s="216"/>
+      <c r="CB19" s="216"/>
+      <c r="CC19" s="216"/>
+      <c r="CD19" s="216"/>
+      <c r="CE19" s="216"/>
+      <c r="CF19" s="216"/>
+      <c r="CG19" s="216"/>
+      <c r="CH19" s="216"/>
+      <c r="CI19" s="216"/>
+      <c r="CJ19" s="216"/>
+      <c r="CK19" s="216"/>
+      <c r="CL19" s="216"/>
+      <c r="CM19" s="216"/>
+      <c r="CN19" s="216"/>
+      <c r="CO19" s="216"/>
+      <c r="CP19" s="216"/>
+      <c r="CQ19" s="216"/>
+      <c r="CR19" s="216"/>
+      <c r="CS19" s="216"/>
+      <c r="CT19" s="216"/>
+      <c r="CU19" s="216"/>
+      <c r="CV19" s="216"/>
+      <c r="CW19" s="216"/>
+      <c r="CX19" s="216"/>
+      <c r="CY19" s="216"/>
+      <c r="CZ19" s="216"/>
+      <c r="DA19" s="216"/>
+      <c r="DB19" s="216"/>
+      <c r="DC19" s="216"/>
+      <c r="DD19" s="216"/>
+      <c r="DE19" s="216"/>
+      <c r="DF19" s="216"/>
+      <c r="DG19" s="216"/>
+      <c r="DH19" s="216"/>
+      <c r="DI19" s="216"/>
+      <c r="DJ19" s="216"/>
+      <c r="DK19" s="216"/>
+      <c r="DL19" s="216"/>
+      <c r="DM19" s="216"/>
+      <c r="DN19" s="216"/>
+      <c r="DO19" s="216"/>
+      <c r="DP19" s="216"/>
+      <c r="DQ19" s="216"/>
+      <c r="DR19" s="216"/>
+      <c r="DS19" s="216"/>
+      <c r="DT19" s="216"/>
+      <c r="DU19" s="216"/>
+      <c r="DV19" s="216"/>
+      <c r="DW19" s="216"/>
+      <c r="DX19" s="216"/>
+      <c r="DY19" s="216"/>
+      <c r="DZ19" s="216"/>
+      <c r="EA19" s="216"/>
+      <c r="EB19" s="216"/>
+      <c r="EC19" s="216"/>
+      <c r="ED19" s="216"/>
+      <c r="EE19" s="216"/>
+      <c r="EF19" s="216"/>
+      <c r="EG19" s="216"/>
+      <c r="EH19" s="216"/>
+      <c r="EI19" s="216"/>
+      <c r="EJ19" s="216"/>
+      <c r="EK19" s="216"/>
+      <c r="EL19" s="216"/>
+      <c r="EM19" s="216"/>
+      <c r="EN19" s="216"/>
+      <c r="EO19" s="216"/>
+      <c r="EP19" s="216"/>
+      <c r="EQ19" s="216"/>
+      <c r="ER19" s="216"/>
+      <c r="ES19" s="216"/>
+      <c r="ET19" s="216"/>
+      <c r="EU19" s="216"/>
+      <c r="EV19" s="216"/>
+      <c r="EW19" s="216"/>
+      <c r="EX19" s="216"/>
+      <c r="EY19" s="216"/>
+      <c r="EZ19" s="216"/>
+      <c r="FA19" s="216"/>
+      <c r="FB19" s="216"/>
+      <c r="FC19" s="216"/>
+      <c r="FD19" s="216"/>
+      <c r="FE19" s="216"/>
+      <c r="FF19" s="216"/>
+      <c r="FG19" s="216"/>
+      <c r="FH19" s="216"/>
+      <c r="FI19" s="216"/>
+      <c r="FJ19" s="216"/>
+      <c r="FK19" s="216"/>
+      <c r="FL19" s="216"/>
+      <c r="FM19" s="216"/>
+      <c r="FN19" s="216"/>
+      <c r="FO19" s="216"/>
+      <c r="FP19" s="216"/>
+      <c r="FQ19" s="216"/>
+      <c r="FR19" s="216"/>
+      <c r="FS19" s="216"/>
+      <c r="FT19" s="216"/>
+      <c r="FU19" s="216"/>
+      <c r="FV19" s="216"/>
+      <c r="FW19" s="216"/>
+      <c r="FX19" s="216"/>
+      <c r="FY19" s="216"/>
+      <c r="FZ19" s="216"/>
+      <c r="GA19" s="216"/>
+      <c r="GB19" s="216"/>
+      <c r="GC19" s="216"/>
+      <c r="GD19" s="216"/>
+      <c r="GE19" s="216"/>
+      <c r="GF19" s="216"/>
+      <c r="GG19" s="216"/>
+      <c r="GH19" s="216"/>
+      <c r="GI19" s="216"/>
+      <c r="GJ19" s="216"/>
+      <c r="GK19" s="216"/>
+      <c r="GL19" s="216"/>
+      <c r="GM19" s="216"/>
+      <c r="GN19" s="216"/>
+      <c r="GO19" s="216"/>
+      <c r="GP19" s="216"/>
+      <c r="GQ19" s="216"/>
+      <c r="GR19" s="216"/>
+      <c r="GS19" s="216"/>
+      <c r="GT19" s="216"/>
+      <c r="GU19" s="216"/>
+      <c r="GV19" s="216"/>
+      <c r="GW19" s="216"/>
+      <c r="GX19" s="216"/>
+      <c r="GY19" s="216"/>
+      <c r="GZ19" s="216"/>
+      <c r="HA19" s="216"/>
+      <c r="HB19" s="216"/>
+      <c r="HC19" s="216"/>
+      <c r="HD19" s="216"/>
+      <c r="HE19" s="216"/>
+      <c r="HF19" s="216"/>
+      <c r="HG19" s="216"/>
+      <c r="HH19" s="216"/>
+      <c r="HI19" s="216"/>
+      <c r="HJ19" s="216"/>
+      <c r="HK19" s="216"/>
+      <c r="HL19" s="216"/>
+      <c r="HM19" s="216"/>
+      <c r="HN19" s="216"/>
+      <c r="HO19" s="216"/>
+      <c r="HP19" s="216"/>
+      <c r="HQ19" s="216"/>
+      <c r="HR19" s="216"/>
+      <c r="HS19" s="216"/>
+      <c r="HT19" s="216"/>
+      <c r="HU19" s="216"/>
+      <c r="HV19" s="216"/>
+      <c r="HW19" s="216"/>
+      <c r="HX19" s="216"/>
+      <c r="HY19" s="216"/>
+      <c r="HZ19" s="216"/>
+      <c r="IA19" s="216"/>
+      <c r="IB19" s="216"/>
+      <c r="IC19" s="216"/>
+      <c r="ID19" s="216"/>
+      <c r="IE19" s="216"/>
+      <c r="IF19" s="216"/>
+      <c r="IG19" s="216"/>
+      <c r="IH19" s="216"/>
+      <c r="II19" s="216"/>
+      <c r="IJ19" s="216"/>
+      <c r="IK19" s="216"/>
+    </row>
+    <row r="20" spans="1:245" s="217" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A20" s="213" t="str">
         <f t="shared" ref="A20" si="4">IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-10]</v>
       </c>
-      <c r="B20" s="217" t="s">
+      <c r="B20" s="214" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="217" t="s">
+      <c r="C20" s="214" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="217" t="s">
+      <c r="D20" s="214" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="218"/>
-      <c r="F20" s="217" t="s">
+      <c r="E20" s="215"/>
+      <c r="F20" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="217" t="s">
+      <c r="G20" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="244">
+      <c r="H20" s="241">
         <v>42381</v>
       </c>
-      <c r="I20" s="218"/>
-      <c r="J20" s="219"/>
+      <c r="I20" s="215"/>
+      <c r="J20" s="216"/>
       <c r="K20" s="95"/>
       <c r="L20" s="95"/>
       <c r="M20" s="95"/>
       <c r="N20" s="95"/>
       <c r="O20" s="95"/>
       <c r="P20" s="95"/>
-      <c r="Q20" s="219"/>
-      <c r="R20" s="219"/>
-      <c r="S20" s="219"/>
-      <c r="T20" s="219"/>
-      <c r="U20" s="219"/>
-      <c r="V20" s="219"/>
-      <c r="W20" s="219"/>
-      <c r="X20" s="219"/>
-      <c r="Y20" s="219"/>
-      <c r="Z20" s="219"/>
-      <c r="AA20" s="219"/>
-      <c r="AB20" s="219"/>
-      <c r="AC20" s="219"/>
-      <c r="AD20" s="219"/>
-      <c r="AE20" s="219"/>
-      <c r="AF20" s="219"/>
-      <c r="AG20" s="219"/>
-      <c r="AH20" s="219"/>
-      <c r="AI20" s="219"/>
-      <c r="AJ20" s="219"/>
-      <c r="AK20" s="219"/>
-      <c r="AL20" s="219"/>
-      <c r="AM20" s="219"/>
-      <c r="AN20" s="219"/>
-      <c r="AO20" s="219"/>
-      <c r="AP20" s="219"/>
-      <c r="AQ20" s="219"/>
-      <c r="AR20" s="219"/>
-      <c r="AS20" s="219"/>
-      <c r="AT20" s="219"/>
-      <c r="AU20" s="219"/>
-      <c r="AV20" s="219"/>
-      <c r="AW20" s="219"/>
-      <c r="AX20" s="219"/>
-      <c r="AY20" s="219"/>
-      <c r="AZ20" s="219"/>
-      <c r="BA20" s="219"/>
-      <c r="BB20" s="219"/>
-      <c r="BC20" s="219"/>
-      <c r="BD20" s="219"/>
-      <c r="BE20" s="219"/>
-      <c r="BF20" s="219"/>
-      <c r="BG20" s="219"/>
-      <c r="BH20" s="219"/>
-      <c r="BI20" s="219"/>
-      <c r="BJ20" s="219"/>
-      <c r="BK20" s="219"/>
-      <c r="BL20" s="219"/>
-      <c r="BM20" s="219"/>
-      <c r="BN20" s="219"/>
-      <c r="BO20" s="219"/>
-      <c r="BP20" s="219"/>
-      <c r="BQ20" s="219"/>
-      <c r="BR20" s="219"/>
-      <c r="BS20" s="219"/>
-      <c r="BT20" s="219"/>
-      <c r="BU20" s="219"/>
-      <c r="BV20" s="219"/>
-      <c r="BW20" s="219"/>
-      <c r="BX20" s="219"/>
-      <c r="BY20" s="219"/>
-      <c r="BZ20" s="219"/>
-      <c r="CA20" s="219"/>
-      <c r="CB20" s="219"/>
-      <c r="CC20" s="219"/>
-      <c r="CD20" s="219"/>
-      <c r="CE20" s="219"/>
-      <c r="CF20" s="219"/>
-      <c r="CG20" s="219"/>
-      <c r="CH20" s="219"/>
-      <c r="CI20" s="219"/>
-      <c r="CJ20" s="219"/>
-      <c r="CK20" s="219"/>
-      <c r="CL20" s="219"/>
-      <c r="CM20" s="219"/>
-      <c r="CN20" s="219"/>
-      <c r="CO20" s="219"/>
-      <c r="CP20" s="219"/>
-      <c r="CQ20" s="219"/>
-      <c r="CR20" s="219"/>
-      <c r="CS20" s="219"/>
-      <c r="CT20" s="219"/>
-      <c r="CU20" s="219"/>
-      <c r="CV20" s="219"/>
-      <c r="CW20" s="219"/>
-      <c r="CX20" s="219"/>
-      <c r="CY20" s="219"/>
-      <c r="CZ20" s="219"/>
-      <c r="DA20" s="219"/>
-      <c r="DB20" s="219"/>
-      <c r="DC20" s="219"/>
-      <c r="DD20" s="219"/>
-      <c r="DE20" s="219"/>
-      <c r="DF20" s="219"/>
-      <c r="DG20" s="219"/>
-      <c r="DH20" s="219"/>
-      <c r="DI20" s="219"/>
-      <c r="DJ20" s="219"/>
-      <c r="DK20" s="219"/>
-      <c r="DL20" s="219"/>
-      <c r="DM20" s="219"/>
-      <c r="DN20" s="219"/>
-      <c r="DO20" s="219"/>
-      <c r="DP20" s="219"/>
-      <c r="DQ20" s="219"/>
-      <c r="DR20" s="219"/>
-      <c r="DS20" s="219"/>
-      <c r="DT20" s="219"/>
-      <c r="DU20" s="219"/>
-      <c r="DV20" s="219"/>
-      <c r="DW20" s="219"/>
-      <c r="DX20" s="219"/>
-      <c r="DY20" s="219"/>
-      <c r="DZ20" s="219"/>
-      <c r="EA20" s="219"/>
-      <c r="EB20" s="219"/>
-      <c r="EC20" s="219"/>
-      <c r="ED20" s="219"/>
-      <c r="EE20" s="219"/>
-      <c r="EF20" s="219"/>
-      <c r="EG20" s="219"/>
-      <c r="EH20" s="219"/>
-      <c r="EI20" s="219"/>
-      <c r="EJ20" s="219"/>
-      <c r="EK20" s="219"/>
-      <c r="EL20" s="219"/>
-      <c r="EM20" s="219"/>
-      <c r="EN20" s="219"/>
-      <c r="EO20" s="219"/>
-      <c r="EP20" s="219"/>
-      <c r="EQ20" s="219"/>
-      <c r="ER20" s="219"/>
-      <c r="ES20" s="219"/>
-      <c r="ET20" s="219"/>
-      <c r="EU20" s="219"/>
-      <c r="EV20" s="219"/>
-      <c r="EW20" s="219"/>
-      <c r="EX20" s="219"/>
-      <c r="EY20" s="219"/>
-      <c r="EZ20" s="219"/>
-      <c r="FA20" s="219"/>
-      <c r="FB20" s="219"/>
-      <c r="FC20" s="219"/>
-      <c r="FD20" s="219"/>
-      <c r="FE20" s="219"/>
-      <c r="FF20" s="219"/>
-      <c r="FG20" s="219"/>
-      <c r="FH20" s="219"/>
-      <c r="FI20" s="219"/>
-      <c r="FJ20" s="219"/>
-      <c r="FK20" s="219"/>
-      <c r="FL20" s="219"/>
-      <c r="FM20" s="219"/>
-      <c r="FN20" s="219"/>
-      <c r="FO20" s="219"/>
-      <c r="FP20" s="219"/>
-      <c r="FQ20" s="219"/>
-      <c r="FR20" s="219"/>
-      <c r="FS20" s="219"/>
-      <c r="FT20" s="219"/>
-      <c r="FU20" s="219"/>
-      <c r="FV20" s="219"/>
-      <c r="FW20" s="219"/>
-      <c r="FX20" s="219"/>
-      <c r="FY20" s="219"/>
-      <c r="FZ20" s="219"/>
-      <c r="GA20" s="219"/>
-      <c r="GB20" s="219"/>
-      <c r="GC20" s="219"/>
-      <c r="GD20" s="219"/>
-      <c r="GE20" s="219"/>
-      <c r="GF20" s="219"/>
-      <c r="GG20" s="219"/>
-      <c r="GH20" s="219"/>
-      <c r="GI20" s="219"/>
-      <c r="GJ20" s="219"/>
-      <c r="GK20" s="219"/>
-      <c r="GL20" s="219"/>
-      <c r="GM20" s="219"/>
-      <c r="GN20" s="219"/>
-      <c r="GO20" s="219"/>
-      <c r="GP20" s="219"/>
-      <c r="GQ20" s="219"/>
-      <c r="GR20" s="219"/>
-      <c r="GS20" s="219"/>
-      <c r="GT20" s="219"/>
-      <c r="GU20" s="219"/>
-      <c r="GV20" s="219"/>
-      <c r="GW20" s="219"/>
-      <c r="GX20" s="219"/>
-      <c r="GY20" s="219"/>
-      <c r="GZ20" s="219"/>
-      <c r="HA20" s="219"/>
-      <c r="HB20" s="219"/>
-      <c r="HC20" s="219"/>
-      <c r="HD20" s="219"/>
-      <c r="HE20" s="219"/>
-      <c r="HF20" s="219"/>
-      <c r="HG20" s="219"/>
-      <c r="HH20" s="219"/>
-      <c r="HI20" s="219"/>
-      <c r="HJ20" s="219"/>
-      <c r="HK20" s="219"/>
-      <c r="HL20" s="219"/>
-      <c r="HM20" s="219"/>
-      <c r="HN20" s="219"/>
-      <c r="HO20" s="219"/>
-      <c r="HP20" s="219"/>
-      <c r="HQ20" s="219"/>
-      <c r="HR20" s="219"/>
-      <c r="HS20" s="219"/>
-      <c r="HT20" s="219"/>
-      <c r="HU20" s="219"/>
-      <c r="HV20" s="219"/>
-      <c r="HW20" s="219"/>
-      <c r="HX20" s="219"/>
-      <c r="HY20" s="219"/>
-      <c r="HZ20" s="219"/>
-      <c r="IA20" s="219"/>
-      <c r="IB20" s="219"/>
-      <c r="IC20" s="219"/>
-      <c r="ID20" s="219"/>
-      <c r="IE20" s="219"/>
-      <c r="IF20" s="219"/>
-      <c r="IG20" s="219"/>
-      <c r="IH20" s="219"/>
-      <c r="II20" s="219"/>
-      <c r="IJ20" s="219"/>
-      <c r="IK20" s="219"/>
+      <c r="Q20" s="216"/>
+      <c r="R20" s="216"/>
+      <c r="S20" s="216"/>
+      <c r="T20" s="216"/>
+      <c r="U20" s="216"/>
+      <c r="V20" s="216"/>
+      <c r="W20" s="216"/>
+      <c r="X20" s="216"/>
+      <c r="Y20" s="216"/>
+      <c r="Z20" s="216"/>
+      <c r="AA20" s="216"/>
+      <c r="AB20" s="216"/>
+      <c r="AC20" s="216"/>
+      <c r="AD20" s="216"/>
+      <c r="AE20" s="216"/>
+      <c r="AF20" s="216"/>
+      <c r="AG20" s="216"/>
+      <c r="AH20" s="216"/>
+      <c r="AI20" s="216"/>
+      <c r="AJ20" s="216"/>
+      <c r="AK20" s="216"/>
+      <c r="AL20" s="216"/>
+      <c r="AM20" s="216"/>
+      <c r="AN20" s="216"/>
+      <c r="AO20" s="216"/>
+      <c r="AP20" s="216"/>
+      <c r="AQ20" s="216"/>
+      <c r="AR20" s="216"/>
+      <c r="AS20" s="216"/>
+      <c r="AT20" s="216"/>
+      <c r="AU20" s="216"/>
+      <c r="AV20" s="216"/>
+      <c r="AW20" s="216"/>
+      <c r="AX20" s="216"/>
+      <c r="AY20" s="216"/>
+      <c r="AZ20" s="216"/>
+      <c r="BA20" s="216"/>
+      <c r="BB20" s="216"/>
+      <c r="BC20" s="216"/>
+      <c r="BD20" s="216"/>
+      <c r="BE20" s="216"/>
+      <c r="BF20" s="216"/>
+      <c r="BG20" s="216"/>
+      <c r="BH20" s="216"/>
+      <c r="BI20" s="216"/>
+      <c r="BJ20" s="216"/>
+      <c r="BK20" s="216"/>
+      <c r="BL20" s="216"/>
+      <c r="BM20" s="216"/>
+      <c r="BN20" s="216"/>
+      <c r="BO20" s="216"/>
+      <c r="BP20" s="216"/>
+      <c r="BQ20" s="216"/>
+      <c r="BR20" s="216"/>
+      <c r="BS20" s="216"/>
+      <c r="BT20" s="216"/>
+      <c r="BU20" s="216"/>
+      <c r="BV20" s="216"/>
+      <c r="BW20" s="216"/>
+      <c r="BX20" s="216"/>
+      <c r="BY20" s="216"/>
+      <c r="BZ20" s="216"/>
+      <c r="CA20" s="216"/>
+      <c r="CB20" s="216"/>
+      <c r="CC20" s="216"/>
+      <c r="CD20" s="216"/>
+      <c r="CE20" s="216"/>
+      <c r="CF20" s="216"/>
+      <c r="CG20" s="216"/>
+      <c r="CH20" s="216"/>
+      <c r="CI20" s="216"/>
+      <c r="CJ20" s="216"/>
+      <c r="CK20" s="216"/>
+      <c r="CL20" s="216"/>
+      <c r="CM20" s="216"/>
+      <c r="CN20" s="216"/>
+      <c r="CO20" s="216"/>
+      <c r="CP20" s="216"/>
+      <c r="CQ20" s="216"/>
+      <c r="CR20" s="216"/>
+      <c r="CS20" s="216"/>
+      <c r="CT20" s="216"/>
+      <c r="CU20" s="216"/>
+      <c r="CV20" s="216"/>
+      <c r="CW20" s="216"/>
+      <c r="CX20" s="216"/>
+      <c r="CY20" s="216"/>
+      <c r="CZ20" s="216"/>
+      <c r="DA20" s="216"/>
+      <c r="DB20" s="216"/>
+      <c r="DC20" s="216"/>
+      <c r="DD20" s="216"/>
+      <c r="DE20" s="216"/>
+      <c r="DF20" s="216"/>
+      <c r="DG20" s="216"/>
+      <c r="DH20" s="216"/>
+      <c r="DI20" s="216"/>
+      <c r="DJ20" s="216"/>
+      <c r="DK20" s="216"/>
+      <c r="DL20" s="216"/>
+      <c r="DM20" s="216"/>
+      <c r="DN20" s="216"/>
+      <c r="DO20" s="216"/>
+      <c r="DP20" s="216"/>
+      <c r="DQ20" s="216"/>
+      <c r="DR20" s="216"/>
+      <c r="DS20" s="216"/>
+      <c r="DT20" s="216"/>
+      <c r="DU20" s="216"/>
+      <c r="DV20" s="216"/>
+      <c r="DW20" s="216"/>
+      <c r="DX20" s="216"/>
+      <c r="DY20" s="216"/>
+      <c r="DZ20" s="216"/>
+      <c r="EA20" s="216"/>
+      <c r="EB20" s="216"/>
+      <c r="EC20" s="216"/>
+      <c r="ED20" s="216"/>
+      <c r="EE20" s="216"/>
+      <c r="EF20" s="216"/>
+      <c r="EG20" s="216"/>
+      <c r="EH20" s="216"/>
+      <c r="EI20" s="216"/>
+      <c r="EJ20" s="216"/>
+      <c r="EK20" s="216"/>
+      <c r="EL20" s="216"/>
+      <c r="EM20" s="216"/>
+      <c r="EN20" s="216"/>
+      <c r="EO20" s="216"/>
+      <c r="EP20" s="216"/>
+      <c r="EQ20" s="216"/>
+      <c r="ER20" s="216"/>
+      <c r="ES20" s="216"/>
+      <c r="ET20" s="216"/>
+      <c r="EU20" s="216"/>
+      <c r="EV20" s="216"/>
+      <c r="EW20" s="216"/>
+      <c r="EX20" s="216"/>
+      <c r="EY20" s="216"/>
+      <c r="EZ20" s="216"/>
+      <c r="FA20" s="216"/>
+      <c r="FB20" s="216"/>
+      <c r="FC20" s="216"/>
+      <c r="FD20" s="216"/>
+      <c r="FE20" s="216"/>
+      <c r="FF20" s="216"/>
+      <c r="FG20" s="216"/>
+      <c r="FH20" s="216"/>
+      <c r="FI20" s="216"/>
+      <c r="FJ20" s="216"/>
+      <c r="FK20" s="216"/>
+      <c r="FL20" s="216"/>
+      <c r="FM20" s="216"/>
+      <c r="FN20" s="216"/>
+      <c r="FO20" s="216"/>
+      <c r="FP20" s="216"/>
+      <c r="FQ20" s="216"/>
+      <c r="FR20" s="216"/>
+      <c r="FS20" s="216"/>
+      <c r="FT20" s="216"/>
+      <c r="FU20" s="216"/>
+      <c r="FV20" s="216"/>
+      <c r="FW20" s="216"/>
+      <c r="FX20" s="216"/>
+      <c r="FY20" s="216"/>
+      <c r="FZ20" s="216"/>
+      <c r="GA20" s="216"/>
+      <c r="GB20" s="216"/>
+      <c r="GC20" s="216"/>
+      <c r="GD20" s="216"/>
+      <c r="GE20" s="216"/>
+      <c r="GF20" s="216"/>
+      <c r="GG20" s="216"/>
+      <c r="GH20" s="216"/>
+      <c r="GI20" s="216"/>
+      <c r="GJ20" s="216"/>
+      <c r="GK20" s="216"/>
+      <c r="GL20" s="216"/>
+      <c r="GM20" s="216"/>
+      <c r="GN20" s="216"/>
+      <c r="GO20" s="216"/>
+      <c r="GP20" s="216"/>
+      <c r="GQ20" s="216"/>
+      <c r="GR20" s="216"/>
+      <c r="GS20" s="216"/>
+      <c r="GT20" s="216"/>
+      <c r="GU20" s="216"/>
+      <c r="GV20" s="216"/>
+      <c r="GW20" s="216"/>
+      <c r="GX20" s="216"/>
+      <c r="GY20" s="216"/>
+      <c r="GZ20" s="216"/>
+      <c r="HA20" s="216"/>
+      <c r="HB20" s="216"/>
+      <c r="HC20" s="216"/>
+      <c r="HD20" s="216"/>
+      <c r="HE20" s="216"/>
+      <c r="HF20" s="216"/>
+      <c r="HG20" s="216"/>
+      <c r="HH20" s="216"/>
+      <c r="HI20" s="216"/>
+      <c r="HJ20" s="216"/>
+      <c r="HK20" s="216"/>
+      <c r="HL20" s="216"/>
+      <c r="HM20" s="216"/>
+      <c r="HN20" s="216"/>
+      <c r="HO20" s="216"/>
+      <c r="HP20" s="216"/>
+      <c r="HQ20" s="216"/>
+      <c r="HR20" s="216"/>
+      <c r="HS20" s="216"/>
+      <c r="HT20" s="216"/>
+      <c r="HU20" s="216"/>
+      <c r="HV20" s="216"/>
+      <c r="HW20" s="216"/>
+      <c r="HX20" s="216"/>
+      <c r="HY20" s="216"/>
+      <c r="HZ20" s="216"/>
+      <c r="IA20" s="216"/>
+      <c r="IB20" s="216"/>
+      <c r="IC20" s="216"/>
+      <c r="ID20" s="216"/>
+      <c r="IE20" s="216"/>
+      <c r="IF20" s="216"/>
+      <c r="IG20" s="216"/>
+      <c r="IH20" s="216"/>
+      <c r="II20" s="216"/>
+      <c r="IJ20" s="216"/>
+      <c r="IK20" s="216"/>
     </row>
     <row r="21" spans="1:245" ht="14.25" customHeight="1">
       <c r="A21" s="58"/>
@@ -11929,11 +11954,11 @@
       </c>
       <c r="C21" s="58"/>
       <c r="D21" s="58"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="215"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="212"/>
       <c r="J21" s="95"/>
       <c r="K21" s="95"/>
       <c r="L21" s="95"/>
@@ -12176,10 +12201,10 @@
         <v>114</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="D22" s="91" t="s">
         <v>264</v>
@@ -12437,13 +12462,13 @@
         <v>115</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="E23" s="146"/>
       <c r="F23" s="117" t="s">
@@ -12698,13 +12723,13 @@
         <v>116</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="E24" s="146"/>
       <c r="F24" s="117" t="s">
@@ -12959,13 +12984,13 @@
         <v>117</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E25" s="146"/>
       <c r="F25" s="117" t="s">
@@ -13220,13 +13245,13 @@
         <v>266</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="D26" s="91" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E26" s="146"/>
       <c r="F26" s="117" t="s">
@@ -13481,13 +13506,13 @@
         <v>267</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="E27" s="146"/>
       <c r="F27" s="117" t="s">
@@ -13742,13 +13767,13 @@
         <v>268</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="C28" s="91" t="s">
         <v>259</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="E28" s="146"/>
       <c r="F28" s="117" t="s">
@@ -14003,13 +14028,13 @@
         <v>269</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="C29" s="91" t="s">
         <v>259</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E29" s="146"/>
       <c r="F29" s="117" t="s">
@@ -14261,16 +14286,16 @@
     </row>
     <row r="30" spans="1:245" ht="54" customHeight="1">
       <c r="A30" s="91" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="C30" s="91" t="s">
         <v>259</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E30" s="146"/>
       <c r="F30" s="117" t="s">
@@ -14522,16 +14547,16 @@
     </row>
     <row r="31" spans="1:245" ht="60.75" customHeight="1">
       <c r="A31" s="91" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="C31" s="91" t="s">
         <v>259</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E31" s="146"/>
       <c r="F31" s="117" t="s">
@@ -14783,10 +14808,10 @@
     </row>
     <row r="32" spans="1:245" ht="60.75" customHeight="1">
       <c r="A32" s="91" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="C32" s="91" t="s">
         <v>260</v>
@@ -15044,16 +15069,16 @@
     </row>
     <row r="33" spans="1:245" ht="60.75" customHeight="1">
       <c r="A33" s="91" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="C33" s="91" t="s">
         <v>260</v>
       </c>
       <c r="D33" s="91" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="E33" s="146"/>
       <c r="F33" s="117" t="s">
@@ -15305,16 +15330,16 @@
     </row>
     <row r="34" spans="1:245" ht="60.75" customHeight="1">
       <c r="A34" s="91" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="C34" s="91" t="s">
         <v>260</v>
       </c>
       <c r="D34" s="91" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E34" s="146"/>
       <c r="F34" s="117" t="s">
@@ -15566,16 +15591,16 @@
     </row>
     <row r="35" spans="1:245" ht="60.75" customHeight="1">
       <c r="A35" s="91" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="C35" s="91" t="s">
         <v>260</v>
       </c>
       <c r="D35" s="91" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E35" s="146"/>
       <c r="F35" s="117" t="s">
@@ -15827,16 +15852,16 @@
     </row>
     <row r="36" spans="1:245" ht="60.75" customHeight="1">
       <c r="A36" s="91" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="C36" s="91" t="s">
         <v>260</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E36" s="146"/>
       <c r="F36" s="117" t="s">
@@ -16088,10 +16113,10 @@
     </row>
     <row r="37" spans="1:245" ht="60.75" customHeight="1">
       <c r="A37" s="91" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="C37" s="91" t="s">
         <v>265</v>
@@ -16349,16 +16374,16 @@
     </row>
     <row r="38" spans="1:245" ht="60.75" customHeight="1">
       <c r="A38" s="91" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="C38" s="91" t="s">
         <v>265</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="E38" s="146"/>
       <c r="F38" s="117" t="s">
@@ -16610,16 +16635,16 @@
     </row>
     <row r="39" spans="1:245" ht="60.75" customHeight="1">
       <c r="A39" s="91" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="C39" s="91" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E39" s="146"/>
       <c r="F39" s="117" t="s">
@@ -16871,19 +16896,19 @@
     </row>
     <row r="40" spans="1:245" ht="55.5" customHeight="1">
       <c r="A40" s="91" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D40" s="91" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E40" s="146"/>
-      <c r="F40" s="237" t="s">
+      <c r="F40" s="234" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="117" t="s">
@@ -17132,16 +17157,16 @@
     </row>
     <row r="41" spans="1:245" ht="56.25" customHeight="1">
       <c r="A41" s="91" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D41" s="91" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E41" s="146"/>
       <c r="F41" s="117" t="s">
@@ -17393,10 +17418,10 @@
     </row>
     <row r="42" spans="1:245" ht="59.25" customHeight="1">
       <c r="A42" s="91" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="C42" s="91" t="s">
         <v>261</v>
@@ -17654,16 +17679,16 @@
     </row>
     <row r="43" spans="1:245" ht="59.25" customHeight="1">
       <c r="A43" s="91" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="C43" s="91" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="E43" s="146"/>
       <c r="F43" s="117" t="s">
@@ -17915,16 +17940,16 @@
     </row>
     <row r="44" spans="1:245" ht="59.25" customHeight="1">
       <c r="A44" s="91" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="C44" s="91" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D44" s="91" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E44" s="146"/>
       <c r="F44" s="117" t="s">
@@ -18176,16 +18201,16 @@
     </row>
     <row r="45" spans="1:245" ht="59.25" customHeight="1">
       <c r="A45" s="91" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="C45" s="91" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D45" s="91" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E45" s="146"/>
       <c r="F45" s="117" t="s">
@@ -18437,16 +18462,16 @@
     </row>
     <row r="46" spans="1:245" ht="59.25" customHeight="1">
       <c r="A46" s="91" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="C46" s="91" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D46" s="91" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E46" s="146"/>
       <c r="F46" s="117" t="s">
@@ -18698,10 +18723,10 @@
     </row>
     <row r="47" spans="1:245" ht="59.25" customHeight="1">
       <c r="A47" s="91" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="C47" s="91" t="s">
         <v>270</v>
@@ -18959,10 +18984,10 @@
     </row>
     <row r="48" spans="1:245" ht="59.25" customHeight="1">
       <c r="A48" s="91" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="C48" s="91" t="s">
         <v>272</v>
@@ -19220,13 +19245,13 @@
     </row>
     <row r="49" spans="1:256" ht="59.25" customHeight="1">
       <c r="A49" s="91" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="C49" s="91" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D49" s="91" t="s">
         <v>271</v>
@@ -19481,13 +19506,13 @@
     </row>
     <row r="50" spans="1:256" ht="59.25" customHeight="1">
       <c r="A50" s="91" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B50" s="91" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="C50" s="91" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D50" s="91" t="s">
         <v>271</v>
@@ -19742,7 +19767,7 @@
     </row>
     <row r="51" spans="1:256" ht="51.75" customHeight="1">
       <c r="A51" s="91" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B51" s="91" t="s">
         <v>64</v>
@@ -20004,15 +20029,15 @@
     <row r="52" spans="1:256" ht="15" customHeight="1">
       <c r="A52" s="59"/>
       <c r="B52" s="58" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
       <c r="F52" s="59"/>
       <c r="G52" s="59"/>
-      <c r="H52" s="242"/>
-      <c r="I52" s="239"/>
+      <c r="H52" s="239"/>
+      <c r="I52" s="236"/>
       <c r="J52" s="95"/>
       <c r="K52" s="95"/>
       <c r="L52" s="95"/>
@@ -20262,18 +20287,18 @@
       <c r="IV52" s="95"/>
     </row>
     <row r="53" spans="1:256" ht="30" customHeight="1">
-      <c r="A53" s="210" t="str">
+      <c r="A53" s="207" t="str">
         <f t="shared" ref="A53:A63" si="5">IF(OR(B53&lt;&gt;"",D53&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-43]</v>
       </c>
       <c r="B53" s="91" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C53" s="91" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D53" s="123" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E53" s="147"/>
       <c r="F53" s="117" t="s">
@@ -20524,20 +20549,20 @@
       <c r="IK53" s="95"/>
     </row>
     <row r="54" spans="1:256" ht="37.5" customHeight="1">
-      <c r="A54" s="210" t="str">
+      <c r="A54" s="207" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-44]</v>
       </c>
       <c r="B54" s="91" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C54" s="91" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D54" s="123" t="s">
-        <v>396</v>
-      </c>
-      <c r="E54" s="241"/>
+        <v>392</v>
+      </c>
+      <c r="E54" s="238"/>
       <c r="F54" s="117" t="s">
         <v>22</v>
       </c>
@@ -20786,20 +20811,20 @@
       <c r="IK54" s="95"/>
     </row>
     <row r="55" spans="1:256" ht="43.5" customHeight="1">
-      <c r="A55" s="210" t="str">
+      <c r="A55" s="207" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-45]</v>
       </c>
       <c r="B55" s="91" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C55" s="91" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D55" s="123" t="s">
-        <v>410</v>
-      </c>
-      <c r="E55" s="241"/>
+        <v>406</v>
+      </c>
+      <c r="E55" s="238"/>
       <c r="F55" s="117" t="s">
         <v>22</v>
       </c>
@@ -21048,20 +21073,20 @@
       <c r="IK55" s="95"/>
     </row>
     <row r="56" spans="1:256" ht="42.75" customHeight="1">
-      <c r="A56" s="210" t="str">
+      <c r="A56" s="207" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-46]</v>
       </c>
       <c r="B56" s="91" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C56" s="91" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D56" s="123" t="s">
-        <v>412</v>
-      </c>
-      <c r="E56" s="241"/>
+        <v>408</v>
+      </c>
+      <c r="E56" s="238"/>
       <c r="F56" s="117" t="s">
         <v>22</v>
       </c>
@@ -21310,20 +21335,20 @@
       <c r="IK56" s="95"/>
     </row>
     <row r="57" spans="1:256" ht="44.25" customHeight="1">
-      <c r="A57" s="210" t="str">
+      <c r="A57" s="207" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-47]</v>
       </c>
       <c r="B57" s="91" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C57" s="91" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D57" s="123" t="s">
-        <v>411</v>
-      </c>
-      <c r="E57" s="241"/>
+        <v>407</v>
+      </c>
+      <c r="E57" s="238"/>
       <c r="F57" s="117" t="s">
         <v>22</v>
       </c>
@@ -21572,20 +21597,20 @@
       <c r="IK57" s="95"/>
     </row>
     <row r="58" spans="1:256" ht="53.25" customHeight="1">
-      <c r="A58" s="210" t="str">
+      <c r="A58" s="207" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-48]</v>
       </c>
       <c r="B58" s="91" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C58" s="91" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D58" s="123" t="s">
-        <v>415</v>
-      </c>
-      <c r="E58" s="241"/>
+        <v>411</v>
+      </c>
+      <c r="E58" s="238"/>
       <c r="F58" s="117" t="s">
         <v>22</v>
       </c>
@@ -21834,20 +21859,20 @@
       <c r="IK58" s="95"/>
     </row>
     <row r="59" spans="1:256" ht="44.25" customHeight="1">
-      <c r="A59" s="210" t="str">
+      <c r="A59" s="207" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-49]</v>
       </c>
       <c r="B59" s="91" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C59" s="91" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D59" s="123" t="s">
-        <v>414</v>
-      </c>
-      <c r="E59" s="241"/>
+        <v>410</v>
+      </c>
+      <c r="E59" s="238"/>
       <c r="F59" s="117" t="s">
         <v>22</v>
       </c>
@@ -22096,20 +22121,20 @@
       <c r="IK59" s="95"/>
     </row>
     <row r="60" spans="1:256" ht="49.5" customHeight="1">
-      <c r="A60" s="210" t="str">
+      <c r="A60" s="207" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-50]</v>
       </c>
       <c r="B60" s="91" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C60" s="91" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D60" s="123" t="s">
-        <v>413</v>
-      </c>
-      <c r="E60" s="241"/>
+        <v>409</v>
+      </c>
+      <c r="E60" s="238"/>
       <c r="F60" s="117" t="s">
         <v>22</v>
       </c>
@@ -22358,18 +22383,18 @@
       <c r="IK60" s="95"/>
     </row>
     <row r="61" spans="1:256" ht="42" customHeight="1">
-      <c r="A61" s="210" t="str">
+      <c r="A61" s="207" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-51]</v>
       </c>
       <c r="B61" s="91" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C61" s="91" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D61" s="123" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E61" s="147"/>
       <c r="F61" s="117" t="s">
@@ -22620,7 +22645,7 @@
       <c r="IK61" s="95"/>
     </row>
     <row r="62" spans="1:256" ht="15" customHeight="1">
-      <c r="A62" s="210"/>
+      <c r="A62" s="207"/>
       <c r="B62" s="58" t="s">
         <v>71</v>
       </c>
@@ -22630,7 +22655,7 @@
       <c r="F62" s="59"/>
       <c r="G62" s="58"/>
       <c r="H62" s="112"/>
-      <c r="I62" s="240"/>
+      <c r="I62" s="237"/>
       <c r="J62" s="171"/>
       <c r="K62" s="95"/>
       <c r="L62" s="95"/>
@@ -22876,7 +22901,7 @@
       <c r="IR62" s="95"/>
     </row>
     <row r="63" spans="1:256" ht="59.25" customHeight="1">
-      <c r="A63" s="210" t="str">
+      <c r="A63" s="207" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-53]</v>
       </c>
@@ -22890,17 +22915,17 @@
         <v>118</v>
       </c>
       <c r="E63" s="123"/>
-      <c r="F63" s="177" t="s">
+      <c r="F63" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="G63" s="177" t="s">
+      <c r="G63" s="175" t="s">
         <v>22</v>
       </c>
       <c r="H63" s="112">
         <v>42381</v>
       </c>
       <c r="I63" s="148"/>
-      <c r="J63" s="221"/>
+      <c r="J63" s="218"/>
       <c r="K63" s="95"/>
       <c r="L63" s="95"/>
       <c r="M63" s="95"/>
@@ -23169,7 +23194,7 @@
         <v>42381</v>
       </c>
       <c r="I64" s="107"/>
-      <c r="J64" s="222"/>
+      <c r="J64" s="219"/>
       <c r="K64" s="95"/>
       <c r="L64" s="95"/>
       <c r="M64" s="95"/>
@@ -23438,7 +23463,7 @@
         <v>42381</v>
       </c>
       <c r="I65" s="107"/>
-      <c r="J65" s="222"/>
+      <c r="J65" s="219"/>
       <c r="K65" s="95"/>
       <c r="L65" s="95"/>
       <c r="M65" s="95"/>
@@ -24205,7 +24230,7 @@
         <v>241</v>
       </c>
       <c r="D68" s="136" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="E68" s="91"/>
       <c r="F68" s="117" t="s">
@@ -24218,7 +24243,7 @@
         <v>42381</v>
       </c>
       <c r="I68" s="107"/>
-      <c r="J68" s="221"/>
+      <c r="J68" s="218"/>
       <c r="K68" s="95"/>
       <c r="L68" s="95"/>
       <c r="M68" s="95"/>
@@ -24487,7 +24512,7 @@
         <v>42381</v>
       </c>
       <c r="I69" s="107"/>
-      <c r="J69" s="222"/>
+      <c r="J69" s="219"/>
       <c r="K69" s="95"/>
       <c r="L69" s="95"/>
       <c r="M69" s="95"/>
@@ -24756,7 +24781,7 @@
         <v>42381</v>
       </c>
       <c r="I70" s="107"/>
-      <c r="J70" s="222"/>
+      <c r="J70" s="219"/>
       <c r="K70" s="95"/>
       <c r="L70" s="95"/>
       <c r="M70" s="95"/>
@@ -25025,7 +25050,7 @@
         <v>42381</v>
       </c>
       <c r="I71" s="107"/>
-      <c r="J71" s="222"/>
+      <c r="J71" s="219"/>
       <c r="K71" s="95"/>
       <c r="L71" s="95"/>
       <c r="M71" s="95"/>
@@ -25294,7 +25319,7 @@
         <v>42381</v>
       </c>
       <c r="I72" s="107"/>
-      <c r="J72" s="222"/>
+      <c r="J72" s="219"/>
       <c r="K72" s="95"/>
       <c r="L72" s="95"/>
       <c r="M72" s="95"/>
@@ -25563,7 +25588,7 @@
         <v>42381</v>
       </c>
       <c r="I73" s="107"/>
-      <c r="J73" s="222"/>
+      <c r="J73" s="219"/>
       <c r="K73" s="95"/>
       <c r="L73" s="95"/>
       <c r="M73" s="95"/>
@@ -25832,7 +25857,7 @@
         <v>42381</v>
       </c>
       <c r="I74" s="107"/>
-      <c r="J74" s="222"/>
+      <c r="J74" s="219"/>
       <c r="K74" s="95"/>
       <c r="L74" s="95"/>
       <c r="M74" s="95"/>
@@ -26101,7 +26126,7 @@
         <v>42381</v>
       </c>
       <c r="I75" s="107"/>
-      <c r="J75" s="222"/>
+      <c r="J75" s="219"/>
       <c r="K75" s="95"/>
       <c r="L75" s="95"/>
       <c r="M75" s="95"/>
@@ -26370,7 +26395,7 @@
         <v>42381</v>
       </c>
       <c r="I76" s="107"/>
-      <c r="J76" s="222"/>
+      <c r="J76" s="219"/>
       <c r="K76" s="95"/>
       <c r="L76" s="95"/>
       <c r="M76" s="95"/>
@@ -26866,10 +26891,10 @@
         <v>68</v>
       </c>
       <c r="C78" s="91" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="E78" s="91"/>
       <c r="F78" s="117" t="s">
@@ -27368,24 +27393,24 @@
       <c r="IP79" s="95"/>
     </row>
     <row r="80" spans="1:252" ht="51" customHeight="1">
-      <c r="A80" s="232" t="str">
+      <c r="A80" s="229" t="str">
         <f t="shared" ref="A80:A81" si="9">IF(OR(B80&lt;&gt;"",D80&lt;E79&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-70]</v>
       </c>
-      <c r="B80" s="235" t="s">
+      <c r="B80" s="232" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="235" t="s">
+      <c r="C80" s="232" t="s">
         <v>244</v>
       </c>
-      <c r="D80" s="235" t="s">
+      <c r="D80" s="232" t="s">
         <v>245</v>
       </c>
-      <c r="E80" s="236"/>
-      <c r="F80" s="233" t="s">
+      <c r="E80" s="233"/>
+      <c r="F80" s="230" t="s">
         <v>22</v>
       </c>
-      <c r="G80" s="235" t="s">
+      <c r="G80" s="232" t="s">
         <v>22</v>
       </c>
       <c r="H80" s="112">
@@ -27624,30 +27649,30 @@
       <c r="IK80" s="95"/>
     </row>
     <row r="81" spans="1:245" ht="97.5" customHeight="1">
-      <c r="A81" s="226" t="str">
+      <c r="A81" s="223" t="str">
         <f t="shared" si="9"/>
         <v>[User_login-71]</v>
       </c>
-      <c r="B81" s="227" t="s">
+      <c r="B81" s="224" t="s">
         <v>275</v>
       </c>
-      <c r="C81" s="228" t="s">
+      <c r="C81" s="225" t="s">
         <v>277</v>
       </c>
-      <c r="D81" s="229" t="s">
+      <c r="D81" s="226" t="s">
         <v>278</v>
       </c>
-      <c r="E81" s="229"/>
-      <c r="F81" s="227" t="s">
+      <c r="E81" s="226"/>
+      <c r="F81" s="224" t="s">
         <v>22</v>
       </c>
-      <c r="G81" s="227" t="s">
+      <c r="G81" s="224" t="s">
         <v>22</v>
       </c>
       <c r="H81" s="112">
         <v>42381</v>
       </c>
-      <c r="I81" s="225"/>
+      <c r="I81" s="222"/>
       <c r="J81" s="95"/>
       <c r="Q81" s="95"/>
       <c r="R81" s="95"/>
@@ -27880,30 +27905,30 @@
       <c r="IK81" s="95"/>
     </row>
     <row r="82" spans="1:245" ht="60" customHeight="1">
-      <c r="A82" s="226" t="str">
+      <c r="A82" s="223" t="str">
         <f t="shared" ref="A82" si="10">IF(OR(B82&lt;&gt;"",D82&lt;E81&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-72]</v>
       </c>
-      <c r="B82" s="227" t="s">
+      <c r="B82" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="C82" s="228" t="s">
+      <c r="C82" s="225" t="s">
         <v>246</v>
       </c>
-      <c r="D82" s="229" t="s">
+      <c r="D82" s="226" t="s">
         <v>279</v>
       </c>
-      <c r="E82" s="229"/>
-      <c r="F82" s="227" t="s">
+      <c r="E82" s="226"/>
+      <c r="F82" s="224" t="s">
         <v>22</v>
       </c>
-      <c r="G82" s="227" t="s">
+      <c r="G82" s="224" t="s">
         <v>22</v>
       </c>
       <c r="H82" s="112">
         <v>42381</v>
       </c>
-      <c r="I82" s="234"/>
+      <c r="I82" s="231"/>
       <c r="J82" s="95"/>
       <c r="Q82" s="95"/>
       <c r="R82" s="95"/>
@@ -28136,30 +28161,30 @@
       <c r="IK82" s="95"/>
     </row>
     <row r="83" spans="1:245" ht="37.5" customHeight="1">
-      <c r="A83" s="226" t="str">
+      <c r="A83" s="223" t="str">
         <f t="shared" ref="A83" si="11">IF(OR(B83&lt;&gt;"",D83&lt;E82&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-73]</v>
       </c>
-      <c r="B83" s="227" t="s">
+      <c r="B83" s="224" t="s">
         <v>274</v>
       </c>
-      <c r="C83" s="228" t="s">
+      <c r="C83" s="225" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="229" t="s">
+      <c r="D83" s="226" t="s">
         <v>280</v>
       </c>
-      <c r="E83" s="229"/>
-      <c r="F83" s="227" t="s">
+      <c r="E83" s="226"/>
+      <c r="F83" s="224" t="s">
         <v>22</v>
       </c>
-      <c r="G83" s="227" t="s">
+      <c r="G83" s="224" t="s">
         <v>22</v>
       </c>
       <c r="H83" s="112">
         <v>42381</v>
       </c>
-      <c r="I83" s="234"/>
+      <c r="I83" s="231"/>
       <c r="J83" s="95"/>
       <c r="Q83" s="95"/>
       <c r="R83" s="95"/>
@@ -28392,30 +28417,30 @@
       <c r="IK83" s="95"/>
     </row>
     <row r="84" spans="1:245" ht="45.75" customHeight="1">
-      <c r="A84" s="226" t="str">
+      <c r="A84" s="223" t="str">
         <f>IF(OR(B84&lt;&gt;"",D84&lt;E83&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-74]</v>
       </c>
-      <c r="B84" s="227" t="s">
+      <c r="B84" s="224" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="228" t="s">
+      <c r="C84" s="225" t="s">
         <v>247</v>
       </c>
-      <c r="D84" s="229" t="s">
+      <c r="D84" s="226" t="s">
         <v>280</v>
       </c>
-      <c r="E84" s="229"/>
-      <c r="F84" s="227" t="s">
+      <c r="E84" s="226"/>
+      <c r="F84" s="224" t="s">
         <v>22</v>
       </c>
-      <c r="G84" s="227" t="s">
+      <c r="G84" s="224" t="s">
         <v>22</v>
       </c>
       <c r="H84" s="112">
         <v>42381</v>
       </c>
-      <c r="I84" s="234"/>
+      <c r="I84" s="231"/>
       <c r="J84" s="95"/>
       <c r="Q84" s="95"/>
       <c r="R84" s="95"/>
@@ -28648,30 +28673,30 @@
       <c r="IK84" s="95"/>
     </row>
     <row r="85" spans="1:245" ht="44.25" customHeight="1">
-      <c r="A85" s="226" t="str">
+      <c r="A85" s="223" t="str">
         <f>IF(OR(B85&lt;&gt;"",D85&lt;E84&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-75]</v>
       </c>
-      <c r="B85" s="227" t="s">
+      <c r="B85" s="224" t="s">
         <v>248</v>
       </c>
-      <c r="C85" s="228" t="s">
+      <c r="C85" s="225" t="s">
         <v>249</v>
       </c>
-      <c r="D85" s="229" t="s">
+      <c r="D85" s="226" t="s">
         <v>281</v>
       </c>
-      <c r="E85" s="229"/>
-      <c r="F85" s="227" t="s">
+      <c r="E85" s="226"/>
+      <c r="F85" s="224" t="s">
         <v>22</v>
       </c>
-      <c r="G85" s="227" t="s">
+      <c r="G85" s="224" t="s">
         <v>22</v>
       </c>
       <c r="H85" s="112">
         <v>42381</v>
       </c>
-      <c r="I85" s="230"/>
+      <c r="I85" s="227"/>
       <c r="J85" s="95"/>
       <c r="Q85" s="95"/>
       <c r="R85" s="95"/>
@@ -28904,12 +28929,12 @@
       <c r="IK85" s="95"/>
     </row>
     <row r="86" spans="1:245" ht="14.25" customHeight="1">
-      <c r="A86" s="223"/>
-      <c r="B86" s="223" t="s">
-        <v>475</v>
-      </c>
-      <c r="C86" s="224"/>
-      <c r="D86" s="224"/>
+      <c r="A86" s="220"/>
+      <c r="B86" s="220" t="s">
+        <v>456</v>
+      </c>
+      <c r="C86" s="221"/>
+      <c r="D86" s="221"/>
       <c r="E86" s="169"/>
       <c r="F86" s="169"/>
       <c r="G86" s="169"/>
@@ -28932,16 +28957,16 @@
         <v>121</v>
       </c>
       <c r="E87" s="104"/>
-      <c r="F87" s="177" t="s">
+      <c r="F87" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="G87" s="238" t="s">
+      <c r="G87" s="235" t="s">
         <v>22</v>
       </c>
       <c r="H87" s="112">
         <v>42381</v>
       </c>
-      <c r="I87" s="174"/>
+      <c r="I87" s="173"/>
       <c r="J87" s="105"/>
     </row>
     <row r="88" spans="1:245" ht="118.5" customHeight="1">
@@ -28953,10 +28978,10 @@
         <v>285</v>
       </c>
       <c r="C88" s="106" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="D88" s="104" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="E88" s="167"/>
       <c r="F88" s="117" t="s">
@@ -28968,22 +28993,22 @@
       <c r="H88" s="112">
         <v>42381</v>
       </c>
-      <c r="I88" s="174"/>
+      <c r="I88" s="173"/>
       <c r="J88" s="105"/>
     </row>
     <row r="89" spans="1:245" ht="151.5" customHeight="1">
       <c r="A89" s="61" t="str">
-        <f t="shared" ref="A89:A150" si="12">IF(OR(B89&lt;&gt;"",D89&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A89:A146" si="12">IF(OR(B89&lt;&gt;"",D89&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-79]</v>
       </c>
       <c r="B89" s="91" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C89" s="106" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="D89" s="104" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E89" s="167"/>
       <c r="F89" s="117" t="s">
@@ -28995,7 +29020,7 @@
       <c r="H89" s="112">
         <v>42381</v>
       </c>
-      <c r="I89" s="174"/>
+      <c r="I89" s="173"/>
       <c r="J89" s="105"/>
     </row>
     <row r="90" spans="1:245" ht="147" customHeight="1">
@@ -29004,13 +29029,13 @@
         <v>[User_login-80]</v>
       </c>
       <c r="B90" s="91" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C90" s="106" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="D90" s="104" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E90" s="167"/>
       <c r="F90" s="117" t="s">
@@ -29022,7 +29047,7 @@
       <c r="H90" s="112">
         <v>42381</v>
       </c>
-      <c r="I90" s="174"/>
+      <c r="I90" s="173"/>
       <c r="J90" s="105"/>
     </row>
     <row r="91" spans="1:245" ht="147" customHeight="1">
@@ -29031,13 +29056,13 @@
         <v>[User_login-81]</v>
       </c>
       <c r="B91" s="91" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="C91" s="106" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="D91" s="104" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="E91" s="167"/>
       <c r="F91" s="117" t="s">
@@ -29049,7 +29074,7 @@
       <c r="H91" s="112">
         <v>42381</v>
       </c>
-      <c r="I91" s="174"/>
+      <c r="I91" s="173"/>
       <c r="J91" s="105"/>
     </row>
     <row r="92" spans="1:245" ht="148.5" customHeight="1">
@@ -29058,13 +29083,13 @@
         <v>[User_login-82]</v>
       </c>
       <c r="B92" s="91" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="C92" s="106" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="D92" s="104" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E92" s="167"/>
       <c r="F92" s="117" t="s">
@@ -29076,7 +29101,7 @@
       <c r="H92" s="112">
         <v>42381</v>
       </c>
-      <c r="I92" s="174"/>
+      <c r="I92" s="173"/>
       <c r="J92" s="105"/>
     </row>
     <row r="93" spans="1:245" ht="143.25" customHeight="1">
@@ -29085,13 +29110,13 @@
         <v>[User_login-83]</v>
       </c>
       <c r="B93" s="91" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="C93" s="106" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="D93" s="104" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="E93" s="167"/>
       <c r="F93" s="117" t="s">
@@ -29103,7 +29128,7 @@
       <c r="H93" s="112">
         <v>42381</v>
       </c>
-      <c r="I93" s="174"/>
+      <c r="I93" s="173"/>
       <c r="J93" s="105"/>
     </row>
     <row r="94" spans="1:245" ht="139.5" customHeight="1">
@@ -29112,13 +29137,13 @@
         <v>[User_login-84]</v>
       </c>
       <c r="B94" s="91" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="C94" s="106" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="D94" s="104" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="E94" s="167"/>
       <c r="F94" s="117" t="s">
@@ -29130,7 +29155,7 @@
       <c r="H94" s="112">
         <v>42381</v>
       </c>
-      <c r="I94" s="174"/>
+      <c r="I94" s="173"/>
       <c r="J94" s="105"/>
     </row>
     <row r="95" spans="1:245" ht="14.25" customHeight="1">
@@ -29138,16 +29163,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-85]</v>
       </c>
-      <c r="B95" s="223" t="s">
-        <v>422</v>
-      </c>
-      <c r="C95" s="231"/>
-      <c r="D95" s="231"/>
-      <c r="E95" s="231"/>
-      <c r="F95" s="231"/>
-      <c r="G95" s="231"/>
-      <c r="H95" s="231"/>
-      <c r="I95" s="231"/>
+      <c r="B95" s="220" t="s">
+        <v>418</v>
+      </c>
+      <c r="C95" s="228"/>
+      <c r="D95" s="228"/>
+      <c r="E95" s="228"/>
+      <c r="F95" s="228"/>
+      <c r="G95" s="228"/>
+      <c r="H95" s="228"/>
+      <c r="I95" s="228"/>
       <c r="J95" s="105"/>
     </row>
     <row r="96" spans="1:245" ht="88.5" customHeight="1">
@@ -29155,7 +29180,7 @@
         <f t="shared" si="12"/>
         <v>[User_login-86]</v>
       </c>
-      <c r="B96" s="175" t="s">
+      <c r="B96" s="174" t="s">
         <v>287</v>
       </c>
       <c r="C96" s="166" t="s">
@@ -29182,7 +29207,7 @@
         <f t="shared" si="12"/>
         <v>[User_login-87]</v>
       </c>
-      <c r="B97" s="175" t="s">
+      <c r="B97" s="174" t="s">
         <v>288</v>
       </c>
       <c r="C97" s="166" t="s">
@@ -29209,7 +29234,7 @@
         <f t="shared" si="12"/>
         <v>[User_login-88]</v>
       </c>
-      <c r="B98" s="175" t="s">
+      <c r="B98" s="174" t="s">
         <v>289</v>
       </c>
       <c r="C98" s="166" t="s">
@@ -29236,14 +29261,14 @@
         <f t="shared" si="12"/>
         <v>[User_login-89]</v>
       </c>
-      <c r="B99" s="175" t="s">
-        <v>416</v>
+      <c r="B99" s="174" t="s">
+        <v>412</v>
       </c>
       <c r="C99" s="166" t="s">
         <v>291</v>
       </c>
       <c r="D99" s="117" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E99" s="163"/>
       <c r="F99" s="117" t="s">
@@ -29263,14 +29288,14 @@
         <f t="shared" si="12"/>
         <v>[User_login-90]</v>
       </c>
-      <c r="B100" s="175" t="s">
-        <v>418</v>
+      <c r="B100" s="174" t="s">
+        <v>414</v>
       </c>
       <c r="C100" s="166" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D100" s="117" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="E100" s="163"/>
       <c r="F100" s="117" t="s">
@@ -29290,14 +29315,14 @@
         <f t="shared" si="12"/>
         <v>[User_login-91]</v>
       </c>
-      <c r="B101" s="175" t="s">
-        <v>420</v>
+      <c r="B101" s="174" t="s">
+        <v>416</v>
       </c>
       <c r="C101" s="166" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D101" s="117" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="E101" s="163"/>
       <c r="F101" s="117" t="s">
@@ -29317,14 +29342,14 @@
         <f t="shared" si="12"/>
         <v>[User_login-92]</v>
       </c>
-      <c r="B102" s="175" t="s">
-        <v>424</v>
+      <c r="B102" s="174" t="s">
+        <v>420</v>
       </c>
       <c r="C102" s="166" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D102" s="117" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E102" s="163"/>
       <c r="F102" s="117" t="s">
@@ -29344,14 +29369,14 @@
         <f t="shared" si="12"/>
         <v>[User_login-93]</v>
       </c>
-      <c r="B103" s="175" t="s">
-        <v>425</v>
+      <c r="B103" s="174" t="s">
+        <v>421</v>
       </c>
       <c r="C103" s="166" t="s">
+        <v>419</v>
+      </c>
+      <c r="D103" s="117" t="s">
         <v>423</v>
-      </c>
-      <c r="D103" s="117" t="s">
-        <v>427</v>
       </c>
       <c r="E103" s="163"/>
       <c r="F103" s="117" t="s">
@@ -29371,14 +29396,14 @@
         <f t="shared" si="12"/>
         <v>[User_login-94]</v>
       </c>
-      <c r="B104" s="175" t="s">
-        <v>428</v>
+      <c r="B104" s="174" t="s">
+        <v>424</v>
       </c>
       <c r="C104" s="166" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D104" s="117" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E104" s="163"/>
       <c r="F104" s="117" t="s">
@@ -29398,14 +29423,14 @@
         <f t="shared" si="12"/>
         <v>[User_login-95]</v>
       </c>
-      <c r="B105" s="175" t="s">
-        <v>431</v>
+      <c r="B105" s="174" t="s">
+        <v>427</v>
       </c>
       <c r="C105" s="166" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D105" s="117" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E105" s="163"/>
       <c r="F105" s="117" t="s">
@@ -29425,14 +29450,14 @@
         <f t="shared" si="12"/>
         <v>[User_login-96]</v>
       </c>
-      <c r="B106" s="175" t="s">
-        <v>434</v>
+      <c r="B106" s="174" t="s">
+        <v>430</v>
       </c>
       <c r="C106" s="166" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D106" s="117" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E106" s="163"/>
       <c r="F106" s="117" t="s">
@@ -29452,14 +29477,14 @@
         <f t="shared" si="12"/>
         <v>[User_login-97]</v>
       </c>
-      <c r="B107" s="175" t="s">
-        <v>437</v>
+      <c r="B107" s="174" t="s">
+        <v>433</v>
       </c>
       <c r="C107" s="166" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E107" s="163"/>
       <c r="F107" s="117" t="s">
@@ -29479,16 +29504,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-98]</v>
       </c>
-      <c r="B108" s="223" t="s">
-        <v>439</v>
-      </c>
-      <c r="C108" s="231"/>
-      <c r="D108" s="231"/>
-      <c r="E108" s="231"/>
-      <c r="F108" s="231"/>
-      <c r="G108" s="231"/>
+      <c r="B108" s="220" t="s">
+        <v>435</v>
+      </c>
+      <c r="C108" s="228"/>
+      <c r="D108" s="228"/>
+      <c r="E108" s="228"/>
+      <c r="F108" s="228"/>
+      <c r="G108" s="228"/>
       <c r="H108" s="112"/>
-      <c r="I108" s="231"/>
+      <c r="I108" s="228"/>
       <c r="J108" s="105"/>
     </row>
     <row r="109" spans="1:10" ht="88.5" customHeight="1">
@@ -29496,8 +29521,8 @@
         <f t="shared" si="12"/>
         <v>[User_login-99]</v>
       </c>
-      <c r="B109" s="175" t="s">
-        <v>309</v>
+      <c r="B109" s="174" t="s">
+        <v>307</v>
       </c>
       <c r="C109" s="166" t="s">
         <v>294</v>
@@ -29523,8 +29548,8 @@
         <f t="shared" si="12"/>
         <v>[User_login-100]</v>
       </c>
-      <c r="B110" s="175" t="s">
-        <v>310</v>
+      <c r="B110" s="174" t="s">
+        <v>308</v>
       </c>
       <c r="C110" s="166" t="s">
         <v>296</v>
@@ -29550,14 +29575,14 @@
         <f t="shared" si="12"/>
         <v>[User_login-101]</v>
       </c>
-      <c r="B111" s="175" t="s">
-        <v>311</v>
+      <c r="B111" s="174" t="s">
+        <v>309</v>
       </c>
       <c r="C111" s="166" t="s">
         <v>295</v>
       </c>
       <c r="D111" s="117" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E111" s="163"/>
       <c r="F111" s="117" t="s">
@@ -29577,14 +29602,14 @@
         <f t="shared" si="12"/>
         <v>[User_login-102]</v>
       </c>
-      <c r="B112" s="175" t="s">
-        <v>440</v>
+      <c r="B112" s="174" t="s">
+        <v>436</v>
       </c>
       <c r="C112" s="166" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="D112" s="117" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="E112" s="163"/>
       <c r="F112" s="117" t="s">
@@ -29604,14 +29629,14 @@
         <f t="shared" si="12"/>
         <v>[User_login-103]</v>
       </c>
-      <c r="B113" s="175" t="s">
-        <v>441</v>
+      <c r="B113" s="174" t="s">
+        <v>437</v>
       </c>
       <c r="C113" s="166" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="D113" s="117" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="E113" s="163"/>
       <c r="F113" s="117" t="s">
@@ -29631,18 +29656,22 @@
         <f t="shared" si="12"/>
         <v>[User_login-104]</v>
       </c>
-      <c r="B114" s="175" t="s">
+      <c r="B114" s="174" t="s">
+        <v>438</v>
+      </c>
+      <c r="C114" s="166" t="s">
+        <v>701</v>
+      </c>
+      <c r="D114" s="117" t="s">
         <v>442</v>
       </c>
-      <c r="C114" s="166" t="s">
-        <v>722</v>
-      </c>
-      <c r="D114" s="117" t="s">
-        <v>448</v>
-      </c>
       <c r="E114" s="163"/>
-      <c r="F114" s="117"/>
-      <c r="G114" s="117"/>
+      <c r="F114" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H114" s="112">
         <v>42412</v>
       </c>
@@ -29654,18 +29683,22 @@
         <f t="shared" si="12"/>
         <v>[User_login-105]</v>
       </c>
-      <c r="B115" s="175" t="s">
-        <v>443</v>
+      <c r="B115" s="174" t="s">
+        <v>439</v>
       </c>
       <c r="C115" s="166" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D115" s="117" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E115" s="163"/>
-      <c r="F115" s="117"/>
-      <c r="G115" s="117"/>
+      <c r="F115" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H115" s="112">
         <v>42412</v>
       </c>
@@ -29677,18 +29710,22 @@
         <f t="shared" si="12"/>
         <v>[User_login-106]</v>
       </c>
-      <c r="B116" s="175" t="s">
-        <v>444</v>
+      <c r="B116" s="174" t="s">
+        <v>440</v>
       </c>
       <c r="C116" s="166" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D116" s="117" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E116" s="163"/>
-      <c r="F116" s="117"/>
-      <c r="G116" s="117"/>
+      <c r="F116" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H116" s="112">
         <v>42412</v>
       </c>
@@ -29700,18 +29737,22 @@
         <f t="shared" si="12"/>
         <v>[User_login-107]</v>
       </c>
-      <c r="B117" s="175" t="s">
-        <v>445</v>
+      <c r="B117" s="174" t="s">
+        <v>441</v>
       </c>
       <c r="C117" s="166" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D117" s="117" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E117" s="163"/>
-      <c r="F117" s="117"/>
-      <c r="G117" s="117"/>
+      <c r="F117" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H117" s="112">
         <v>42412</v>
       </c>
@@ -29723,18 +29764,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-108]</v>
       </c>
-      <c r="B118" s="223" t="s">
-        <v>460</v>
-      </c>
-      <c r="C118" s="231"/>
-      <c r="D118" s="231"/>
-      <c r="E118" s="231"/>
-      <c r="F118" s="231"/>
-      <c r="G118" s="231"/>
-      <c r="H118" s="112">
-        <v>42412</v>
-      </c>
-      <c r="I118" s="231"/>
+      <c r="B118" s="220" t="s">
+        <v>451</v>
+      </c>
+      <c r="C118" s="228"/>
+      <c r="D118" s="228"/>
+      <c r="E118" s="228"/>
+      <c r="F118" s="228"/>
+      <c r="G118" s="228"/>
+      <c r="H118" s="112"/>
+      <c r="I118" s="228"/>
       <c r="J118" s="105"/>
     </row>
     <row r="119" spans="1:10" ht="88.5" customHeight="1">
@@ -29742,18 +29781,22 @@
         <f t="shared" si="12"/>
         <v>[User_login-109]</v>
       </c>
-      <c r="B119" s="175" t="s">
-        <v>312</v>
+      <c r="B119" s="174" t="s">
+        <v>310</v>
       </c>
       <c r="C119" s="166" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D119" s="117" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E119" s="163"/>
-      <c r="F119" s="117"/>
-      <c r="G119" s="117"/>
+      <c r="F119" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H119" s="112">
         <v>42412</v>
       </c>
@@ -29765,18 +29808,22 @@
         <f t="shared" si="12"/>
         <v>[User_login-110]</v>
       </c>
-      <c r="B120" s="175" t="s">
-        <v>313</v>
+      <c r="B120" s="174" t="s">
+        <v>311</v>
       </c>
       <c r="C120" s="166" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D120" s="117" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E120" s="163"/>
-      <c r="F120" s="117"/>
-      <c r="G120" s="117"/>
+      <c r="F120" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H120" s="112">
         <v>42412</v>
       </c>
@@ -29788,18 +29835,22 @@
         <f t="shared" si="12"/>
         <v>[User_login-111]</v>
       </c>
-      <c r="B121" s="175" t="s">
-        <v>314</v>
+      <c r="B121" s="174" t="s">
+        <v>312</v>
       </c>
       <c r="C121" s="166" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D121" s="117" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E121" s="163"/>
-      <c r="F121" s="117"/>
-      <c r="G121" s="117"/>
+      <c r="F121" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H121" s="112">
         <v>42412</v>
       </c>
@@ -29811,18 +29862,22 @@
         <f t="shared" si="12"/>
         <v>[User_login-112]</v>
       </c>
-      <c r="B122" s="175" t="s">
-        <v>455</v>
+      <c r="B122" s="174" t="s">
+        <v>449</v>
       </c>
       <c r="C122" s="166" t="s">
-        <v>456</v>
+        <v>703</v>
       </c>
       <c r="D122" s="117" t="s">
-        <v>457</v>
+        <v>702</v>
       </c>
       <c r="E122" s="163"/>
-      <c r="F122" s="117"/>
-      <c r="G122" s="117"/>
+      <c r="F122" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H122" s="112">
         <v>42412</v>
       </c>
@@ -29834,18 +29889,22 @@
         <f t="shared" si="12"/>
         <v>[User_login-113]</v>
       </c>
-      <c r="B123" s="175" t="s">
-        <v>458</v>
+      <c r="B123" s="174" t="s">
+        <v>706</v>
       </c>
       <c r="C123" s="166" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D123" s="117" t="s">
-        <v>459</v>
+        <v>707</v>
       </c>
       <c r="E123" s="163"/>
-      <c r="F123" s="117"/>
-      <c r="G123" s="117"/>
+      <c r="F123" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H123" s="112">
         <v>42412</v>
       </c>
@@ -29857,18 +29916,22 @@
         <f t="shared" si="12"/>
         <v>[User_login-114]</v>
       </c>
-      <c r="B124" s="175" t="s">
-        <v>461</v>
+      <c r="B124" s="174" t="s">
+        <v>704</v>
       </c>
       <c r="C124" s="166" t="s">
-        <v>467</v>
+        <v>708</v>
       </c>
       <c r="D124" s="117" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="E124" s="163"/>
-      <c r="F124" s="117"/>
-      <c r="G124" s="117"/>
+      <c r="F124" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H124" s="112">
         <v>42412</v>
       </c>
@@ -29880,87 +29943,103 @@
         <f t="shared" si="12"/>
         <v>[User_login-115]</v>
       </c>
-      <c r="B125" s="175" t="s">
-        <v>462</v>
+      <c r="B125" s="174" t="s">
+        <v>705</v>
       </c>
       <c r="C125" s="166" t="s">
-        <v>468</v>
+        <v>709</v>
       </c>
       <c r="D125" s="117" t="s">
-        <v>447</v>
+        <v>711</v>
       </c>
       <c r="E125" s="163"/>
-      <c r="F125" s="117"/>
-      <c r="G125" s="117"/>
+      <c r="F125" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H125" s="112">
         <v>42412</v>
       </c>
       <c r="I125" s="164"/>
       <c r="J125" s="105"/>
     </row>
-    <row r="126" spans="1:10" ht="89.25">
+    <row r="126" spans="1:10" ht="102">
       <c r="A126" s="61" t="str">
         <f t="shared" si="12"/>
         <v>[User_login-116]</v>
       </c>
-      <c r="B126" s="175" t="s">
-        <v>463</v>
+      <c r="B126" s="174" t="s">
+        <v>452</v>
       </c>
       <c r="C126" s="166" t="s">
-        <v>469</v>
+        <v>712</v>
       </c>
       <c r="D126" s="117" t="s">
-        <v>473</v>
+        <v>713</v>
       </c>
       <c r="E126" s="163"/>
-      <c r="F126" s="117"/>
-      <c r="G126" s="117"/>
+      <c r="F126" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H126" s="112">
         <v>42412</v>
       </c>
       <c r="I126" s="164"/>
       <c r="J126" s="105"/>
     </row>
-    <row r="127" spans="1:10" ht="89.25">
+    <row r="127" spans="1:10" ht="102">
       <c r="A127" s="61" t="str">
         <f t="shared" si="12"/>
         <v>[User_login-117]</v>
       </c>
-      <c r="B127" s="175" t="s">
-        <v>464</v>
+      <c r="B127" s="174" t="s">
+        <v>453</v>
       </c>
       <c r="C127" s="166" t="s">
-        <v>470</v>
+        <v>714</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>474</v>
+        <v>717</v>
       </c>
       <c r="E127" s="163"/>
-      <c r="F127" s="117"/>
-      <c r="G127" s="117"/>
+      <c r="F127" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H127" s="112">
         <v>42412</v>
       </c>
       <c r="I127" s="164"/>
       <c r="J127" s="105"/>
     </row>
-    <row r="128" spans="1:10" ht="102">
+    <row r="128" spans="1:10" ht="114.75">
       <c r="A128" s="61" t="str">
         <f t="shared" si="12"/>
         <v>[User_login-118]</v>
       </c>
-      <c r="B128" s="175" t="s">
-        <v>465</v>
+      <c r="B128" s="174" t="s">
+        <v>454</v>
       </c>
       <c r="C128" s="166" t="s">
-        <v>471</v>
+        <v>715</v>
       </c>
       <c r="D128" s="117" t="s">
-        <v>486</v>
+        <v>718</v>
       </c>
       <c r="E128" s="163"/>
-      <c r="F128" s="117"/>
-      <c r="G128" s="117"/>
+      <c r="F128" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H128" s="112">
         <v>42412</v>
       </c>
@@ -29972,18 +30051,22 @@
         <f t="shared" si="12"/>
         <v>[User_login-119]</v>
       </c>
-      <c r="B129" s="175" t="s">
-        <v>466</v>
+      <c r="B129" s="174" t="s">
+        <v>455</v>
       </c>
       <c r="C129" s="166" t="s">
-        <v>472</v>
+        <v>716</v>
       </c>
       <c r="D129" s="117" t="s">
-        <v>474</v>
+        <v>717</v>
       </c>
       <c r="E129" s="163"/>
-      <c r="F129" s="117"/>
-      <c r="G129" s="117"/>
+      <c r="F129" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H129" s="112">
         <v>42412</v>
       </c>
@@ -29995,18 +30078,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-120]</v>
       </c>
-      <c r="B130" s="223" t="s">
-        <v>483</v>
-      </c>
-      <c r="C130" s="231"/>
-      <c r="D130" s="231"/>
-      <c r="E130" s="231"/>
-      <c r="F130" s="231"/>
-      <c r="G130" s="231"/>
-      <c r="H130" s="112">
-        <v>42412</v>
-      </c>
-      <c r="I130" s="231"/>
+      <c r="B130" s="220" t="s">
+        <v>464</v>
+      </c>
+      <c r="C130" s="228"/>
+      <c r="D130" s="228"/>
+      <c r="E130" s="228"/>
+      <c r="F130" s="228"/>
+      <c r="G130" s="228"/>
+      <c r="H130" s="112"/>
+      <c r="I130" s="228"/>
       <c r="J130" s="105"/>
     </row>
     <row r="131" spans="1:10" ht="96.75" customHeight="1">
@@ -30014,18 +30095,22 @@
         <f t="shared" si="12"/>
         <v>[User_login-121]</v>
       </c>
-      <c r="B131" s="175" t="s">
-        <v>484</v>
+      <c r="B131" s="174" t="s">
+        <v>465</v>
       </c>
       <c r="C131" s="166" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="D131" s="117" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="E131" s="163"/>
-      <c r="F131" s="117"/>
-      <c r="G131" s="117"/>
+      <c r="F131" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="G131" s="117" t="s">
+        <v>24</v>
+      </c>
       <c r="H131" s="112">
         <v>42412</v>
       </c>
@@ -30037,18 +30122,22 @@
         <f t="shared" si="12"/>
         <v>[User_login-122]</v>
       </c>
-      <c r="B132" s="175" t="s">
-        <v>490</v>
+      <c r="B132" s="174" t="s">
+        <v>470</v>
       </c>
       <c r="C132" s="166" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="D132" s="117" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="E132" s="163"/>
-      <c r="F132" s="117"/>
-      <c r="G132" s="117"/>
+      <c r="F132" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132" s="117" t="s">
+        <v>24</v>
+      </c>
       <c r="H132" s="112">
         <v>42412</v>
       </c>
@@ -30061,17 +30150,21 @@
         <v>[User_login-123]</v>
       </c>
       <c r="B133" s="117" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="C133" s="117" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="D133" s="117" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="E133" s="163"/>
-      <c r="F133" s="117"/>
-      <c r="G133" s="117"/>
+      <c r="F133" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H133" s="112">
         <v>42412</v>
       </c>
@@ -30084,17 +30177,21 @@
         <v>[User_login-124]</v>
       </c>
       <c r="B134" s="117" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="C134" s="117" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="D134" s="117" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="E134" s="163"/>
-      <c r="F134" s="117"/>
-      <c r="G134" s="117"/>
+      <c r="F134" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H134" s="112">
         <v>42412</v>
       </c>
@@ -30107,18 +30204,24 @@
         <v>[User_login-125]</v>
       </c>
       <c r="B135" s="117" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="C135" s="117" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="D135" s="117" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="E135" s="163"/>
-      <c r="F135" s="117"/>
-      <c r="G135" s="117"/>
-      <c r="H135" s="119"/>
+      <c r="F135" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" s="112">
+        <v>42412</v>
+      </c>
       <c r="I135" s="164"/>
       <c r="J135" s="105"/>
     </row>
@@ -30128,18 +30231,24 @@
         <v>[User_login-126]</v>
       </c>
       <c r="B136" s="117" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="C136" s="117" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="D136" s="117" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="E136" s="163"/>
-      <c r="F136" s="117"/>
-      <c r="G136" s="117"/>
-      <c r="H136" s="119"/>
+      <c r="F136" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H136" s="112">
+        <v>42412</v>
+      </c>
       <c r="I136" s="164"/>
       <c r="J136" s="105"/>
     </row>
@@ -30149,18 +30258,24 @@
         <v>[User_login-127]</v>
       </c>
       <c r="B137" s="117" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="C137" s="117" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="D137" s="117" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="E137" s="163"/>
-      <c r="F137" s="117"/>
-      <c r="G137" s="117"/>
-      <c r="H137" s="119"/>
+      <c r="F137" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" s="112">
+        <v>42412</v>
+      </c>
       <c r="I137" s="164"/>
       <c r="J137" s="105"/>
     </row>
@@ -30170,18 +30285,24 @@
         <v>[User_login-128]</v>
       </c>
       <c r="B138" s="117" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="C138" s="117" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="D138" s="117" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="E138" s="163"/>
-      <c r="F138" s="117"/>
-      <c r="G138" s="117"/>
-      <c r="H138" s="119"/>
+      <c r="F138" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="G138" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138" s="112">
+        <v>42412</v>
+      </c>
       <c r="I138" s="164"/>
       <c r="J138" s="105"/>
     </row>
@@ -30191,18 +30312,24 @@
         <v>[User_login-129]</v>
       </c>
       <c r="B139" s="117" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="C139" s="117" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="D139" s="117" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="E139" s="163"/>
-      <c r="F139" s="117"/>
-      <c r="G139" s="117"/>
-      <c r="H139" s="119"/>
+      <c r="F139" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" s="112">
+        <v>42412</v>
+      </c>
       <c r="I139" s="164"/>
       <c r="J139" s="105"/>
     </row>
@@ -30212,18 +30339,24 @@
         <v>[User_login-130]</v>
       </c>
       <c r="B140" s="117" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="C140" s="117" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="D140" s="117" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="E140" s="163"/>
-      <c r="F140" s="117"/>
-      <c r="G140" s="117"/>
-      <c r="H140" s="119"/>
+      <c r="F140" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H140" s="112">
+        <v>42412</v>
+      </c>
       <c r="I140" s="164"/>
       <c r="J140" s="105"/>
     </row>
@@ -30233,18 +30366,24 @@
         <v>[User_login-131]</v>
       </c>
       <c r="B141" s="117" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="C141" s="117" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="D141" s="117" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="E141" s="163"/>
-      <c r="F141" s="117"/>
-      <c r="G141" s="117"/>
-      <c r="H141" s="119"/>
+      <c r="F141" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H141" s="112">
+        <v>42412</v>
+      </c>
       <c r="I141" s="164"/>
       <c r="J141" s="105"/>
     </row>
@@ -30254,651 +30393,847 @@
         <v>[User_login-132]</v>
       </c>
       <c r="B142" s="117" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="C142" s="117" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="D142" s="117" t="s">
-        <v>511</v>
-      </c>
-      <c r="E142" s="178"/>
-      <c r="F142" s="117"/>
-      <c r="G142" s="177"/>
-      <c r="H142" s="173"/>
-      <c r="I142" s="174"/>
+        <v>491</v>
+      </c>
+      <c r="E142" s="176"/>
+      <c r="F142" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" s="175" t="s">
+        <v>22</v>
+      </c>
+      <c r="H142" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I142" s="173"/>
       <c r="J142" s="105"/>
     </row>
     <row r="143" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A143" s="61" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="B143" s="175"/>
-      <c r="C143" s="166"/>
-      <c r="D143" s="117"/>
-      <c r="E143" s="178"/>
-      <c r="F143" s="117"/>
-      <c r="G143" s="177"/>
-      <c r="H143" s="173"/>
-      <c r="I143" s="174"/>
+      <c r="A143" s="61"/>
+      <c r="B143" s="220" t="s">
+        <v>493</v>
+      </c>
+      <c r="C143" s="228"/>
+      <c r="D143" s="228"/>
+      <c r="E143" s="228"/>
+      <c r="F143" s="228"/>
+      <c r="G143" s="228"/>
+      <c r="H143" s="112"/>
+      <c r="I143" s="228"/>
       <c r="J143" s="105"/>
     </row>
-    <row r="144" spans="1:10" ht="14.25" customHeight="1">
+    <row r="144" spans="1:10" ht="79.5" customHeight="1">
       <c r="A144" s="61" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="B144" s="175"/>
-      <c r="C144" s="176"/>
-      <c r="D144" s="177"/>
-      <c r="E144" s="178"/>
-      <c r="F144" s="117"/>
-      <c r="G144" s="177"/>
-      <c r="H144" s="173"/>
-      <c r="I144" s="174"/>
+        <v>[User_login-134]</v>
+      </c>
+      <c r="B144" s="174" t="s">
+        <v>494</v>
+      </c>
+      <c r="C144" s="117" t="s">
+        <v>495</v>
+      </c>
+      <c r="D144" s="117" t="s">
+        <v>496</v>
+      </c>
+      <c r="E144" s="163"/>
+      <c r="F144" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H144" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I144" s="164"/>
       <c r="J144" s="105"/>
     </row>
-    <row r="145" spans="1:16" ht="14.25" customHeight="1">
+    <row r="145" spans="1:16" ht="83.25" customHeight="1">
       <c r="A145" s="61" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="B145" s="175"/>
-      <c r="C145" s="166"/>
-      <c r="D145" s="117"/>
-      <c r="E145" s="178"/>
-      <c r="F145" s="117"/>
-      <c r="G145" s="177"/>
-      <c r="H145" s="173"/>
-      <c r="I145" s="174"/>
+        <v>[User_login-135]</v>
+      </c>
+      <c r="B145" s="174" t="s">
+        <v>497</v>
+      </c>
+      <c r="C145" s="117" t="s">
+        <v>495</v>
+      </c>
+      <c r="D145" s="117" t="s">
+        <v>498</v>
+      </c>
+      <c r="E145" s="163"/>
+      <c r="F145" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I145" s="164"/>
       <c r="J145" s="105"/>
     </row>
-    <row r="146" spans="1:16" ht="14.25" customHeight="1">
+    <row r="146" spans="1:16" ht="91.5" customHeight="1">
       <c r="A146" s="61" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="B146" s="175"/>
-      <c r="C146" s="176"/>
-      <c r="D146" s="177"/>
-      <c r="E146" s="178"/>
-      <c r="F146" s="117"/>
-      <c r="G146" s="177"/>
-      <c r="H146" s="173"/>
-      <c r="I146" s="174"/>
+        <v>[User_login-136]</v>
+      </c>
+      <c r="B146" s="174" t="s">
+        <v>499</v>
+      </c>
+      <c r="C146" s="117" t="s">
+        <v>495</v>
+      </c>
+      <c r="D146" s="117" t="s">
+        <v>500</v>
+      </c>
+      <c r="E146" s="163"/>
+      <c r="F146" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H146" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I146" s="164"/>
       <c r="J146" s="105"/>
     </row>
-    <row r="147" spans="1:16" ht="14.25" customHeight="1">
+    <row r="147" spans="1:16" ht="101.25" customHeight="1">
       <c r="A147" s="61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="A147:A152" si="13">IF(OR(B147&lt;&gt;"",D147&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-137]</v>
       </c>
-      <c r="B147" s="223" t="s">
-        <v>513</v>
-      </c>
-      <c r="C147" s="231"/>
-      <c r="D147" s="231"/>
-      <c r="E147" s="231"/>
-      <c r="F147" s="231"/>
-      <c r="G147" s="231"/>
-      <c r="H147" s="231"/>
-      <c r="I147" s="231"/>
+      <c r="B147" s="174" t="s">
+        <v>501</v>
+      </c>
+      <c r="C147" s="117" t="s">
+        <v>502</v>
+      </c>
+      <c r="D147" s="117" t="s">
+        <v>506</v>
+      </c>
+      <c r="E147" s="163"/>
+      <c r="F147" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H147" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I147" s="164"/>
       <c r="J147" s="105"/>
     </row>
-    <row r="148" spans="1:16" ht="79.5" customHeight="1">
+    <row r="148" spans="1:16" ht="102" customHeight="1">
       <c r="A148" s="61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[User_login-138]</v>
       </c>
-      <c r="B148" s="175" t="s">
-        <v>514</v>
+      <c r="B148" s="174" t="s">
+        <v>503</v>
       </c>
       <c r="C148" s="117" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D148" s="117" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="E148" s="163"/>
-      <c r="F148" s="117"/>
-      <c r="G148" s="117"/>
-      <c r="H148" s="119"/>
+      <c r="F148" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H148" s="112">
+        <v>42412</v>
+      </c>
       <c r="I148" s="164"/>
       <c r="J148" s="105"/>
     </row>
-    <row r="149" spans="1:16" ht="83.25" customHeight="1">
-      <c r="A149" s="61" t="str">
-        <f t="shared" si="12"/>
-        <v>[User_login-139]</v>
-      </c>
-      <c r="B149" s="175" t="s">
-        <v>517</v>
-      </c>
-      <c r="C149" s="117" t="s">
-        <v>515</v>
-      </c>
-      <c r="D149" s="117" t="s">
-        <v>518</v>
-      </c>
-      <c r="E149" s="163"/>
-      <c r="F149" s="117"/>
-      <c r="G149" s="117"/>
-      <c r="H149" s="119"/>
-      <c r="I149" s="164"/>
+    <row r="149" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A149" s="61"/>
+      <c r="B149" s="220" t="s">
+        <v>507</v>
+      </c>
+      <c r="C149" s="228"/>
+      <c r="D149" s="228"/>
+      <c r="E149" s="228"/>
+      <c r="F149" s="228"/>
+      <c r="G149" s="228"/>
+      <c r="H149" s="112"/>
+      <c r="I149" s="228"/>
       <c r="J149" s="105"/>
     </row>
-    <row r="150" spans="1:16" ht="91.5" customHeight="1">
+    <row r="150" spans="1:16" ht="38.25">
       <c r="A150" s="61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>[User_login-140]</v>
       </c>
-      <c r="B150" s="175" t="s">
-        <v>519</v>
+      <c r="B150" s="174" t="s">
+        <v>508</v>
       </c>
       <c r="C150" s="117" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D150" s="117" t="s">
-        <v>520</v>
-      </c>
-      <c r="E150" s="163"/>
-      <c r="F150" s="117"/>
-      <c r="G150" s="117"/>
-      <c r="H150" s="119"/>
-      <c r="I150" s="164"/>
+        <v>510</v>
+      </c>
+      <c r="E150" s="118"/>
+      <c r="F150" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H150" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I150" s="120"/>
       <c r="J150" s="105"/>
     </row>
-    <row r="151" spans="1:16" ht="101.25" customHeight="1">
+    <row r="151" spans="1:16" ht="72" customHeight="1">
       <c r="A151" s="61" t="str">
-        <f t="shared" ref="A151:A156" si="13">IF(OR(B151&lt;&gt;"",D151&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="13"/>
         <v>[User_login-141]</v>
       </c>
-      <c r="B151" s="175" t="s">
-        <v>521</v>
+      <c r="B151" s="174" t="s">
+        <v>511</v>
       </c>
       <c r="C151" s="117" t="s">
-        <v>522</v>
+        <v>721</v>
       </c>
       <c r="D151" s="117" t="s">
-        <v>526</v>
-      </c>
-      <c r="E151" s="163"/>
-      <c r="F151" s="117"/>
-      <c r="G151" s="117"/>
-      <c r="H151" s="119"/>
-      <c r="I151" s="164"/>
+        <v>719</v>
+      </c>
+      <c r="E151" s="118"/>
+      <c r="F151" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I151" s="120"/>
       <c r="J151" s="105"/>
     </row>
-    <row r="152" spans="1:16" ht="102" customHeight="1">
+    <row r="152" spans="1:16" ht="44.25" customHeight="1">
       <c r="A152" s="61" t="str">
         <f t="shared" si="13"/>
         <v>[User_login-142]</v>
       </c>
-      <c r="B152" s="175" t="s">
-        <v>523</v>
+      <c r="B152" s="174" t="s">
+        <v>512</v>
       </c>
       <c r="C152" s="117" t="s">
-        <v>524</v>
+        <v>722</v>
       </c>
       <c r="D152" s="117" t="s">
-        <v>525</v>
-      </c>
-      <c r="E152" s="163"/>
-      <c r="F152" s="117"/>
-      <c r="G152" s="117"/>
-      <c r="H152" s="119"/>
-      <c r="I152" s="164"/>
+        <v>719</v>
+      </c>
+      <c r="E152" s="118"/>
+      <c r="F152" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G152" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H152" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I152" s="120"/>
       <c r="J152" s="105"/>
     </row>
-    <row r="153" spans="1:16" ht="14.25" customHeight="1">
+    <row r="153" spans="1:16" ht="45.75" customHeight="1">
       <c r="A153" s="61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A153" si="14">IF(OR(B153&lt;&gt;"",D153&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-143]</v>
       </c>
-      <c r="B153" s="223" t="s">
-        <v>527</v>
-      </c>
-      <c r="C153" s="231"/>
-      <c r="D153" s="231"/>
-      <c r="E153" s="231"/>
-      <c r="F153" s="231"/>
-      <c r="G153" s="231"/>
-      <c r="H153" s="231"/>
-      <c r="I153" s="231"/>
+      <c r="B153" s="174" t="s">
+        <v>513</v>
+      </c>
+      <c r="C153" s="117" t="s">
+        <v>720</v>
+      </c>
+      <c r="D153" s="117" t="s">
+        <v>719</v>
+      </c>
+      <c r="E153" s="118"/>
+      <c r="F153" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I153" s="120"/>
       <c r="J153" s="105"/>
     </row>
-    <row r="154" spans="1:16" ht="38.25">
+    <row r="154" spans="1:16" ht="48" customHeight="1">
       <c r="A154" s="61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A154:A155" si="15">IF(OR(B154&lt;&gt;"",D154&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-144]</v>
       </c>
-      <c r="B154" s="175" t="s">
-        <v>528</v>
+      <c r="B154" s="174" t="s">
+        <v>514</v>
       </c>
       <c r="C154" s="117" t="s">
-        <v>529</v>
+        <v>723</v>
       </c>
       <c r="D154" s="117" t="s">
-        <v>530</v>
+        <v>724</v>
       </c>
       <c r="E154" s="118"/>
-      <c r="F154" s="117"/>
-      <c r="G154" s="117"/>
-      <c r="H154" s="119"/>
+      <c r="F154" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G154" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H154" s="112">
+        <v>42412</v>
+      </c>
       <c r="I154" s="120"/>
       <c r="J154" s="105"/>
     </row>
-    <row r="155" spans="1:16" ht="72" customHeight="1">
+    <row r="155" spans="1:16" ht="56.25" customHeight="1">
       <c r="A155" s="61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>[User_login-145]</v>
       </c>
-      <c r="B155" s="175" t="s">
-        <v>532</v>
+      <c r="B155" s="240" t="s">
+        <v>515</v>
       </c>
       <c r="C155" s="117" t="s">
-        <v>531</v>
+        <v>723</v>
       </c>
       <c r="D155" s="117" t="s">
-        <v>530</v>
+        <v>725</v>
       </c>
       <c r="E155" s="118"/>
-      <c r="F155" s="117"/>
-      <c r="G155" s="117"/>
-      <c r="H155" s="119"/>
+      <c r="F155" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H155" s="112">
+        <v>42412</v>
+      </c>
       <c r="I155" s="120"/>
       <c r="J155" s="105"/>
     </row>
-    <row r="156" spans="1:16" ht="44.25" customHeight="1">
-      <c r="A156" s="61" t="str">
-        <f t="shared" si="13"/>
-        <v>[User_login-146]</v>
-      </c>
-      <c r="B156" s="175" t="s">
-        <v>533</v>
-      </c>
-      <c r="C156" s="117" t="s">
-        <v>531</v>
-      </c>
-      <c r="D156" s="117" t="s">
-        <v>530</v>
-      </c>
-      <c r="E156" s="118"/>
-      <c r="F156" s="117"/>
-      <c r="G156" s="117"/>
-      <c r="H156" s="119"/>
-      <c r="I156" s="120"/>
+    <row r="156" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A156" s="200"/>
+      <c r="B156" s="201"/>
+      <c r="C156" s="201"/>
+      <c r="D156" s="201"/>
+      <c r="E156" s="200"/>
+      <c r="F156" s="201"/>
+      <c r="G156" s="201"/>
+      <c r="H156" s="112"/>
+      <c r="I156" s="202"/>
       <c r="J156" s="105"/>
-    </row>
-    <row r="157" spans="1:16" ht="45.75" customHeight="1">
-      <c r="A157" s="61" t="str">
-        <f t="shared" ref="A157" si="14">IF(OR(B157&lt;&gt;"",D157&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-147]</v>
-      </c>
-      <c r="B157" s="175" t="s">
-        <v>534</v>
-      </c>
-      <c r="C157" s="117" t="s">
-        <v>531</v>
-      </c>
-      <c r="D157" s="117" t="s">
-        <v>530</v>
-      </c>
-      <c r="E157" s="118"/>
-      <c r="F157" s="117"/>
-      <c r="G157" s="117"/>
-      <c r="H157" s="119"/>
-      <c r="I157" s="120"/>
-      <c r="J157" s="105"/>
-    </row>
-    <row r="158" spans="1:16" ht="48" customHeight="1">
-      <c r="A158" s="61" t="str">
-        <f t="shared" ref="A158:A159" si="15">IF(OR(B158&lt;&gt;"",D158&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-148]</v>
-      </c>
-      <c r="B158" s="175" t="s">
-        <v>535</v>
-      </c>
-      <c r="C158" s="117" t="s">
-        <v>531</v>
-      </c>
-      <c r="D158" s="117" t="s">
-        <v>530</v>
-      </c>
-      <c r="E158" s="118"/>
-      <c r="F158" s="117"/>
-      <c r="G158" s="117"/>
-      <c r="H158" s="119"/>
-      <c r="I158" s="120"/>
-      <c r="J158" s="105"/>
-    </row>
-    <row r="159" spans="1:16" ht="56.25" customHeight="1">
-      <c r="A159" s="61" t="str">
-        <f t="shared" si="15"/>
-        <v>[User_login-149]</v>
-      </c>
-      <c r="B159" s="243" t="s">
-        <v>536</v>
+      <c r="K156" s="172"/>
+      <c r="L156" s="172"/>
+      <c r="M156" s="172"/>
+      <c r="N156" s="172"/>
+      <c r="O156" s="172"/>
+      <c r="P156" s="172"/>
+    </row>
+    <row r="157" spans="1:16" s="172" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B157" s="172" t="s">
+        <v>133</v>
+      </c>
+      <c r="H157" s="112"/>
+      <c r="K157" s="198"/>
+      <c r="L157" s="198"/>
+      <c r="M157" s="198"/>
+      <c r="N157" s="198"/>
+      <c r="O157" s="198"/>
+      <c r="P157" s="198"/>
+    </row>
+    <row r="158" spans="1:16" s="192" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A158" s="193"/>
+      <c r="B158" s="194" t="s">
+        <v>134</v>
+      </c>
+      <c r="C158" s="195"/>
+      <c r="D158" s="195"/>
+      <c r="E158" s="195"/>
+      <c r="F158" s="195"/>
+      <c r="G158" s="195"/>
+      <c r="H158" s="112"/>
+      <c r="I158" s="195"/>
+      <c r="K158" s="198"/>
+      <c r="L158" s="198"/>
+      <c r="M158" s="198"/>
+      <c r="N158" s="198"/>
+      <c r="O158" s="198"/>
+      <c r="P158" s="198"/>
+    </row>
+    <row r="159" spans="1:16" s="197" customFormat="1" ht="15" customHeight="1">
+      <c r="A159" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A158)+1)</f>
+        <v>ID-137</v>
+      </c>
+      <c r="B159" s="117" t="s">
+        <v>301</v>
       </c>
       <c r="C159" s="117" t="s">
-        <v>531</v>
+        <v>304</v>
       </c>
       <c r="D159" s="117" t="s">
-        <v>530</v>
-      </c>
-      <c r="E159" s="118"/>
-      <c r="F159" s="117"/>
-      <c r="G159" s="117"/>
-      <c r="H159" s="119"/>
-      <c r="I159" s="120"/>
-      <c r="J159" s="105"/>
-    </row>
-    <row r="160" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A160" s="202"/>
-      <c r="B160" s="203"/>
-      <c r="C160" s="203"/>
-      <c r="D160" s="203"/>
-      <c r="E160" s="202"/>
-      <c r="F160" s="203"/>
-      <c r="G160" s="203"/>
-      <c r="H160" s="204"/>
-      <c r="I160" s="205"/>
-      <c r="J160" s="105"/>
-      <c r="K160" s="172"/>
-      <c r="L160" s="172"/>
-      <c r="M160" s="172"/>
-      <c r="N160" s="172"/>
-      <c r="O160" s="172"/>
-      <c r="P160" s="172"/>
-    </row>
-    <row r="161" spans="1:16" s="172" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B161" s="172" t="s">
-        <v>133</v>
-      </c>
-      <c r="K161" s="200"/>
-      <c r="L161" s="200"/>
-      <c r="M161" s="200"/>
-      <c r="N161" s="200"/>
-      <c r="O161" s="200"/>
-      <c r="P161" s="200"/>
-    </row>
-    <row r="162" spans="1:16" s="194" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A162" s="195"/>
-      <c r="B162" s="196" t="s">
-        <v>134</v>
-      </c>
-      <c r="C162" s="197"/>
-      <c r="D162" s="197"/>
-      <c r="E162" s="197"/>
-      <c r="F162" s="197"/>
-      <c r="G162" s="197"/>
-      <c r="H162" s="197"/>
-      <c r="I162" s="197"/>
-      <c r="K162" s="200"/>
-      <c r="L162" s="200"/>
-      <c r="M162" s="200"/>
-      <c r="N162" s="200"/>
-      <c r="O162" s="200"/>
-      <c r="P162" s="200"/>
-    </row>
-    <row r="163" spans="1:16" s="199" customFormat="1" ht="15" customHeight="1">
-      <c r="A163" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A162)+1)</f>
-        <v>ID-143</v>
-      </c>
-      <c r="B163" s="117" t="s">
-        <v>301</v>
-      </c>
-      <c r="C163" s="117" t="s">
+        <v>135</v>
+      </c>
+      <c r="E159" s="117"/>
+      <c r="F159" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G159" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H159" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I159" s="196"/>
+    </row>
+    <row r="160" spans="1:16" s="197" customFormat="1" ht="12" customHeight="1">
+      <c r="A160" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A159)+1)</f>
+        <v>ID-138</v>
+      </c>
+      <c r="B160" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="C160" s="117" t="s">
+        <v>303</v>
+      </c>
+      <c r="D160" s="117" t="s">
+        <v>135</v>
+      </c>
+      <c r="E160" s="117"/>
+      <c r="F160" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G160" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H160" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I160" s="196"/>
+      <c r="K160" s="192"/>
+      <c r="L160" s="192"/>
+      <c r="M160" s="192"/>
+      <c r="N160" s="192"/>
+      <c r="O160" s="192"/>
+      <c r="P160" s="192"/>
+    </row>
+    <row r="161" spans="1:16" s="197" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A161" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A160)+1)</f>
+        <v>ID-139</v>
+      </c>
+      <c r="B161" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="C161" s="117" t="s">
+        <v>302</v>
+      </c>
+      <c r="D161" s="117" t="s">
+        <v>135</v>
+      </c>
+      <c r="E161" s="117"/>
+      <c r="F161" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G161" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H161" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I161" s="196"/>
+      <c r="K161" s="192"/>
+      <c r="L161" s="192"/>
+      <c r="M161" s="192"/>
+      <c r="N161" s="192"/>
+      <c r="O161" s="192"/>
+      <c r="P161" s="192"/>
+    </row>
+    <row r="162" spans="1:16" s="197" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A162" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A161)+1)</f>
+        <v>ID-140</v>
+      </c>
+      <c r="B162" s="117" t="s">
+        <v>305</v>
+      </c>
+      <c r="C162" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="D163" s="117" t="s">
+      <c r="D162" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="E163" s="117"/>
-      <c r="F163" s="117"/>
-      <c r="G163" s="117"/>
-      <c r="H163" s="117"/>
-      <c r="I163" s="198"/>
-    </row>
-    <row r="164" spans="1:16" s="199" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E162" s="117"/>
+      <c r="F162" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G162" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H162" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I162" s="117"/>
+      <c r="K162" s="192"/>
+      <c r="L162" s="192"/>
+      <c r="M162" s="192"/>
+      <c r="N162" s="192"/>
+      <c r="O162" s="192"/>
+      <c r="P162" s="192"/>
+    </row>
+    <row r="163" spans="1:16" s="172" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B163" s="172" t="s">
+        <v>136</v>
+      </c>
+      <c r="H163" s="112"/>
+      <c r="K163" s="192"/>
+      <c r="L163" s="192"/>
+      <c r="M163" s="192"/>
+      <c r="N163" s="192"/>
+      <c r="O163" s="192"/>
+      <c r="P163" s="192"/>
+    </row>
+    <row r="164" spans="1:16" s="198" customFormat="1" ht="14.25" customHeight="1">
       <c r="A164" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A163)+1)</f>
-        <v>ID-144</v>
+        <v>ID-141</v>
       </c>
       <c r="B164" s="117" t="s">
-        <v>302</v>
+        <v>137</v>
       </c>
       <c r="C164" s="117" t="s">
-        <v>305</v>
+        <v>171</v>
       </c>
       <c r="D164" s="117" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="E164" s="117"/>
-      <c r="F164" s="117"/>
-      <c r="G164" s="117"/>
-      <c r="H164" s="117"/>
-      <c r="I164" s="198"/>
-      <c r="K164" s="194"/>
-      <c r="L164" s="194"/>
-      <c r="M164" s="194"/>
-      <c r="N164" s="194"/>
-      <c r="O164" s="194"/>
-      <c r="P164" s="194"/>
-    </row>
-    <row r="165" spans="1:16" s="199" customFormat="1" ht="12" customHeight="1">
+      <c r="F164" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G164" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H164" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I164" s="117"/>
+      <c r="K164" s="192"/>
+      <c r="L164" s="192"/>
+      <c r="M164" s="192"/>
+      <c r="N164" s="192"/>
+      <c r="O164" s="192"/>
+      <c r="P164" s="192"/>
+    </row>
+    <row r="165" spans="1:16" s="198" customFormat="1" ht="25.5">
       <c r="A165" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A164)+1)</f>
-        <v>ID-145</v>
+        <v>ID-142</v>
       </c>
       <c r="B165" s="117" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C165" s="117" t="s">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="D165" s="117" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E165" s="117"/>
-      <c r="F165" s="117"/>
-      <c r="G165" s="117"/>
-      <c r="H165" s="117"/>
-      <c r="I165" s="198"/>
-      <c r="K165" s="194"/>
-      <c r="L165" s="194"/>
-      <c r="M165" s="194"/>
-      <c r="N165" s="194"/>
-      <c r="O165" s="194"/>
-      <c r="P165" s="194"/>
-    </row>
-    <row r="166" spans="1:16" s="199" customFormat="1" ht="14.25" customHeight="1">
+      <c r="F165" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G165" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H165" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I165" s="117"/>
+      <c r="K165" s="192"/>
+      <c r="L165" s="192"/>
+      <c r="M165" s="192"/>
+      <c r="N165" s="192"/>
+      <c r="O165" s="192"/>
+      <c r="P165" s="192"/>
+    </row>
+    <row r="166" spans="1:16" s="198" customFormat="1" ht="38.25">
       <c r="A166" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A165)+1)</f>
-        <v>ID-146</v>
+        <v>ID-143</v>
       </c>
       <c r="B166" s="117" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C166" s="117" t="s">
-        <v>303</v>
+        <v>139</v>
       </c>
       <c r="D166" s="117" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E166" s="117"/>
-      <c r="F166" s="117"/>
-      <c r="G166" s="117"/>
-      <c r="H166" s="117"/>
-      <c r="I166" s="198"/>
-      <c r="K166" s="194"/>
-      <c r="L166" s="194"/>
-      <c r="M166" s="194"/>
-      <c r="N166" s="194"/>
-      <c r="O166" s="194"/>
-      <c r="P166" s="194"/>
-    </row>
-    <row r="167" spans="1:16" s="199" customFormat="1" ht="14.25" customHeight="1">
+      <c r="F166" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G166" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H166" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I166" s="117"/>
+      <c r="K166" s="192"/>
+      <c r="L166" s="192"/>
+      <c r="M166" s="192"/>
+      <c r="N166" s="192"/>
+      <c r="O166" s="192"/>
+      <c r="P166" s="192"/>
+    </row>
+    <row r="167" spans="1:16" s="197" customFormat="1" ht="25.5">
       <c r="A167" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A166)+1)</f>
-        <v>ID-147</v>
+        <v>ID-144</v>
       </c>
       <c r="B167" s="117" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="C167" s="117" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="D167" s="117" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="E167" s="117"/>
-      <c r="F167" s="117"/>
-      <c r="G167" s="117"/>
-      <c r="H167" s="117"/>
+      <c r="F167" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G167" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H167" s="112">
+        <v>42412</v>
+      </c>
       <c r="I167" s="117"/>
-      <c r="K167" s="194"/>
-      <c r="L167" s="194"/>
-      <c r="M167" s="194"/>
-      <c r="N167" s="194"/>
-      <c r="O167" s="194"/>
-      <c r="P167" s="194"/>
-    </row>
-    <row r="168" spans="1:16" s="172" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B168" s="172" t="s">
-        <v>136</v>
-      </c>
-      <c r="K168" s="194"/>
-      <c r="L168" s="194"/>
-      <c r="M168" s="194"/>
-      <c r="N168" s="194"/>
-      <c r="O168" s="194"/>
-      <c r="P168" s="194"/>
-    </row>
-    <row r="169" spans="1:16" s="200" customFormat="1" ht="14.25" customHeight="1">
+      <c r="K167" s="192"/>
+      <c r="L167" s="192"/>
+      <c r="M167" s="192"/>
+      <c r="N167" s="192"/>
+      <c r="O167" s="192"/>
+      <c r="P167" s="192"/>
+    </row>
+    <row r="168" spans="1:16" s="192" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A168" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A167)+1)</f>
+        <v>ID-145</v>
+      </c>
+      <c r="B168" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="C168" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="D168" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="E168" s="117"/>
+      <c r="F168" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G168" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H168" s="112">
+        <v>42412</v>
+      </c>
+      <c r="I168" s="117"/>
+      <c r="K168" s="105"/>
+      <c r="L168" s="105"/>
+      <c r="M168" s="105"/>
+      <c r="N168" s="105"/>
+      <c r="O168" s="105"/>
+      <c r="P168" s="105"/>
+    </row>
+    <row r="169" spans="1:16" s="192" customFormat="1" ht="36.75" customHeight="1">
       <c r="A169" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A168)+1)</f>
-        <v>ID-148</v>
+        <v>ID-146</v>
       </c>
       <c r="B169" s="117" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C169" s="117" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D169" s="117" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="E169" s="117"/>
-      <c r="F169" s="117"/>
-      <c r="G169" s="117"/>
-      <c r="H169" s="117"/>
+      <c r="F169" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G169" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H169" s="112">
+        <v>42412</v>
+      </c>
       <c r="I169" s="117"/>
-      <c r="K169" s="194"/>
-      <c r="L169" s="194"/>
-      <c r="M169" s="194"/>
-      <c r="N169" s="194"/>
-      <c r="O169" s="194"/>
-      <c r="P169" s="194"/>
-    </row>
-    <row r="170" spans="1:16" s="200" customFormat="1" ht="14.25" customHeight="1">
+      <c r="K169" s="105"/>
+      <c r="L169" s="105"/>
+      <c r="M169" s="105"/>
+      <c r="N169" s="105"/>
+      <c r="O169" s="105"/>
+      <c r="P169" s="105"/>
+    </row>
+    <row r="170" spans="1:16" s="192" customFormat="1" ht="38.25" customHeight="1">
       <c r="A170" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A169)+1)</f>
-        <v>ID-149</v>
+        <v>ID-147</v>
       </c>
       <c r="B170" s="117" t="s">
-        <v>138</v>
+        <v>676</v>
       </c>
       <c r="C170" s="117" t="s">
-        <v>139</v>
+        <v>677</v>
       </c>
       <c r="D170" s="117" t="s">
-        <v>140</v>
+        <v>678</v>
       </c>
       <c r="E170" s="117"/>
-      <c r="F170" s="117"/>
-      <c r="G170" s="117"/>
-      <c r="H170" s="117"/>
+      <c r="F170" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G170" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H170" s="112">
+        <v>42412</v>
+      </c>
       <c r="I170" s="117"/>
-      <c r="K170" s="194"/>
-      <c r="L170" s="194"/>
-      <c r="M170" s="194"/>
-      <c r="N170" s="194"/>
-      <c r="O170" s="194"/>
-      <c r="P170" s="194"/>
-    </row>
-    <row r="171" spans="1:16" s="200" customFormat="1" ht="14.25" customHeight="1">
+      <c r="K170" s="105"/>
+      <c r="L170" s="105"/>
+      <c r="M170" s="105"/>
+      <c r="N170" s="105"/>
+      <c r="O170" s="105"/>
+      <c r="P170" s="105"/>
+    </row>
+    <row r="171" spans="1:16" s="192" customFormat="1" ht="14.25" customHeight="1">
       <c r="A171" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A170)+1)</f>
-        <v>ID-150</v>
+        <v>ID-148</v>
       </c>
       <c r="B171" s="117" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C171" s="117" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D171" s="117" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E171" s="117"/>
-      <c r="F171" s="117"/>
-      <c r="G171" s="117"/>
-      <c r="H171" s="117"/>
+      <c r="F171" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G171" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H171" s="112">
+        <v>42412</v>
+      </c>
       <c r="I171" s="117"/>
-      <c r="K171" s="194"/>
-      <c r="L171" s="194"/>
-      <c r="M171" s="194"/>
-      <c r="N171" s="194"/>
-      <c r="O171" s="194"/>
-      <c r="P171" s="194"/>
-    </row>
-    <row r="172" spans="1:16" s="199" customFormat="1" ht="14.25" customHeight="1">
+      <c r="K171" s="105"/>
+      <c r="L171" s="105"/>
+      <c r="M171" s="105"/>
+      <c r="N171" s="105"/>
+      <c r="O171" s="105"/>
+      <c r="P171" s="105"/>
+    </row>
+    <row r="172" spans="1:16" s="192" customFormat="1" ht="14.25" customHeight="1">
       <c r="A172" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A171)+1)</f>
-        <v>ID-151</v>
+        <v>ID-149</v>
       </c>
       <c r="B172" s="117" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C172" s="117" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D172" s="117" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E172" s="117"/>
-      <c r="F172" s="117"/>
-      <c r="G172" s="117"/>
-      <c r="H172" s="117"/>
+      <c r="F172" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G172" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H172" s="112">
+        <v>42412</v>
+      </c>
       <c r="I172" s="117"/>
-      <c r="K172" s="194"/>
-      <c r="L172" s="194"/>
-      <c r="M172" s="194"/>
-      <c r="N172" s="194"/>
-      <c r="O172" s="194"/>
-      <c r="P172" s="194"/>
-    </row>
-    <row r="173" spans="1:16" s="194" customFormat="1" ht="14.25" customHeight="1">
+      <c r="K172" s="105"/>
+      <c r="L172" s="105"/>
+      <c r="M172" s="105"/>
+      <c r="N172" s="105"/>
+      <c r="O172" s="105"/>
+      <c r="P172" s="105"/>
+    </row>
+    <row r="173" spans="1:16" s="192" customFormat="1" ht="28.5" customHeight="1">
       <c r="A173" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A172)+1)</f>
-        <v>ID-152</v>
+        <v>ID-150</v>
       </c>
       <c r="B173" s="117" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C173" s="117" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D173" s="117" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E173" s="117"/>
-      <c r="F173" s="117"/>
-      <c r="G173" s="117"/>
-      <c r="H173" s="117"/>
+      <c r="F173" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G173" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H173" s="112">
+        <v>42412</v>
+      </c>
       <c r="I173" s="117"/>
       <c r="K173" s="105"/>
       <c r="L173" s="105"/>
@@ -30907,24 +31242,30 @@
       <c r="O173" s="105"/>
       <c r="P173" s="105"/>
     </row>
-    <row r="174" spans="1:16" s="194" customFormat="1" ht="14.25" customHeight="1">
+    <row r="174" spans="1:16" s="192" customFormat="1" ht="14.25" customHeight="1">
       <c r="A174" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A173)+1)</f>
-        <v>ID-153</v>
+        <v>ID-151</v>
       </c>
       <c r="B174" s="117" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C174" s="117" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D174" s="117" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E174" s="117"/>
-      <c r="F174" s="117"/>
-      <c r="G174" s="117"/>
-      <c r="H174" s="117"/>
+      <c r="F174" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G174" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H174" s="112">
+        <v>42412</v>
+      </c>
       <c r="I174" s="117"/>
       <c r="K174" s="105"/>
       <c r="L174" s="105"/>
@@ -30933,24 +31274,30 @@
       <c r="O174" s="105"/>
       <c r="P174" s="105"/>
     </row>
-    <row r="175" spans="1:16" s="194" customFormat="1" ht="15.75" customHeight="1">
+    <row r="175" spans="1:16" s="192" customFormat="1" ht="14.25" customHeight="1">
       <c r="A175" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A174)+1)</f>
-        <v>ID-154</v>
+        <v>ID-152</v>
       </c>
       <c r="B175" s="117" t="s">
-        <v>697</v>
+        <v>163</v>
       </c>
       <c r="C175" s="117" t="s">
-        <v>698</v>
+        <v>164</v>
       </c>
       <c r="D175" s="117" t="s">
-        <v>699</v>
+        <v>165</v>
       </c>
       <c r="E175" s="117"/>
-      <c r="F175" s="117"/>
-      <c r="G175" s="117"/>
-      <c r="H175" s="117"/>
+      <c r="F175" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G175" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H175" s="112">
+        <v>42412</v>
+      </c>
       <c r="I175" s="117"/>
       <c r="K175" s="105"/>
       <c r="L175" s="105"/>
@@ -30959,24 +31306,30 @@
       <c r="O175" s="105"/>
       <c r="P175" s="105"/>
     </row>
-    <row r="176" spans="1:16" s="194" customFormat="1" ht="14.25" customHeight="1">
+    <row r="176" spans="1:16" s="192" customFormat="1" ht="14.25" customHeight="1">
       <c r="A176" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A175)+1)</f>
-        <v>ID-155</v>
+        <v>ID-153</v>
       </c>
       <c r="B176" s="117" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C176" s="117" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D176" s="117" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E176" s="117"/>
-      <c r="F176" s="117"/>
-      <c r="G176" s="117"/>
-      <c r="H176" s="117"/>
+      <c r="F176" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="G176" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="H176" s="112">
+        <v>42412</v>
+      </c>
       <c r="I176" s="117"/>
       <c r="K176" s="105"/>
       <c r="L176" s="105"/>
@@ -30984,136 +31337,6 @@
       <c r="N176" s="105"/>
       <c r="O176" s="105"/>
       <c r="P176" s="105"/>
-    </row>
-    <row r="177" spans="1:16" s="194" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A177" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A176)+1)</f>
-        <v>ID-156</v>
-      </c>
-      <c r="B177" s="117" t="s">
-        <v>154</v>
-      </c>
-      <c r="C177" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="D177" s="117" t="s">
-        <v>156</v>
-      </c>
-      <c r="E177" s="117"/>
-      <c r="F177" s="117"/>
-      <c r="G177" s="117"/>
-      <c r="H177" s="117"/>
-      <c r="I177" s="117"/>
-      <c r="K177" s="105"/>
-      <c r="L177" s="105"/>
-      <c r="M177" s="105"/>
-      <c r="N177" s="105"/>
-      <c r="O177" s="105"/>
-      <c r="P177" s="105"/>
-    </row>
-    <row r="178" spans="1:16" s="194" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A178" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A177)+1)</f>
-        <v>ID-157</v>
-      </c>
-      <c r="B178" s="117" t="s">
-        <v>157</v>
-      </c>
-      <c r="C178" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="D178" s="117" t="s">
-        <v>159</v>
-      </c>
-      <c r="E178" s="117"/>
-      <c r="F178" s="117"/>
-      <c r="G178" s="117"/>
-      <c r="H178" s="117"/>
-      <c r="I178" s="117"/>
-      <c r="K178" s="105"/>
-      <c r="L178" s="105"/>
-      <c r="M178" s="105"/>
-      <c r="N178" s="105"/>
-      <c r="O178" s="105"/>
-      <c r="P178" s="105"/>
-    </row>
-    <row r="179" spans="1:16" s="194" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A179" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A178)+1)</f>
-        <v>ID-158</v>
-      </c>
-      <c r="B179" s="117" t="s">
-        <v>160</v>
-      </c>
-      <c r="C179" s="117" t="s">
-        <v>161</v>
-      </c>
-      <c r="D179" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="E179" s="117"/>
-      <c r="F179" s="117"/>
-      <c r="G179" s="117"/>
-      <c r="H179" s="117"/>
-      <c r="I179" s="117"/>
-      <c r="K179" s="105"/>
-      <c r="L179" s="105"/>
-      <c r="M179" s="105"/>
-      <c r="N179" s="105"/>
-      <c r="O179" s="105"/>
-      <c r="P179" s="105"/>
-    </row>
-    <row r="180" spans="1:16" s="194" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A180" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A179)+1)</f>
-        <v>ID-159</v>
-      </c>
-      <c r="B180" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="C180" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="D180" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="E180" s="117"/>
-      <c r="F180" s="117"/>
-      <c r="G180" s="117"/>
-      <c r="H180" s="117"/>
-      <c r="I180" s="117"/>
-      <c r="K180" s="105"/>
-      <c r="L180" s="105"/>
-      <c r="M180" s="105"/>
-      <c r="N180" s="105"/>
-      <c r="O180" s="105"/>
-      <c r="P180" s="105"/>
-    </row>
-    <row r="181" spans="1:16" s="194" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A181" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A180)+1)</f>
-        <v>ID-160</v>
-      </c>
-      <c r="B181" s="117" t="s">
-        <v>166</v>
-      </c>
-      <c r="C181" s="117" t="s">
-        <v>167</v>
-      </c>
-      <c r="D181" s="117" t="s">
-        <v>168</v>
-      </c>
-      <c r="E181" s="117"/>
-      <c r="F181" s="117"/>
-      <c r="G181" s="117"/>
-      <c r="H181" s="117"/>
-      <c r="I181" s="117"/>
-      <c r="K181" s="105"/>
-      <c r="L181" s="105"/>
-      <c r="M181" s="105"/>
-      <c r="N181" s="105"/>
-      <c r="O181" s="105"/>
-      <c r="P181" s="105"/>
     </row>
   </sheetData>
   <dataConsolidate>
@@ -31129,17 +31352,17 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G182:G65412 F109:F117 F63:G65 F80:F85 F154:F159 F131:F146 F67:F76 F12:F20 F53:G61 F148:F152 F22:F51 G11:G51 F119:F129 F87:F94 G68:G76 F78:G78 F96:F107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G177:G65407 F109:F117 F63:G65 F80:F85 F150:F155 F131:F142 F67:F76 F12:F20 F53:G61 F144:F148 F22:F51 G11:G51 F119:F129 F87:F94 G68:G76 F78:G78 F96:F107">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G109:G117 G131:G146 G67 G80:G85 G148:G152 G119:G129 G87:G94 G96:G107">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G109:G117 G131:G142 G67 G80:G85 G144:G148 G119:G129 G87:G94 G96:G107">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G154:G159 F160:G160">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G150:G155 F156:G156">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WLE169:WLL181 WBI169:WBP181 VRM169:VRT181 VHQ169:VHX181 UXU169:UYB181 UNY169:UOF181 UEC169:UEJ181 TUG169:TUN181 TKK169:TKR181 TAO169:TAV181 SQS169:SQZ181 SGW169:SHD181 RXA169:RXH181 RNE169:RNL181 RDI169:RDP181 QTM169:QTT181 QJQ169:QJX181 PZU169:QAB181 PPY169:PQF181 PGC169:PGJ181 OWG169:OWN181 OMK169:OMR181 OCO169:OCV181 NSS169:NSZ181 NIW169:NJD181 MZA169:MZH181 MPE169:MPL181 MFI169:MFP181 LVM169:LVT181 LLQ169:LLX181 LBU169:LCB181 KRY169:KSF181 KIC169:KIJ181 JYG169:JYN181 JOK169:JOR181 JEO169:JEV181 IUS169:IUZ181 IKW169:ILD181 IBA169:IBH181 HRE169:HRL181 HHI169:HHP181 GXM169:GXT181 GNQ169:GNX181 GDU169:GEB181 FTY169:FUF181 FKC169:FKJ181 FAG169:FAN181 EQK169:EQR181 EGO169:EGV181 DWS169:DWZ181 DMW169:DND181 DDA169:DDH181 CTE169:CTL181 CJI169:CJP181 BZM169:BZT181 BPQ169:BPX181 BFU169:BGB181 AVY169:AWF181 AMC169:AMJ181 ACG169:ACN181 SK169:SR181 IO169:IV181 E169:I181 WVA169:WVH181 WVK161:WVK181 WLO161:WLO181 WBS161:WBS181 VRW161:VRW181 VIA161:VIA181 UYE161:UYE181 UOI161:UOI181 UEM161:UEM181 TUQ161:TUQ181 TKU161:TKU181 TAY161:TAY181 SRC161:SRC181 SHG161:SHG181 RXK161:RXK181 RNO161:RNO181 RDS161:RDS181 QTW161:QTW181 QKA161:QKA181 QAE161:QAE181 PQI161:PQI181 PGM161:PGM181 OWQ161:OWQ181 OMU161:OMU181 OCY161:OCY181 NTC161:NTC181 NJG161:NJG181 MZK161:MZK181 MPO161:MPO181 MFS161:MFS181 LVW161:LVW181 LMA161:LMA181 LCE161:LCE181 KSI161:KSI181 KIM161:KIM181 JYQ161:JYQ181 JOU161:JOU181 JEY161:JEY181 IVC161:IVC181 ILG161:ILG181 IBK161:IBK181 HRO161:HRO181 HHS161:HHS181 GXW161:GXW181 GOA161:GOA181 GEE161:GEE181 FUI161:FUI181 FKM161:FKM181 FAQ161:FAQ181 EQU161:EQU181 EGY161:EGY181 DXC161:DXC181 DNG161:DNG181 DDK161:DDK181 CTO161:CTO181 CJS161:CJS181 BZW161:BZW181 BQA161:BQA181 BGE161:BGE181 AWI161:AWI181 AMM161:AMM181 ACQ161:ACQ181 SU161:SU181 IY161:IY181 WVA163:WVH167 WLE163:WLL167 WBI163:WBP167 VRM163:VRT167 VHQ163:VHX167 UXU163:UYB167 UNY163:UOF167 UEC163:UEJ167 TUG163:TUN167 TKK163:TKR167 TAO163:TAV167 SQS163:SQZ167 SGW163:SHD167 RXA163:RXH167 RNE163:RNL167 RDI163:RDP167 QTM163:QTT167 QJQ163:QJX167 PZU163:QAB167 PPY163:PQF167 PGC163:PGJ167 OWG163:OWN167 OMK163:OMR167 OCO163:OCV167 NSS163:NSZ167 NIW163:NJD167 MZA163:MZH167 MPE163:MPL167 MFI163:MFP167 LVM163:LVT167 LLQ163:LLX167 LBU163:LCB167 KRY163:KSF167 KIC163:KIJ167 JYG163:JYN167 JOK163:JOR167 JEO163:JEV167 IUS163:IUZ167 IKW163:ILD167 IBA163:IBH167 HRE163:HRL167 HHI163:HHP167 GXM163:GXT167 GNQ163:GNX167 GDU163:GEB167 FTY163:FUF167 FKC163:FKJ167 FAG163:FAN167 EQK163:EQR167 EGO163:EGV167 DWS163:DWZ167 DMW163:DND167 DDA163:DDH167 CTE163:CTL167 CJI163:CJP167 BZM163:BZT167 BPQ163:BPX167 BFU163:BGB167 AVY163:AWF167 AMC163:AMJ167 ACG163:ACN167 SK163:SR167 IO163:IV167 E163:I167">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WLE164:WLL176 WBI164:WBP176 VRM164:VRT176 VHQ164:VHX176 UXU164:UYB176 UNY164:UOF176 UEC164:UEJ176 TUG164:TUN176 TKK164:TKR176 TAO164:TAV176 SQS164:SQZ176 SGW164:SHD176 RXA164:RXH176 RNE164:RNL176 RDI164:RDP176 QTM164:QTT176 QJQ164:QJX176 PZU164:QAB176 PPY164:PQF176 PGC164:PGJ176 OWG164:OWN176 OMK164:OMR176 OCO164:OCV176 NSS164:NSZ176 NIW164:NJD176 MZA164:MZH176 MPE164:MPL176 MFI164:MFP176 LVM164:LVT176 LLQ164:LLX176 LBU164:LCB176 KRY164:KSF176 KIC164:KIJ176 JYG164:JYN176 JOK164:JOR176 JEO164:JEV176 IUS164:IUZ176 IKW164:ILD176 IBA164:IBH176 HRE164:HRL176 HHI164:HHP176 GXM164:GXT176 GNQ164:GNX176 GDU164:GEB176 FTY164:FUF176 FKC164:FKJ176 FAG164:FAN176 EQK164:EQR176 EGO164:EGV176 DWS164:DWZ176 DMW164:DND176 DDA164:DDH176 CTE164:CTL176 CJI164:CJP176 BZM164:BZT176 BPQ164:BPX176 BFU164:BGB176 AVY164:AWF176 AMC164:AMJ176 ACG164:ACN176 SK164:SR176 IO164:IV176 WVA164:WVH176 E164:G176 I164:I176 E159:G162 IO159:IV162 SK159:SR162 ACG159:ACN162 AMC159:AMJ162 AVY159:AWF162 BFU159:BGB162 BPQ159:BPX162 BZM159:BZT162 CJI159:CJP162 CTE159:CTL162 DDA159:DDH162 DMW159:DND162 DWS159:DWZ162 EGO159:EGV162 EQK159:EQR162 FAG159:FAN162 FKC159:FKJ162 FTY159:FUF162 GDU159:GEB162 GNQ159:GNX162 GXM159:GXT162 HHI159:HHP162 HRE159:HRL162 IBA159:IBH162 IKW159:ILD162 IUS159:IUZ162 JEO159:JEV162 JOK159:JOR162 JYG159:JYN162 KIC159:KIJ162 KRY159:KSF162 LBU159:LCB162 LLQ159:LLX162 LVM159:LVT162 MFI159:MFP162 MPE159:MPL162 MZA159:MZH162 NIW159:NJD162 NSS159:NSZ162 OCO159:OCV162 OMK159:OMR162 OWG159:OWN162 PGC159:PGJ162 PPY159:PQF162 PZU159:QAB162 QJQ159:QJX162 QTM159:QTT162 RDI159:RDP162 RNE159:RNL162 RXA159:RXH162 SGW159:SHD162 SQS159:SQZ162 TAO159:TAV162 TKK159:TKR162 TUG159:TUN162 UEC159:UEJ162 UNY159:UOF162 UXU159:UYB162 VHQ159:VHX162 VRM159:VRT162 WBI159:WBP162 WLE159:WLL162 WVA159:WVH162 IY157:IY176 SU157:SU176 ACQ157:ACQ176 AMM157:AMM176 AWI157:AWI176 BGE157:BGE176 BQA157:BQA176 BZW157:BZW176 CJS157:CJS176 CTO157:CTO176 DDK157:DDK176 DNG157:DNG176 DXC157:DXC176 EGY157:EGY176 EQU157:EQU176 FAQ157:FAQ176 FKM157:FKM176 FUI157:FUI176 GEE157:GEE176 GOA157:GOA176 GXW157:GXW176 HHS157:HHS176 HRO157:HRO176 IBK157:IBK176 ILG157:ILG176 IVC157:IVC176 JEY157:JEY176 JOU157:JOU176 JYQ157:JYQ176 KIM157:KIM176 KSI157:KSI176 LCE157:LCE176 LMA157:LMA176 LVW157:LVW176 MFS157:MFS176 MPO157:MPO176 MZK157:MZK176 NJG157:NJG176 NTC157:NTC176 OCY157:OCY176 OMU157:OMU176 OWQ157:OWQ176 PGM157:PGM176 PQI157:PQI176 QAE157:QAE176 QKA157:QKA176 QTW157:QTW176 RDS157:RDS176 RNO157:RNO176 RXK157:RXK176 SHG157:SHG176 SRC157:SRC176 TAY157:TAY176 TKU157:TKU176 TUQ157:TUQ176 UEM157:UEM176 UOI157:UOI176 UYE157:UYE176 VIA157:VIA176 VRW157:VRW176 WBS157:WBS176 WLO157:WLO176 WVK157:WVK176 I159:I162">
       <formula1>"OK,NG,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J63:J65 J68:J76">
@@ -31159,8 +31382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -31196,14 +31419,14 @@
       <c r="A2" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="257" t="s">
+      <c r="B2" s="254" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="257"/>
-      <c r="D2" s="257"/>
-      <c r="E2" s="257"/>
-      <c r="F2" s="257"/>
-      <c r="G2" s="257"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
       <c r="J2" s="95" t="s">
         <v>22</v>
       </c>
@@ -31212,14 +31435,14 @@
       <c r="A3" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="257" t="s">
+      <c r="B3" s="254" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
       <c r="J3" s="95" t="s">
         <v>24</v>
       </c>
@@ -31228,14 +31451,14 @@
       <c r="A4" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="258" t="s">
+      <c r="B4" s="255" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
       <c r="J4" s="96"/>
     </row>
     <row r="5" spans="1:10" s="137" customFormat="1" ht="14.25">
@@ -31251,11 +31474,11 @@
       <c r="D5" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="262" t="s">
+      <c r="E5" s="259" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
+      <c r="F5" s="259"/>
+      <c r="G5" s="259"/>
       <c r="J5" s="95" t="s">
         <v>29</v>
       </c>
@@ -31263,7 +31486,7 @@
     <row r="6" spans="1:10" s="137" customFormat="1" ht="15" thickBot="1">
       <c r="A6" s="130">
         <f>COUNTIF(F11:G314,"Pass")</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B6" s="101">
         <f>COUNTIF(F11:G761,"Fail")</f>
@@ -31271,40 +31494,40 @@
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D6" s="102">
         <f>COUNTIF(F11:G761,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="260">
+      <c r="E6" s="257">
         <f>COUNTA(A11:A318)*2</f>
         <v>132</v>
       </c>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="257"/>
       <c r="J6" s="95" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="137" customFormat="1" ht="14.25">
-      <c r="A7" s="191"/>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="191"/>
       <c r="J7" s="95"/>
     </row>
     <row r="8" spans="1:10" s="137" customFormat="1" ht="14.25">
-      <c r="A8" s="191"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
       <c r="J8" s="95"/>
     </row>
     <row r="9" spans="1:10" s="137" customFormat="1"/>
@@ -31338,17 +31561,17 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="137" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="179"/>
-      <c r="B11" s="261" t="s">
+      <c r="A11" s="177"/>
+      <c r="B11" s="258" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="261"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="261"/>
-      <c r="F11" s="261"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="261"/>
-      <c r="I11" s="261"/>
+      <c r="C11" s="258"/>
+      <c r="D11" s="258"/>
+      <c r="E11" s="258"/>
+      <c r="F11" s="258"/>
+      <c r="G11" s="258"/>
+      <c r="H11" s="258"/>
+      <c r="I11" s="258"/>
     </row>
     <row r="12" spans="1:10" s="111" customFormat="1" ht="48.75" customHeight="1">
       <c r="A12" s="134" t="str">
@@ -31364,15 +31587,17 @@
       <c r="D12" s="117" t="s">
         <v>299</v>
       </c>
-      <c r="E12" s="180"/>
+      <c r="E12" s="178"/>
       <c r="F12" s="117" t="s">
-        <v>718</v>
+        <v>22</v>
       </c>
       <c r="G12" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="183"/>
-      <c r="I12" s="181"/>
+        <v>22</v>
+      </c>
+      <c r="H12" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I12" s="179"/>
     </row>
     <row r="13" spans="1:10" s="111" customFormat="1" ht="110.25" customHeight="1">
       <c r="A13" s="134" t="str">
@@ -31380,19 +31605,25 @@
         <v>[Admin_login-3]</v>
       </c>
       <c r="B13" s="117" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>328</v>
-      </c>
-      <c r="E13" s="182"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
+        <v>326</v>
+      </c>
+      <c r="E13" s="180"/>
+      <c r="F13" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I13" s="181"/>
     </row>
     <row r="14" spans="1:10" s="111" customFormat="1" ht="54" customHeight="1">
       <c r="A14" s="134" t="str">
@@ -31400,19 +31631,25 @@
         <v>[Admin_login-4]</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>323</v>
-      </c>
-      <c r="E14" s="182"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
+        <v>321</v>
+      </c>
+      <c r="E14" s="180"/>
+      <c r="F14" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I14" s="181"/>
     </row>
     <row r="15" spans="1:10" s="111" customFormat="1" ht="64.5" customHeight="1">
       <c r="A15" s="134" t="str">
@@ -31420,39 +31657,51 @@
         <v>[Admin_login-5]</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>323</v>
-      </c>
-      <c r="E15" s="182"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
+        <v>321</v>
+      </c>
+      <c r="E15" s="180"/>
+      <c r="F15" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I15" s="181"/>
     </row>
     <row r="16" spans="1:10" s="111" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A16" s="209" t="str">
+      <c r="A16" s="206" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-6]</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C16" s="121" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>323</v>
-      </c>
-      <c r="E16" s="182"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
+        <v>321</v>
+      </c>
+      <c r="E16" s="180"/>
+      <c r="F16" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I16" s="181"/>
     </row>
     <row r="17" spans="1:10" s="111" customFormat="1" ht="82.5" customHeight="1">
       <c r="A17" s="134" t="str">
@@ -31460,93 +31709,119 @@
         <v>[Admin_login-7]</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C17" s="123" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>323</v>
-      </c>
-      <c r="E17" s="182"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
+        <v>321</v>
+      </c>
+      <c r="E17" s="180"/>
+      <c r="F17" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I17" s="181"/>
     </row>
     <row r="18" spans="1:10" s="111" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A18" s="216" t="str">
+      <c r="A18" s="213" t="str">
         <f t="shared" ref="A18" si="1">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-8]</v>
       </c>
-      <c r="B18" s="217" t="s">
-        <v>337</v>
-      </c>
-      <c r="C18" s="217" t="s">
-        <v>329</v>
+      <c r="B18" s="214" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="214" t="s">
+        <v>327</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>323</v>
-      </c>
-      <c r="E18" s="182"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
+        <v>321</v>
+      </c>
+      <c r="E18" s="180"/>
+      <c r="F18" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I18" s="181"/>
     </row>
     <row r="19" spans="1:10" s="111" customFormat="1" ht="86.25" customHeight="1">
-      <c r="A19" s="216" t="str">
+      <c r="A19" s="213" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-9]</v>
       </c>
-      <c r="B19" s="217" t="s">
-        <v>337</v>
-      </c>
-      <c r="C19" s="217" t="s">
-        <v>330</v>
+      <c r="B19" s="214" t="s">
+        <v>335</v>
+      </c>
+      <c r="C19" s="214" t="s">
+        <v>328</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>323</v>
-      </c>
-      <c r="E19" s="182"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
+        <v>321</v>
+      </c>
+      <c r="E19" s="180"/>
+      <c r="F19" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I19" s="181"/>
     </row>
     <row r="20" spans="1:10" ht="75" customHeight="1">
-      <c r="A20" s="216" t="str">
+      <c r="A20" s="213" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-10]</v>
       </c>
-      <c r="B20" s="217" t="s">
-        <v>338</v>
-      </c>
-      <c r="C20" s="217" t="s">
-        <v>331</v>
+      <c r="B20" s="214" t="s">
+        <v>336</v>
+      </c>
+      <c r="C20" s="214" t="s">
+        <v>329</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>323</v>
-      </c>
-      <c r="E20" s="182"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="184"/>
+        <v>321</v>
+      </c>
+      <c r="E20" s="180"/>
+      <c r="F20" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I20" s="182"/>
       <c r="J20" s="105"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="185"/>
-      <c r="B21" s="186" t="s">
-        <v>537</v>
-      </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="187"/>
+      <c r="A21" s="183"/>
+      <c r="B21" s="184" t="s">
+        <v>516</v>
+      </c>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I21" s="185"/>
       <c r="J21" s="105"/>
     </row>
     <row r="22" spans="1:10" ht="63.75" customHeight="1">
@@ -31555,21 +31830,27 @@
         <v>[Admin_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>344</v>
-      </c>
-      <c r="E22" s="188" t="s">
-        <v>345</v>
-      </c>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="184"/>
+        <v>727</v>
+      </c>
+      <c r="E22" s="186" t="s">
+        <v>342</v>
+      </c>
+      <c r="F22" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I22" s="182"/>
       <c r="J22" s="105"/>
     </row>
     <row r="23" spans="1:10" ht="41.25" customHeight="1">
@@ -31578,21 +31859,27 @@
         <v>[Admin_login-13]</v>
       </c>
       <c r="B23" s="117" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>347</v>
-      </c>
-      <c r="D23" s="189" t="s">
-        <v>341</v>
-      </c>
-      <c r="E23" s="188" t="s">
-        <v>345</v>
-      </c>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="184"/>
+        <v>344</v>
+      </c>
+      <c r="D23" s="187" t="s">
+        <v>339</v>
+      </c>
+      <c r="E23" s="186" t="s">
+        <v>342</v>
+      </c>
+      <c r="F23" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I23" s="182"/>
       <c r="J23" s="105"/>
     </row>
     <row r="24" spans="1:10" ht="69.75" customHeight="1">
@@ -31601,35 +31888,41 @@
         <v>[Admin_login-14]</v>
       </c>
       <c r="B24" s="117" t="s">
+        <v>340</v>
+      </c>
+      <c r="C24" s="117" t="s">
+        <v>345</v>
+      </c>
+      <c r="D24" s="187" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" s="186" t="s">
         <v>342</v>
       </c>
-      <c r="C24" s="117" t="s">
-        <v>348</v>
-      </c>
-      <c r="D24" s="189" t="s">
-        <v>343</v>
-      </c>
-      <c r="E24" s="188" t="s">
-        <v>345</v>
-      </c>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="184"/>
+      <c r="F24" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I24" s="182"/>
       <c r="J24" s="105"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="185"/>
-      <c r="B25" s="186" t="s">
-        <v>538</v>
-      </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="187"/>
+      <c r="A25" s="183"/>
+      <c r="B25" s="184" t="s">
+        <v>517</v>
+      </c>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="260"/>
+      <c r="I25" s="185"/>
       <c r="J25" s="105"/>
     </row>
     <row r="26" spans="1:10" ht="85.5" customHeight="1">
@@ -31638,18 +31931,20 @@
         <v>[Admin_login-16]</v>
       </c>
       <c r="B26" s="117" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C26" s="117" t="s">
-        <v>355</v>
-      </c>
-      <c r="D26" s="189" t="s">
-        <v>350</v>
-      </c>
-      <c r="E26" s="188"/>
+        <v>351</v>
+      </c>
+      <c r="D26" s="187" t="s">
+        <v>728</v>
+      </c>
+      <c r="E26" s="186"/>
       <c r="F26" s="117"/>
       <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
+      <c r="H26" s="260">
+        <v>42412</v>
+      </c>
       <c r="I26" s="117"/>
       <c r="J26" s="105"/>
     </row>
@@ -31659,18 +31954,20 @@
         <v>[Admin_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>356</v>
-      </c>
-      <c r="D27" s="189" t="s">
         <v>352</v>
       </c>
-      <c r="E27" s="188"/>
+      <c r="D27" s="187" t="s">
+        <v>348</v>
+      </c>
+      <c r="E27" s="186"/>
       <c r="F27" s="117"/>
       <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
+      <c r="H27" s="260">
+        <v>42412</v>
+      </c>
       <c r="I27" s="117"/>
       <c r="J27" s="105"/>
     </row>
@@ -31680,19 +31977,21 @@
         <v>[Admin_login-18]</v>
       </c>
       <c r="B28" s="117" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="117" t="s">
         <v>353</v>
       </c>
-      <c r="C28" s="117" t="s">
-        <v>357</v>
-      </c>
-      <c r="D28" s="189" t="s">
-        <v>354</v>
-      </c>
-      <c r="E28" s="188"/>
+      <c r="D28" s="187" t="s">
+        <v>350</v>
+      </c>
+      <c r="E28" s="186"/>
       <c r="F28" s="117"/>
       <c r="G28" s="117"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="184"/>
+      <c r="H28" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I28" s="182"/>
       <c r="J28" s="105"/>
     </row>
     <row r="29" spans="1:10" ht="58.5" customHeight="1">
@@ -31701,19 +32000,21 @@
         <v>[Admin_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>575</v>
-      </c>
-      <c r="D29" s="189" t="s">
-        <v>577</v>
-      </c>
-      <c r="E29" s="188"/>
+        <v>554</v>
+      </c>
+      <c r="D29" s="187" t="s">
+        <v>556</v>
+      </c>
+      <c r="E29" s="186"/>
       <c r="F29" s="117"/>
       <c r="G29" s="117"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="184"/>
+      <c r="H29" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I29" s="182"/>
       <c r="J29" s="105"/>
     </row>
     <row r="30" spans="1:10" ht="52.5" customHeight="1">
@@ -31722,19 +32023,21 @@
         <v>[Admin_login-20]</v>
       </c>
       <c r="B30" s="117" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="C30" s="117" t="s">
-        <v>576</v>
-      </c>
-      <c r="D30" s="189" t="s">
-        <v>578</v>
-      </c>
-      <c r="E30" s="188"/>
+        <v>555</v>
+      </c>
+      <c r="D30" s="187" t="s">
+        <v>557</v>
+      </c>
+      <c r="E30" s="186"/>
       <c r="F30" s="117"/>
       <c r="G30" s="117"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="184"/>
+      <c r="H30" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I30" s="182"/>
       <c r="J30" s="105"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
@@ -31742,16 +32045,18 @@
         <f t="shared" ref="A31:A40" si="5">IF(OR(B31&lt;&gt;"",D31&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-21]</v>
       </c>
-      <c r="B31" s="186" t="s">
-        <v>539</v>
-      </c>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="187"/>
+      <c r="B31" s="184" t="s">
+        <v>518</v>
+      </c>
+      <c r="C31" s="183"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I31" s="185"/>
       <c r="J31" s="105"/>
     </row>
     <row r="32" spans="1:10" ht="63" customHeight="1">
@@ -31760,19 +32065,21 @@
         <v>[Admin_login-22]</v>
       </c>
       <c r="B32" s="117" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="C32" s="117" t="s">
-        <v>550</v>
-      </c>
-      <c r="D32" s="189" t="s">
-        <v>557</v>
-      </c>
-      <c r="E32" s="188"/>
+        <v>529</v>
+      </c>
+      <c r="D32" s="187" t="s">
+        <v>536</v>
+      </c>
+      <c r="E32" s="186"/>
       <c r="F32" s="117"/>
       <c r="G32" s="117"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="190"/>
+      <c r="H32" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I32" s="188"/>
       <c r="J32" s="105"/>
     </row>
     <row r="33" spans="1:10" ht="89.25">
@@ -31781,19 +32088,21 @@
         <v>[Admin_login-23]</v>
       </c>
       <c r="B33" s="117" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="C33" s="117" t="s">
-        <v>541</v>
-      </c>
-      <c r="D33" s="189" t="s">
-        <v>558</v>
-      </c>
-      <c r="E33" s="188"/>
+        <v>520</v>
+      </c>
+      <c r="D33" s="187" t="s">
+        <v>537</v>
+      </c>
+      <c r="E33" s="186"/>
       <c r="F33" s="117"/>
       <c r="G33" s="117"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="190"/>
+      <c r="H33" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I33" s="188"/>
       <c r="J33" s="105"/>
     </row>
     <row r="34" spans="1:10" ht="89.25">
@@ -31802,19 +32111,21 @@
         <v>[Admin_login-24]</v>
       </c>
       <c r="B34" s="117" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="C34" s="117" t="s">
-        <v>541</v>
-      </c>
-      <c r="D34" s="189" t="s">
-        <v>559</v>
-      </c>
-      <c r="E34" s="188"/>
+        <v>520</v>
+      </c>
+      <c r="D34" s="187" t="s">
+        <v>538</v>
+      </c>
+      <c r="E34" s="186"/>
       <c r="F34" s="117"/>
       <c r="G34" s="117"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="190"/>
+      <c r="H34" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I34" s="188"/>
       <c r="J34" s="105"/>
     </row>
     <row r="35" spans="1:10" ht="80.25" customHeight="1">
@@ -31823,19 +32134,21 @@
         <v>[Admin_login-25]</v>
       </c>
       <c r="B35" s="117" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="C35" s="117" t="s">
-        <v>541</v>
-      </c>
-      <c r="D35" s="189" t="s">
-        <v>560</v>
-      </c>
-      <c r="E35" s="188"/>
+        <v>520</v>
+      </c>
+      <c r="D35" s="187" t="s">
+        <v>539</v>
+      </c>
+      <c r="E35" s="186"/>
       <c r="F35" s="117"/>
       <c r="G35" s="117"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="190"/>
+      <c r="H35" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I35" s="188"/>
       <c r="J35" s="105"/>
     </row>
     <row r="36" spans="1:10" ht="89.25">
@@ -31844,19 +32157,21 @@
         <v>[Admin_login-26]</v>
       </c>
       <c r="B36" s="117" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="C36" s="117" t="s">
+        <v>520</v>
+      </c>
+      <c r="D36" s="187" t="s">
         <v>541</v>
       </c>
-      <c r="D36" s="189" t="s">
-        <v>562</v>
-      </c>
-      <c r="E36" s="188"/>
+      <c r="E36" s="186"/>
       <c r="F36" s="117"/>
       <c r="G36" s="117"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="190"/>
+      <c r="H36" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I36" s="188"/>
       <c r="J36" s="105"/>
     </row>
     <row r="37" spans="1:10" ht="63.75">
@@ -31865,19 +32180,21 @@
         <v>[Admin_login-27]</v>
       </c>
       <c r="B37" s="117" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="C37" s="117" t="s">
-        <v>552</v>
-      </c>
-      <c r="D37" s="189" t="s">
-        <v>553</v>
-      </c>
-      <c r="E37" s="188"/>
+        <v>531</v>
+      </c>
+      <c r="D37" s="187" t="s">
+        <v>532</v>
+      </c>
+      <c r="E37" s="186"/>
       <c r="F37" s="117"/>
       <c r="G37" s="117"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="190"/>
+      <c r="H37" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I37" s="188"/>
       <c r="J37" s="105"/>
     </row>
     <row r="38" spans="1:10" ht="61.5" customHeight="1">
@@ -31886,19 +32203,21 @@
         <v>[Admin_login-28]</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="C38" s="117" t="s">
-        <v>585</v>
-      </c>
-      <c r="D38" s="189" t="s">
-        <v>586</v>
-      </c>
-      <c r="E38" s="188"/>
+        <v>564</v>
+      </c>
+      <c r="D38" s="187" t="s">
+        <v>565</v>
+      </c>
+      <c r="E38" s="186"/>
       <c r="F38" s="117"/>
       <c r="G38" s="117"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="190"/>
+      <c r="H38" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I38" s="188"/>
       <c r="J38" s="105"/>
     </row>
     <row r="39" spans="1:10" ht="71.25" customHeight="1">
@@ -31907,19 +32226,21 @@
         <v>[Admin_login-29]</v>
       </c>
       <c r="B39" s="117" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="C39" s="117" t="s">
-        <v>581</v>
-      </c>
-      <c r="D39" s="189" t="s">
-        <v>582</v>
-      </c>
-      <c r="E39" s="188"/>
+        <v>560</v>
+      </c>
+      <c r="D39" s="187" t="s">
+        <v>561</v>
+      </c>
+      <c r="E39" s="186"/>
       <c r="F39" s="117"/>
       <c r="G39" s="117"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="190"/>
+      <c r="H39" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I39" s="188"/>
       <c r="J39" s="105"/>
     </row>
     <row r="40" spans="1:10" ht="63.75">
@@ -31928,19 +32249,21 @@
         <v>[Admin_login-30]</v>
       </c>
       <c r="B40" s="117" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="C40" s="117" t="s">
-        <v>543</v>
-      </c>
-      <c r="D40" s="189" t="s">
-        <v>547</v>
-      </c>
-      <c r="E40" s="188"/>
+        <v>522</v>
+      </c>
+      <c r="D40" s="187" t="s">
+        <v>526</v>
+      </c>
+      <c r="E40" s="186"/>
       <c r="F40" s="117"/>
       <c r="G40" s="117"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="190"/>
+      <c r="H40" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I40" s="188"/>
       <c r="J40" s="105"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
@@ -31948,16 +32271,18 @@
         <f t="shared" ref="A41" si="7">IF(OR(B41&lt;&gt;"",D41&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-31]</v>
       </c>
-      <c r="B41" s="186" t="s">
-        <v>548</v>
-      </c>
-      <c r="C41" s="185"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="185"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="185"/>
-      <c r="I41" s="187"/>
+      <c r="B41" s="184" t="s">
+        <v>527</v>
+      </c>
+      <c r="C41" s="183"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I41" s="185"/>
       <c r="J41" s="105"/>
     </row>
     <row r="42" spans="1:10" ht="51">
@@ -31966,18 +32291,20 @@
         <v>[Admin_login-32]</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="C42" s="117" t="s">
-        <v>556</v>
-      </c>
-      <c r="D42" s="189" t="s">
-        <v>597</v>
-      </c>
-      <c r="E42" s="188"/>
+        <v>535</v>
+      </c>
+      <c r="D42" s="187" t="s">
+        <v>576</v>
+      </c>
+      <c r="E42" s="186"/>
       <c r="F42" s="117"/>
       <c r="G42" s="117"/>
-      <c r="H42" s="183"/>
+      <c r="H42" s="260">
+        <v>42412</v>
+      </c>
       <c r="I42" s="125"/>
       <c r="J42" s="105"/>
     </row>
@@ -31987,18 +32314,20 @@
         <v>[Admin_login-33]</v>
       </c>
       <c r="B43" s="117" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C43" s="117" t="s">
-        <v>565</v>
-      </c>
-      <c r="D43" s="189" t="s">
-        <v>566</v>
-      </c>
-      <c r="E43" s="188"/>
+        <v>544</v>
+      </c>
+      <c r="D43" s="187" t="s">
+        <v>545</v>
+      </c>
+      <c r="E43" s="186"/>
       <c r="F43" s="117"/>
       <c r="G43" s="117"/>
-      <c r="H43" s="183"/>
+      <c r="H43" s="260">
+        <v>42412</v>
+      </c>
       <c r="I43" s="125"/>
       <c r="J43" s="105"/>
     </row>
@@ -32008,18 +32337,20 @@
         <v>[Admin_login-34]</v>
       </c>
       <c r="B44" s="117" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="C44" s="117" t="s">
-        <v>565</v>
-      </c>
-      <c r="D44" s="189" t="s">
-        <v>570</v>
-      </c>
-      <c r="E44" s="188"/>
+        <v>544</v>
+      </c>
+      <c r="D44" s="187" t="s">
+        <v>549</v>
+      </c>
+      <c r="E44" s="186"/>
       <c r="F44" s="117"/>
       <c r="G44" s="117"/>
-      <c r="H44" s="183"/>
+      <c r="H44" s="260">
+        <v>42412</v>
+      </c>
       <c r="I44" s="125"/>
       <c r="J44" s="105"/>
     </row>
@@ -32029,18 +32360,20 @@
         <v>[Admin_login-35]</v>
       </c>
       <c r="B45" s="117" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="C45" s="117" t="s">
-        <v>565</v>
-      </c>
-      <c r="D45" s="189" t="s">
-        <v>571</v>
-      </c>
-      <c r="E45" s="188"/>
+        <v>544</v>
+      </c>
+      <c r="D45" s="187" t="s">
+        <v>550</v>
+      </c>
+      <c r="E45" s="186"/>
       <c r="F45" s="117"/>
       <c r="G45" s="117"/>
-      <c r="H45" s="183"/>
+      <c r="H45" s="260">
+        <v>42412</v>
+      </c>
       <c r="I45" s="125"/>
       <c r="J45" s="105"/>
     </row>
@@ -32050,18 +32383,20 @@
         <v>[Admin_login-36]</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="C46" s="117" t="s">
-        <v>565</v>
-      </c>
-      <c r="D46" s="189" t="s">
-        <v>572</v>
-      </c>
-      <c r="E46" s="188"/>
+        <v>544</v>
+      </c>
+      <c r="D46" s="187" t="s">
+        <v>551</v>
+      </c>
+      <c r="E46" s="186"/>
       <c r="F46" s="117"/>
       <c r="G46" s="117"/>
-      <c r="H46" s="183"/>
+      <c r="H46" s="260">
+        <v>42412</v>
+      </c>
       <c r="I46" s="125"/>
       <c r="J46" s="105"/>
     </row>
@@ -32071,18 +32406,20 @@
         <v>[Admin_login-37]</v>
       </c>
       <c r="B47" s="117" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="C47" s="117" t="s">
-        <v>563</v>
-      </c>
-      <c r="D47" s="189" t="s">
-        <v>564</v>
-      </c>
-      <c r="E47" s="188"/>
+        <v>542</v>
+      </c>
+      <c r="D47" s="187" t="s">
+        <v>543</v>
+      </c>
+      <c r="E47" s="186"/>
       <c r="F47" s="117"/>
       <c r="G47" s="117"/>
-      <c r="H47" s="183"/>
+      <c r="H47" s="260">
+        <v>42412</v>
+      </c>
       <c r="I47" s="125"/>
       <c r="J47" s="105"/>
     </row>
@@ -32092,18 +32429,20 @@
         <v>[Admin_login-38]</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="C48" s="117" t="s">
-        <v>563</v>
-      </c>
-      <c r="D48" s="189" t="s">
-        <v>595</v>
-      </c>
-      <c r="E48" s="188"/>
-      <c r="F48" s="188"/>
-      <c r="G48" s="188"/>
-      <c r="H48" s="188"/>
+        <v>542</v>
+      </c>
+      <c r="D48" s="187" t="s">
+        <v>574</v>
+      </c>
+      <c r="E48" s="186"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+      <c r="H48" s="260">
+        <v>42412</v>
+      </c>
       <c r="I48" s="125"/>
       <c r="J48" s="105"/>
     </row>
@@ -32113,19 +32452,21 @@
         <v>[Admin_login-39]</v>
       </c>
       <c r="B49" s="117" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="C49" s="117" t="s">
-        <v>563</v>
-      </c>
-      <c r="D49" s="189" t="s">
-        <v>593</v>
-      </c>
-      <c r="E49" s="188"/>
-      <c r="F49" s="188"/>
-      <c r="G49" s="188"/>
-      <c r="H49" s="188"/>
-      <c r="I49" s="188"/>
+        <v>542</v>
+      </c>
+      <c r="D49" s="187" t="s">
+        <v>572</v>
+      </c>
+      <c r="E49" s="186"/>
+      <c r="F49" s="186"/>
+      <c r="G49" s="186"/>
+      <c r="H49" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I49" s="186"/>
       <c r="J49" s="105"/>
     </row>
     <row r="50" spans="1:10" ht="76.5">
@@ -32134,18 +32475,20 @@
         <v>[Admin_login-40]</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>563</v>
-      </c>
-      <c r="D50" s="189" t="s">
-        <v>594</v>
-      </c>
-      <c r="E50" s="188"/>
+        <v>542</v>
+      </c>
+      <c r="D50" s="187" t="s">
+        <v>573</v>
+      </c>
+      <c r="E50" s="186"/>
       <c r="F50" s="117"/>
       <c r="G50" s="117"/>
-      <c r="H50" s="183"/>
+      <c r="H50" s="260">
+        <v>42412</v>
+      </c>
       <c r="I50" s="125"/>
       <c r="J50" s="105"/>
     </row>
@@ -32155,18 +32498,20 @@
         <v>[Admin_login-41]</v>
       </c>
       <c r="B51" s="117" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="C51" s="117" t="s">
-        <v>613</v>
-      </c>
-      <c r="D51" s="189" t="s">
-        <v>589</v>
-      </c>
-      <c r="E51" s="188"/>
+        <v>592</v>
+      </c>
+      <c r="D51" s="187" t="s">
+        <v>568</v>
+      </c>
+      <c r="E51" s="186"/>
       <c r="F51" s="117"/>
       <c r="G51" s="117"/>
-      <c r="H51" s="183"/>
+      <c r="H51" s="260">
+        <v>42412</v>
+      </c>
       <c r="I51" s="125"/>
       <c r="J51" s="105"/>
     </row>
@@ -32176,33 +32521,37 @@
         <v>[Admin_login-42]</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="C52" s="117" t="s">
-        <v>587</v>
-      </c>
-      <c r="D52" s="189" t="s">
-        <v>588</v>
-      </c>
-      <c r="E52" s="188"/>
+        <v>566</v>
+      </c>
+      <c r="D52" s="187" t="s">
+        <v>567</v>
+      </c>
+      <c r="E52" s="186"/>
       <c r="F52" s="117"/>
       <c r="G52" s="117"/>
-      <c r="H52" s="183"/>
+      <c r="H52" s="260">
+        <v>42412</v>
+      </c>
       <c r="I52" s="125"/>
       <c r="J52" s="105"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
       <c r="A53" s="165"/>
-      <c r="B53" s="186" t="s">
-        <v>596</v>
-      </c>
-      <c r="C53" s="185"/>
-      <c r="D53" s="185"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="185"/>
-      <c r="G53" s="185"/>
-      <c r="H53" s="185"/>
-      <c r="I53" s="187"/>
+      <c r="B53" s="184" t="s">
+        <v>575</v>
+      </c>
+      <c r="C53" s="183"/>
+      <c r="D53" s="183"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="183"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="260">
+        <v>42412</v>
+      </c>
+      <c r="I53" s="185"/>
       <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10" ht="81" customHeight="1">
@@ -32211,18 +32560,20 @@
         <v>[Admin_login-44]</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="C54" s="117" t="s">
-        <v>556</v>
-      </c>
-      <c r="D54" s="189" t="s">
-        <v>598</v>
-      </c>
-      <c r="E54" s="188"/>
+        <v>535</v>
+      </c>
+      <c r="D54" s="187" t="s">
+        <v>577</v>
+      </c>
+      <c r="E54" s="186"/>
       <c r="F54" s="117"/>
       <c r="G54" s="117"/>
-      <c r="H54" s="183"/>
+      <c r="H54" s="260">
+        <v>42412</v>
+      </c>
       <c r="I54" s="125"/>
       <c r="J54" s="105"/>
     </row>
@@ -32232,18 +32583,20 @@
         <v>[Admin_login-45]</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C55" s="117" t="s">
-        <v>611</v>
-      </c>
-      <c r="D55" s="189" t="s">
-        <v>601</v>
-      </c>
-      <c r="E55" s="188"/>
+        <v>590</v>
+      </c>
+      <c r="D55" s="187" t="s">
+        <v>580</v>
+      </c>
+      <c r="E55" s="186"/>
       <c r="F55" s="117"/>
       <c r="G55" s="117"/>
-      <c r="H55" s="183"/>
+      <c r="H55" s="260">
+        <v>42412</v>
+      </c>
       <c r="I55" s="125"/>
       <c r="J55" s="105"/>
     </row>
@@ -32253,18 +32606,20 @@
         <v>[Admin_login-46]</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="C56" s="117" t="s">
-        <v>611</v>
-      </c>
-      <c r="D56" s="189" t="s">
-        <v>610</v>
-      </c>
-      <c r="E56" s="188"/>
+        <v>590</v>
+      </c>
+      <c r="D56" s="187" t="s">
+        <v>589</v>
+      </c>
+      <c r="E56" s="186"/>
       <c r="F56" s="117"/>
       <c r="G56" s="117"/>
-      <c r="H56" s="183"/>
+      <c r="H56" s="260">
+        <v>42412</v>
+      </c>
       <c r="I56" s="125"/>
       <c r="J56" s="105"/>
     </row>
@@ -32274,18 +32629,20 @@
         <v>[Admin_login-47]</v>
       </c>
       <c r="B57" s="117" t="s">
+        <v>579</v>
+      </c>
+      <c r="C57" s="117" t="s">
+        <v>590</v>
+      </c>
+      <c r="D57" s="187" t="s">
         <v>600</v>
       </c>
-      <c r="C57" s="117" t="s">
-        <v>611</v>
-      </c>
-      <c r="D57" s="189" t="s">
-        <v>621</v>
-      </c>
-      <c r="E57" s="188"/>
+      <c r="E57" s="186"/>
       <c r="F57" s="117"/>
       <c r="G57" s="117"/>
-      <c r="H57" s="183"/>
+      <c r="H57" s="260">
+        <v>42412</v>
+      </c>
       <c r="I57" s="125"/>
       <c r="J57" s="105"/>
     </row>
@@ -32295,18 +32652,20 @@
         <v>[Admin_login-48]</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="C58" s="117" t="s">
-        <v>611</v>
-      </c>
-      <c r="D58" s="189" t="s">
-        <v>609</v>
-      </c>
-      <c r="E58" s="188"/>
+        <v>590</v>
+      </c>
+      <c r="D58" s="187" t="s">
+        <v>588</v>
+      </c>
+      <c r="E58" s="186"/>
       <c r="F58" s="117"/>
       <c r="G58" s="117"/>
-      <c r="H58" s="183"/>
+      <c r="H58" s="260">
+        <v>42412</v>
+      </c>
       <c r="I58" s="125"/>
       <c r="J58" s="105"/>
     </row>
@@ -32316,18 +32675,20 @@
         <v>[Admin_login-49]</v>
       </c>
       <c r="B59" s="117" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="C59" s="117" t="s">
-        <v>602</v>
-      </c>
-      <c r="D59" s="189" t="s">
-        <v>608</v>
-      </c>
-      <c r="E59" s="188"/>
+        <v>581</v>
+      </c>
+      <c r="D59" s="187" t="s">
+        <v>587</v>
+      </c>
+      <c r="E59" s="186"/>
       <c r="F59" s="117"/>
       <c r="G59" s="117"/>
-      <c r="H59" s="183"/>
+      <c r="H59" s="260">
+        <v>42412</v>
+      </c>
       <c r="I59" s="125"/>
       <c r="J59" s="105"/>
     </row>
@@ -32337,18 +32698,20 @@
         <v>[Admin_login-50]</v>
       </c>
       <c r="B60" s="117" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="C60" s="117" t="s">
-        <v>612</v>
-      </c>
-      <c r="D60" s="189" t="s">
-        <v>607</v>
-      </c>
-      <c r="E60" s="188"/>
+        <v>591</v>
+      </c>
+      <c r="D60" s="187" t="s">
+        <v>586</v>
+      </c>
+      <c r="E60" s="186"/>
       <c r="F60" s="117"/>
       <c r="G60" s="117"/>
-      <c r="H60" s="183"/>
+      <c r="H60" s="260">
+        <v>42412</v>
+      </c>
       <c r="I60" s="125"/>
       <c r="J60" s="105"/>
     </row>
@@ -32358,18 +32721,20 @@
         <v>[Admin_login-51]</v>
       </c>
       <c r="B61" s="117" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="C61" s="117" t="s">
-        <v>612</v>
-      </c>
-      <c r="D61" s="189" t="s">
-        <v>606</v>
-      </c>
-      <c r="E61" s="188"/>
+        <v>591</v>
+      </c>
+      <c r="D61" s="187" t="s">
+        <v>585</v>
+      </c>
+      <c r="E61" s="186"/>
       <c r="F61" s="117"/>
       <c r="G61" s="117"/>
-      <c r="H61" s="183"/>
+      <c r="H61" s="260">
+        <v>42412</v>
+      </c>
       <c r="I61" s="125"/>
       <c r="J61" s="105"/>
     </row>
@@ -32379,18 +32744,20 @@
         <v>[Admin_login-52]</v>
       </c>
       <c r="B62" s="117" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="C62" s="117" t="s">
-        <v>616</v>
-      </c>
-      <c r="D62" s="189" t="s">
-        <v>617</v>
-      </c>
-      <c r="E62" s="188"/>
+        <v>595</v>
+      </c>
+      <c r="D62" s="187" t="s">
+        <v>596</v>
+      </c>
+      <c r="E62" s="186"/>
       <c r="F62" s="117"/>
       <c r="G62" s="117"/>
-      <c r="H62" s="183"/>
+      <c r="H62" s="260">
+        <v>42412</v>
+      </c>
       <c r="I62" s="125"/>
       <c r="J62" s="105"/>
     </row>
@@ -32400,18 +32767,20 @@
         <v>[Admin_login-53]</v>
       </c>
       <c r="B63" s="117" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="C63" s="117" t="s">
-        <v>619</v>
-      </c>
-      <c r="D63" s="189" t="s">
-        <v>618</v>
-      </c>
-      <c r="E63" s="188"/>
+        <v>598</v>
+      </c>
+      <c r="D63" s="187" t="s">
+        <v>597</v>
+      </c>
+      <c r="E63" s="186"/>
       <c r="F63" s="117"/>
       <c r="G63" s="117"/>
-      <c r="H63" s="183"/>
+      <c r="H63" s="260">
+        <v>42412</v>
+      </c>
       <c r="I63" s="125"/>
       <c r="J63" s="105"/>
     </row>
@@ -32421,60 +32790,66 @@
         <v>[Admin_login-54]</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="C64" s="117" t="s">
-        <v>623</v>
-      </c>
-      <c r="D64" s="189" t="s">
-        <v>624</v>
-      </c>
-      <c r="E64" s="188"/>
+        <v>602</v>
+      </c>
+      <c r="D64" s="187" t="s">
+        <v>603</v>
+      </c>
+      <c r="E64" s="186"/>
       <c r="F64" s="117"/>
       <c r="G64" s="117"/>
-      <c r="H64" s="183"/>
+      <c r="H64" s="260">
+        <v>42412</v>
+      </c>
       <c r="I64" s="125"/>
       <c r="J64" s="105"/>
     </row>
-    <row r="65" spans="1:10" ht="51">
+    <row r="65" spans="1:10" ht="38.25">
       <c r="A65" s="165" t="str">
         <f t="shared" si="13"/>
         <v>[Admin_login-55]</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="C65" s="117" t="s">
-        <v>625</v>
-      </c>
-      <c r="D65" s="189" t="s">
-        <v>626</v>
+        <v>604</v>
+      </c>
+      <c r="D65" s="187" t="s">
+        <v>605</v>
       </c>
       <c r="E65" s="168"/>
       <c r="F65" s="117"/>
       <c r="G65" s="117"/>
-      <c r="H65" s="183"/>
+      <c r="H65" s="260">
+        <v>42412</v>
+      </c>
       <c r="I65" s="168"/>
       <c r="J65" s="105"/>
     </row>
-    <row r="66" spans="1:10" ht="51">
+    <row r="66" spans="1:10" ht="38.25">
       <c r="A66" s="165" t="str">
         <f t="shared" si="13"/>
         <v>[Admin_login-56]</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>625</v>
-      </c>
-      <c r="D66" s="189" t="s">
-        <v>627</v>
+        <v>604</v>
+      </c>
+      <c r="D66" s="187" t="s">
+        <v>606</v>
       </c>
       <c r="E66" s="168"/>
       <c r="F66" s="117"/>
       <c r="G66" s="117"/>
-      <c r="H66" s="183"/>
+      <c r="H66" s="260">
+        <v>42412</v>
+      </c>
       <c r="I66" s="168"/>
       <c r="J66" s="105"/>
     </row>
@@ -32484,18 +32859,20 @@
         <v>[Admin_login-57]</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="C67" s="117" t="s">
-        <v>631</v>
-      </c>
-      <c r="D67" s="189" t="s">
-        <v>632</v>
+        <v>610</v>
+      </c>
+      <c r="D67" s="187" t="s">
+        <v>611</v>
       </c>
       <c r="E67" s="168"/>
       <c r="F67" s="117"/>
       <c r="G67" s="117"/>
-      <c r="H67" s="183"/>
+      <c r="H67" s="260">
+        <v>42412</v>
+      </c>
       <c r="I67" s="168"/>
       <c r="J67" s="105"/>
     </row>
@@ -32505,60 +32882,66 @@
         <v>[Admin_login-58]</v>
       </c>
       <c r="B68" s="117" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="C68" s="117" t="s">
-        <v>634</v>
-      </c>
-      <c r="D68" s="189" t="s">
-        <v>632</v>
+        <v>613</v>
+      </c>
+      <c r="D68" s="187" t="s">
+        <v>611</v>
       </c>
       <c r="E68" s="168"/>
       <c r="F68" s="117"/>
       <c r="G68" s="117"/>
-      <c r="H68" s="183"/>
+      <c r="H68" s="260">
+        <v>42412</v>
+      </c>
       <c r="I68" s="168"/>
       <c r="J68" s="105"/>
     </row>
-    <row r="69" spans="1:10" ht="51">
+    <row r="69" spans="1:10" ht="38.25">
       <c r="A69" s="165" t="str">
         <f t="shared" si="15"/>
         <v>[Admin_login-59]</v>
       </c>
       <c r="B69" s="117" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="C69" s="117" t="s">
-        <v>639</v>
-      </c>
-      <c r="D69" s="189" t="s">
-        <v>643</v>
+        <v>618</v>
+      </c>
+      <c r="D69" s="187" t="s">
+        <v>622</v>
       </c>
       <c r="E69" s="168"/>
       <c r="F69" s="117"/>
       <c r="G69" s="117"/>
-      <c r="H69" s="183"/>
+      <c r="H69" s="260">
+        <v>42412</v>
+      </c>
       <c r="I69" s="168"/>
       <c r="J69" s="105"/>
     </row>
-    <row r="70" spans="1:10" ht="51">
+    <row r="70" spans="1:10" ht="38.25">
       <c r="A70" s="165" t="str">
         <f t="shared" si="15"/>
         <v>[Admin_login-60]</v>
       </c>
       <c r="B70" s="117" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="C70" s="117" t="s">
-        <v>639</v>
-      </c>
-      <c r="D70" s="189" t="s">
-        <v>642</v>
+        <v>618</v>
+      </c>
+      <c r="D70" s="187" t="s">
+        <v>621</v>
       </c>
       <c r="E70" s="168"/>
       <c r="F70" s="117"/>
       <c r="G70" s="117"/>
-      <c r="H70" s="183"/>
+      <c r="H70" s="260">
+        <v>42412</v>
+      </c>
       <c r="I70" s="168"/>
       <c r="J70" s="105"/>
     </row>
@@ -32568,18 +32951,20 @@
         <v>[Admin_login-61]</v>
       </c>
       <c r="B71" s="117" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="C71" s="117" t="s">
-        <v>640</v>
-      </c>
-      <c r="D71" s="189" t="s">
-        <v>654</v>
+        <v>619</v>
+      </c>
+      <c r="D71" s="187" t="s">
+        <v>633</v>
       </c>
       <c r="E71" s="168"/>
       <c r="F71" s="117"/>
       <c r="G71" s="117"/>
-      <c r="H71" s="183"/>
+      <c r="H71" s="260">
+        <v>42412</v>
+      </c>
       <c r="I71" s="168"/>
       <c r="J71" s="105"/>
     </row>
@@ -32589,60 +32974,66 @@
         <v>[Admin_login-62]</v>
       </c>
       <c r="B72" s="117" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="C72" s="117" t="s">
-        <v>641</v>
-      </c>
-      <c r="D72" s="189" t="s">
-        <v>654</v>
+        <v>620</v>
+      </c>
+      <c r="D72" s="187" t="s">
+        <v>633</v>
       </c>
       <c r="E72" s="168"/>
       <c r="F72" s="117"/>
       <c r="G72" s="117"/>
-      <c r="H72" s="183"/>
+      <c r="H72" s="260">
+        <v>42412</v>
+      </c>
       <c r="I72" s="168"/>
       <c r="J72" s="105"/>
     </row>
-    <row r="73" spans="1:10" ht="51">
+    <row r="73" spans="1:10" ht="38.25">
       <c r="A73" s="165" t="str">
         <f t="shared" si="15"/>
         <v>[Admin_login-63]</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="C73" s="117" t="s">
-        <v>648</v>
-      </c>
-      <c r="D73" s="189" t="s">
-        <v>652</v>
+        <v>627</v>
+      </c>
+      <c r="D73" s="187" t="s">
+        <v>631</v>
       </c>
       <c r="E73" s="168"/>
       <c r="F73" s="117"/>
       <c r="G73" s="117"/>
-      <c r="H73" s="183"/>
+      <c r="H73" s="260">
+        <v>42412</v>
+      </c>
       <c r="I73" s="168"/>
       <c r="J73" s="105"/>
     </row>
-    <row r="74" spans="1:10" ht="51">
+    <row r="74" spans="1:10" ht="38.25">
       <c r="A74" s="165" t="str">
         <f t="shared" si="15"/>
         <v>[Admin_login-64]</v>
       </c>
       <c r="B74" s="117" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="C74" s="117" t="s">
-        <v>648</v>
-      </c>
-      <c r="D74" s="189" t="s">
-        <v>651</v>
+        <v>627</v>
+      </c>
+      <c r="D74" s="187" t="s">
+        <v>630</v>
       </c>
       <c r="E74" s="168"/>
       <c r="F74" s="117"/>
       <c r="G74" s="117"/>
-      <c r="H74" s="183"/>
+      <c r="H74" s="260">
+        <v>42412</v>
+      </c>
       <c r="I74" s="168"/>
       <c r="J74" s="105"/>
     </row>
@@ -32652,18 +33043,20 @@
         <v>[Admin_login-65]</v>
       </c>
       <c r="B75" s="117" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="C75" s="117" t="s">
-        <v>649</v>
-      </c>
-      <c r="D75" s="189" t="s">
-        <v>653</v>
+        <v>628</v>
+      </c>
+      <c r="D75" s="187" t="s">
+        <v>632</v>
       </c>
       <c r="E75" s="168"/>
       <c r="F75" s="117"/>
       <c r="G75" s="117"/>
-      <c r="H75" s="183"/>
+      <c r="H75" s="260">
+        <v>42412</v>
+      </c>
       <c r="I75" s="168"/>
       <c r="J75" s="105"/>
     </row>
@@ -32673,60 +33066,66 @@
         <v>[Admin_login-66]</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="C76" s="117" t="s">
-        <v>650</v>
-      </c>
-      <c r="D76" s="189" t="s">
-        <v>653</v>
+        <v>629</v>
+      </c>
+      <c r="D76" s="187" t="s">
+        <v>632</v>
       </c>
       <c r="E76" s="168"/>
       <c r="F76" s="117"/>
       <c r="G76" s="117"/>
-      <c r="H76" s="183"/>
+      <c r="H76" s="260">
+        <v>42412</v>
+      </c>
       <c r="I76" s="168"/>
       <c r="J76" s="105"/>
     </row>
-    <row r="77" spans="1:10" ht="51">
+    <row r="77" spans="1:10" ht="38.25">
       <c r="A77" s="165" t="str">
         <f t="shared" si="15"/>
         <v>[Admin_login-67]</v>
       </c>
       <c r="B77" s="117" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="C77" s="117" t="s">
-        <v>659</v>
-      </c>
-      <c r="D77" s="189" t="s">
-        <v>664</v>
+        <v>638</v>
+      </c>
+      <c r="D77" s="187" t="s">
+        <v>643</v>
       </c>
       <c r="E77" s="168"/>
       <c r="F77" s="117"/>
       <c r="G77" s="117"/>
-      <c r="H77" s="183"/>
+      <c r="H77" s="260">
+        <v>42412</v>
+      </c>
       <c r="I77" s="168"/>
       <c r="J77" s="105"/>
     </row>
-    <row r="78" spans="1:10" ht="51">
+    <row r="78" spans="1:10" ht="38.25">
       <c r="A78" s="165" t="str">
         <f t="shared" si="15"/>
         <v>[Admin_login-68]</v>
       </c>
       <c r="B78" s="117" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="C78" s="117" t="s">
-        <v>659</v>
-      </c>
-      <c r="D78" s="189" t="s">
-        <v>663</v>
+        <v>638</v>
+      </c>
+      <c r="D78" s="187" t="s">
+        <v>642</v>
       </c>
       <c r="E78" s="168"/>
       <c r="F78" s="117"/>
       <c r="G78" s="117"/>
-      <c r="H78" s="183"/>
+      <c r="H78" s="260">
+        <v>42412</v>
+      </c>
       <c r="I78" s="168"/>
       <c r="J78" s="105"/>
     </row>
@@ -32736,18 +33135,20 @@
         <v>[Admin_login-69]</v>
       </c>
       <c r="B79" s="117" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="C79" s="117" t="s">
-        <v>660</v>
-      </c>
-      <c r="D79" s="189" t="s">
-        <v>662</v>
+        <v>639</v>
+      </c>
+      <c r="D79" s="187" t="s">
+        <v>641</v>
       </c>
       <c r="E79" s="168"/>
       <c r="F79" s="117"/>
       <c r="G79" s="117"/>
-      <c r="H79" s="183"/>
+      <c r="H79" s="260">
+        <v>42412</v>
+      </c>
       <c r="I79" s="168"/>
       <c r="J79" s="105"/>
     </row>
@@ -32757,18 +33158,20 @@
         <v>[Admin_login-70]</v>
       </c>
       <c r="B80" s="117" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="C80" s="117" t="s">
-        <v>661</v>
-      </c>
-      <c r="D80" s="189" t="s">
-        <v>662</v>
+        <v>640</v>
+      </c>
+      <c r="D80" s="187" t="s">
+        <v>641</v>
       </c>
       <c r="E80" s="168"/>
       <c r="F80" s="117"/>
       <c r="G80" s="117"/>
-      <c r="H80" s="183"/>
+      <c r="H80" s="260">
+        <v>42412</v>
+      </c>
       <c r="I80" s="168"/>
       <c r="J80" s="105"/>
     </row>
@@ -32823,7 +33226,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:1">

--- a/WIP/Documents/Report 3/WS_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Documents/Report 3/WS_Integration Test Case_v1.0_EN.xlsx
@@ -18,10 +18,11 @@
     <sheet name="Message Rules" sheetId="11" r:id="rId4"/>
     <sheet name="User_Function" sheetId="9" r:id="rId5"/>
     <sheet name="Admin_Function" sheetId="10" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="12" state="hidden" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="13" state="hidden" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="12" state="hidden" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACTION" localSheetId="3">#REF!</definedName>
@@ -32,6 +33,7 @@
     <definedName name="Discover">#REF!</definedName>
     <definedName name="Lỗi">#REF!</definedName>
     <definedName name="Pass">#REF!</definedName>
+    <definedName name="ResultList">Sheet2!$A$2:$A$6</definedName>
     <definedName name="Statistic" comment="fsfsdfs">#REF!</definedName>
     <definedName name="TestList">Sheet1!$A$2:$A$6</definedName>
   </definedNames>
@@ -202,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="729">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -774,9 +776,6 @@
   </si>
   <si>
     <t>DuyTN</t>
-  </si>
-  <si>
-    <t>NghiaDT</t>
   </si>
   <si>
     <t>WS</t>
@@ -1647,13 +1646,6 @@
     <t>Check  User list button in User menu</t>
   </si>
   <si>
-    <t>1. Admin Page is displayed
-2. Dropdowlist is displayed with:
-+ Dashboard
-+ User list
-3. Content of User list is displayed</t>
-  </si>
-  <si>
     <t>Check View button in Users list table</t>
   </si>
   <si>
@@ -1661,22 +1653,6 @@
 2. Dropdowlist is displayed with:
 3. Content of Users list is displayed
 4. Userprofile Page is displayed</t>
-  </si>
-  <si>
-    <t>1. Go to …/Admin.com
-2. Click User button in Right Slide bar
-3. Click Dashboard button in User menu</t>
-  </si>
-  <si>
-    <t>1. Go to …/Admin.com
-2. Click User button in Right Slide bar
-3. Click User list button in User menu</t>
-  </si>
-  <si>
-    <t>1. Go to …/Admin.com
-2. Click User button in Right Slide bar
-3. Click User list button in User menu
-4. Select a user and click View button</t>
   </si>
   <si>
     <t>1.Homepage is displayed 
@@ -2852,15 +2828,6 @@
     <t>Check User Report list  in sidebar when have no data</t>
   </si>
   <si>
-    <t>Check User Report list  and click confirm</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click Report button in Right Slide bar
-3. Click on User 
-4. Chose 1 record and click "Confirm"</t>
-  </si>
-  <si>
     <t>3. Display list user reported and 10 records display on it
 4. User has been banned and report status has been changed</t>
   </si>
@@ -3445,9 +3412,6 @@
 3. Donate fail page displayed</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Admin Page is displayed with the following list:
 - Header
 - Left Side bar
@@ -3455,11 +3419,49 @@
 </t>
   </si>
   <si>
+    <t>TuanDv</t>
+  </si>
+  <si>
+    <t>1. Go to …/Admin.com
+2. Click User button in Slide bar
+3. Click Dashboard button in User menu</t>
+  </si>
+  <si>
     <t>1. Admin Page is displayed
 2. Dropdowlist is displayed with:
-+ Thống kê chung
-+ Thành viên
++ Thống kê thành viên
++ Danh sách Thành viên
 3. Content about dashboard of user is displayed</t>
+  </si>
+  <si>
+    <t>1. Go to …/Admin.com
+2. Click User button in  Slide bar
+3. Click User list button in User menu</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. Dropdowlist is displayed with:
++ Thống kê thành viên
++ Danh sách Thành viên
+3. Content of User list is displayed</t>
+  </si>
+  <si>
+    <t>1. Go to …/Admin.com
+2. Click User button in Right Slide bar
+3. Click User list button in User menu
+4. Select a user and double click to image</t>
+  </si>
+  <si>
+    <t>Check User Report list  and click "Xem chi tiết"</t>
+  </si>
+  <si>
+    <t>1. Enter the admin page
+2. Click Report button in Right Slide bar
+3. Click on User  and click "Xem chi tiết"
+4. "Khóa tài khoản này"</t>
+  </si>
+  <si>
+    <t>TuanDV</t>
   </si>
 </sst>
 </file>
@@ -5182,6 +5184,9 @@
     <xf numFmtId="14" fontId="26" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5233,9 +5238,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5698,7 +5700,7 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5716,13 +5718,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="242" t="s">
+      <c r="C2" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -5733,11 +5735,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="243" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
+      <c r="C4" s="244" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
@@ -5749,40 +5751,40 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="243" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
+      <c r="C5" s="244" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>176</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="244" t="s">
+      <c r="B6" s="245" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="245" t="str">
+      <c r="C6" s="246" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>WS_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="246"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="86">
-        <v>42671</v>
+        <v>42706</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="244"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
-      <c r="E7" s="245"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="246"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -5828,8 +5830,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1">
-      <c r="B12" s="87">
-        <v>42671</v>
+      <c r="B12" s="86">
+        <v>42706</v>
       </c>
       <c r="C12" s="88" t="s">
         <v>45</v>
@@ -5842,7 +5844,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1">
@@ -5944,39 +5946,39 @@
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="248" t="s">
+      <c r="B3" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="248"/>
-      <c r="D3" s="249" t="str">
+      <c r="C3" s="249"/>
+      <c r="D3" s="250" t="str">
         <f>Cover!C4</f>
         <v>WingS</v>
       </c>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="249" t="str">
+      <c r="C4" s="249"/>
+      <c r="D4" s="250" t="str">
         <f>Cover!C5</f>
         <v>WS</v>
       </c>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
     </row>
     <row r="5" spans="2:6" s="35" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="246" t="s">
+      <c r="B5" s="247" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="247" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="248" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="36"/>
@@ -6009,7 +6011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="25.5">
+    <row r="9" spans="2:6" ht="38.25">
       <c r="B9" s="46">
         <v>1</v>
       </c>
@@ -6140,7 +6142,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6154,15 +6156,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="252" t="s">
+      <c r="B1" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="62"/>
@@ -6178,17 +6180,17 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="249" t="str">
+      <c r="C3" s="250" t="str">
         <f>Cover!C4</f>
         <v>WingS</v>
       </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250" t="s">
+      <c r="D3" s="250"/>
+      <c r="E3" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="250"/>
+      <c r="F3" s="251"/>
       <c r="G3" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H3" s="65"/>
     </row>
@@ -6196,17 +6198,17 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="249" t="str">
+      <c r="C4" s="250" t="str">
         <f>Cover!C5</f>
         <v>WS</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="250" t="s">
+      <c r="D4" s="250"/>
+      <c r="E4" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="250"/>
+      <c r="F4" s="251"/>
       <c r="G4" s="10" t="s">
-        <v>176</v>
+        <v>720</v>
       </c>
       <c r="H4" s="65"/>
     </row>
@@ -6214,15 +6216,15 @@
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="249" t="str">
+      <c r="C5" s="250" t="str">
         <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>WS_Integration Test Report_v1.0</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="250" t="s">
+      <c r="D5" s="250"/>
+      <c r="E5" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="250"/>
+      <c r="F5" s="251"/>
       <c r="G5" s="115"/>
       <c r="H5" s="67"/>
     </row>
@@ -6231,12 +6233,12 @@
       <c r="B6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
+      <c r="C6" s="252"/>
+      <c r="D6" s="252"/>
+      <c r="E6" s="252"/>
+      <c r="F6" s="252"/>
+      <c r="G6" s="252"/>
+      <c r="H6" s="252"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="62"/>
@@ -6301,7 +6303,7 @@
       </c>
       <c r="D11" s="76">
         <f>User_Function!A6</f>
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="E11" s="76">
         <f>User_Function!B6</f>
@@ -6309,7 +6311,7 @@
       </c>
       <c r="F11" s="76">
         <f>User_Function!C6</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="G11" s="76">
         <f>User_Function!D6</f>
@@ -6330,7 +6332,7 @@
       </c>
       <c r="D12" s="76">
         <f>Admin_Function!A6</f>
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="E12" s="76">
         <f>Admin_Function!B6</f>
@@ -6338,7 +6340,7 @@
       </c>
       <c r="F12" s="76">
         <f>Admin_Function!C6</f>
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="G12" s="76">
         <f>Admin_Function!D6</f>
@@ -6346,7 +6348,7 @@
       </c>
       <c r="H12" s="77">
         <f>Admin_Function!E6</f>
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6357,7 +6359,7 @@
       </c>
       <c r="D13" s="79">
         <f>SUM(D9:D12)</f>
-        <v>264</v>
+        <v>380</v>
       </c>
       <c r="E13" s="79">
         <f>SUM(E9:E12)</f>
@@ -6365,7 +6367,7 @@
       </c>
       <c r="F13" s="79">
         <f>SUM(F9:F12)</f>
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="G13" s="79">
         <f>SUM(G9:G12)</f>
@@ -6373,7 +6375,7 @@
       </c>
       <c r="H13" s="80">
         <f>SUM(H9:H12)</f>
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6395,7 +6397,7 @@
       <c r="D15" s="70"/>
       <c r="E15" s="85">
         <f>(D13+E13)*100/(H13-G13)</f>
-        <v>64.485981308411212</v>
+        <v>92.452830188679243</v>
       </c>
       <c r="F15" s="70" t="s">
         <v>43</v>
@@ -6412,7 +6414,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="85">
         <f>D13*100/(H13-G13)</f>
-        <v>61.682242990654203</v>
+        <v>89.622641509433961</v>
       </c>
       <c r="F16" s="70" t="s">
         <v>43</v>
@@ -6465,11 +6467,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="254" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
@@ -6488,7 +6490,7 @@
         <v>83</v>
       </c>
       <c r="B4" s="203" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="161"/>
     </row>
@@ -6497,7 +6499,7 @@
         <v>84</v>
       </c>
       <c r="B5" s="203" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="161"/>
     </row>
@@ -6506,7 +6508,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="204" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="161"/>
     </row>
@@ -6515,7 +6517,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="204" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="161"/>
     </row>
@@ -6524,7 +6526,7 @@
         <v>87</v>
       </c>
       <c r="B8" s="203" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="161"/>
     </row>
@@ -6533,7 +6535,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="204" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="161"/>
     </row>
@@ -6542,7 +6544,7 @@
         <v>89</v>
       </c>
       <c r="B10" s="204" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="161"/>
     </row>
@@ -6551,7 +6553,7 @@
         <v>90</v>
       </c>
       <c r="B11" s="204" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="161"/>
     </row>
@@ -6560,7 +6562,7 @@
         <v>91</v>
       </c>
       <c r="B12" s="204" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" s="161"/>
     </row>
@@ -6569,7 +6571,7 @@
         <v>92</v>
       </c>
       <c r="B13" s="204" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13" s="161"/>
     </row>
@@ -6578,7 +6580,7 @@
         <v>93</v>
       </c>
       <c r="B14" s="204" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" s="161"/>
     </row>
@@ -6587,7 +6589,7 @@
         <v>94</v>
       </c>
       <c r="B15" s="204" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" s="161"/>
     </row>
@@ -6596,7 +6598,7 @@
         <v>95</v>
       </c>
       <c r="B16" s="204" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C16" s="161"/>
     </row>
@@ -6605,7 +6607,7 @@
         <v>96</v>
       </c>
       <c r="B17" s="204" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17" s="161"/>
     </row>
@@ -6614,7 +6616,7 @@
         <v>97</v>
       </c>
       <c r="B18" s="204" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="161"/>
     </row>
@@ -6623,7 +6625,7 @@
         <v>98</v>
       </c>
       <c r="B19" s="204" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C19" s="161"/>
     </row>
@@ -6632,7 +6634,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="203" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" s="161"/>
     </row>
@@ -6641,7 +6643,7 @@
         <v>100</v>
       </c>
       <c r="B21" s="203" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="161"/>
     </row>
@@ -6650,7 +6652,7 @@
         <v>101</v>
       </c>
       <c r="B22" s="203" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="161"/>
     </row>
@@ -6659,7 +6661,7 @@
         <v>102</v>
       </c>
       <c r="B23" s="205" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" s="161"/>
     </row>
@@ -6668,7 +6670,7 @@
         <v>103</v>
       </c>
       <c r="B24" s="203" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C24" s="161"/>
     </row>
@@ -6677,7 +6679,7 @@
         <v>104</v>
       </c>
       <c r="B25" s="203" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C25" s="161"/>
     </row>
@@ -6686,7 +6688,7 @@
         <v>105</v>
       </c>
       <c r="B26" s="203" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C26" s="161"/>
     </row>
@@ -6695,7 +6697,7 @@
         <v>106</v>
       </c>
       <c r="B27" s="161" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C27" s="161"/>
     </row>
@@ -6704,7 +6706,7 @@
         <v>107</v>
       </c>
       <c r="B28" s="161" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C28" s="161"/>
     </row>
@@ -6713,7 +6715,7 @@
         <v>108</v>
       </c>
       <c r="B29" s="161" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C29" s="161"/>
     </row>
@@ -6722,7 +6724,7 @@
         <v>109</v>
       </c>
       <c r="B30" s="161" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C30" s="161"/>
     </row>
@@ -6731,7 +6733,7 @@
         <v>110</v>
       </c>
       <c r="B31" s="161" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C31" s="161"/>
     </row>
@@ -6769,8 +6771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV176"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A41" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159:G176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -7043,14 +7045,14 @@
       <c r="A2" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="254" t="s">
+      <c r="B2" s="255" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
       <c r="H2" s="149" t="s">
         <v>22</v>
       </c>
@@ -7298,14 +7300,14 @@
       <c r="A3" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="254" t="s">
+      <c r="B3" s="255" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
       <c r="H3" s="149" t="s">
         <v>24</v>
       </c>
@@ -7553,14 +7555,14 @@
       <c r="A4" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="256" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="255"/>
-      <c r="D4" s="255"/>
-      <c r="E4" s="255"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="255"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
       <c r="H4" s="149" t="s">
         <v>27</v>
       </c>
@@ -7810,16 +7812,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="97" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D5" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="256" t="s">
+      <c r="E5" s="257" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
       <c r="H5" s="150" t="s">
         <v>26</v>
       </c>
@@ -8066,7 +8068,7 @@
     <row r="6" spans="1:252" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="130">
         <f>COUNTIF(F11:G335,"Pass")</f>
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="B6" s="101">
         <f>COUNTIF(F11:G782,"Fail")</f>
@@ -8074,18 +8076,18 @@
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D6" s="102">
         <f>COUNTIF(F11:G782,"N/A")</f>
         <v>8</v>
       </c>
-      <c r="E6" s="257">
+      <c r="E6" s="258">
         <f>COUNTA(A12:A179)*2</f>
         <v>304</v>
       </c>
-      <c r="F6" s="257"/>
-      <c r="G6" s="257"/>
+      <c r="F6" s="258"/>
+      <c r="G6" s="258"/>
       <c r="H6" s="99"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95" t="s">
@@ -9092,7 +9094,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G10" s="57" t="s">
         <v>77</v>
@@ -9598,7 +9600,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="117" t="s">
         <v>78</v>
@@ -9860,7 +9862,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="117" t="s">
         <v>79</v>
@@ -10122,10 +10124,10 @@
         <v>62</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E14" s="208"/>
       <c r="F14" s="117" t="s">
@@ -10381,13 +10383,13 @@
         <v>[User_login-5]</v>
       </c>
       <c r="B15" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="117" t="s">
-        <v>206</v>
-      </c>
       <c r="D15" s="117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E15" s="209"/>
       <c r="F15" s="117" t="s">
@@ -10646,10 +10648,10 @@
         <v>63</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E16" s="210"/>
       <c r="F16" s="117" t="s">
@@ -10905,13 +10907,13 @@
         <v>[User_login-7]</v>
       </c>
       <c r="B17" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="121" t="s">
-        <v>200</v>
-      </c>
       <c r="D17" s="121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E17" s="124"/>
       <c r="F17" s="117" t="s">
@@ -11167,13 +11169,13 @@
         <v>[User_login-8]</v>
       </c>
       <c r="B18" s="123" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="123" t="s">
-        <v>202</v>
-      </c>
       <c r="D18" s="123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E18" s="124"/>
       <c r="F18" s="117" t="s">
@@ -11429,13 +11431,13 @@
         <v>[User_login-9]</v>
       </c>
       <c r="B19" s="214" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="214" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="214" t="s">
-        <v>208</v>
-      </c>
       <c r="D19" s="214" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E19" s="215"/>
       <c r="F19" s="214" t="s">
@@ -11691,13 +11693,13 @@
         <v>[User_login-10]</v>
       </c>
       <c r="B20" s="214" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="214" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="214" t="s">
-        <v>210</v>
-      </c>
       <c r="D20" s="214" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="215"/>
       <c r="F20" s="214" t="s">
@@ -11950,7 +11952,7 @@
     <row r="21" spans="1:245" ht="14.25" customHeight="1">
       <c r="A21" s="58"/>
       <c r="B21" s="58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C21" s="58"/>
       <c r="D21" s="58"/>
@@ -12201,13 +12203,13 @@
         <v>114</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E22" s="146"/>
       <c r="F22" s="117" t="s">
@@ -12462,13 +12464,13 @@
         <v>115</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="E23" s="146"/>
       <c r="F23" s="117" t="s">
@@ -12723,13 +12725,13 @@
         <v>116</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="E24" s="146"/>
       <c r="F24" s="117" t="s">
@@ -12984,13 +12986,13 @@
         <v>117</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E25" s="146"/>
       <c r="F25" s="117" t="s">
@@ -13242,16 +13244,16 @@
     </row>
     <row r="26" spans="1:245" ht="54" customHeight="1">
       <c r="A26" s="91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="D26" s="91" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E26" s="146"/>
       <c r="F26" s="117" t="s">
@@ -13503,16 +13505,16 @@
     </row>
     <row r="27" spans="1:245" ht="54" customHeight="1">
       <c r="A27" s="91" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E27" s="146"/>
       <c r="F27" s="117" t="s">
@@ -13764,16 +13766,16 @@
     </row>
     <row r="28" spans="1:245" ht="54" customHeight="1">
       <c r="A28" s="91" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="E28" s="146"/>
       <c r="F28" s="117" t="s">
@@ -14025,16 +14027,16 @@
     </row>
     <row r="29" spans="1:245" ht="54" customHeight="1">
       <c r="A29" s="91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C29" s="91" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E29" s="146"/>
       <c r="F29" s="117" t="s">
@@ -14286,16 +14288,16 @@
     </row>
     <row r="30" spans="1:245" ht="54" customHeight="1">
       <c r="A30" s="91" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C30" s="91" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E30" s="146"/>
       <c r="F30" s="117" t="s">
@@ -14547,16 +14549,16 @@
     </row>
     <row r="31" spans="1:245" ht="60.75" customHeight="1">
       <c r="A31" s="91" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C31" s="91" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E31" s="146"/>
       <c r="F31" s="117" t="s">
@@ -14808,16 +14810,16 @@
     </row>
     <row r="32" spans="1:245" ht="60.75" customHeight="1">
       <c r="A32" s="91" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C32" s="91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E32" s="146"/>
       <c r="F32" s="117" t="s">
@@ -15069,16 +15071,16 @@
     </row>
     <row r="33" spans="1:245" ht="60.75" customHeight="1">
       <c r="A33" s="91" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="C33" s="91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D33" s="91" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E33" s="146"/>
       <c r="F33" s="117" t="s">
@@ -15330,16 +15332,16 @@
     </row>
     <row r="34" spans="1:245" ht="60.75" customHeight="1">
       <c r="A34" s="91" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C34" s="91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D34" s="91" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E34" s="146"/>
       <c r="F34" s="117" t="s">
@@ -15591,16 +15593,16 @@
     </row>
     <row r="35" spans="1:245" ht="60.75" customHeight="1">
       <c r="A35" s="91" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C35" s="91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D35" s="91" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E35" s="146"/>
       <c r="F35" s="117" t="s">
@@ -15852,16 +15854,16 @@
     </row>
     <row r="36" spans="1:245" ht="60.75" customHeight="1">
       <c r="A36" s="91" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C36" s="91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E36" s="146"/>
       <c r="F36" s="117" t="s">
@@ -16113,16 +16115,16 @@
     </row>
     <row r="37" spans="1:245" ht="60.75" customHeight="1">
       <c r="A37" s="91" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C37" s="91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D37" s="91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E37" s="146"/>
       <c r="F37" s="117" t="s">
@@ -16374,16 +16376,16 @@
     </row>
     <row r="38" spans="1:245" ht="60.75" customHeight="1">
       <c r="A38" s="91" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C38" s="91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E38" s="146"/>
       <c r="F38" s="117" t="s">
@@ -16635,16 +16637,16 @@
     </row>
     <row r="39" spans="1:245" ht="60.75" customHeight="1">
       <c r="A39" s="91" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C39" s="91" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E39" s="146"/>
       <c r="F39" s="117" t="s">
@@ -16896,16 +16898,16 @@
     </row>
     <row r="40" spans="1:245" ht="55.5" customHeight="1">
       <c r="A40" s="91" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D40" s="91" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E40" s="146"/>
       <c r="F40" s="234" t="s">
@@ -17157,16 +17159,16 @@
     </row>
     <row r="41" spans="1:245" ht="56.25" customHeight="1">
       <c r="A41" s="91" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D41" s="91" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E41" s="146"/>
       <c r="F41" s="117" t="s">
@@ -17418,16 +17420,16 @@
     </row>
     <row r="42" spans="1:245" ht="59.25" customHeight="1">
       <c r="A42" s="91" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C42" s="91" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" s="91" t="s">
         <v>261</v>
-      </c>
-      <c r="D42" s="91" t="s">
-        <v>262</v>
       </c>
       <c r="E42" s="146"/>
       <c r="F42" s="117" t="s">
@@ -17679,16 +17681,16 @@
     </row>
     <row r="43" spans="1:245" ht="59.25" customHeight="1">
       <c r="A43" s="91" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="C43" s="91" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E43" s="146"/>
       <c r="F43" s="117" t="s">
@@ -17940,16 +17942,16 @@
     </row>
     <row r="44" spans="1:245" ht="59.25" customHeight="1">
       <c r="A44" s="91" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C44" s="91" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D44" s="91" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E44" s="146"/>
       <c r="F44" s="117" t="s">
@@ -18201,16 +18203,16 @@
     </row>
     <row r="45" spans="1:245" ht="59.25" customHeight="1">
       <c r="A45" s="91" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C45" s="91" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D45" s="91" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E45" s="146"/>
       <c r="F45" s="117" t="s">
@@ -18462,16 +18464,16 @@
     </row>
     <row r="46" spans="1:245" ht="59.25" customHeight="1">
       <c r="A46" s="91" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C46" s="91" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D46" s="91" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E46" s="146"/>
       <c r="F46" s="117" t="s">
@@ -18723,16 +18725,16 @@
     </row>
     <row r="47" spans="1:245" ht="59.25" customHeight="1">
       <c r="A47" s="91" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C47" s="91" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" s="91" t="s">
         <v>270</v>
-      </c>
-      <c r="D47" s="91" t="s">
-        <v>271</v>
       </c>
       <c r="E47" s="146"/>
       <c r="F47" s="117" t="s">
@@ -18984,16 +18986,16 @@
     </row>
     <row r="48" spans="1:245" ht="59.25" customHeight="1">
       <c r="A48" s="91" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C48" s="91" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D48" s="91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E48" s="146"/>
       <c r="F48" s="117" t="s">
@@ -19245,16 +19247,16 @@
     </row>
     <row r="49" spans="1:256" ht="59.25" customHeight="1">
       <c r="A49" s="91" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C49" s="91" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D49" s="91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E49" s="146"/>
       <c r="F49" s="117" t="s">
@@ -19506,16 +19508,16 @@
     </row>
     <row r="50" spans="1:256" ht="59.25" customHeight="1">
       <c r="A50" s="91" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B50" s="91" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C50" s="91" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D50" s="91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E50" s="146"/>
       <c r="F50" s="117" t="s">
@@ -19767,7 +19769,7 @@
     </row>
     <row r="51" spans="1:256" ht="51.75" customHeight="1">
       <c r="A51" s="91" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B51" s="91" t="s">
         <v>64</v>
@@ -20029,7 +20031,7 @@
     <row r="52" spans="1:256" ht="15" customHeight="1">
       <c r="A52" s="59"/>
       <c r="B52" s="58" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
@@ -20292,13 +20294,13 @@
         <v>[User_login-43]</v>
       </c>
       <c r="B53" s="91" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C53" s="91" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D53" s="123" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E53" s="147"/>
       <c r="F53" s="117" t="s">
@@ -20554,13 +20556,13 @@
         <v>[User_login-44]</v>
       </c>
       <c r="B54" s="91" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C54" s="91" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D54" s="123" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E54" s="238"/>
       <c r="F54" s="117" t="s">
@@ -20816,13 +20818,13 @@
         <v>[User_login-45]</v>
       </c>
       <c r="B55" s="91" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C55" s="91" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D55" s="123" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E55" s="238"/>
       <c r="F55" s="117" t="s">
@@ -21078,13 +21080,13 @@
         <v>[User_login-46]</v>
       </c>
       <c r="B56" s="91" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C56" s="91" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D56" s="123" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E56" s="238"/>
       <c r="F56" s="117" t="s">
@@ -21340,13 +21342,13 @@
         <v>[User_login-47]</v>
       </c>
       <c r="B57" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="C57" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="C57" s="91" t="s">
-        <v>401</v>
-      </c>
       <c r="D57" s="123" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E57" s="238"/>
       <c r="F57" s="117" t="s">
@@ -21602,13 +21604,13 @@
         <v>[User_login-48]</v>
       </c>
       <c r="B58" s="91" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C58" s="91" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D58" s="123" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E58" s="238"/>
       <c r="F58" s="117" t="s">
@@ -21864,13 +21866,13 @@
         <v>[User_login-49]</v>
       </c>
       <c r="B59" s="91" t="s">
+        <v>392</v>
+      </c>
+      <c r="C59" s="91" t="s">
         <v>397</v>
       </c>
-      <c r="C59" s="91" t="s">
-        <v>402</v>
-      </c>
       <c r="D59" s="123" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E59" s="238"/>
       <c r="F59" s="117" t="s">
@@ -22126,13 +22128,13 @@
         <v>[User_login-50]</v>
       </c>
       <c r="B60" s="91" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C60" s="91" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D60" s="123" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E60" s="238"/>
       <c r="F60" s="117" t="s">
@@ -22388,13 +22390,13 @@
         <v>[User_login-51]</v>
       </c>
       <c r="B61" s="91" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C61" s="91" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D61" s="123" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E61" s="147"/>
       <c r="F61" s="117" t="s">
@@ -22906,10 +22908,10 @@
         <v>[User_login-53]</v>
       </c>
       <c r="B63" s="123" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C63" s="123" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D63" s="123" t="s">
         <v>118</v>
@@ -23175,10 +23177,10 @@
         <v>[User_login-54]</v>
       </c>
       <c r="B64" s="91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C64" s="91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D64" s="91" t="s">
         <v>119</v>
@@ -23444,10 +23446,10 @@
         <v>[User_login-55]</v>
       </c>
       <c r="B65" s="91" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C65" s="91" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D65" s="91" t="s">
         <v>120</v>
@@ -23965,7 +23967,7 @@
         <v>72</v>
       </c>
       <c r="C67" s="91" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D67" s="104" t="s">
         <v>73</v>
@@ -24224,13 +24226,13 @@
         <v>[User_login-58]</v>
       </c>
       <c r="B68" s="91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C68" s="91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D68" s="136" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="E68" s="91"/>
       <c r="F68" s="117" t="s">
@@ -24493,13 +24495,13 @@
         <v>[User_login-59]</v>
       </c>
       <c r="B69" s="91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C69" s="91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D69" s="136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E69" s="91"/>
       <c r="F69" s="117" t="s">
@@ -24762,13 +24764,13 @@
         <v>[User_login-60]</v>
       </c>
       <c r="B70" s="91" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C70" s="91" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D70" s="136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E70" s="91"/>
       <c r="F70" s="117" t="s">
@@ -25031,13 +25033,13 @@
         <v>[User_login-61]</v>
       </c>
       <c r="B71" s="91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C71" s="91" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D71" s="136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E71" s="91"/>
       <c r="F71" s="117" t="s">
@@ -25300,13 +25302,13 @@
         <v>[User_login-62]</v>
       </c>
       <c r="B72" s="91" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="C72" s="91" t="s">
-        <v>235</v>
-      </c>
       <c r="D72" s="136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E72" s="91"/>
       <c r="F72" s="117" t="s">
@@ -25569,13 +25571,13 @@
         <v>[User_login-63]</v>
       </c>
       <c r="B73" s="91" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C73" s="91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D73" s="136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E73" s="91"/>
       <c r="F73" s="117" t="s">
@@ -25838,13 +25840,13 @@
         <v>[User_login-64]</v>
       </c>
       <c r="B74" s="91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C74" s="91" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D74" s="136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E74" s="91"/>
       <c r="F74" s="117" t="s">
@@ -26107,13 +26109,13 @@
         <v>[User_login-65]</v>
       </c>
       <c r="B75" s="91" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C75" s="91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D75" s="136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E75" s="91"/>
       <c r="F75" s="117" t="s">
@@ -26376,13 +26378,13 @@
         <v>[User_login-66]</v>
       </c>
       <c r="B76" s="91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C76" s="91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D76" s="136" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E76" s="91"/>
       <c r="F76" s="117" t="s">
@@ -26891,10 +26893,10 @@
         <v>68</v>
       </c>
       <c r="C78" s="91" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E78" s="91"/>
       <c r="F78" s="117" t="s">
@@ -27141,7 +27143,7 @@
     <row r="79" spans="1:252" ht="14.25" customHeight="1">
       <c r="A79" s="58"/>
       <c r="B79" s="58" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
@@ -27401,10 +27403,10 @@
         <v>70</v>
       </c>
       <c r="C80" s="232" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" s="232" t="s">
         <v>244</v>
-      </c>
-      <c r="D80" s="232" t="s">
-        <v>245</v>
       </c>
       <c r="E80" s="233"/>
       <c r="F80" s="230" t="s">
@@ -27654,13 +27656,13 @@
         <v>[User_login-71]</v>
       </c>
       <c r="B81" s="224" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C81" s="225" t="s">
+        <v>276</v>
+      </c>
+      <c r="D81" s="226" t="s">
         <v>277</v>
-      </c>
-      <c r="D81" s="226" t="s">
-        <v>278</v>
       </c>
       <c r="E81" s="226"/>
       <c r="F81" s="224" t="s">
@@ -27910,13 +27912,13 @@
         <v>[User_login-72]</v>
       </c>
       <c r="B82" s="224" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C82" s="225" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D82" s="226" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E82" s="226"/>
       <c r="F82" s="224" t="s">
@@ -28166,13 +28168,13 @@
         <v>[User_login-73]</v>
       </c>
       <c r="B83" s="224" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C83" s="225" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" s="226" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E83" s="226"/>
       <c r="F83" s="224" t="s">
@@ -28422,13 +28424,13 @@
         <v>[User_login-74]</v>
       </c>
       <c r="B84" s="224" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C84" s="225" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="226" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E84" s="226"/>
       <c r="F84" s="224" t="s">
@@ -28678,13 +28680,13 @@
         <v>[User_login-75]</v>
       </c>
       <c r="B85" s="224" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" s="225" t="s">
         <v>248</v>
       </c>
-      <c r="C85" s="225" t="s">
-        <v>249</v>
-      </c>
       <c r="D85" s="226" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E85" s="226"/>
       <c r="F85" s="224" t="s">
@@ -28931,7 +28933,7 @@
     <row r="86" spans="1:245" ht="14.25" customHeight="1">
       <c r="A86" s="220"/>
       <c r="B86" s="220" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C86" s="221"/>
       <c r="D86" s="221"/>
@@ -28948,10 +28950,10 @@
         <v>[User_login-77]</v>
       </c>
       <c r="B87" s="91" t="s">
+        <v>282</v>
+      </c>
+      <c r="C87" s="106" t="s">
         <v>283</v>
-      </c>
-      <c r="C87" s="106" t="s">
-        <v>284</v>
       </c>
       <c r="D87" s="104" t="s">
         <v>121</v>
@@ -28975,13 +28977,13 @@
         <v>[User_login-78]</v>
       </c>
       <c r="B88" s="91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C88" s="106" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="D88" s="104" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E88" s="167"/>
       <c r="F88" s="117" t="s">
@@ -29002,13 +29004,13 @@
         <v>[User_login-79]</v>
       </c>
       <c r="B89" s="91" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C89" s="106" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D89" s="104" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E89" s="167"/>
       <c r="F89" s="117" t="s">
@@ -29029,13 +29031,13 @@
         <v>[User_login-80]</v>
       </c>
       <c r="B90" s="91" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C90" s="106" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D90" s="104" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E90" s="167"/>
       <c r="F90" s="117" t="s">
@@ -29056,13 +29058,13 @@
         <v>[User_login-81]</v>
       </c>
       <c r="B91" s="91" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C91" s="106" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D91" s="104" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E91" s="167"/>
       <c r="F91" s="117" t="s">
@@ -29083,13 +29085,13 @@
         <v>[User_login-82]</v>
       </c>
       <c r="B92" s="91" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C92" s="106" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D92" s="104" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E92" s="167"/>
       <c r="F92" s="117" t="s">
@@ -29110,13 +29112,13 @@
         <v>[User_login-83]</v>
       </c>
       <c r="B93" s="91" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C93" s="106" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D93" s="104" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E93" s="167"/>
       <c r="F93" s="117" t="s">
@@ -29137,13 +29139,13 @@
         <v>[User_login-84]</v>
       </c>
       <c r="B94" s="91" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C94" s="106" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D94" s="104" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E94" s="167"/>
       <c r="F94" s="117" t="s">
@@ -29164,7 +29166,7 @@
         <v>[User_login-85]</v>
       </c>
       <c r="B95" s="220" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C95" s="228"/>
       <c r="D95" s="228"/>
@@ -29181,13 +29183,13 @@
         <v>[User_login-86]</v>
       </c>
       <c r="B96" s="174" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C96" s="166" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D96" s="117" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E96" s="163"/>
       <c r="F96" s="117" t="s">
@@ -29208,13 +29210,13 @@
         <v>[User_login-87]</v>
       </c>
       <c r="B97" s="174" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C97" s="166" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D97" s="117" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E97" s="163"/>
       <c r="F97" s="117" t="s">
@@ -29235,13 +29237,13 @@
         <v>[User_login-88]</v>
       </c>
       <c r="B98" s="174" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C98" s="166" t="s">
+        <v>291</v>
+      </c>
+      <c r="D98" s="117" t="s">
         <v>292</v>
-      </c>
-      <c r="D98" s="117" t="s">
-        <v>293</v>
       </c>
       <c r="E98" s="163"/>
       <c r="F98" s="117" t="s">
@@ -29262,13 +29264,13 @@
         <v>[User_login-89]</v>
       </c>
       <c r="B99" s="174" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C99" s="166" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D99" s="117" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E99" s="163"/>
       <c r="F99" s="117" t="s">
@@ -29289,13 +29291,13 @@
         <v>[User_login-90]</v>
       </c>
       <c r="B100" s="174" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C100" s="166" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D100" s="117" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E100" s="163"/>
       <c r="F100" s="117" t="s">
@@ -29316,13 +29318,13 @@
         <v>[User_login-91]</v>
       </c>
       <c r="B101" s="174" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C101" s="166" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D101" s="117" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E101" s="163"/>
       <c r="F101" s="117" t="s">
@@ -29343,13 +29345,13 @@
         <v>[User_login-92]</v>
       </c>
       <c r="B102" s="174" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C102" s="166" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D102" s="117" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E102" s="163"/>
       <c r="F102" s="117" t="s">
@@ -29370,13 +29372,13 @@
         <v>[User_login-93]</v>
       </c>
       <c r="B103" s="174" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C103" s="166" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D103" s="117" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E103" s="163"/>
       <c r="F103" s="117" t="s">
@@ -29397,13 +29399,13 @@
         <v>[User_login-94]</v>
       </c>
       <c r="B104" s="174" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C104" s="166" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D104" s="117" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E104" s="163"/>
       <c r="F104" s="117" t="s">
@@ -29424,13 +29426,13 @@
         <v>[User_login-95]</v>
       </c>
       <c r="B105" s="174" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C105" s="166" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D105" s="117" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E105" s="163"/>
       <c r="F105" s="117" t="s">
@@ -29451,13 +29453,13 @@
         <v>[User_login-96]</v>
       </c>
       <c r="B106" s="174" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C106" s="166" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D106" s="117" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E106" s="163"/>
       <c r="F106" s="117" t="s">
@@ -29478,13 +29480,13 @@
         <v>[User_login-97]</v>
       </c>
       <c r="B107" s="174" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C107" s="166" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E107" s="163"/>
       <c r="F107" s="117" t="s">
@@ -29505,7 +29507,7 @@
         <v>[User_login-98]</v>
       </c>
       <c r="B108" s="220" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C108" s="228"/>
       <c r="D108" s="228"/>
@@ -29522,13 +29524,13 @@
         <v>[User_login-99]</v>
       </c>
       <c r="B109" s="174" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C109" s="166" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="117" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E109" s="163"/>
       <c r="F109" s="117" t="s">
@@ -29549,13 +29551,13 @@
         <v>[User_login-100]</v>
       </c>
       <c r="B110" s="174" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C110" s="166" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D110" s="117" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E110" s="163"/>
       <c r="F110" s="117" t="s">
@@ -29576,13 +29578,13 @@
         <v>[User_login-101]</v>
       </c>
       <c r="B111" s="174" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C111" s="166" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D111" s="117" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E111" s="163"/>
       <c r="F111" s="117" t="s">
@@ -29603,13 +29605,13 @@
         <v>[User_login-102]</v>
       </c>
       <c r="B112" s="174" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C112" s="166" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D112" s="117" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E112" s="163"/>
       <c r="F112" s="117" t="s">
@@ -29630,13 +29632,13 @@
         <v>[User_login-103]</v>
       </c>
       <c r="B113" s="174" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C113" s="166" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D113" s="117" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E113" s="163"/>
       <c r="F113" s="117" t="s">
@@ -29657,13 +29659,13 @@
         <v>[User_login-104]</v>
       </c>
       <c r="B114" s="174" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C114" s="166" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="D114" s="117" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E114" s="163"/>
       <c r="F114" s="117" t="s">
@@ -29684,13 +29686,13 @@
         <v>[User_login-105]</v>
       </c>
       <c r="B115" s="174" t="s">
+        <v>434</v>
+      </c>
+      <c r="C115" s="166" t="s">
         <v>439</v>
       </c>
-      <c r="C115" s="166" t="s">
-        <v>444</v>
-      </c>
       <c r="D115" s="117" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E115" s="163"/>
       <c r="F115" s="117" t="s">
@@ -29711,13 +29713,13 @@
         <v>[User_login-106]</v>
       </c>
       <c r="B116" s="174" t="s">
+        <v>435</v>
+      </c>
+      <c r="C116" s="166" t="s">
         <v>440</v>
       </c>
-      <c r="C116" s="166" t="s">
-        <v>445</v>
-      </c>
       <c r="D116" s="117" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E116" s="163"/>
       <c r="F116" s="117" t="s">
@@ -29738,13 +29740,13 @@
         <v>[User_login-107]</v>
       </c>
       <c r="B117" s="174" t="s">
+        <v>436</v>
+      </c>
+      <c r="C117" s="166" t="s">
         <v>441</v>
       </c>
-      <c r="C117" s="166" t="s">
-        <v>446</v>
-      </c>
       <c r="D117" s="117" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E117" s="163"/>
       <c r="F117" s="117" t="s">
@@ -29765,7 +29767,7 @@
         <v>[User_login-108]</v>
       </c>
       <c r="B118" s="220" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C118" s="228"/>
       <c r="D118" s="228"/>
@@ -29782,13 +29784,13 @@
         <v>[User_login-109]</v>
       </c>
       <c r="B119" s="174" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C119" s="166" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D119" s="117" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E119" s="163"/>
       <c r="F119" s="117" t="s">
@@ -29809,13 +29811,13 @@
         <v>[User_login-110]</v>
       </c>
       <c r="B120" s="174" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C120" s="166" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D120" s="117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E120" s="163"/>
       <c r="F120" s="117" t="s">
@@ -29836,13 +29838,13 @@
         <v>[User_login-111]</v>
       </c>
       <c r="B121" s="174" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C121" s="166" t="s">
+        <v>314</v>
+      </c>
+      <c r="D121" s="117" t="s">
         <v>315</v>
-      </c>
-      <c r="D121" s="117" t="s">
-        <v>316</v>
       </c>
       <c r="E121" s="163"/>
       <c r="F121" s="117" t="s">
@@ -29863,13 +29865,13 @@
         <v>[User_login-112]</v>
       </c>
       <c r="B122" s="174" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C122" s="166" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="D122" s="117" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E122" s="163"/>
       <c r="F122" s="117" t="s">
@@ -29890,13 +29892,13 @@
         <v>[User_login-113]</v>
       </c>
       <c r="B123" s="174" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C123" s="166" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D123" s="117" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="E123" s="163"/>
       <c r="F123" s="117" t="s">
@@ -29917,13 +29919,13 @@
         <v>[User_login-114]</v>
       </c>
       <c r="B124" s="174" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C124" s="166" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="D124" s="117" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="E124" s="163"/>
       <c r="F124" s="117" t="s">
@@ -29944,13 +29946,13 @@
         <v>[User_login-115]</v>
       </c>
       <c r="B125" s="174" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C125" s="166" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="D125" s="117" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="E125" s="163"/>
       <c r="F125" s="117" t="s">
@@ -29971,13 +29973,13 @@
         <v>[User_login-116]</v>
       </c>
       <c r="B126" s="174" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C126" s="166" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D126" s="117" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="E126" s="163"/>
       <c r="F126" s="117" t="s">
@@ -29998,13 +30000,13 @@
         <v>[User_login-117]</v>
       </c>
       <c r="B127" s="174" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C127" s="166" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E127" s="163"/>
       <c r="F127" s="117" t="s">
@@ -30025,13 +30027,13 @@
         <v>[User_login-118]</v>
       </c>
       <c r="B128" s="174" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C128" s="166" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D128" s="117" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E128" s="163"/>
       <c r="F128" s="117" t="s">
@@ -30052,13 +30054,13 @@
         <v>[User_login-119]</v>
       </c>
       <c r="B129" s="174" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C129" s="166" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="D129" s="117" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E129" s="163"/>
       <c r="F129" s="117" t="s">
@@ -30079,7 +30081,7 @@
         <v>[User_login-120]</v>
       </c>
       <c r="B130" s="220" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C130" s="228"/>
       <c r="D130" s="228"/>
@@ -30096,13 +30098,13 @@
         <v>[User_login-121]</v>
       </c>
       <c r="B131" s="174" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C131" s="166" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D131" s="117" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E131" s="163"/>
       <c r="F131" s="117" t="s">
@@ -30123,13 +30125,13 @@
         <v>[User_login-122]</v>
       </c>
       <c r="B132" s="174" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C132" s="166" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D132" s="117" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E132" s="163"/>
       <c r="F132" s="117" t="s">
@@ -30150,13 +30152,13 @@
         <v>[User_login-123]</v>
       </c>
       <c r="B133" s="117" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C133" s="117" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D133" s="117" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E133" s="163"/>
       <c r="F133" s="117" t="s">
@@ -30177,13 +30179,13 @@
         <v>[User_login-124]</v>
       </c>
       <c r="B134" s="117" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C134" s="117" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D134" s="117" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E134" s="163"/>
       <c r="F134" s="117" t="s">
@@ -30204,13 +30206,13 @@
         <v>[User_login-125]</v>
       </c>
       <c r="B135" s="117" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C135" s="117" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D135" s="117" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E135" s="163"/>
       <c r="F135" s="117" t="s">
@@ -30231,13 +30233,13 @@
         <v>[User_login-126]</v>
       </c>
       <c r="B136" s="117" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C136" s="117" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D136" s="117" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E136" s="163"/>
       <c r="F136" s="117" t="s">
@@ -30258,13 +30260,13 @@
         <v>[User_login-127]</v>
       </c>
       <c r="B137" s="117" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C137" s="117" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D137" s="117" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E137" s="163"/>
       <c r="F137" s="117" t="s">
@@ -30285,13 +30287,13 @@
         <v>[User_login-128]</v>
       </c>
       <c r="B138" s="117" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C138" s="117" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D138" s="117" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E138" s="163"/>
       <c r="F138" s="117" t="s">
@@ -30312,13 +30314,13 @@
         <v>[User_login-129]</v>
       </c>
       <c r="B139" s="117" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C139" s="117" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D139" s="117" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E139" s="163"/>
       <c r="F139" s="117" t="s">
@@ -30339,13 +30341,13 @@
         <v>[User_login-130]</v>
       </c>
       <c r="B140" s="117" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C140" s="117" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D140" s="117" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E140" s="163"/>
       <c r="F140" s="117" t="s">
@@ -30366,13 +30368,13 @@
         <v>[User_login-131]</v>
       </c>
       <c r="B141" s="117" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C141" s="117" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D141" s="117" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E141" s="163"/>
       <c r="F141" s="117" t="s">
@@ -30393,13 +30395,13 @@
         <v>[User_login-132]</v>
       </c>
       <c r="B142" s="117" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C142" s="117" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D142" s="117" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E142" s="176"/>
       <c r="F142" s="117" t="s">
@@ -30417,7 +30419,7 @@
     <row r="143" spans="1:10" ht="14.25" customHeight="1">
       <c r="A143" s="61"/>
       <c r="B143" s="220" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C143" s="228"/>
       <c r="D143" s="228"/>
@@ -30434,13 +30436,13 @@
         <v>[User_login-134]</v>
       </c>
       <c r="B144" s="174" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C144" s="117" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D144" s="117" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E144" s="163"/>
       <c r="F144" s="117" t="s">
@@ -30461,13 +30463,13 @@
         <v>[User_login-135]</v>
       </c>
       <c r="B145" s="174" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C145" s="117" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D145" s="117" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E145" s="163"/>
       <c r="F145" s="117" t="s">
@@ -30488,13 +30490,13 @@
         <v>[User_login-136]</v>
       </c>
       <c r="B146" s="174" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C146" s="117" t="s">
+        <v>490</v>
+      </c>
+      <c r="D146" s="117" t="s">
         <v>495</v>
-      </c>
-      <c r="D146" s="117" t="s">
-        <v>500</v>
       </c>
       <c r="E146" s="163"/>
       <c r="F146" s="117" t="s">
@@ -30515,13 +30517,13 @@
         <v>[User_login-137]</v>
       </c>
       <c r="B147" s="174" t="s">
+        <v>496</v>
+      </c>
+      <c r="C147" s="117" t="s">
+        <v>497</v>
+      </c>
+      <c r="D147" s="117" t="s">
         <v>501</v>
-      </c>
-      <c r="C147" s="117" t="s">
-        <v>502</v>
-      </c>
-      <c r="D147" s="117" t="s">
-        <v>506</v>
       </c>
       <c r="E147" s="163"/>
       <c r="F147" s="117" t="s">
@@ -30542,13 +30544,13 @@
         <v>[User_login-138]</v>
       </c>
       <c r="B148" s="174" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C148" s="117" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D148" s="117" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E148" s="163"/>
       <c r="F148" s="117" t="s">
@@ -30566,7 +30568,7 @@
     <row r="149" spans="1:16" ht="14.25" customHeight="1">
       <c r="A149" s="61"/>
       <c r="B149" s="220" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C149" s="228"/>
       <c r="D149" s="228"/>
@@ -30583,13 +30585,13 @@
         <v>[User_login-140]</v>
       </c>
       <c r="B150" s="174" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C150" s="117" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D150" s="117" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E150" s="118"/>
       <c r="F150" s="117" t="s">
@@ -30610,13 +30612,13 @@
         <v>[User_login-141]</v>
       </c>
       <c r="B151" s="174" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C151" s="117" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="D151" s="117" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E151" s="118"/>
       <c r="F151" s="117" t="s">
@@ -30637,13 +30639,13 @@
         <v>[User_login-142]</v>
       </c>
       <c r="B152" s="174" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C152" s="117" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="D152" s="117" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E152" s="118"/>
       <c r="F152" s="117" t="s">
@@ -30664,13 +30666,13 @@
         <v>[User_login-143]</v>
       </c>
       <c r="B153" s="174" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C153" s="117" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="D153" s="117" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E153" s="118"/>
       <c r="F153" s="117" t="s">
@@ -30691,13 +30693,13 @@
         <v>[User_login-144]</v>
       </c>
       <c r="B154" s="174" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C154" s="117" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="D154" s="117" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E154" s="118"/>
       <c r="F154" s="117" t="s">
@@ -30718,13 +30720,13 @@
         <v>[User_login-145]</v>
       </c>
       <c r="B155" s="240" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C155" s="117" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="D155" s="117" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E155" s="118"/>
       <c r="F155" s="117" t="s">
@@ -30794,20 +30796,20 @@
         <v>ID-137</v>
       </c>
       <c r="B159" s="117" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C159" s="117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D159" s="117" t="s">
         <v>135</v>
       </c>
       <c r="E159" s="117"/>
       <c r="F159" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G159" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H159" s="112">
         <v>42412</v>
@@ -30823,17 +30825,17 @@
         <v>169</v>
       </c>
       <c r="C160" s="117" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D160" s="117" t="s">
         <v>135</v>
       </c>
       <c r="E160" s="117"/>
       <c r="F160" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G160" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H160" s="112">
         <v>42412</v>
@@ -30855,17 +30857,17 @@
         <v>170</v>
       </c>
       <c r="C161" s="117" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D161" s="117" t="s">
         <v>135</v>
       </c>
       <c r="E161" s="117"/>
       <c r="F161" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G161" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H161" s="112">
         <v>42412</v>
@@ -30884,20 +30886,20 @@
         <v>ID-140</v>
       </c>
       <c r="B162" s="117" t="s">
+        <v>304</v>
+      </c>
+      <c r="C162" s="117" t="s">
         <v>305</v>
-      </c>
-      <c r="C162" s="117" t="s">
-        <v>306</v>
       </c>
       <c r="D162" s="117" t="s">
         <v>135</v>
       </c>
       <c r="E162" s="117"/>
       <c r="F162" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G162" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H162" s="112">
         <v>42412</v>
@@ -30914,6 +30916,12 @@
       <c r="B163" s="172" t="s">
         <v>136</v>
       </c>
+      <c r="F163" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G163" s="117" t="s">
+        <v>22</v>
+      </c>
       <c r="H163" s="112"/>
       <c r="K163" s="192"/>
       <c r="L163" s="192"/>
@@ -30938,10 +30946,10 @@
       </c>
       <c r="E164" s="117"/>
       <c r="F164" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G164" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H164" s="112">
         <v>42412</v>
@@ -30970,10 +30978,10 @@
       </c>
       <c r="E165" s="117"/>
       <c r="F165" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G165" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H165" s="112">
         <v>42412</v>
@@ -31002,10 +31010,10 @@
       </c>
       <c r="E166" s="117"/>
       <c r="F166" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G166" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H166" s="112">
         <v>42412</v>
@@ -31034,10 +31042,10 @@
       </c>
       <c r="E167" s="117"/>
       <c r="F167" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G167" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H167" s="112">
         <v>42412</v>
@@ -31066,10 +31074,10 @@
       </c>
       <c r="E168" s="117"/>
       <c r="F168" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G168" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H168" s="112">
         <v>42412</v>
@@ -31098,10 +31106,10 @@
       </c>
       <c r="E169" s="117"/>
       <c r="F169" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G169" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H169" s="112">
         <v>42412</v>
@@ -31120,20 +31128,20 @@
         <v>ID-147</v>
       </c>
       <c r="B170" s="117" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C170" s="117" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="D170" s="117" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="E170" s="117"/>
       <c r="F170" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G170" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H170" s="112">
         <v>42412</v>
@@ -31162,10 +31170,10 @@
       </c>
       <c r="E171" s="117"/>
       <c r="F171" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G171" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H171" s="112">
         <v>42412</v>
@@ -31194,10 +31202,10 @@
       </c>
       <c r="E172" s="117"/>
       <c r="F172" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G172" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H172" s="112">
         <v>42412</v>
@@ -31226,10 +31234,10 @@
       </c>
       <c r="E173" s="117"/>
       <c r="F173" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G173" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H173" s="112">
         <v>42412</v>
@@ -31258,10 +31266,10 @@
       </c>
       <c r="E174" s="117"/>
       <c r="F174" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G174" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H174" s="112">
         <v>42412</v>
@@ -31290,10 +31298,10 @@
       </c>
       <c r="E175" s="117"/>
       <c r="F175" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G175" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H175" s="112">
         <v>42412</v>
@@ -31322,10 +31330,10 @@
       </c>
       <c r="E176" s="117"/>
       <c r="F176" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="G176" s="117" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
       <c r="H176" s="112">
         <v>42412</v>
@@ -31352,7 +31360,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G177:G65407 F109:F117 F63:G65 F80:F85 F150:F155 F131:F142 F67:F76 F12:F20 F53:G61 F144:F148 F22:F51 G11:G51 F119:F129 F87:F94 G68:G76 F78:G78 F96:F107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 F109:F117 F63:G65 F80:F85 F150:F155 F131:F142 F67:F76 F12:F20 F53:G61 F144:F148 F22:F51 G11:G51 F119:F129 F87:F94 G68:G76 F78:G78 F96:F107 F159:F176 G159:G65407">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G109:G117 G131:G142 G67 G80:G85 G144:G148 G119:G129 G87:G94 G96:G107">
@@ -31362,7 +31370,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G150:G155 F156:G156">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WLE164:WLL176 WBI164:WBP176 VRM164:VRT176 VHQ164:VHX176 UXU164:UYB176 UNY164:UOF176 UEC164:UEJ176 TUG164:TUN176 TKK164:TKR176 TAO164:TAV176 SQS164:SQZ176 SGW164:SHD176 RXA164:RXH176 RNE164:RNL176 RDI164:RDP176 QTM164:QTT176 QJQ164:QJX176 PZU164:QAB176 PPY164:PQF176 PGC164:PGJ176 OWG164:OWN176 OMK164:OMR176 OCO164:OCV176 NSS164:NSZ176 NIW164:NJD176 MZA164:MZH176 MPE164:MPL176 MFI164:MFP176 LVM164:LVT176 LLQ164:LLX176 LBU164:LCB176 KRY164:KSF176 KIC164:KIJ176 JYG164:JYN176 JOK164:JOR176 JEO164:JEV176 IUS164:IUZ176 IKW164:ILD176 IBA164:IBH176 HRE164:HRL176 HHI164:HHP176 GXM164:GXT176 GNQ164:GNX176 GDU164:GEB176 FTY164:FUF176 FKC164:FKJ176 FAG164:FAN176 EQK164:EQR176 EGO164:EGV176 DWS164:DWZ176 DMW164:DND176 DDA164:DDH176 CTE164:CTL176 CJI164:CJP176 BZM164:BZT176 BPQ164:BPX176 BFU164:BGB176 AVY164:AWF176 AMC164:AMJ176 ACG164:ACN176 SK164:SR176 IO164:IV176 WVA164:WVH176 E164:G176 I164:I176 E159:G162 IO159:IV162 SK159:SR162 ACG159:ACN162 AMC159:AMJ162 AVY159:AWF162 BFU159:BGB162 BPQ159:BPX162 BZM159:BZT162 CJI159:CJP162 CTE159:CTL162 DDA159:DDH162 DMW159:DND162 DWS159:DWZ162 EGO159:EGV162 EQK159:EQR162 FAG159:FAN162 FKC159:FKJ162 FTY159:FUF162 GDU159:GEB162 GNQ159:GNX162 GXM159:GXT162 HHI159:HHP162 HRE159:HRL162 IBA159:IBH162 IKW159:ILD162 IUS159:IUZ162 JEO159:JEV162 JOK159:JOR162 JYG159:JYN162 KIC159:KIJ162 KRY159:KSF162 LBU159:LCB162 LLQ159:LLX162 LVM159:LVT162 MFI159:MFP162 MPE159:MPL162 MZA159:MZH162 NIW159:NJD162 NSS159:NSZ162 OCO159:OCV162 OMK159:OMR162 OWG159:OWN162 PGC159:PGJ162 PPY159:PQF162 PZU159:QAB162 QJQ159:QJX162 QTM159:QTT162 RDI159:RDP162 RNE159:RNL162 RXA159:RXH162 SGW159:SHD162 SQS159:SQZ162 TAO159:TAV162 TKK159:TKR162 TUG159:TUN162 UEC159:UEJ162 UNY159:UOF162 UXU159:UYB162 VHQ159:VHX162 VRM159:VRT162 WBI159:WBP162 WLE159:WLL162 WVA159:WVH162 IY157:IY176 SU157:SU176 ACQ157:ACQ176 AMM157:AMM176 AWI157:AWI176 BGE157:BGE176 BQA157:BQA176 BZW157:BZW176 CJS157:CJS176 CTO157:CTO176 DDK157:DDK176 DNG157:DNG176 DXC157:DXC176 EGY157:EGY176 EQU157:EQU176 FAQ157:FAQ176 FKM157:FKM176 FUI157:FUI176 GEE157:GEE176 GOA157:GOA176 GXW157:GXW176 HHS157:HHS176 HRO157:HRO176 IBK157:IBK176 ILG157:ILG176 IVC157:IVC176 JEY157:JEY176 JOU157:JOU176 JYQ157:JYQ176 KIM157:KIM176 KSI157:KSI176 LCE157:LCE176 LMA157:LMA176 LVW157:LVW176 MFS157:MFS176 MPO157:MPO176 MZK157:MZK176 NJG157:NJG176 NTC157:NTC176 OCY157:OCY176 OMU157:OMU176 OWQ157:OWQ176 PGM157:PGM176 PQI157:PQI176 QAE157:QAE176 QKA157:QKA176 QTW157:QTW176 RDS157:RDS176 RNO157:RNO176 RXK157:RXK176 SHG157:SHG176 SRC157:SRC176 TAY157:TAY176 TKU157:TKU176 TUQ157:TUQ176 UEM157:UEM176 UOI157:UOI176 UYE157:UYE176 VIA157:VIA176 VRW157:VRW176 WBS157:WBS176 WLO157:WLO176 WVK157:WVK176 I159:I162">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WLE164:WLL176 WBI164:WBP176 VRM164:VRT176 VHQ164:VHX176 UXU164:UYB176 UNY164:UOF176 UEC164:UEJ176 TUG164:TUN176 TKK164:TKR176 TAO164:TAV176 SQS164:SQZ176 SGW164:SHD176 RXA164:RXH176 RNE164:RNL176 RDI164:RDP176 QTM164:QTT176 QJQ164:QJX176 PZU164:QAB176 PPY164:PQF176 PGC164:PGJ176 OWG164:OWN176 OMK164:OMR176 OCO164:OCV176 NSS164:NSZ176 NIW164:NJD176 MZA164:MZH176 MPE164:MPL176 MFI164:MFP176 LVM164:LVT176 LLQ164:LLX176 LBU164:LCB176 KRY164:KSF176 KIC164:KIJ176 JYG164:JYN176 JOK164:JOR176 JEO164:JEV176 IUS164:IUZ176 IKW164:ILD176 IBA164:IBH176 HRE164:HRL176 HHI164:HHP176 GXM164:GXT176 GNQ164:GNX176 GDU164:GEB176 FTY164:FUF176 FKC164:FKJ176 FAG164:FAN176 EQK164:EQR176 EGO164:EGV176 DWS164:DWZ176 DMW164:DND176 DDA164:DDH176 CTE164:CTL176 CJI164:CJP176 BZM164:BZT176 BPQ164:BPX176 BFU164:BGB176 AVY164:AWF176 AMC164:AMJ176 ACG164:ACN176 SK164:SR176 IO164:IV176 WVA164:WVH176 E159:E162 I164:I176 I159:I162 IO159:IV162 SK159:SR162 ACG159:ACN162 AMC159:AMJ162 AVY159:AWF162 BFU159:BGB162 BPQ159:BPX162 BZM159:BZT162 CJI159:CJP162 CTE159:CTL162 DDA159:DDH162 DMW159:DND162 DWS159:DWZ162 EGO159:EGV162 EQK159:EQR162 FAG159:FAN162 FKC159:FKJ162 FTY159:FUF162 GDU159:GEB162 GNQ159:GNX162 GXM159:GXT162 HHI159:HHP162 HRE159:HRL162 IBA159:IBH162 IKW159:ILD162 IUS159:IUZ162 JEO159:JEV162 JOK159:JOR162 JYG159:JYN162 KIC159:KIJ162 KRY159:KSF162 LBU159:LCB162 LLQ159:LLX162 LVM159:LVT162 MFI159:MFP162 MPE159:MPL162 MZA159:MZH162 NIW159:NJD162 NSS159:NSZ162 OCO159:OCV162 OMK159:OMR162 OWG159:OWN162 PGC159:PGJ162 PPY159:PQF162 PZU159:QAB162 QJQ159:QJX162 QTM159:QTT162 RDI159:RDP162 RNE159:RNL162 RXA159:RXH162 SGW159:SHD162 SQS159:SQZ162 TAO159:TAV162 TKK159:TKR162 TUG159:TUN162 UEC159:UEJ162 UNY159:UOF162 UXU159:UYB162 VHQ159:VHX162 VRM159:VRT162 WBI159:WBP162 WLE159:WLL162 WVA159:WVH162 IY157:IY176 SU157:SU176 ACQ157:ACQ176 AMM157:AMM176 AWI157:AWI176 BGE157:BGE176 BQA157:BQA176 BZW157:BZW176 CJS157:CJS176 CTO157:CTO176 DDK157:DDK176 DNG157:DNG176 DXC157:DXC176 EGY157:EGY176 EQU157:EQU176 FAQ157:FAQ176 FKM157:FKM176 FUI157:FUI176 GEE157:GEE176 GOA157:GOA176 GXW157:GXW176 HHS157:HHS176 HRO157:HRO176 IBK157:IBK176 ILG157:ILG176 IVC157:IVC176 JEY157:JEY176 JOU157:JOU176 JYQ157:JYQ176 KIM157:KIM176 KSI157:KSI176 LCE157:LCE176 LMA157:LMA176 LVW157:LVW176 MFS157:MFS176 MPO157:MPO176 MZK157:MZK176 NJG157:NJG176 NTC157:NTC176 OCY157:OCY176 OMU157:OMU176 OWQ157:OWQ176 PGM157:PGM176 PQI157:PQI176 QAE157:QAE176 QKA157:QKA176 QTW157:QTW176 RDS157:RDS176 RNO157:RNO176 RXK157:RXK176 SHG157:SHG176 SRC157:SRC176 TAY157:TAY176 TKU157:TKU176 TUQ157:TUQ176 UEM157:UEM176 UOI157:UOI176 UYE157:UYE176 VIA157:VIA176 VRW157:VRW176 WBS157:WBS176 WLO157:WLO176 WVK157:WVK176 E164:E176">
       <formula1>"OK,NG,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J63:J65 J68:J76">
@@ -31382,8 +31390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -31419,14 +31427,14 @@
       <c r="A2" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="254" t="s">
+      <c r="B2" s="255" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
       <c r="J2" s="95" t="s">
         <v>22</v>
       </c>
@@ -31435,14 +31443,14 @@
       <c r="A3" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="254" t="s">
+      <c r="B3" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
       <c r="J3" s="95" t="s">
         <v>24</v>
       </c>
@@ -31451,14 +31459,14 @@
       <c r="A4" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="256" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="255"/>
-      <c r="D4" s="255"/>
-      <c r="E4" s="255"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="255"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
       <c r="J4" s="96"/>
     </row>
     <row r="5" spans="1:10" s="137" customFormat="1" ht="14.25">
@@ -31474,11 +31482,11 @@
       <c r="D5" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="259" t="s">
+      <c r="E5" s="260" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="259"/>
-      <c r="G5" s="259"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
       <c r="J5" s="95" t="s">
         <v>29</v>
       </c>
@@ -31486,7 +31494,7 @@
     <row r="6" spans="1:10" s="137" customFormat="1" ht="15" thickBot="1">
       <c r="A6" s="130">
         <f>COUNTIF(F11:G314,"Pass")</f>
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B6" s="101">
         <f>COUNTIF(F11:G761,"Fail")</f>
@@ -31494,18 +31502,18 @@
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="D6" s="102">
         <f>COUNTIF(F11:G761,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="257">
+      <c r="E6" s="258">
         <f>COUNTA(A11:A318)*2</f>
-        <v>132</v>
-      </c>
-      <c r="F6" s="257"/>
-      <c r="G6" s="257"/>
+        <v>128</v>
+      </c>
+      <c r="F6" s="258"/>
+      <c r="G6" s="258"/>
       <c r="J6" s="95" t="s">
         <v>27</v>
       </c>
@@ -31562,16 +31570,16 @@
     </row>
     <row r="11" spans="1:10" s="137" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="177"/>
-      <c r="B11" s="258" t="s">
+      <c r="B11" s="259" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="258"/>
-      <c r="D11" s="258"/>
-      <c r="E11" s="258"/>
-      <c r="F11" s="258"/>
-      <c r="G11" s="258"/>
-      <c r="H11" s="258"/>
-      <c r="I11" s="258"/>
+      <c r="C11" s="259"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="259"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="259"/>
     </row>
     <row r="12" spans="1:10" s="111" customFormat="1" ht="48.75" customHeight="1">
       <c r="A12" s="134" t="str">
@@ -31582,10 +31590,10 @@
         <v>60</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E12" s="178"/>
       <c r="F12" s="117" t="s">
@@ -31594,7 +31602,7 @@
       <c r="G12" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="260">
+      <c r="H12" s="242">
         <v>42412</v>
       </c>
       <c r="I12" s="179"/>
@@ -31605,13 +31613,13 @@
         <v>[Admin_login-3]</v>
       </c>
       <c r="B13" s="117" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E13" s="180"/>
       <c r="F13" s="117" t="s">
@@ -31620,7 +31628,7 @@
       <c r="G13" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="260">
+      <c r="H13" s="242">
         <v>42412</v>
       </c>
       <c r="I13" s="181"/>
@@ -31631,13 +31639,13 @@
         <v>[Admin_login-4]</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E14" s="180"/>
       <c r="F14" s="117" t="s">
@@ -31646,7 +31654,7 @@
       <c r="G14" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="260">
+      <c r="H14" s="242">
         <v>42412</v>
       </c>
       <c r="I14" s="181"/>
@@ -31657,13 +31665,13 @@
         <v>[Admin_login-5]</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E15" s="180"/>
       <c r="F15" s="117" t="s">
@@ -31672,7 +31680,7 @@
       <c r="G15" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="260">
+      <c r="H15" s="242">
         <v>42412</v>
       </c>
       <c r="I15" s="181"/>
@@ -31683,13 +31691,13 @@
         <v>[Admin_login-6]</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C16" s="121" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E16" s="180"/>
       <c r="F16" s="117" t="s">
@@ -31698,7 +31706,7 @@
       <c r="G16" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="260">
+      <c r="H16" s="242">
         <v>42412</v>
       </c>
       <c r="I16" s="181"/>
@@ -31709,13 +31717,13 @@
         <v>[Admin_login-7]</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C17" s="123" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E17" s="180"/>
       <c r="F17" s="117" t="s">
@@ -31724,7 +31732,7 @@
       <c r="G17" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="260">
+      <c r="H17" s="242">
         <v>42412</v>
       </c>
       <c r="I17" s="181"/>
@@ -31735,13 +31743,13 @@
         <v>[Admin_login-8]</v>
       </c>
       <c r="B18" s="214" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C18" s="214" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E18" s="180"/>
       <c r="F18" s="117" t="s">
@@ -31750,7 +31758,7 @@
       <c r="G18" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="260">
+      <c r="H18" s="242">
         <v>42412</v>
       </c>
       <c r="I18" s="181"/>
@@ -31761,13 +31769,13 @@
         <v>[Admin_login-9]</v>
       </c>
       <c r="B19" s="214" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C19" s="214" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E19" s="180"/>
       <c r="F19" s="117" t="s">
@@ -31776,7 +31784,7 @@
       <c r="G19" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="260">
+      <c r="H19" s="242">
         <v>42412</v>
       </c>
       <c r="I19" s="181"/>
@@ -31787,13 +31795,13 @@
         <v>[Admin_login-10]</v>
       </c>
       <c r="B20" s="214" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C20" s="214" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E20" s="180"/>
       <c r="F20" s="117" t="s">
@@ -31802,7 +31810,7 @@
       <c r="G20" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="260">
+      <c r="H20" s="242">
         <v>42412</v>
       </c>
       <c r="I20" s="182"/>
@@ -31811,14 +31819,14 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="183"/>
       <c r="B21" s="184" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C21" s="183"/>
       <c r="D21" s="183"/>
       <c r="E21" s="183"/>
       <c r="F21" s="183"/>
       <c r="G21" s="183"/>
-      <c r="H21" s="260">
+      <c r="H21" s="242">
         <v>42412</v>
       </c>
       <c r="I21" s="185"/>
@@ -31830,16 +31838,16 @@
         <v>[Admin_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="E22" s="186" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F22" s="117" t="s">
         <v>22</v>
@@ -31847,7 +31855,7 @@
       <c r="G22" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="260">
+      <c r="H22" s="242">
         <v>42412</v>
       </c>
       <c r="I22" s="182"/>
@@ -31859,16 +31867,16 @@
         <v>[Admin_login-13]</v>
       </c>
       <c r="B23" s="117" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" s="117" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" s="187" t="s">
         <v>338</v>
       </c>
-      <c r="C23" s="117" t="s">
-        <v>344</v>
-      </c>
-      <c r="D23" s="187" t="s">
-        <v>339</v>
-      </c>
       <c r="E23" s="186" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F23" s="117" t="s">
         <v>22</v>
@@ -31876,7 +31884,7 @@
       <c r="G23" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="260">
+      <c r="H23" s="242">
         <v>42412</v>
       </c>
       <c r="I23" s="182"/>
@@ -31888,24 +31896,24 @@
         <v>[Admin_login-14]</v>
       </c>
       <c r="B24" s="117" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="117" t="s">
+        <v>344</v>
+      </c>
+      <c r="D24" s="187" t="s">
         <v>340</v>
       </c>
-      <c r="C24" s="117" t="s">
-        <v>345</v>
-      </c>
-      <c r="D24" s="187" t="s">
+      <c r="E24" s="186" t="s">
         <v>341</v>
       </c>
-      <c r="E24" s="186" t="s">
-        <v>342</v>
-      </c>
       <c r="F24" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="260">
+      <c r="H24" s="242">
         <v>42412</v>
       </c>
       <c r="I24" s="182"/>
@@ -31914,14 +31922,14 @@
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
       <c r="A25" s="183"/>
       <c r="B25" s="184" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C25" s="183"/>
       <c r="D25" s="183"/>
       <c r="E25" s="183"/>
       <c r="F25" s="183"/>
       <c r="G25" s="183"/>
-      <c r="H25" s="260"/>
+      <c r="H25" s="242"/>
       <c r="I25" s="185"/>
       <c r="J25" s="105"/>
     </row>
@@ -31931,18 +31939,22 @@
         <v>[Admin_login-16]</v>
       </c>
       <c r="B26" s="117" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C26" s="117" t="s">
-        <v>351</v>
+        <v>721</v>
       </c>
       <c r="D26" s="187" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="E26" s="186"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="260">
+      <c r="F26" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="242">
         <v>42412</v>
       </c>
       <c r="I26" s="117"/>
@@ -31954,18 +31966,22 @@
         <v>[Admin_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>352</v>
+        <v>723</v>
       </c>
       <c r="D27" s="187" t="s">
-        <v>348</v>
+        <v>724</v>
       </c>
       <c r="E27" s="186"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="260">
+      <c r="F27" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="242">
         <v>42412</v>
       </c>
       <c r="I27" s="117"/>
@@ -31977,18 +31993,22 @@
         <v>[Admin_login-18]</v>
       </c>
       <c r="B28" s="117" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C28" s="117" t="s">
-        <v>353</v>
+        <v>725</v>
       </c>
       <c r="D28" s="187" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E28" s="186"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="260">
+      <c r="F28" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="242">
         <v>42412</v>
       </c>
       <c r="I28" s="182"/>
@@ -32000,18 +32020,22 @@
         <v>[Admin_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D29" s="187" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E29" s="186"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="260">
+      <c r="F29" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="242">
         <v>42412</v>
       </c>
       <c r="I29" s="182"/>
@@ -32023,60 +32047,63 @@
         <v>[Admin_login-20]</v>
       </c>
       <c r="B30" s="117" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C30" s="117" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D30" s="187" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E30" s="186"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="260">
+      <c r="F30" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="242">
         <v>42412</v>
       </c>
       <c r="I30" s="182"/>
       <c r="J30" s="105"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A31" s="165" t="str">
-        <f t="shared" ref="A31:A40" si="5">IF(OR(B31&lt;&gt;"",D31&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin_login-21]</v>
-      </c>
+      <c r="A31" s="165"/>
       <c r="B31" s="184" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C31" s="183"/>
       <c r="D31" s="183"/>
       <c r="E31" s="183"/>
       <c r="F31" s="183"/>
       <c r="G31" s="183"/>
-      <c r="H31" s="260">
-        <v>42412</v>
-      </c>
+      <c r="H31" s="242"/>
       <c r="I31" s="185"/>
       <c r="J31" s="105"/>
     </row>
     <row r="32" spans="1:10" ht="63" customHeight="1">
       <c r="A32" s="165" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A32:A40" si="5">IF(OR(B32&lt;&gt;"",D32&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-22]</v>
       </c>
       <c r="B32" s="117" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C32" s="117" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D32" s="187" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E32" s="186"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="260">
+      <c r="F32" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="242">
         <v>42412</v>
       </c>
       <c r="I32" s="188"/>
@@ -32088,18 +32115,22 @@
         <v>[Admin_login-23]</v>
       </c>
       <c r="B33" s="117" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C33" s="117" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D33" s="187" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E33" s="186"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="260">
+      <c r="F33" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="242">
         <v>42412</v>
       </c>
       <c r="I33" s="188"/>
@@ -32111,18 +32142,22 @@
         <v>[Admin_login-24]</v>
       </c>
       <c r="B34" s="117" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C34" s="117" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D34" s="187" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E34" s="186"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="260">
+      <c r="F34" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="242">
         <v>42412</v>
       </c>
       <c r="I34" s="188"/>
@@ -32134,18 +32169,22 @@
         <v>[Admin_login-25]</v>
       </c>
       <c r="B35" s="117" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C35" s="117" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D35" s="187" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E35" s="186"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="260">
+      <c r="F35" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="242">
         <v>42412</v>
       </c>
       <c r="I35" s="188"/>
@@ -32157,18 +32196,22 @@
         <v>[Admin_login-26]</v>
       </c>
       <c r="B36" s="117" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C36" s="117" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D36" s="187" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E36" s="186"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="260">
+      <c r="F36" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="242">
         <v>42412</v>
       </c>
       <c r="I36" s="188"/>
@@ -32180,18 +32223,22 @@
         <v>[Admin_login-27]</v>
       </c>
       <c r="B37" s="117" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C37" s="117" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D37" s="187" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E37" s="186"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="260">
+      <c r="F37" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="242">
         <v>42412</v>
       </c>
       <c r="I37" s="188"/>
@@ -32203,18 +32250,22 @@
         <v>[Admin_login-28]</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C38" s="117" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D38" s="187" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E38" s="186"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="260">
+      <c r="F38" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="242">
         <v>42412</v>
       </c>
       <c r="I38" s="188"/>
@@ -32226,18 +32277,22 @@
         <v>[Admin_login-29]</v>
       </c>
       <c r="B39" s="117" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C39" s="117" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D39" s="187" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E39" s="186"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="260">
+      <c r="F39" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="242">
         <v>42412</v>
       </c>
       <c r="I39" s="188"/>
@@ -32249,60 +32304,63 @@
         <v>[Admin_login-30]</v>
       </c>
       <c r="B40" s="117" t="s">
+        <v>516</v>
+      </c>
+      <c r="C40" s="117" t="s">
+        <v>517</v>
+      </c>
+      <c r="D40" s="187" t="s">
         <v>521</v>
       </c>
-      <c r="C40" s="117" t="s">
-        <v>522</v>
-      </c>
-      <c r="D40" s="187" t="s">
-        <v>526</v>
-      </c>
       <c r="E40" s="186"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="260">
+      <c r="F40" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="242">
         <v>42412</v>
       </c>
       <c r="I40" s="188"/>
       <c r="J40" s="105"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A41" s="165" t="str">
-        <f t="shared" ref="A41" si="7">IF(OR(B41&lt;&gt;"",D41&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin_login-31]</v>
-      </c>
+      <c r="A41" s="165"/>
       <c r="B41" s="184" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C41" s="183"/>
       <c r="D41" s="183"/>
       <c r="E41" s="183"/>
       <c r="F41" s="183"/>
       <c r="G41" s="183"/>
-      <c r="H41" s="260">
-        <v>42412</v>
-      </c>
+      <c r="H41" s="242"/>
       <c r="I41" s="185"/>
       <c r="J41" s="105"/>
     </row>
     <row r="42" spans="1:10" ht="51">
       <c r="A42" s="165" t="str">
-        <f t="shared" ref="A42:A52" si="8">IF(OR(B42&lt;&gt;"",D42&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A42:A52" si="7">IF(OR(B42&lt;&gt;"",D42&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-32]</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C42" s="117" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D42" s="187" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E42" s="186"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="260">
+      <c r="F42" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="242">
         <v>42412</v>
       </c>
       <c r="I42" s="125"/>
@@ -32310,22 +32368,26 @@
     </row>
     <row r="43" spans="1:10" ht="63.75">
       <c r="A43" s="165" t="str">
-        <f t="shared" ref="A43" si="9">IF(OR(B43&lt;&gt;"",D43&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A43" si="8">IF(OR(B43&lt;&gt;"",D43&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-33]</v>
       </c>
       <c r="B43" s="117" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C43" s="117" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D43" s="187" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E43" s="186"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="260">
+      <c r="F43" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="242">
         <v>42412</v>
       </c>
       <c r="I43" s="125"/>
@@ -32333,22 +32395,26 @@
     </row>
     <row r="44" spans="1:10" ht="63.75">
       <c r="A44" s="165" t="str">
-        <f t="shared" ref="A44" si="10">IF(OR(B44&lt;&gt;"",D44&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A44" si="9">IF(OR(B44&lt;&gt;"",D44&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-34]</v>
       </c>
       <c r="B44" s="117" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C44" s="117" t="s">
+        <v>539</v>
+      </c>
+      <c r="D44" s="187" t="s">
         <v>544</v>
       </c>
-      <c r="D44" s="187" t="s">
-        <v>549</v>
-      </c>
       <c r="E44" s="186"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="260">
+      <c r="F44" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="242">
         <v>42412</v>
       </c>
       <c r="I44" s="125"/>
@@ -32356,22 +32422,26 @@
     </row>
     <row r="45" spans="1:10" ht="63.75">
       <c r="A45" s="165" t="str">
-        <f t="shared" ref="A45" si="11">IF(OR(B45&lt;&gt;"",D45&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A45" si="10">IF(OR(B45&lt;&gt;"",D45&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-35]</v>
       </c>
       <c r="B45" s="117" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C45" s="117" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D45" s="187" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E45" s="186"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="260">
+      <c r="F45" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="242">
         <v>42412</v>
       </c>
       <c r="I45" s="125"/>
@@ -32379,22 +32449,26 @@
     </row>
     <row r="46" spans="1:10" ht="76.5">
       <c r="A46" s="165" t="str">
-        <f t="shared" ref="A46" si="12">IF(OR(B46&lt;&gt;"",D46&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A46" si="11">IF(OR(B46&lt;&gt;"",D46&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-36]</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C46" s="117" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D46" s="187" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E46" s="186"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="260">
+      <c r="F46" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="242">
         <v>42412</v>
       </c>
       <c r="I46" s="125"/>
@@ -32402,22 +32476,26 @@
     </row>
     <row r="47" spans="1:10" ht="76.5">
       <c r="A47" s="165" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>[Admin_login-37]</v>
       </c>
       <c r="B47" s="117" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C47" s="117" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D47" s="187" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E47" s="186"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="260">
+      <c r="F47" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="242">
         <v>42412</v>
       </c>
       <c r="I47" s="125"/>
@@ -32425,22 +32503,26 @@
     </row>
     <row r="48" spans="1:10" ht="76.5">
       <c r="A48" s="165" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>[Admin_login-38]</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C48" s="117" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D48" s="187" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E48" s="186"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="186"/>
-      <c r="H48" s="260">
+      <c r="F48" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="242">
         <v>42412</v>
       </c>
       <c r="I48" s="125"/>
@@ -32448,22 +32530,26 @@
     </row>
     <row r="49" spans="1:10" ht="76.5">
       <c r="A49" s="165" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>[Admin_login-39]</v>
       </c>
       <c r="B49" s="117" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C49" s="117" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D49" s="187" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E49" s="186"/>
-      <c r="F49" s="186"/>
-      <c r="G49" s="186"/>
-      <c r="H49" s="260">
+      <c r="F49" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="242">
         <v>42412</v>
       </c>
       <c r="I49" s="186"/>
@@ -32471,22 +32557,26 @@
     </row>
     <row r="50" spans="1:10" ht="76.5">
       <c r="A50" s="165" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>[Admin_login-40]</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D50" s="187" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E50" s="186"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="260">
+      <c r="F50" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="242">
         <v>42412</v>
       </c>
       <c r="I50" s="125"/>
@@ -32494,22 +32584,26 @@
     </row>
     <row r="51" spans="1:10" ht="38.25">
       <c r="A51" s="165" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>[Admin_login-41]</v>
       </c>
       <c r="B51" s="117" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C51" s="117" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D51" s="187" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E51" s="186"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="260">
+      <c r="F51" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="242">
         <v>42412</v>
       </c>
       <c r="I51" s="125"/>
@@ -32517,22 +32611,26 @@
     </row>
     <row r="52" spans="1:10" ht="51">
       <c r="A52" s="165" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>[Admin_login-42]</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C52" s="117" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D52" s="187" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E52" s="186"/>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="260">
+      <c r="F52" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="242">
         <v>42412</v>
       </c>
       <c r="I52" s="125"/>
@@ -32541,37 +32639,39 @@
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
       <c r="A53" s="165"/>
       <c r="B53" s="184" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C53" s="183"/>
       <c r="D53" s="183"/>
       <c r="E53" s="183"/>
       <c r="F53" s="183"/>
       <c r="G53" s="183"/>
-      <c r="H53" s="260">
-        <v>42412</v>
-      </c>
+      <c r="H53" s="242"/>
       <c r="I53" s="185"/>
       <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10" ht="81" customHeight="1">
       <c r="A54" s="165" t="str">
-        <f t="shared" ref="A54:A67" si="13">IF(OR(B54&lt;&gt;"",D54&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A54:A67" si="12">IF(OR(B54&lt;&gt;"",D54&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-44]</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C54" s="117" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D54" s="187" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E54" s="186"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="260">
+      <c r="F54" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="242">
         <v>42412</v>
       </c>
       <c r="I54" s="125"/>
@@ -32579,22 +32679,26 @@
     </row>
     <row r="55" spans="1:10" ht="78" customHeight="1">
       <c r="A55" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>[Admin_login-45]</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C55" s="117" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D55" s="187" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E55" s="186"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="260">
+      <c r="F55" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="242">
         <v>42412</v>
       </c>
       <c r="I55" s="125"/>
@@ -32602,22 +32706,26 @@
     </row>
     <row r="56" spans="1:10" ht="79.5" customHeight="1">
       <c r="A56" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>[Admin_login-46]</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C56" s="117" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D56" s="187" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E56" s="186"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="260">
+      <c r="F56" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="242">
         <v>42412</v>
       </c>
       <c r="I56" s="125"/>
@@ -32625,22 +32733,26 @@
     </row>
     <row r="57" spans="1:10" ht="80.25" customHeight="1">
       <c r="A57" s="165" t="str">
-        <f t="shared" ref="A57" si="14">IF(OR(B57&lt;&gt;"",D57&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A57" si="13">IF(OR(B57&lt;&gt;"",D57&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-47]</v>
       </c>
       <c r="B57" s="117" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C57" s="117" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D57" s="187" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E57" s="186"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="260">
+      <c r="F57" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="242">
         <v>42412</v>
       </c>
       <c r="I57" s="125"/>
@@ -32648,22 +32760,26 @@
     </row>
     <row r="58" spans="1:10" ht="89.25">
       <c r="A58" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>[Admin_login-48]</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C58" s="117" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D58" s="187" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E58" s="186"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="260">
+      <c r="F58" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="242">
         <v>42412</v>
       </c>
       <c r="I58" s="125"/>
@@ -32671,22 +32787,26 @@
     </row>
     <row r="59" spans="1:10" ht="76.5">
       <c r="A59" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>[Admin_login-49]</v>
       </c>
       <c r="B59" s="117" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C59" s="117" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D59" s="187" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E59" s="186"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="260">
+      <c r="F59" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="242">
         <v>42412</v>
       </c>
       <c r="I59" s="125"/>
@@ -32694,22 +32814,26 @@
     </row>
     <row r="60" spans="1:10" ht="89.25">
       <c r="A60" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>[Admin_login-50]</v>
       </c>
       <c r="B60" s="117" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C60" s="117" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D60" s="187" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E60" s="186"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="260">
+      <c r="F60" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="242">
         <v>42412</v>
       </c>
       <c r="I60" s="125"/>
@@ -32717,22 +32841,26 @@
     </row>
     <row r="61" spans="1:10" ht="76.5">
       <c r="A61" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>[Admin_login-51]</v>
       </c>
       <c r="B61" s="117" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C61" s="117" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D61" s="187" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E61" s="186"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="260">
+      <c r="F61" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="242">
         <v>42412</v>
       </c>
       <c r="I61" s="125"/>
@@ -32740,22 +32868,26 @@
     </row>
     <row r="62" spans="1:10" ht="65.25" customHeight="1">
       <c r="A62" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>[Admin_login-52]</v>
       </c>
       <c r="B62" s="117" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C62" s="117" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D62" s="187" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E62" s="186"/>
-      <c r="F62" s="117"/>
-      <c r="G62" s="117"/>
-      <c r="H62" s="260">
+      <c r="F62" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="242">
         <v>42412</v>
       </c>
       <c r="I62" s="125"/>
@@ -32763,22 +32895,26 @@
     </row>
     <row r="63" spans="1:10" ht="73.5" customHeight="1">
       <c r="A63" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>[Admin_login-53]</v>
       </c>
       <c r="B63" s="117" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C63" s="117" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D63" s="187" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E63" s="186"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="117"/>
-      <c r="H63" s="260">
+      <c r="F63" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="242">
         <v>42412</v>
       </c>
       <c r="I63" s="125"/>
@@ -32786,22 +32922,26 @@
     </row>
     <row r="64" spans="1:10" ht="89.25">
       <c r="A64" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>[Admin_login-54]</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C64" s="117" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D64" s="187" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E64" s="186"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="260">
+      <c r="F64" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="242">
         <v>42412</v>
       </c>
       <c r="I64" s="125"/>
@@ -32809,22 +32949,26 @@
     </row>
     <row r="65" spans="1:10" ht="38.25">
       <c r="A65" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>[Admin_login-55]</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C65" s="117" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D65" s="187" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E65" s="168"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="117"/>
-      <c r="H65" s="260">
+      <c r="F65" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="242">
         <v>42412</v>
       </c>
       <c r="I65" s="168"/>
@@ -32832,22 +32976,26 @@
     </row>
     <row r="66" spans="1:10" ht="38.25">
       <c r="A66" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>[Admin_login-56]</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D66" s="187" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E66" s="168"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="117"/>
-      <c r="H66" s="260">
+      <c r="F66" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="242">
         <v>42412</v>
       </c>
       <c r="I66" s="168"/>
@@ -32855,22 +33003,26 @@
     </row>
     <row r="67" spans="1:10" ht="51">
       <c r="A67" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>[Admin_login-57]</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>609</v>
+        <v>726</v>
       </c>
       <c r="C67" s="117" t="s">
-        <v>610</v>
+        <v>727</v>
       </c>
       <c r="D67" s="187" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="E67" s="168"/>
-      <c r="F67" s="117"/>
-      <c r="G67" s="117"/>
-      <c r="H67" s="260">
+      <c r="F67" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="242">
         <v>42412</v>
       </c>
       <c r="I67" s="168"/>
@@ -32878,22 +33030,26 @@
     </row>
     <row r="68" spans="1:10" ht="51">
       <c r="A68" s="165" t="str">
-        <f t="shared" ref="A68:A80" si="15">IF(OR(B68&lt;&gt;"",D68&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A68:A80" si="14">IF(OR(B68&lt;&gt;"",D68&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-58]</v>
       </c>
       <c r="B68" s="117" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C68" s="117" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D68" s="187" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="E68" s="168"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="117"/>
-      <c r="H68" s="260">
+      <c r="F68" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="242">
         <v>42412</v>
       </c>
       <c r="I68" s="168"/>
@@ -32901,22 +33057,26 @@
     </row>
     <row r="69" spans="1:10" ht="38.25">
       <c r="A69" s="165" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>[Admin_login-59]</v>
       </c>
       <c r="B69" s="117" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C69" s="117" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D69" s="187" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E69" s="168"/>
-      <c r="F69" s="117"/>
-      <c r="G69" s="117"/>
-      <c r="H69" s="260">
+      <c r="F69" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="242">
         <v>42412</v>
       </c>
       <c r="I69" s="168"/>
@@ -32924,22 +33084,26 @@
     </row>
     <row r="70" spans="1:10" ht="38.25">
       <c r="A70" s="165" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>[Admin_login-60]</v>
       </c>
       <c r="B70" s="117" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C70" s="117" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D70" s="187" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E70" s="168"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="260">
+      <c r="F70" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="242">
         <v>42412</v>
       </c>
       <c r="I70" s="168"/>
@@ -32947,22 +33111,26 @@
     </row>
     <row r="71" spans="1:10" ht="51">
       <c r="A71" s="165" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>[Admin_login-61]</v>
       </c>
       <c r="B71" s="117" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C71" s="117" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D71" s="187" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E71" s="168"/>
-      <c r="F71" s="117"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="260">
+      <c r="F71" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="242">
         <v>42412</v>
       </c>
       <c r="I71" s="168"/>
@@ -32970,22 +33138,26 @@
     </row>
     <row r="72" spans="1:10" ht="51">
       <c r="A72" s="165" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>[Admin_login-62]</v>
       </c>
       <c r="B72" s="117" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C72" s="117" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D72" s="187" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E72" s="168"/>
-      <c r="F72" s="117"/>
-      <c r="G72" s="117"/>
-      <c r="H72" s="260">
+      <c r="F72" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="242">
         <v>42412</v>
       </c>
       <c r="I72" s="168"/>
@@ -32993,22 +33165,26 @@
     </row>
     <row r="73" spans="1:10" ht="38.25">
       <c r="A73" s="165" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>[Admin_login-63]</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C73" s="117" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D73" s="187" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E73" s="168"/>
-      <c r="F73" s="117"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="260">
+      <c r="F73" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="242">
         <v>42412</v>
       </c>
       <c r="I73" s="168"/>
@@ -33016,22 +33192,26 @@
     </row>
     <row r="74" spans="1:10" ht="38.25">
       <c r="A74" s="165" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>[Admin_login-64]</v>
       </c>
       <c r="B74" s="117" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C74" s="117" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D74" s="187" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E74" s="168"/>
-      <c r="F74" s="117"/>
-      <c r="G74" s="117"/>
-      <c r="H74" s="260">
+      <c r="F74" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="242">
         <v>42412</v>
       </c>
       <c r="I74" s="168"/>
@@ -33039,22 +33219,26 @@
     </row>
     <row r="75" spans="1:10" ht="51">
       <c r="A75" s="165" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>[Admin_login-65]</v>
       </c>
       <c r="B75" s="117" t="s">
+        <v>618</v>
+      </c>
+      <c r="C75" s="117" t="s">
+        <v>621</v>
+      </c>
+      <c r="D75" s="187" t="s">
         <v>625</v>
       </c>
-      <c r="C75" s="117" t="s">
-        <v>628</v>
-      </c>
-      <c r="D75" s="187" t="s">
-        <v>632</v>
-      </c>
       <c r="E75" s="168"/>
-      <c r="F75" s="117"/>
-      <c r="G75" s="117"/>
-      <c r="H75" s="260">
+      <c r="F75" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="242">
         <v>42412</v>
       </c>
       <c r="I75" s="168"/>
@@ -33062,22 +33246,26 @@
     </row>
     <row r="76" spans="1:10" ht="51">
       <c r="A76" s="165" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>[Admin_login-66]</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C76" s="117" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D76" s="187" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E76" s="168"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="117"/>
-      <c r="H76" s="260">
+      <c r="F76" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="242">
         <v>42412</v>
       </c>
       <c r="I76" s="168"/>
@@ -33085,22 +33273,26 @@
     </row>
     <row r="77" spans="1:10" ht="38.25">
       <c r="A77" s="165" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>[Admin_login-67]</v>
       </c>
       <c r="B77" s="117" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C77" s="117" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="D77" s="187" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="E77" s="168"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="117"/>
-      <c r="H77" s="260">
+      <c r="F77" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" s="242">
         <v>42412</v>
       </c>
       <c r="I77" s="168"/>
@@ -33108,22 +33300,26 @@
     </row>
     <row r="78" spans="1:10" ht="38.25">
       <c r="A78" s="165" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>[Admin_login-68]</v>
       </c>
       <c r="B78" s="117" t="s">
+        <v>628</v>
+      </c>
+      <c r="C78" s="117" t="s">
+        <v>631</v>
+      </c>
+      <c r="D78" s="187" t="s">
         <v>635</v>
       </c>
-      <c r="C78" s="117" t="s">
-        <v>638</v>
-      </c>
-      <c r="D78" s="187" t="s">
-        <v>642</v>
-      </c>
       <c r="E78" s="168"/>
-      <c r="F78" s="117"/>
-      <c r="G78" s="117"/>
-      <c r="H78" s="260">
+      <c r="F78" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="242">
         <v>42412</v>
       </c>
       <c r="I78" s="168"/>
@@ -33131,22 +33327,26 @@
     </row>
     <row r="79" spans="1:10" ht="51">
       <c r="A79" s="165" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>[Admin_login-69]</v>
       </c>
       <c r="B79" s="117" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C79" s="117" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="D79" s="187" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E79" s="168"/>
-      <c r="F79" s="117"/>
-      <c r="G79" s="117"/>
-      <c r="H79" s="260">
+      <c r="F79" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="242">
         <v>42412</v>
       </c>
       <c r="I79" s="168"/>
@@ -33154,22 +33354,26 @@
     </row>
     <row r="80" spans="1:10" ht="51">
       <c r="A80" s="165" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>[Admin_login-70]</v>
       </c>
       <c r="B80" s="117" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C80" s="117" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="D80" s="187" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E80" s="168"/>
-      <c r="F80" s="117"/>
-      <c r="G80" s="117"/>
-      <c r="H80" s="260">
+      <c r="F80" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="242">
         <v>42412</v>
       </c>
       <c r="I80" s="168"/>
@@ -33188,7 +33392,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G8">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F26:G26 F32:G40 F42:G48 F50:G52 F22:G24 F54:G80 F28:G30 G12:G20 F13:F20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F32:G40 F13:F20 F26:G30 F22:G24 F42:G52 G12:G20 F54:G80">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12">
@@ -33209,6 +33413,41 @@
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -33226,7 +33465,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:1">

--- a/WIP/Documents/Report 3/WS_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Documents/Report 3/WS_Integration Test Case_v1.0_EN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WingS\201609JS01\WIP\Documents\Report 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WingS\201609JS01\201609JS01\WIP\Documents\Report 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="728">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -438,12 +438,6 @@
   <si>
     <t>Execute all Admin unit test cases
  and passed</t>
-  </si>
-  <si>
-    <t>Result Chorme version 40</t>
-  </si>
-  <si>
-    <t>Result Firefox version 30</t>
   </si>
   <si>
     <t>1. Homepage is displayed
@@ -799,9 +793,6 @@
   <si>
     <t>1. Go to wings.com
 2. Click on Login button in header</t>
-  </si>
-  <si>
-    <t>Result Chorme version 50</t>
   </si>
   <si>
     <t>1. Go to wings.com
@@ -3462,6 +3453,12 @@
   </si>
   <si>
     <t>TuanDV</t>
+  </si>
+  <si>
+    <t>Result Chorme version 53</t>
+  </si>
+  <si>
+    <t>Result Firefox version 50</t>
   </si>
 </sst>
 </file>
@@ -5736,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="244" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D4" s="244"/>
       <c r="E4" s="244"/>
@@ -5744,7 +5741,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
@@ -5752,7 +5749,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="244" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="244"/>
       <c r="E5" s="244"/>
@@ -5760,7 +5757,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -5844,7 +5841,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1">
@@ -5975,7 +5972,7 @@
       </c>
       <c r="C5" s="247"/>
       <c r="D5" s="248" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E5" s="248"/>
       <c r="F5" s="248"/>
@@ -6190,7 +6187,7 @@
       </c>
       <c r="F3" s="251"/>
       <c r="G3" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H3" s="65"/>
     </row>
@@ -6208,7 +6205,7 @@
       </c>
       <c r="F4" s="251"/>
       <c r="G4" s="10" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H4" s="65"/>
     </row>
@@ -6303,19 +6300,19 @@
       </c>
       <c r="D11" s="76">
         <f>User_Function!A6</f>
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="E11" s="76">
         <f>User_Function!B6</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F11" s="76">
         <f>User_Function!C6</f>
-        <v>8</v>
+        <v>304</v>
       </c>
       <c r="G11" s="76">
         <f>User_Function!D6</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H11" s="77">
         <f>User_Function!E6</f>
@@ -6332,7 +6329,7 @@
       </c>
       <c r="D12" s="76">
         <f>Admin_Function!A6</f>
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="E12" s="76">
         <f>Admin_Function!B6</f>
@@ -6340,7 +6337,7 @@
       </c>
       <c r="F12" s="76">
         <f>Admin_Function!C6</f>
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="G12" s="76">
         <f>Admin_Function!D6</f>
@@ -6359,19 +6356,19 @@
       </c>
       <c r="D13" s="79">
         <f>SUM(D9:D12)</f>
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="E13" s="79">
         <f>SUM(E9:E12)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F13" s="79">
         <f>SUM(F9:F12)</f>
-        <v>32</v>
+        <v>432</v>
       </c>
       <c r="G13" s="79">
         <f>SUM(G9:G12)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H13" s="80">
         <f>SUM(H9:H12)</f>
@@ -6397,7 +6394,7 @@
       <c r="D15" s="70"/>
       <c r="E15" s="85">
         <f>(D13+E13)*100/(H13-G13)</f>
-        <v>92.452830188679243</v>
+        <v>0</v>
       </c>
       <c r="F15" s="70" t="s">
         <v>43</v>
@@ -6414,7 +6411,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="85">
         <f>D13*100/(H13-G13)</f>
-        <v>89.622641509433961</v>
+        <v>0</v>
       </c>
       <c r="F16" s="70" t="s">
         <v>43</v>
@@ -6468,7 +6465,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="254"/>
       <c r="C1" s="254"/>
@@ -6479,281 +6476,281 @@
         <v>16</v>
       </c>
       <c r="B3" s="158" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="159" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="160" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="203" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C4" s="161"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="160" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="203" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C5" s="161"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="160" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="204" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C6" s="161"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="160" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="204" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C7" s="161"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="160" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="203" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C8" s="161"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="160" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="204" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C9" s="161"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="160" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" s="204" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C10" s="161"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="160" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="204" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C11" s="161"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="160" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="204" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C12" s="161"/>
     </row>
     <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="160" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" s="204" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C13" s="161"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="160" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" s="204" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C14" s="161"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="160" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" s="204" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C15" s="161"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="160" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" s="204" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C16" s="161"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="160" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B17" s="204" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C17" s="161"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="160" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B18" s="204" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C18" s="161"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="160" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="204" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C19" s="161"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="160" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B20" s="203" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C20" s="161"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="160" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" s="203" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C21" s="161"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="160" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22" s="203" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C22" s="161"/>
     </row>
     <row r="23" spans="1:3" ht="31.5">
       <c r="A23" s="160" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B23" s="205" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C23" s="161"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="160" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B24" s="203" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C24" s="161"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="160" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" s="203" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C25" s="161"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="162" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B26" s="203" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C26" s="161"/>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" s="162" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="161" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C27" s="161"/>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" s="162" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28" s="161" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C28" s="161"/>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="162" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" s="161" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C29" s="161"/>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="162" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B30" s="161" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C30" s="161"/>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" s="162" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B31" s="161" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C31" s="161"/>
     </row>
     <row r="32" spans="1:3" ht="15">
       <c r="A32" s="162" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B32" s="161"/>
       <c r="C32" s="161"/>
     </row>
     <row r="33" spans="1:3" ht="15">
       <c r="A33" s="162" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B33" s="161"/>
       <c r="C33" s="161"/>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="162" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B34" s="161"/>
       <c r="C34" s="161"/>
@@ -6771,8 +6768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV176"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159:G176"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -7556,7 +7553,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="256" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" s="256"/>
       <c r="D4" s="256"/>
@@ -7812,7 +7809,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="97" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D5" s="98" t="s">
         <v>27</v>
@@ -8068,19 +8065,19 @@
     <row r="6" spans="1:252" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="130">
         <f>COUNTIF(F11:G335,"Pass")</f>
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="B6" s="101">
         <f>COUNTIF(F11:G782,"Fail")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>8</v>
+        <v>304</v>
       </c>
       <c r="D6" s="102">
         <f>COUNTIF(F11:G782,"N/A")</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6" s="258">
         <f>COUNTA(A12:A179)*2</f>
@@ -9094,10 +9091,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>182</v>
+        <v>726</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>77</v>
+        <v>727</v>
       </c>
       <c r="H10" s="57" t="s">
         <v>35</v>
@@ -9600,21 +9597,15 @@
         <v>60</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="118"/>
-      <c r="F12" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="119">
-        <v>42381</v>
-      </c>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="119"/>
       <c r="I12" s="120"/>
       <c r="J12" s="95"/>
       <c r="K12" s="95"/>
@@ -9862,21 +9853,15 @@
         <v>61</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" s="118"/>
-      <c r="F13" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="119">
-        <v>42381</v>
-      </c>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="119"/>
       <c r="I13" s="120"/>
       <c r="J13" s="95"/>
       <c r="K13" s="95"/>
@@ -10124,21 +10109,15 @@
         <v>62</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E14" s="208"/>
-      <c r="F14" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="119">
-        <v>42381</v>
-      </c>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="119"/>
       <c r="I14" s="122"/>
       <c r="J14" s="95"/>
       <c r="K14" s="95"/>
@@ -10383,24 +10362,18 @@
         <v>[User_login-5]</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E15" s="209"/>
-      <c r="F15" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="119">
-        <v>42381</v>
-      </c>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="119"/>
       <c r="I15" s="202"/>
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
@@ -10648,21 +10621,15 @@
         <v>63</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E16" s="210"/>
-      <c r="F16" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="119">
-        <v>42381</v>
-      </c>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="119"/>
       <c r="I16" s="120"/>
       <c r="J16" s="95"/>
       <c r="K16" s="95"/>
@@ -10907,24 +10874,18 @@
         <v>[User_login-7]</v>
       </c>
       <c r="B17" s="121" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C17" s="121" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D17" s="121" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E17" s="124"/>
-      <c r="F17" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="241">
-        <v>42381</v>
-      </c>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="241"/>
       <c r="I17" s="124"/>
       <c r="J17" s="95"/>
       <c r="K17" s="95"/>
@@ -11169,24 +11130,18 @@
         <v>[User_login-8]</v>
       </c>
       <c r="B18" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="123" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="123" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="123" t="s">
-        <v>203</v>
-      </c>
       <c r="E18" s="124"/>
-      <c r="F18" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="241">
-        <v>42381</v>
-      </c>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="241"/>
       <c r="I18" s="124"/>
       <c r="J18" s="95"/>
       <c r="K18" s="95"/>
@@ -11431,24 +11386,18 @@
         <v>[User_login-9]</v>
       </c>
       <c r="B19" s="214" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C19" s="214" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D19" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E19" s="215"/>
-      <c r="F19" s="214" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="214" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="241">
-        <v>42381</v>
-      </c>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="241"/>
       <c r="I19" s="215"/>
       <c r="J19" s="216"/>
       <c r="K19" s="95"/>
@@ -11693,24 +11642,18 @@
         <v>[User_login-10]</v>
       </c>
       <c r="B20" s="214" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C20" s="214" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D20" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E20" s="215"/>
-      <c r="F20" s="214" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="214" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="241">
-        <v>42381</v>
-      </c>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="241"/>
       <c r="I20" s="215"/>
       <c r="J20" s="216"/>
       <c r="K20" s="95"/>
@@ -11952,7 +11895,7 @@
     <row r="21" spans="1:245" ht="14.25" customHeight="1">
       <c r="A21" s="58"/>
       <c r="B21" s="58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C21" s="58"/>
       <c r="D21" s="58"/>
@@ -12200,27 +12143,21 @@
     </row>
     <row r="22" spans="1:245" ht="54" customHeight="1">
       <c r="A22" s="91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E22" s="146"/>
-      <c r="F22" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="112"/>
       <c r="I22" s="107"/>
       <c r="J22" s="95"/>
       <c r="K22" s="95"/>
@@ -12461,27 +12398,21 @@
     </row>
     <row r="23" spans="1:245" ht="54" customHeight="1">
       <c r="A23" s="91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E23" s="146"/>
-      <c r="F23" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="112"/>
       <c r="I23" s="107"/>
       <c r="J23" s="95"/>
       <c r="K23" s="95"/>
@@ -12722,27 +12653,21 @@
     </row>
     <row r="24" spans="1:245" ht="54" customHeight="1">
       <c r="A24" s="91" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E24" s="146"/>
-      <c r="F24" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="112"/>
       <c r="I24" s="107"/>
       <c r="J24" s="95"/>
       <c r="K24" s="95"/>
@@ -12983,27 +12908,21 @@
     </row>
     <row r="25" spans="1:245" ht="54" customHeight="1">
       <c r="A25" s="91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B25" s="91" t="s">
+        <v>637</v>
+      </c>
+      <c r="C25" s="91" t="s">
         <v>640</v>
       </c>
-      <c r="C25" s="91" t="s">
-        <v>643</v>
-      </c>
       <c r="D25" s="91" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E25" s="146"/>
-      <c r="F25" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="112"/>
       <c r="I25" s="107"/>
       <c r="J25" s="95"/>
       <c r="K25" s="95"/>
@@ -13244,27 +13163,21 @@
     </row>
     <row r="26" spans="1:245" ht="54" customHeight="1">
       <c r="A26" s="91" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D26" s="91" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E26" s="146"/>
-      <c r="F26" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="112"/>
       <c r="I26" s="107"/>
       <c r="J26" s="95"/>
       <c r="K26" s="95"/>
@@ -13505,27 +13418,21 @@
     </row>
     <row r="27" spans="1:245" ht="54" customHeight="1">
       <c r="A27" s="91" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E27" s="146"/>
-      <c r="F27" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="112"/>
       <c r="I27" s="107"/>
       <c r="J27" s="95"/>
       <c r="K27" s="95"/>
@@ -13766,27 +13673,21 @@
     </row>
     <row r="28" spans="1:245" ht="54" customHeight="1">
       <c r="A28" s="91" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E28" s="146"/>
-      <c r="F28" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="112"/>
       <c r="I28" s="107"/>
       <c r="J28" s="95"/>
       <c r="K28" s="95"/>
@@ -14027,27 +13928,21 @@
     </row>
     <row r="29" spans="1:245" ht="54" customHeight="1">
       <c r="A29" s="91" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C29" s="91" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E29" s="146"/>
-      <c r="F29" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="112"/>
       <c r="I29" s="107"/>
       <c r="J29" s="95"/>
       <c r="K29" s="95"/>
@@ -14288,27 +14183,21 @@
     </row>
     <row r="30" spans="1:245" ht="54" customHeight="1">
       <c r="A30" s="91" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C30" s="91" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E30" s="146"/>
-      <c r="F30" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="112"/>
       <c r="I30" s="107"/>
       <c r="J30" s="95"/>
       <c r="K30" s="95"/>
@@ -14549,27 +14438,21 @@
     </row>
     <row r="31" spans="1:245" ht="60.75" customHeight="1">
       <c r="A31" s="91" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C31" s="91" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E31" s="146"/>
-      <c r="F31" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="112"/>
       <c r="I31" s="107"/>
       <c r="J31" s="95"/>
       <c r="K31" s="95"/>
@@ -14810,27 +14693,21 @@
     </row>
     <row r="32" spans="1:245" ht="60.75" customHeight="1">
       <c r="A32" s="91" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C32" s="91" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="91" t="s">
-        <v>262</v>
-      </c>
       <c r="E32" s="146"/>
-      <c r="F32" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="112"/>
       <c r="I32" s="107"/>
       <c r="J32" s="95"/>
       <c r="K32" s="95"/>
@@ -15071,27 +14948,21 @@
     </row>
     <row r="33" spans="1:245" ht="60.75" customHeight="1">
       <c r="A33" s="91" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C33" s="91" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D33" s="91" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E33" s="146"/>
-      <c r="F33" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="112"/>
       <c r="I33" s="107"/>
       <c r="J33" s="95"/>
       <c r="K33" s="95"/>
@@ -15332,27 +15203,21 @@
     </row>
     <row r="34" spans="1:245" ht="60.75" customHeight="1">
       <c r="A34" s="91" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C34" s="91" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D34" s="91" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E34" s="146"/>
-      <c r="F34" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="112"/>
       <c r="I34" s="107"/>
       <c r="J34" s="95"/>
       <c r="K34" s="95"/>
@@ -15593,27 +15458,21 @@
     </row>
     <row r="35" spans="1:245" ht="60.75" customHeight="1">
       <c r="A35" s="91" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C35" s="91" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D35" s="91" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E35" s="146"/>
-      <c r="F35" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="112"/>
       <c r="I35" s="107"/>
       <c r="J35" s="95"/>
       <c r="K35" s="95"/>
@@ -15854,27 +15713,21 @@
     </row>
     <row r="36" spans="1:245" ht="60.75" customHeight="1">
       <c r="A36" s="91" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C36" s="91" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E36" s="146"/>
-      <c r="F36" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="112"/>
       <c r="I36" s="107"/>
       <c r="J36" s="95"/>
       <c r="K36" s="95"/>
@@ -16115,27 +15968,21 @@
     </row>
     <row r="37" spans="1:245" ht="60.75" customHeight="1">
       <c r="A37" s="91" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C37" s="91" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D37" s="91" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E37" s="146"/>
-      <c r="F37" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="112"/>
       <c r="I37" s="107"/>
       <c r="J37" s="95"/>
       <c r="K37" s="95"/>
@@ -16376,27 +16223,21 @@
     </row>
     <row r="38" spans="1:245" ht="60.75" customHeight="1">
       <c r="A38" s="91" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C38" s="91" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E38" s="146"/>
-      <c r="F38" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="112"/>
       <c r="I38" s="107"/>
       <c r="J38" s="95"/>
       <c r="K38" s="95"/>
@@ -16637,27 +16478,21 @@
     </row>
     <row r="39" spans="1:245" ht="60.75" customHeight="1">
       <c r="A39" s="91" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C39" s="91" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E39" s="146"/>
-      <c r="F39" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="112"/>
       <c r="I39" s="107"/>
       <c r="J39" s="95"/>
       <c r="K39" s="95"/>
@@ -16898,27 +16733,21 @@
     </row>
     <row r="40" spans="1:245" ht="55.5" customHeight="1">
       <c r="A40" s="91" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D40" s="91" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E40" s="146"/>
-      <c r="F40" s="234" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F40" s="234"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="112"/>
       <c r="I40" s="107"/>
       <c r="J40" s="95"/>
       <c r="K40" s="95"/>
@@ -17159,27 +16988,21 @@
     </row>
     <row r="41" spans="1:245" ht="56.25" customHeight="1">
       <c r="A41" s="91" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D41" s="91" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E41" s="146"/>
-      <c r="F41" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="112"/>
       <c r="I41" s="107"/>
       <c r="J41" s="95"/>
       <c r="K41" s="95"/>
@@ -17420,27 +17243,21 @@
     </row>
     <row r="42" spans="1:245" ht="59.25" customHeight="1">
       <c r="A42" s="91" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C42" s="91" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D42" s="91" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E42" s="146"/>
-      <c r="F42" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="112"/>
       <c r="I42" s="107"/>
       <c r="J42" s="95"/>
       <c r="K42" s="95"/>
@@ -17681,27 +17498,21 @@
     </row>
     <row r="43" spans="1:245" ht="59.25" customHeight="1">
       <c r="A43" s="91" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C43" s="91" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E43" s="146"/>
-      <c r="F43" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="112"/>
       <c r="I43" s="107"/>
       <c r="J43" s="95"/>
       <c r="K43" s="95"/>
@@ -17942,27 +17753,21 @@
     </row>
     <row r="44" spans="1:245" ht="59.25" customHeight="1">
       <c r="A44" s="91" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C44" s="91" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D44" s="91" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E44" s="146"/>
-      <c r="F44" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="112"/>
       <c r="I44" s="107"/>
       <c r="J44" s="95"/>
       <c r="K44" s="95"/>
@@ -18203,27 +18008,21 @@
     </row>
     <row r="45" spans="1:245" ht="59.25" customHeight="1">
       <c r="A45" s="91" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C45" s="91" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D45" s="91" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E45" s="146"/>
-      <c r="F45" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="112"/>
       <c r="I45" s="107"/>
       <c r="J45" s="95"/>
       <c r="K45" s="95"/>
@@ -18464,27 +18263,21 @@
     </row>
     <row r="46" spans="1:245" ht="59.25" customHeight="1">
       <c r="A46" s="91" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C46" s="91" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D46" s="91" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E46" s="146"/>
-      <c r="F46" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="112"/>
       <c r="I46" s="107"/>
       <c r="J46" s="95"/>
       <c r="K46" s="95"/>
@@ -18725,27 +18518,21 @@
     </row>
     <row r="47" spans="1:245" ht="59.25" customHeight="1">
       <c r="A47" s="91" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C47" s="91" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D47" s="91" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E47" s="146"/>
-      <c r="F47" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="112"/>
       <c r="I47" s="107"/>
       <c r="J47" s="95"/>
       <c r="K47" s="95"/>
@@ -18986,27 +18773,21 @@
     </row>
     <row r="48" spans="1:245" ht="59.25" customHeight="1">
       <c r="A48" s="91" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C48" s="91" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D48" s="91" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E48" s="146"/>
-      <c r="F48" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="112"/>
       <c r="I48" s="107"/>
       <c r="J48" s="95"/>
       <c r="K48" s="95"/>
@@ -19247,27 +19028,21 @@
     </row>
     <row r="49" spans="1:256" ht="59.25" customHeight="1">
       <c r="A49" s="91" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C49" s="91" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D49" s="91" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E49" s="146"/>
-      <c r="F49" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="112"/>
       <c r="I49" s="107"/>
       <c r="J49" s="95"/>
       <c r="K49" s="95"/>
@@ -19508,27 +19283,21 @@
     </row>
     <row r="50" spans="1:256" ht="59.25" customHeight="1">
       <c r="A50" s="91" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B50" s="91" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C50" s="91" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D50" s="91" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E50" s="146"/>
-      <c r="F50" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="112"/>
       <c r="I50" s="107"/>
       <c r="J50" s="95"/>
       <c r="K50" s="95"/>
@@ -19769,27 +19538,21 @@
     </row>
     <row r="51" spans="1:256" ht="51.75" customHeight="1">
       <c r="A51" s="91" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B51" s="91" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D51" s="91" t="s">
         <v>65</v>
       </c>
       <c r="E51" s="146"/>
-      <c r="F51" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="112"/>
       <c r="I51" s="107"/>
       <c r="J51" s="95"/>
       <c r="K51" s="95"/>
@@ -20031,7 +19794,7 @@
     <row r="52" spans="1:256" ht="15" customHeight="1">
       <c r="A52" s="59"/>
       <c r="B52" s="58" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
@@ -20294,24 +20057,18 @@
         <v>[User_login-43]</v>
       </c>
       <c r="B53" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C53" s="91" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D53" s="123" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E53" s="147"/>
-      <c r="F53" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="112"/>
       <c r="I53" s="120"/>
       <c r="J53" s="95"/>
       <c r="K53" s="95"/>
@@ -20556,24 +20313,18 @@
         <v>[User_login-44]</v>
       </c>
       <c r="B54" s="91" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C54" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="D54" s="123" t="s">
         <v>384</v>
       </c>
-      <c r="D54" s="123" t="s">
-        <v>387</v>
-      </c>
       <c r="E54" s="238"/>
-      <c r="F54" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="112"/>
       <c r="I54" s="120"/>
       <c r="J54" s="95"/>
       <c r="K54" s="95"/>
@@ -20818,24 +20569,18 @@
         <v>[User_login-45]</v>
       </c>
       <c r="B55" s="91" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C55" s="91" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D55" s="123" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E55" s="238"/>
-      <c r="F55" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="112"/>
       <c r="I55" s="120"/>
       <c r="J55" s="95"/>
       <c r="K55" s="95"/>
@@ -21080,24 +20825,18 @@
         <v>[User_login-46]</v>
       </c>
       <c r="B56" s="91" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C56" s="91" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D56" s="123" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E56" s="238"/>
-      <c r="F56" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="112"/>
       <c r="I56" s="120"/>
       <c r="J56" s="95"/>
       <c r="K56" s="95"/>
@@ -21342,24 +21081,18 @@
         <v>[User_login-47]</v>
       </c>
       <c r="B57" s="91" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C57" s="91" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D57" s="123" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E57" s="238"/>
-      <c r="F57" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="112"/>
       <c r="I57" s="120"/>
       <c r="J57" s="95"/>
       <c r="K57" s="95"/>
@@ -21604,24 +21337,18 @@
         <v>[User_login-48]</v>
       </c>
       <c r="B58" s="91" t="s">
+        <v>390</v>
+      </c>
+      <c r="C58" s="91" t="s">
         <v>393</v>
       </c>
-      <c r="C58" s="91" t="s">
-        <v>396</v>
-      </c>
       <c r="D58" s="123" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E58" s="238"/>
-      <c r="F58" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F58" s="117"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="112"/>
       <c r="I58" s="120"/>
       <c r="J58" s="95"/>
       <c r="K58" s="95"/>
@@ -21866,24 +21593,18 @@
         <v>[User_login-49]</v>
       </c>
       <c r="B59" s="91" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C59" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D59" s="123" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E59" s="238"/>
-      <c r="F59" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="112"/>
       <c r="I59" s="120"/>
       <c r="J59" s="95"/>
       <c r="K59" s="95"/>
@@ -22128,24 +21849,18 @@
         <v>[User_login-50]</v>
       </c>
       <c r="B60" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="C60" s="91" t="s">
         <v>394</v>
       </c>
-      <c r="C60" s="91" t="s">
-        <v>397</v>
-      </c>
       <c r="D60" s="123" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E60" s="238"/>
-      <c r="F60" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="112"/>
       <c r="I60" s="120"/>
       <c r="J60" s="95"/>
       <c r="K60" s="95"/>
@@ -22390,24 +22105,18 @@
         <v>[User_login-51]</v>
       </c>
       <c r="B61" s="91" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C61" s="91" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D61" s="123" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E61" s="147"/>
-      <c r="F61" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="112"/>
       <c r="I61" s="120"/>
       <c r="J61" s="95"/>
       <c r="K61" s="95"/>
@@ -22908,24 +22617,18 @@
         <v>[User_login-53]</v>
       </c>
       <c r="B63" s="123" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C63" s="123" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D63" s="123" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E63" s="123"/>
-      <c r="F63" s="175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="175" t="s">
-        <v>22</v>
-      </c>
-      <c r="H63" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F63" s="175"/>
+      <c r="G63" s="175"/>
+      <c r="H63" s="112"/>
       <c r="I63" s="148"/>
       <c r="J63" s="218"/>
       <c r="K63" s="95"/>
@@ -23177,24 +22880,18 @@
         <v>[User_login-54]</v>
       </c>
       <c r="B64" s="91" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C64" s="91" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D64" s="91" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E64" s="91"/>
-      <c r="F64" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F64" s="91"/>
+      <c r="G64" s="91"/>
+      <c r="H64" s="112"/>
       <c r="I64" s="107"/>
       <c r="J64" s="219"/>
       <c r="K64" s="95"/>
@@ -23446,24 +23143,18 @@
         <v>[User_login-55]</v>
       </c>
       <c r="B65" s="91" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C65" s="91" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D65" s="91" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E65" s="91"/>
-      <c r="F65" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H65" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="112"/>
       <c r="I65" s="107"/>
       <c r="J65" s="219"/>
       <c r="K65" s="95"/>
@@ -23967,21 +23658,15 @@
         <v>72</v>
       </c>
       <c r="C67" s="91" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D67" s="104" t="s">
         <v>73</v>
       </c>
       <c r="E67" s="91"/>
-      <c r="F67" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F67" s="117"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="112"/>
       <c r="I67" s="107"/>
       <c r="J67" s="95"/>
       <c r="K67" s="95"/>
@@ -24226,24 +23911,18 @@
         <v>[User_login-58]</v>
       </c>
       <c r="B68" s="91" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C68" s="91" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D68" s="136" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E68" s="91"/>
-      <c r="F68" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="112"/>
       <c r="I68" s="107"/>
       <c r="J68" s="218"/>
       <c r="K68" s="95"/>
@@ -24495,24 +24174,18 @@
         <v>[User_login-59]</v>
       </c>
       <c r="B69" s="91" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C69" s="91" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D69" s="136" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E69" s="91"/>
-      <c r="F69" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H69" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F69" s="117"/>
+      <c r="G69" s="117"/>
+      <c r="H69" s="112"/>
       <c r="I69" s="107"/>
       <c r="J69" s="219"/>
       <c r="K69" s="95"/>
@@ -24764,24 +24437,18 @@
         <v>[User_login-60]</v>
       </c>
       <c r="B70" s="91" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C70" s="91" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D70" s="136" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E70" s="91"/>
-      <c r="F70" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H70" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F70" s="117"/>
+      <c r="G70" s="117"/>
+      <c r="H70" s="112"/>
       <c r="I70" s="107"/>
       <c r="J70" s="219"/>
       <c r="K70" s="95"/>
@@ -25033,24 +24700,18 @@
         <v>[User_login-61]</v>
       </c>
       <c r="B71" s="91" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C71" s="91" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D71" s="136" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E71" s="91"/>
-      <c r="F71" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F71" s="117"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="112"/>
       <c r="I71" s="107"/>
       <c r="J71" s="219"/>
       <c r="K71" s="95"/>
@@ -25302,24 +24963,18 @@
         <v>[User_login-62]</v>
       </c>
       <c r="B72" s="91" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C72" s="91" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D72" s="136" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E72" s="91"/>
-      <c r="F72" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F72" s="117"/>
+      <c r="G72" s="117"/>
+      <c r="H72" s="112"/>
       <c r="I72" s="107"/>
       <c r="J72" s="219"/>
       <c r="K72" s="95"/>
@@ -25571,24 +25226,18 @@
         <v>[User_login-63]</v>
       </c>
       <c r="B73" s="91" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C73" s="91" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D73" s="136" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E73" s="91"/>
-      <c r="F73" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H73" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F73" s="117"/>
+      <c r="G73" s="117"/>
+      <c r="H73" s="112"/>
       <c r="I73" s="107"/>
       <c r="J73" s="219"/>
       <c r="K73" s="95"/>
@@ -25840,24 +25489,18 @@
         <v>[User_login-64]</v>
       </c>
       <c r="B74" s="91" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C74" s="91" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D74" s="136" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E74" s="91"/>
-      <c r="F74" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F74" s="117"/>
+      <c r="G74" s="117"/>
+      <c r="H74" s="112"/>
       <c r="I74" s="107"/>
       <c r="J74" s="219"/>
       <c r="K74" s="95"/>
@@ -26109,24 +25752,18 @@
         <v>[User_login-65]</v>
       </c>
       <c r="B75" s="91" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C75" s="91" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D75" s="136" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E75" s="91"/>
-      <c r="F75" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F75" s="117"/>
+      <c r="G75" s="117"/>
+      <c r="H75" s="112"/>
       <c r="I75" s="107"/>
       <c r="J75" s="219"/>
       <c r="K75" s="95"/>
@@ -26378,24 +26015,18 @@
         <v>[User_login-66]</v>
       </c>
       <c r="B76" s="91" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C76" s="91" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D76" s="136" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E76" s="91"/>
-      <c r="F76" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H76" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F76" s="117"/>
+      <c r="G76" s="117"/>
+      <c r="H76" s="112"/>
       <c r="I76" s="107"/>
       <c r="J76" s="219"/>
       <c r="K76" s="95"/>
@@ -26893,21 +26524,15 @@
         <v>68</v>
       </c>
       <c r="C78" s="91" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E78" s="91"/>
-      <c r="F78" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F78" s="117"/>
+      <c r="G78" s="117"/>
+      <c r="H78" s="112"/>
       <c r="I78" s="107"/>
       <c r="J78" s="95"/>
       <c r="Q78" s="95"/>
@@ -27143,7 +26768,7 @@
     <row r="79" spans="1:252" ht="14.25" customHeight="1">
       <c r="A79" s="58"/>
       <c r="B79" s="58" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
@@ -27403,21 +27028,15 @@
         <v>70</v>
       </c>
       <c r="C80" s="232" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D80" s="232" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E80" s="233"/>
-      <c r="F80" s="230" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="232" t="s">
-        <v>22</v>
-      </c>
-      <c r="H80" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F80" s="230"/>
+      <c r="G80" s="232"/>
+      <c r="H80" s="112"/>
       <c r="I80" s="170"/>
       <c r="J80" s="95"/>
       <c r="Q80" s="95"/>
@@ -27656,24 +27275,18 @@
         <v>[User_login-71]</v>
       </c>
       <c r="B81" s="224" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="225" t="s">
+        <v>273</v>
+      </c>
+      <c r="D81" s="226" t="s">
         <v>274</v>
       </c>
-      <c r="C81" s="225" t="s">
-        <v>276</v>
-      </c>
-      <c r="D81" s="226" t="s">
-        <v>277</v>
-      </c>
       <c r="E81" s="226"/>
-      <c r="F81" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F81" s="224"/>
+      <c r="G81" s="224"/>
+      <c r="H81" s="112"/>
       <c r="I81" s="222"/>
       <c r="J81" s="95"/>
       <c r="Q81" s="95"/>
@@ -27912,24 +27525,18 @@
         <v>[User_login-72]</v>
       </c>
       <c r="B82" s="224" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C82" s="225" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D82" s="226" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E82" s="226"/>
-      <c r="F82" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F82" s="224"/>
+      <c r="G82" s="224"/>
+      <c r="H82" s="112"/>
       <c r="I82" s="231"/>
       <c r="J82" s="95"/>
       <c r="Q82" s="95"/>
@@ -28168,24 +27775,18 @@
         <v>[User_login-73]</v>
       </c>
       <c r="B83" s="224" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C83" s="225" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D83" s="226" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E83" s="226"/>
-      <c r="F83" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F83" s="224"/>
+      <c r="G83" s="224"/>
+      <c r="H83" s="112"/>
       <c r="I83" s="231"/>
       <c r="J83" s="95"/>
       <c r="Q83" s="95"/>
@@ -28424,24 +28025,18 @@
         <v>[User_login-74]</v>
       </c>
       <c r="B84" s="224" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C84" s="225" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D84" s="226" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E84" s="226"/>
-      <c r="F84" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F84" s="224"/>
+      <c r="G84" s="224"/>
+      <c r="H84" s="112"/>
       <c r="I84" s="231"/>
       <c r="J84" s="95"/>
       <c r="Q84" s="95"/>
@@ -28680,24 +28275,18 @@
         <v>[User_login-75]</v>
       </c>
       <c r="B85" s="224" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C85" s="225" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D85" s="226" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E85" s="226"/>
-      <c r="F85" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F85" s="224"/>
+      <c r="G85" s="224"/>
+      <c r="H85" s="112"/>
       <c r="I85" s="227"/>
       <c r="J85" s="95"/>
       <c r="Q85" s="95"/>
@@ -28933,7 +28522,7 @@
     <row r="86" spans="1:245" ht="14.25" customHeight="1">
       <c r="A86" s="220"/>
       <c r="B86" s="220" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C86" s="221"/>
       <c r="D86" s="221"/>
@@ -28950,24 +28539,18 @@
         <v>[User_login-77]</v>
       </c>
       <c r="B87" s="91" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C87" s="106" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D87" s="104" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E87" s="104"/>
-      <c r="F87" s="175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="235" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F87" s="175"/>
+      <c r="G87" s="235"/>
+      <c r="H87" s="112"/>
       <c r="I87" s="173"/>
       <c r="J87" s="105"/>
     </row>
@@ -28977,24 +28560,18 @@
         <v>[User_login-78]</v>
       </c>
       <c r="B88" s="91" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C88" s="106" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D88" s="104" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E88" s="167"/>
-      <c r="F88" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F88" s="117"/>
+      <c r="G88" s="117"/>
+      <c r="H88" s="112"/>
       <c r="I88" s="173"/>
       <c r="J88" s="105"/>
     </row>
@@ -29004,24 +28581,18 @@
         <v>[User_login-79]</v>
       </c>
       <c r="B89" s="91" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C89" s="106" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D89" s="104" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E89" s="167"/>
-      <c r="F89" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F89" s="117"/>
+      <c r="G89" s="117"/>
+      <c r="H89" s="112"/>
       <c r="I89" s="173"/>
       <c r="J89" s="105"/>
     </row>
@@ -29031,24 +28602,18 @@
         <v>[User_login-80]</v>
       </c>
       <c r="B90" s="91" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C90" s="106" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D90" s="104" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E90" s="167"/>
-      <c r="F90" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F90" s="117"/>
+      <c r="G90" s="117"/>
+      <c r="H90" s="112"/>
       <c r="I90" s="173"/>
       <c r="J90" s="105"/>
     </row>
@@ -29058,24 +28623,18 @@
         <v>[User_login-81]</v>
       </c>
       <c r="B91" s="91" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C91" s="106" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D91" s="104" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E91" s="167"/>
-      <c r="F91" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F91" s="117"/>
+      <c r="G91" s="117"/>
+      <c r="H91" s="112"/>
       <c r="I91" s="173"/>
       <c r="J91" s="105"/>
     </row>
@@ -29085,24 +28644,18 @@
         <v>[User_login-82]</v>
       </c>
       <c r="B92" s="91" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C92" s="106" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D92" s="104" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E92" s="167"/>
-      <c r="F92" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F92" s="117"/>
+      <c r="G92" s="117"/>
+      <c r="H92" s="112"/>
       <c r="I92" s="173"/>
       <c r="J92" s="105"/>
     </row>
@@ -29112,24 +28665,18 @@
         <v>[User_login-83]</v>
       </c>
       <c r="B93" s="91" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C93" s="106" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D93" s="104" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E93" s="167"/>
-      <c r="F93" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F93" s="117"/>
+      <c r="G93" s="117"/>
+      <c r="H93" s="112"/>
       <c r="I93" s="173"/>
       <c r="J93" s="105"/>
     </row>
@@ -29139,24 +28686,18 @@
         <v>[User_login-84]</v>
       </c>
       <c r="B94" s="91" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C94" s="106" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D94" s="104" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E94" s="167"/>
-      <c r="F94" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H94" s="112">
-        <v>42381</v>
-      </c>
+      <c r="F94" s="117"/>
+      <c r="G94" s="117"/>
+      <c r="H94" s="112"/>
       <c r="I94" s="173"/>
       <c r="J94" s="105"/>
     </row>
@@ -29166,7 +28707,7 @@
         <v>[User_login-85]</v>
       </c>
       <c r="B95" s="220" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C95" s="228"/>
       <c r="D95" s="228"/>
@@ -29183,24 +28724,18 @@
         <v>[User_login-86]</v>
       </c>
       <c r="B96" s="174" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C96" s="166" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D96" s="117" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E96" s="163"/>
-      <c r="F96" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F96" s="117"/>
+      <c r="G96" s="117"/>
+      <c r="H96" s="112"/>
       <c r="I96" s="164"/>
       <c r="J96" s="105"/>
     </row>
@@ -29210,24 +28745,18 @@
         <v>[User_login-87]</v>
       </c>
       <c r="B97" s="174" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C97" s="166" t="s">
+        <v>286</v>
+      </c>
+      <c r="D97" s="117" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="117" t="s">
-        <v>292</v>
-      </c>
       <c r="E97" s="163"/>
-      <c r="F97" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F97" s="117"/>
+      <c r="G97" s="117"/>
+      <c r="H97" s="112"/>
       <c r="I97" s="164"/>
       <c r="J97" s="105"/>
     </row>
@@ -29237,24 +28766,18 @@
         <v>[User_login-88]</v>
       </c>
       <c r="B98" s="174" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" s="166" t="s">
         <v>288</v>
       </c>
-      <c r="C98" s="166" t="s">
-        <v>291</v>
-      </c>
       <c r="D98" s="117" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E98" s="163"/>
-      <c r="F98" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F98" s="117"/>
+      <c r="G98" s="117"/>
+      <c r="H98" s="112"/>
       <c r="I98" s="164"/>
       <c r="J98" s="105"/>
     </row>
@@ -29264,24 +28787,18 @@
         <v>[User_login-89]</v>
       </c>
       <c r="B99" s="174" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C99" s="166" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D99" s="117" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E99" s="163"/>
-      <c r="F99" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F99" s="117"/>
+      <c r="G99" s="117"/>
+      <c r="H99" s="112"/>
       <c r="I99" s="164"/>
       <c r="J99" s="105"/>
     </row>
@@ -29291,24 +28808,18 @@
         <v>[User_login-90]</v>
       </c>
       <c r="B100" s="174" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C100" s="166" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D100" s="117" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E100" s="163"/>
-      <c r="F100" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H100" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F100" s="117"/>
+      <c r="G100" s="117"/>
+      <c r="H100" s="112"/>
       <c r="I100" s="164"/>
       <c r="J100" s="105"/>
     </row>
@@ -29318,24 +28829,18 @@
         <v>[User_login-91]</v>
       </c>
       <c r="B101" s="174" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C101" s="166" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D101" s="117" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E101" s="163"/>
-      <c r="F101" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F101" s="117"/>
+      <c r="G101" s="117"/>
+      <c r="H101" s="112"/>
       <c r="I101" s="164"/>
       <c r="J101" s="105"/>
     </row>
@@ -29345,24 +28850,18 @@
         <v>[User_login-92]</v>
       </c>
       <c r="B102" s="174" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C102" s="166" t="s">
+        <v>411</v>
+      </c>
+      <c r="D102" s="117" t="s">
         <v>414</v>
       </c>
-      <c r="D102" s="117" t="s">
-        <v>417</v>
-      </c>
       <c r="E102" s="163"/>
-      <c r="F102" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F102" s="117"/>
+      <c r="G102" s="117"/>
+      <c r="H102" s="112"/>
       <c r="I102" s="164"/>
       <c r="J102" s="105"/>
     </row>
@@ -29372,24 +28871,18 @@
         <v>[User_login-93]</v>
       </c>
       <c r="B103" s="174" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C103" s="166" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D103" s="117" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E103" s="163"/>
-      <c r="F103" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H103" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F103" s="117"/>
+      <c r="G103" s="117"/>
+      <c r="H103" s="112"/>
       <c r="I103" s="164"/>
       <c r="J103" s="105"/>
     </row>
@@ -29399,24 +28892,18 @@
         <v>[User_login-94]</v>
       </c>
       <c r="B104" s="174" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C104" s="166" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D104" s="117" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E104" s="163"/>
-      <c r="F104" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H104" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F104" s="117"/>
+      <c r="G104" s="117"/>
+      <c r="H104" s="112"/>
       <c r="I104" s="164"/>
       <c r="J104" s="105"/>
     </row>
@@ -29426,24 +28913,18 @@
         <v>[User_login-95]</v>
       </c>
       <c r="B105" s="174" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C105" s="166" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D105" s="117" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E105" s="163"/>
-      <c r="F105" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H105" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F105" s="117"/>
+      <c r="G105" s="117"/>
+      <c r="H105" s="112"/>
       <c r="I105" s="164"/>
       <c r="J105" s="105"/>
     </row>
@@ -29453,24 +28934,18 @@
         <v>[User_login-96]</v>
       </c>
       <c r="B106" s="174" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C106" s="166" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D106" s="117" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E106" s="163"/>
-      <c r="F106" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H106" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F106" s="117"/>
+      <c r="G106" s="117"/>
+      <c r="H106" s="112"/>
       <c r="I106" s="164"/>
       <c r="J106" s="105"/>
     </row>
@@ -29480,24 +28955,18 @@
         <v>[User_login-97]</v>
       </c>
       <c r="B107" s="174" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C107" s="166" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E107" s="163"/>
-      <c r="F107" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H107" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F107" s="117"/>
+      <c r="G107" s="117"/>
+      <c r="H107" s="112"/>
       <c r="I107" s="164"/>
       <c r="J107" s="105"/>
     </row>
@@ -29507,7 +28976,7 @@
         <v>[User_login-98]</v>
       </c>
       <c r="B108" s="220" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C108" s="228"/>
       <c r="D108" s="228"/>
@@ -29524,24 +28993,18 @@
         <v>[User_login-99]</v>
       </c>
       <c r="B109" s="174" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C109" s="166" t="s">
+        <v>290</v>
+      </c>
+      <c r="D109" s="117" t="s">
         <v>293</v>
       </c>
-      <c r="D109" s="117" t="s">
-        <v>296</v>
-      </c>
       <c r="E109" s="163"/>
-      <c r="F109" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H109" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F109" s="117"/>
+      <c r="G109" s="117"/>
+      <c r="H109" s="112"/>
       <c r="I109" s="164"/>
       <c r="J109" s="105"/>
     </row>
@@ -29551,24 +29014,18 @@
         <v>[User_login-100]</v>
       </c>
       <c r="B110" s="174" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C110" s="166" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D110" s="117" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E110" s="163"/>
-      <c r="F110" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H110" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F110" s="117"/>
+      <c r="G110" s="117"/>
+      <c r="H110" s="112"/>
       <c r="I110" s="164"/>
       <c r="J110" s="105"/>
     </row>
@@ -29578,24 +29035,18 @@
         <v>[User_login-101]</v>
       </c>
       <c r="B111" s="174" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C111" s="166" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D111" s="117" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E111" s="163"/>
-      <c r="F111" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H111" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F111" s="117"/>
+      <c r="G111" s="117"/>
+      <c r="H111" s="112"/>
       <c r="I111" s="164"/>
       <c r="J111" s="105"/>
     </row>
@@ -29605,24 +29056,18 @@
         <v>[User_login-102]</v>
       </c>
       <c r="B112" s="174" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C112" s="166" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D112" s="117" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E112" s="163"/>
-      <c r="F112" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H112" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F112" s="117"/>
+      <c r="G112" s="117"/>
+      <c r="H112" s="112"/>
       <c r="I112" s="164"/>
       <c r="J112" s="105"/>
     </row>
@@ -29632,24 +29077,18 @@
         <v>[User_login-103]</v>
       </c>
       <c r="B113" s="174" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C113" s="166" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D113" s="117" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E113" s="163"/>
-      <c r="F113" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H113" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F113" s="117"/>
+      <c r="G113" s="117"/>
+      <c r="H113" s="112"/>
       <c r="I113" s="164"/>
       <c r="J113" s="105"/>
     </row>
@@ -29659,24 +29098,18 @@
         <v>[User_login-104]</v>
       </c>
       <c r="B114" s="174" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C114" s="166" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D114" s="117" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E114" s="163"/>
-      <c r="F114" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H114" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F114" s="117"/>
+      <c r="G114" s="117"/>
+      <c r="H114" s="112"/>
       <c r="I114" s="164"/>
       <c r="J114" s="105"/>
     </row>
@@ -29686,24 +29119,18 @@
         <v>[User_login-105]</v>
       </c>
       <c r="B115" s="174" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C115" s="166" t="s">
+        <v>436</v>
+      </c>
+      <c r="D115" s="117" t="s">
         <v>439</v>
       </c>
-      <c r="D115" s="117" t="s">
-        <v>442</v>
-      </c>
       <c r="E115" s="163"/>
-      <c r="F115" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H115" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F115" s="117"/>
+      <c r="G115" s="117"/>
+      <c r="H115" s="112"/>
       <c r="I115" s="164"/>
       <c r="J115" s="105"/>
     </row>
@@ -29713,24 +29140,18 @@
         <v>[User_login-106]</v>
       </c>
       <c r="B116" s="174" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C116" s="166" t="s">
+        <v>437</v>
+      </c>
+      <c r="D116" s="117" t="s">
         <v>440</v>
       </c>
-      <c r="D116" s="117" t="s">
-        <v>443</v>
-      </c>
       <c r="E116" s="163"/>
-      <c r="F116" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H116" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F116" s="117"/>
+      <c r="G116" s="117"/>
+      <c r="H116" s="112"/>
       <c r="I116" s="164"/>
       <c r="J116" s="105"/>
     </row>
@@ -29740,24 +29161,18 @@
         <v>[User_login-107]</v>
       </c>
       <c r="B117" s="174" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C117" s="166" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D117" s="117" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E117" s="163"/>
-      <c r="F117" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H117" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F117" s="117"/>
+      <c r="G117" s="117"/>
+      <c r="H117" s="112"/>
       <c r="I117" s="164"/>
       <c r="J117" s="105"/>
     </row>
@@ -29767,7 +29182,7 @@
         <v>[User_login-108]</v>
       </c>
       <c r="B118" s="220" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C118" s="228"/>
       <c r="D118" s="228"/>
@@ -29784,24 +29199,18 @@
         <v>[User_login-109]</v>
       </c>
       <c r="B119" s="174" t="s">
+        <v>306</v>
+      </c>
+      <c r="C119" s="166" t="s">
         <v>309</v>
       </c>
-      <c r="C119" s="166" t="s">
-        <v>312</v>
-      </c>
       <c r="D119" s="117" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E119" s="163"/>
-      <c r="F119" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H119" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F119" s="117"/>
+      <c r="G119" s="117"/>
+      <c r="H119" s="112"/>
       <c r="I119" s="164"/>
       <c r="J119" s="105"/>
     </row>
@@ -29811,24 +29220,18 @@
         <v>[User_login-110]</v>
       </c>
       <c r="B120" s="174" t="s">
+        <v>307</v>
+      </c>
+      <c r="C120" s="166" t="s">
         <v>310</v>
       </c>
-      <c r="C120" s="166" t="s">
+      <c r="D120" s="117" t="s">
         <v>313</v>
       </c>
-      <c r="D120" s="117" t="s">
-        <v>316</v>
-      </c>
       <c r="E120" s="163"/>
-      <c r="F120" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H120" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F120" s="117"/>
+      <c r="G120" s="117"/>
+      <c r="H120" s="112"/>
       <c r="I120" s="164"/>
       <c r="J120" s="105"/>
     </row>
@@ -29838,24 +29241,18 @@
         <v>[User_login-111]</v>
       </c>
       <c r="B121" s="174" t="s">
+        <v>308</v>
+      </c>
+      <c r="C121" s="166" t="s">
         <v>311</v>
       </c>
-      <c r="C121" s="166" t="s">
-        <v>314</v>
-      </c>
       <c r="D121" s="117" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E121" s="163"/>
-      <c r="F121" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H121" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F121" s="117"/>
+      <c r="G121" s="117"/>
+      <c r="H121" s="112"/>
       <c r="I121" s="164"/>
       <c r="J121" s="105"/>
     </row>
@@ -29865,24 +29262,18 @@
         <v>[User_login-112]</v>
       </c>
       <c r="B122" s="174" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C122" s="166" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D122" s="117" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E122" s="163"/>
-      <c r="F122" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H122" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F122" s="117"/>
+      <c r="G122" s="117"/>
+      <c r="H122" s="112"/>
       <c r="I122" s="164"/>
       <c r="J122" s="105"/>
     </row>
@@ -29892,24 +29283,18 @@
         <v>[User_login-113]</v>
       </c>
       <c r="B123" s="174" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C123" s="166" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D123" s="117" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E123" s="163"/>
-      <c r="F123" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H123" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F123" s="117"/>
+      <c r="G123" s="117"/>
+      <c r="H123" s="112"/>
       <c r="I123" s="164"/>
       <c r="J123" s="105"/>
     </row>
@@ -29919,24 +29304,18 @@
         <v>[User_login-114]</v>
       </c>
       <c r="B124" s="174" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C124" s="166" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D124" s="117" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E124" s="163"/>
-      <c r="F124" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H124" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F124" s="117"/>
+      <c r="G124" s="117"/>
+      <c r="H124" s="112"/>
       <c r="I124" s="164"/>
       <c r="J124" s="105"/>
     </row>
@@ -29946,24 +29325,18 @@
         <v>[User_login-115]</v>
       </c>
       <c r="B125" s="174" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C125" s="166" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D125" s="117" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E125" s="163"/>
-      <c r="F125" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H125" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F125" s="117"/>
+      <c r="G125" s="117"/>
+      <c r="H125" s="112"/>
       <c r="I125" s="164"/>
       <c r="J125" s="105"/>
     </row>
@@ -29973,24 +29346,18 @@
         <v>[User_login-116]</v>
       </c>
       <c r="B126" s="174" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C126" s="166" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D126" s="117" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E126" s="163"/>
-      <c r="F126" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H126" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F126" s="117"/>
+      <c r="G126" s="117"/>
+      <c r="H126" s="112"/>
       <c r="I126" s="164"/>
       <c r="J126" s="105"/>
     </row>
@@ -30000,24 +29367,18 @@
         <v>[User_login-117]</v>
       </c>
       <c r="B127" s="174" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C127" s="166" t="s">
+        <v>704</v>
+      </c>
+      <c r="D127" s="117" t="s">
         <v>707</v>
       </c>
-      <c r="D127" s="117" t="s">
-        <v>710</v>
-      </c>
       <c r="E127" s="163"/>
-      <c r="F127" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H127" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F127" s="117"/>
+      <c r="G127" s="117"/>
+      <c r="H127" s="112"/>
       <c r="I127" s="164"/>
       <c r="J127" s="105"/>
     </row>
@@ -30027,24 +29388,18 @@
         <v>[User_login-118]</v>
       </c>
       <c r="B128" s="174" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C128" s="166" t="s">
+        <v>705</v>
+      </c>
+      <c r="D128" s="117" t="s">
         <v>708</v>
       </c>
-      <c r="D128" s="117" t="s">
-        <v>711</v>
-      </c>
       <c r="E128" s="163"/>
-      <c r="F128" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H128" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F128" s="117"/>
+      <c r="G128" s="117"/>
+      <c r="H128" s="112"/>
       <c r="I128" s="164"/>
       <c r="J128" s="105"/>
     </row>
@@ -30054,24 +29409,18 @@
         <v>[User_login-119]</v>
       </c>
       <c r="B129" s="174" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C129" s="166" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D129" s="117" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E129" s="163"/>
-      <c r="F129" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H129" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F129" s="117"/>
+      <c r="G129" s="117"/>
+      <c r="H129" s="112"/>
       <c r="I129" s="164"/>
       <c r="J129" s="105"/>
     </row>
@@ -30081,7 +29430,7 @@
         <v>[User_login-120]</v>
       </c>
       <c r="B130" s="220" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C130" s="228"/>
       <c r="D130" s="228"/>
@@ -30098,24 +29447,18 @@
         <v>[User_login-121]</v>
       </c>
       <c r="B131" s="174" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C131" s="166" t="s">
+        <v>458</v>
+      </c>
+      <c r="D131" s="117" t="s">
         <v>461</v>
       </c>
-      <c r="D131" s="117" t="s">
-        <v>464</v>
-      </c>
       <c r="E131" s="163"/>
-      <c r="F131" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="H131" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F131" s="117"/>
+      <c r="G131" s="117"/>
+      <c r="H131" s="112"/>
       <c r="I131" s="164"/>
       <c r="J131" s="105"/>
     </row>
@@ -30125,24 +29468,18 @@
         <v>[User_login-122]</v>
       </c>
       <c r="B132" s="174" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C132" s="166" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D132" s="117" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E132" s="163"/>
-      <c r="F132" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="H132" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F132" s="117"/>
+      <c r="G132" s="117"/>
+      <c r="H132" s="112"/>
       <c r="I132" s="164"/>
       <c r="J132" s="105"/>
     </row>
@@ -30152,24 +29489,18 @@
         <v>[User_login-123]</v>
       </c>
       <c r="B133" s="117" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C133" s="117" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D133" s="117" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E133" s="163"/>
-      <c r="F133" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H133" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F133" s="117"/>
+      <c r="G133" s="117"/>
+      <c r="H133" s="112"/>
       <c r="I133" s="164"/>
       <c r="J133" s="105"/>
     </row>
@@ -30179,24 +29510,18 @@
         <v>[User_login-124]</v>
       </c>
       <c r="B134" s="117" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C134" s="117" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D134" s="117" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E134" s="163"/>
-      <c r="F134" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H134" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F134" s="117"/>
+      <c r="G134" s="117"/>
+      <c r="H134" s="112"/>
       <c r="I134" s="164"/>
       <c r="J134" s="105"/>
     </row>
@@ -30206,24 +29531,18 @@
         <v>[User_login-125]</v>
       </c>
       <c r="B135" s="117" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C135" s="117" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D135" s="117" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E135" s="163"/>
-      <c r="F135" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H135" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F135" s="117"/>
+      <c r="G135" s="117"/>
+      <c r="H135" s="112"/>
       <c r="I135" s="164"/>
       <c r="J135" s="105"/>
     </row>
@@ -30233,24 +29552,18 @@
         <v>[User_login-126]</v>
       </c>
       <c r="B136" s="117" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C136" s="117" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D136" s="117" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E136" s="163"/>
-      <c r="F136" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H136" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F136" s="117"/>
+      <c r="G136" s="117"/>
+      <c r="H136" s="112"/>
       <c r="I136" s="164"/>
       <c r="J136" s="105"/>
     </row>
@@ -30260,24 +29573,18 @@
         <v>[User_login-127]</v>
       </c>
       <c r="B137" s="117" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C137" s="117" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D137" s="117" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E137" s="163"/>
-      <c r="F137" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H137" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F137" s="117"/>
+      <c r="G137" s="117"/>
+      <c r="H137" s="112"/>
       <c r="I137" s="164"/>
       <c r="J137" s="105"/>
     </row>
@@ -30287,24 +29594,18 @@
         <v>[User_login-128]</v>
       </c>
       <c r="B138" s="117" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C138" s="117" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D138" s="117" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E138" s="163"/>
-      <c r="F138" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H138" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F138" s="117"/>
+      <c r="G138" s="117"/>
+      <c r="H138" s="112"/>
       <c r="I138" s="164"/>
       <c r="J138" s="105"/>
     </row>
@@ -30314,24 +29615,18 @@
         <v>[User_login-129]</v>
       </c>
       <c r="B139" s="117" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C139" s="117" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D139" s="117" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E139" s="163"/>
-      <c r="F139" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H139" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F139" s="117"/>
+      <c r="G139" s="117"/>
+      <c r="H139" s="112"/>
       <c r="I139" s="164"/>
       <c r="J139" s="105"/>
     </row>
@@ -30341,24 +29636,18 @@
         <v>[User_login-130]</v>
       </c>
       <c r="B140" s="117" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C140" s="117" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D140" s="117" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E140" s="163"/>
-      <c r="F140" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H140" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F140" s="117"/>
+      <c r="G140" s="117"/>
+      <c r="H140" s="112"/>
       <c r="I140" s="164"/>
       <c r="J140" s="105"/>
     </row>
@@ -30368,24 +29657,18 @@
         <v>[User_login-131]</v>
       </c>
       <c r="B141" s="117" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C141" s="117" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D141" s="117" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E141" s="163"/>
-      <c r="F141" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H141" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F141" s="117"/>
+      <c r="G141" s="117"/>
+      <c r="H141" s="112"/>
       <c r="I141" s="164"/>
       <c r="J141" s="105"/>
     </row>
@@ -30395,31 +29678,25 @@
         <v>[User_login-132]</v>
       </c>
       <c r="B142" s="117" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C142" s="117" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D142" s="117" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E142" s="176"/>
-      <c r="F142" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" s="175" t="s">
-        <v>22</v>
-      </c>
-      <c r="H142" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F142" s="117"/>
+      <c r="G142" s="175"/>
+      <c r="H142" s="112"/>
       <c r="I142" s="173"/>
       <c r="J142" s="105"/>
     </row>
     <row r="143" spans="1:10" ht="14.25" customHeight="1">
       <c r="A143" s="61"/>
       <c r="B143" s="220" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C143" s="228"/>
       <c r="D143" s="228"/>
@@ -30436,24 +29713,18 @@
         <v>[User_login-134]</v>
       </c>
       <c r="B144" s="174" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C144" s="117" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D144" s="117" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E144" s="163"/>
-      <c r="F144" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H144" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F144" s="117"/>
+      <c r="G144" s="117"/>
+      <c r="H144" s="112"/>
       <c r="I144" s="164"/>
       <c r="J144" s="105"/>
     </row>
@@ -30463,24 +29734,18 @@
         <v>[User_login-135]</v>
       </c>
       <c r="B145" s="174" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C145" s="117" t="s">
+        <v>487</v>
+      </c>
+      <c r="D145" s="117" t="s">
         <v>490</v>
       </c>
-      <c r="D145" s="117" t="s">
-        <v>493</v>
-      </c>
       <c r="E145" s="163"/>
-      <c r="F145" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H145" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F145" s="117"/>
+      <c r="G145" s="117"/>
+      <c r="H145" s="112"/>
       <c r="I145" s="164"/>
       <c r="J145" s="105"/>
     </row>
@@ -30490,24 +29755,18 @@
         <v>[User_login-136]</v>
       </c>
       <c r="B146" s="174" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C146" s="117" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D146" s="117" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E146" s="163"/>
-      <c r="F146" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H146" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F146" s="117"/>
+      <c r="G146" s="117"/>
+      <c r="H146" s="112"/>
       <c r="I146" s="164"/>
       <c r="J146" s="105"/>
     </row>
@@ -30517,24 +29776,18 @@
         <v>[User_login-137]</v>
       </c>
       <c r="B147" s="174" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C147" s="117" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D147" s="117" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E147" s="163"/>
-      <c r="F147" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H147" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F147" s="117"/>
+      <c r="G147" s="117"/>
+      <c r="H147" s="112"/>
       <c r="I147" s="164"/>
       <c r="J147" s="105"/>
     </row>
@@ -30544,31 +29797,25 @@
         <v>[User_login-138]</v>
       </c>
       <c r="B148" s="174" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C148" s="117" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D148" s="117" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E148" s="163"/>
-      <c r="F148" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H148" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F148" s="117"/>
+      <c r="G148" s="117"/>
+      <c r="H148" s="112"/>
       <c r="I148" s="164"/>
       <c r="J148" s="105"/>
     </row>
     <row r="149" spans="1:16" ht="14.25" customHeight="1">
       <c r="A149" s="61"/>
       <c r="B149" s="220" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C149" s="228"/>
       <c r="D149" s="228"/>
@@ -30585,24 +29832,18 @@
         <v>[User_login-140]</v>
       </c>
       <c r="B150" s="174" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C150" s="117" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D150" s="117" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E150" s="118"/>
-      <c r="F150" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G150" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H150" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F150" s="117"/>
+      <c r="G150" s="117"/>
+      <c r="H150" s="112"/>
       <c r="I150" s="120"/>
       <c r="J150" s="105"/>
     </row>
@@ -30612,24 +29853,18 @@
         <v>[User_login-141]</v>
       </c>
       <c r="B151" s="174" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C151" s="117" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D151" s="117" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E151" s="118"/>
-      <c r="F151" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H151" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F151" s="117"/>
+      <c r="G151" s="117"/>
+      <c r="H151" s="112"/>
       <c r="I151" s="120"/>
       <c r="J151" s="105"/>
     </row>
@@ -30639,24 +29874,18 @@
         <v>[User_login-142]</v>
       </c>
       <c r="B152" s="174" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C152" s="117" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D152" s="117" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E152" s="118"/>
-      <c r="F152" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H152" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F152" s="117"/>
+      <c r="G152" s="117"/>
+      <c r="H152" s="112"/>
       <c r="I152" s="120"/>
       <c r="J152" s="105"/>
     </row>
@@ -30666,24 +29895,18 @@
         <v>[User_login-143]</v>
       </c>
       <c r="B153" s="174" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C153" s="117" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D153" s="117" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E153" s="118"/>
-      <c r="F153" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H153" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F153" s="117"/>
+      <c r="G153" s="117"/>
+      <c r="H153" s="112"/>
       <c r="I153" s="120"/>
       <c r="J153" s="105"/>
     </row>
@@ -30693,24 +29916,18 @@
         <v>[User_login-144]</v>
       </c>
       <c r="B154" s="174" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C154" s="117" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D154" s="117" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E154" s="118"/>
-      <c r="F154" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H154" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F154" s="117"/>
+      <c r="G154" s="117"/>
+      <c r="H154" s="112"/>
       <c r="I154" s="120"/>
       <c r="J154" s="105"/>
     </row>
@@ -30720,24 +29937,18 @@
         <v>[User_login-145]</v>
       </c>
       <c r="B155" s="240" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C155" s="117" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D155" s="117" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E155" s="118"/>
-      <c r="F155" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H155" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F155" s="117"/>
+      <c r="G155" s="117"/>
+      <c r="H155" s="112"/>
       <c r="I155" s="120"/>
       <c r="J155" s="105"/>
     </row>
@@ -30761,7 +29972,7 @@
     </row>
     <row r="157" spans="1:16" s="172" customFormat="1" ht="14.25" customHeight="1">
       <c r="B157" s="172" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H157" s="112"/>
       <c r="K157" s="198"/>
@@ -30774,7 +29985,7 @@
     <row r="158" spans="1:16" s="192" customFormat="1" ht="14.25" customHeight="1">
       <c r="A158" s="193"/>
       <c r="B158" s="194" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C158" s="195"/>
       <c r="D158" s="195"/>
@@ -30796,24 +30007,18 @@
         <v>ID-137</v>
       </c>
       <c r="B159" s="117" t="s">
+        <v>297</v>
+      </c>
+      <c r="C159" s="117" t="s">
         <v>300</v>
       </c>
-      <c r="C159" s="117" t="s">
-        <v>303</v>
-      </c>
       <c r="D159" s="117" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E159" s="117"/>
-      <c r="F159" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H159" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F159" s="117"/>
+      <c r="G159" s="117"/>
+      <c r="H159" s="112"/>
       <c r="I159" s="196"/>
     </row>
     <row r="160" spans="1:16" s="197" customFormat="1" ht="12" customHeight="1">
@@ -30822,24 +30027,18 @@
         <v>ID-138</v>
       </c>
       <c r="B160" s="117" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C160" s="117" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D160" s="117" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E160" s="117"/>
-      <c r="F160" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H160" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F160" s="117"/>
+      <c r="G160" s="117"/>
+      <c r="H160" s="112"/>
       <c r="I160" s="196"/>
       <c r="K160" s="192"/>
       <c r="L160" s="192"/>
@@ -30854,24 +30053,18 @@
         <v>ID-139</v>
       </c>
       <c r="B161" s="117" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C161" s="117" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D161" s="117" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E161" s="117"/>
-      <c r="F161" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H161" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F161" s="117"/>
+      <c r="G161" s="117"/>
+      <c r="H161" s="112"/>
       <c r="I161" s="196"/>
       <c r="K161" s="192"/>
       <c r="L161" s="192"/>
@@ -30886,24 +30079,18 @@
         <v>ID-140</v>
       </c>
       <c r="B162" s="117" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C162" s="117" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D162" s="117" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E162" s="117"/>
-      <c r="F162" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G162" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H162" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F162" s="117"/>
+      <c r="G162" s="117"/>
+      <c r="H162" s="112"/>
       <c r="I162" s="117"/>
       <c r="K162" s="192"/>
       <c r="L162" s="192"/>
@@ -30914,14 +30101,10 @@
     </row>
     <row r="163" spans="1:16" s="172" customFormat="1" ht="14.25" customHeight="1">
       <c r="B163" s="172" t="s">
-        <v>136</v>
-      </c>
-      <c r="F163" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G163" s="117" t="s">
-        <v>22</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F163" s="117"/>
+      <c r="G163" s="117"/>
       <c r="H163" s="112"/>
       <c r="K163" s="192"/>
       <c r="L163" s="192"/>
@@ -30936,24 +30119,18 @@
         <v>ID-141</v>
       </c>
       <c r="B164" s="117" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C164" s="117" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D164" s="117" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E164" s="117"/>
-      <c r="F164" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H164" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F164" s="117"/>
+      <c r="G164" s="117"/>
+      <c r="H164" s="112"/>
       <c r="I164" s="117"/>
       <c r="K164" s="192"/>
       <c r="L164" s="192"/>
@@ -30968,24 +30145,18 @@
         <v>ID-142</v>
       </c>
       <c r="B165" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="C165" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="D165" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="C165" s="117" t="s">
-        <v>139</v>
-      </c>
-      <c r="D165" s="117" t="s">
-        <v>140</v>
-      </c>
       <c r="E165" s="117"/>
-      <c r="F165" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G165" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H165" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F165" s="117"/>
+      <c r="G165" s="117"/>
+      <c r="H165" s="112"/>
       <c r="I165" s="117"/>
       <c r="K165" s="192"/>
       <c r="L165" s="192"/>
@@ -31000,24 +30171,18 @@
         <v>ID-143</v>
       </c>
       <c r="B166" s="117" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C166" s="117" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D166" s="117" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E166" s="117"/>
-      <c r="F166" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G166" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H166" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F166" s="117"/>
+      <c r="G166" s="117"/>
+      <c r="H166" s="112"/>
       <c r="I166" s="117"/>
       <c r="K166" s="192"/>
       <c r="L166" s="192"/>
@@ -31032,24 +30197,18 @@
         <v>ID-144</v>
       </c>
       <c r="B167" s="117" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C167" s="117" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D167" s="117" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E167" s="117"/>
-      <c r="F167" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G167" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H167" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F167" s="117"/>
+      <c r="G167" s="117"/>
+      <c r="H167" s="112"/>
       <c r="I167" s="117"/>
       <c r="K167" s="192"/>
       <c r="L167" s="192"/>
@@ -31064,24 +30223,18 @@
         <v>ID-145</v>
       </c>
       <c r="B168" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="C168" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="D168" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="C168" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="D168" s="117" t="s">
-        <v>147</v>
-      </c>
       <c r="E168" s="117"/>
-      <c r="F168" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G168" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H168" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F168" s="117"/>
+      <c r="G168" s="117"/>
+      <c r="H168" s="112"/>
       <c r="I168" s="117"/>
       <c r="K168" s="105"/>
       <c r="L168" s="105"/>
@@ -31096,24 +30249,18 @@
         <v>ID-146</v>
       </c>
       <c r="B169" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="C169" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="D169" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="C169" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="D169" s="117" t="s">
-        <v>150</v>
-      </c>
       <c r="E169" s="117"/>
-      <c r="F169" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H169" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F169" s="117"/>
+      <c r="G169" s="117"/>
+      <c r="H169" s="112"/>
       <c r="I169" s="117"/>
       <c r="K169" s="105"/>
       <c r="L169" s="105"/>
@@ -31128,24 +30275,18 @@
         <v>ID-147</v>
       </c>
       <c r="B170" s="117" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C170" s="117" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D170" s="117" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E170" s="117"/>
-      <c r="F170" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H170" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F170" s="117"/>
+      <c r="G170" s="117"/>
+      <c r="H170" s="112"/>
       <c r="I170" s="117"/>
       <c r="K170" s="105"/>
       <c r="L170" s="105"/>
@@ -31160,24 +30301,18 @@
         <v>ID-148</v>
       </c>
       <c r="B171" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="C171" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="D171" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="C171" s="117" t="s">
-        <v>152</v>
-      </c>
-      <c r="D171" s="117" t="s">
-        <v>153</v>
-      </c>
       <c r="E171" s="117"/>
-      <c r="F171" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G171" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H171" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F171" s="117"/>
+      <c r="G171" s="117"/>
+      <c r="H171" s="112"/>
       <c r="I171" s="117"/>
       <c r="K171" s="105"/>
       <c r="L171" s="105"/>
@@ -31192,24 +30327,18 @@
         <v>ID-149</v>
       </c>
       <c r="B172" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="C172" s="117" t="s">
+        <v>153</v>
+      </c>
+      <c r="D172" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="C172" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="D172" s="117" t="s">
-        <v>156</v>
-      </c>
       <c r="E172" s="117"/>
-      <c r="F172" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G172" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H172" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F172" s="117"/>
+      <c r="G172" s="117"/>
+      <c r="H172" s="112"/>
       <c r="I172" s="117"/>
       <c r="K172" s="105"/>
       <c r="L172" s="105"/>
@@ -31224,24 +30353,18 @@
         <v>ID-150</v>
       </c>
       <c r="B173" s="117" t="s">
+        <v>155</v>
+      </c>
+      <c r="C173" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="D173" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="C173" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="D173" s="117" t="s">
-        <v>159</v>
-      </c>
       <c r="E173" s="117"/>
-      <c r="F173" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H173" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F173" s="117"/>
+      <c r="G173" s="117"/>
+      <c r="H173" s="112"/>
       <c r="I173" s="117"/>
       <c r="K173" s="105"/>
       <c r="L173" s="105"/>
@@ -31256,24 +30379,18 @@
         <v>ID-151</v>
       </c>
       <c r="B174" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="C174" s="117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D174" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="C174" s="117" t="s">
-        <v>161</v>
-      </c>
-      <c r="D174" s="117" t="s">
-        <v>162</v>
-      </c>
       <c r="E174" s="117"/>
-      <c r="F174" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G174" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H174" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F174" s="117"/>
+      <c r="G174" s="117"/>
+      <c r="H174" s="112"/>
       <c r="I174" s="117"/>
       <c r="K174" s="105"/>
       <c r="L174" s="105"/>
@@ -31288,24 +30405,18 @@
         <v>ID-152</v>
       </c>
       <c r="B175" s="117" t="s">
+        <v>161</v>
+      </c>
+      <c r="C175" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D175" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="C175" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="D175" s="117" t="s">
-        <v>165</v>
-      </c>
       <c r="E175" s="117"/>
-      <c r="F175" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H175" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F175" s="117"/>
+      <c r="G175" s="117"/>
+      <c r="H175" s="112"/>
       <c r="I175" s="117"/>
       <c r="K175" s="105"/>
       <c r="L175" s="105"/>
@@ -31320,24 +30431,18 @@
         <v>ID-153</v>
       </c>
       <c r="B176" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="C176" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="D176" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="C176" s="117" t="s">
-        <v>167</v>
-      </c>
-      <c r="D176" s="117" t="s">
-        <v>168</v>
-      </c>
       <c r="E176" s="117"/>
-      <c r="F176" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H176" s="112">
-        <v>42412</v>
-      </c>
+      <c r="F176" s="117"/>
+      <c r="G176" s="117"/>
+      <c r="H176" s="112"/>
       <c r="I176" s="117"/>
       <c r="K176" s="105"/>
       <c r="L176" s="105"/>
@@ -31390,8 +30495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -31414,7 +30519,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="137" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="138" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -31441,10 +30546,10 @@
     </row>
     <row r="3" spans="1:10" s="137" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="142" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" s="255" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="255"/>
       <c r="D3" s="255"/>
@@ -31457,10 +30562,10 @@
     </row>
     <row r="4" spans="1:10" s="137" customFormat="1" ht="14.25">
       <c r="A4" s="141" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="256" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" s="256"/>
       <c r="D4" s="256"/>
@@ -31477,13 +30582,13 @@
         <v>24</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="145" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="260" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F5" s="260"/>
       <c r="G5" s="260"/>
@@ -31494,7 +30599,7 @@
     <row r="6" spans="1:10" s="137" customFormat="1" ht="15" thickBot="1">
       <c r="A6" s="130">
         <f>COUNTIF(F11:G314,"Pass")</f>
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="B6" s="101">
         <f>COUNTIF(F11:G761,"Fail")</f>
@@ -31502,7 +30607,7 @@
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="D6" s="102">
         <f>COUNTIF(F11:G761,"N/A")</f>
@@ -31544,25 +30649,25 @@
         <v>30</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>76</v>
+        <v>726</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>77</v>
+        <v>727</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>36</v>
@@ -31571,7 +30676,7 @@
     <row r="11" spans="1:10" s="137" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="177"/>
       <c r="B11" s="259" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C11" s="259"/>
       <c r="D11" s="259"/>
@@ -31590,21 +30695,15 @@
         <v>60</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E12" s="178"/>
-      <c r="F12" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="242"/>
       <c r="I12" s="179"/>
     </row>
     <row r="13" spans="1:10" s="111" customFormat="1" ht="110.25" customHeight="1">
@@ -31613,24 +30712,18 @@
         <v>[Admin_login-3]</v>
       </c>
       <c r="B13" s="117" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E13" s="180"/>
-      <c r="F13" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="242"/>
       <c r="I13" s="181"/>
     </row>
     <row r="14" spans="1:10" s="111" customFormat="1" ht="54" customHeight="1">
@@ -31639,24 +30732,18 @@
         <v>[Admin_login-4]</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E14" s="180"/>
-      <c r="F14" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="242"/>
       <c r="I14" s="181"/>
     </row>
     <row r="15" spans="1:10" s="111" customFormat="1" ht="64.5" customHeight="1">
@@ -31665,24 +30752,18 @@
         <v>[Admin_login-5]</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E15" s="180"/>
-      <c r="F15" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="242"/>
       <c r="I15" s="181"/>
     </row>
     <row r="16" spans="1:10" s="111" customFormat="1" ht="55.5" customHeight="1">
@@ -31691,24 +30772,18 @@
         <v>[Admin_login-6]</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C16" s="121" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E16" s="180"/>
-      <c r="F16" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="242"/>
       <c r="I16" s="181"/>
     </row>
     <row r="17" spans="1:10" s="111" customFormat="1" ht="82.5" customHeight="1">
@@ -31717,24 +30792,18 @@
         <v>[Admin_login-7]</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C17" s="123" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E17" s="180"/>
-      <c r="F17" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="242"/>
       <c r="I17" s="181"/>
     </row>
     <row r="18" spans="1:10" s="111" customFormat="1" ht="82.5" customHeight="1">
@@ -31743,24 +30812,18 @@
         <v>[Admin_login-8]</v>
       </c>
       <c r="B18" s="214" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C18" s="214" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E18" s="180"/>
-      <c r="F18" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="242"/>
       <c r="I18" s="181"/>
     </row>
     <row r="19" spans="1:10" s="111" customFormat="1" ht="86.25" customHeight="1">
@@ -31769,24 +30832,18 @@
         <v>[Admin_login-9]</v>
       </c>
       <c r="B19" s="214" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C19" s="214" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E19" s="180"/>
-      <c r="F19" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="242"/>
       <c r="I19" s="181"/>
     </row>
     <row r="20" spans="1:10" ht="75" customHeight="1">
@@ -31795,40 +30852,32 @@
         <v>[Admin_login-10]</v>
       </c>
       <c r="B20" s="214" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C20" s="214" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E20" s="180"/>
-      <c r="F20" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="242"/>
       <c r="I20" s="182"/>
       <c r="J20" s="105"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="183"/>
       <c r="B21" s="184" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C21" s="183"/>
       <c r="D21" s="183"/>
       <c r="E21" s="183"/>
       <c r="F21" s="183"/>
       <c r="G21" s="183"/>
-      <c r="H21" s="242">
-        <v>42412</v>
-      </c>
+      <c r="H21" s="242"/>
       <c r="I21" s="185"/>
       <c r="J21" s="105"/>
     </row>
@@ -31838,26 +30887,20 @@
         <v>[Admin_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E22" s="186" t="s">
-        <v>341</v>
-      </c>
-      <c r="F22" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="242">
-        <v>42412</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="242"/>
       <c r="I22" s="182"/>
       <c r="J22" s="105"/>
     </row>
@@ -31867,26 +30910,20 @@
         <v>[Admin_login-13]</v>
       </c>
       <c r="B23" s="117" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D23" s="187" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" s="186" t="s">
         <v>338</v>
       </c>
-      <c r="E23" s="186" t="s">
-        <v>341</v>
-      </c>
-      <c r="F23" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="242"/>
       <c r="I23" s="182"/>
       <c r="J23" s="105"/>
     </row>
@@ -31896,33 +30933,27 @@
         <v>[Admin_login-14]</v>
       </c>
       <c r="B24" s="117" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C24" s="117" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D24" s="187" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E24" s="186" t="s">
-        <v>341</v>
-      </c>
-      <c r="F24" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="242">
-        <v>42412</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="242"/>
       <c r="I24" s="182"/>
       <c r="J24" s="105"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
       <c r="A25" s="183"/>
       <c r="B25" s="184" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C25" s="183"/>
       <c r="D25" s="183"/>
@@ -31939,24 +30970,18 @@
         <v>[Admin_login-16]</v>
       </c>
       <c r="B26" s="117" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C26" s="117" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D26" s="187" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E26" s="186"/>
-      <c r="F26" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="242"/>
       <c r="I26" s="117"/>
       <c r="J26" s="105"/>
     </row>
@@ -31966,24 +30991,18 @@
         <v>[Admin_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D27" s="187" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E27" s="186"/>
-      <c r="F27" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="242"/>
       <c r="I27" s="117"/>
       <c r="J27" s="105"/>
     </row>
@@ -31993,24 +31012,18 @@
         <v>[Admin_login-18]</v>
       </c>
       <c r="B28" s="117" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C28" s="117" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D28" s="187" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E28" s="186"/>
-      <c r="F28" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="242"/>
       <c r="I28" s="182"/>
       <c r="J28" s="105"/>
     </row>
@@ -32020,24 +31033,18 @@
         <v>[Admin_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D29" s="187" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E29" s="186"/>
-      <c r="F29" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="242"/>
       <c r="I29" s="182"/>
       <c r="J29" s="105"/>
     </row>
@@ -32047,31 +31054,25 @@
         <v>[Admin_login-20]</v>
       </c>
       <c r="B30" s="117" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C30" s="117" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D30" s="187" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E30" s="186"/>
-      <c r="F30" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="242"/>
       <c r="I30" s="182"/>
       <c r="J30" s="105"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
       <c r="A31" s="165"/>
       <c r="B31" s="184" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C31" s="183"/>
       <c r="D31" s="183"/>
@@ -32088,24 +31089,18 @@
         <v>[Admin_login-22]</v>
       </c>
       <c r="B32" s="117" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C32" s="117" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D32" s="187" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E32" s="186"/>
-      <c r="F32" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="242"/>
       <c r="I32" s="188"/>
       <c r="J32" s="105"/>
     </row>
@@ -32115,24 +31110,18 @@
         <v>[Admin_login-23]</v>
       </c>
       <c r="B33" s="117" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C33" s="117" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D33" s="187" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E33" s="186"/>
-      <c r="F33" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="242"/>
       <c r="I33" s="188"/>
       <c r="J33" s="105"/>
     </row>
@@ -32142,24 +31131,18 @@
         <v>[Admin_login-24]</v>
       </c>
       <c r="B34" s="117" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C34" s="117" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D34" s="187" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E34" s="186"/>
-      <c r="F34" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="242"/>
       <c r="I34" s="188"/>
       <c r="J34" s="105"/>
     </row>
@@ -32169,24 +31152,18 @@
         <v>[Admin_login-25]</v>
       </c>
       <c r="B35" s="117" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C35" s="117" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D35" s="187" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E35" s="186"/>
-      <c r="F35" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="242"/>
       <c r="I35" s="188"/>
       <c r="J35" s="105"/>
     </row>
@@ -32196,24 +31173,18 @@
         <v>[Admin_login-26]</v>
       </c>
       <c r="B36" s="117" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C36" s="117" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D36" s="187" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E36" s="186"/>
-      <c r="F36" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="242"/>
       <c r="I36" s="188"/>
       <c r="J36" s="105"/>
     </row>
@@ -32223,24 +31194,18 @@
         <v>[Admin_login-27]</v>
       </c>
       <c r="B37" s="117" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C37" s="117" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D37" s="187" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E37" s="186"/>
-      <c r="F37" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="242"/>
       <c r="I37" s="188"/>
       <c r="J37" s="105"/>
     </row>
@@ -32250,24 +31215,18 @@
         <v>[Admin_login-28]</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C38" s="117" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D38" s="187" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E38" s="186"/>
-      <c r="F38" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="242"/>
       <c r="I38" s="188"/>
       <c r="J38" s="105"/>
     </row>
@@ -32277,24 +31236,18 @@
         <v>[Admin_login-29]</v>
       </c>
       <c r="B39" s="117" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C39" s="117" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D39" s="187" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E39" s="186"/>
-      <c r="F39" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="242"/>
       <c r="I39" s="188"/>
       <c r="J39" s="105"/>
     </row>
@@ -32304,31 +31257,25 @@
         <v>[Admin_login-30]</v>
       </c>
       <c r="B40" s="117" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C40" s="117" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D40" s="187" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E40" s="186"/>
-      <c r="F40" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="242"/>
       <c r="I40" s="188"/>
       <c r="J40" s="105"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
       <c r="A41" s="165"/>
       <c r="B41" s="184" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C41" s="183"/>
       <c r="D41" s="183"/>
@@ -32345,24 +31292,18 @@
         <v>[Admin_login-32]</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C42" s="117" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D42" s="187" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E42" s="186"/>
-      <c r="F42" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="242"/>
       <c r="I42" s="125"/>
       <c r="J42" s="105"/>
     </row>
@@ -32372,24 +31313,18 @@
         <v>[Admin_login-33]</v>
       </c>
       <c r="B43" s="117" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C43" s="117" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D43" s="187" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E43" s="186"/>
-      <c r="F43" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="242"/>
       <c r="I43" s="125"/>
       <c r="J43" s="105"/>
     </row>
@@ -32399,24 +31334,18 @@
         <v>[Admin_login-34]</v>
       </c>
       <c r="B44" s="117" t="s">
+        <v>538</v>
+      </c>
+      <c r="C44" s="117" t="s">
+        <v>536</v>
+      </c>
+      <c r="D44" s="187" t="s">
         <v>541</v>
       </c>
-      <c r="C44" s="117" t="s">
-        <v>539</v>
-      </c>
-      <c r="D44" s="187" t="s">
-        <v>544</v>
-      </c>
       <c r="E44" s="186"/>
-      <c r="F44" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="242"/>
       <c r="I44" s="125"/>
       <c r="J44" s="105"/>
     </row>
@@ -32426,24 +31355,18 @@
         <v>[Admin_login-35]</v>
       </c>
       <c r="B45" s="117" t="s">
+        <v>539</v>
+      </c>
+      <c r="C45" s="117" t="s">
+        <v>536</v>
+      </c>
+      <c r="D45" s="187" t="s">
         <v>542</v>
       </c>
-      <c r="C45" s="117" t="s">
-        <v>539</v>
-      </c>
-      <c r="D45" s="187" t="s">
-        <v>545</v>
-      </c>
       <c r="E45" s="186"/>
-      <c r="F45" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="242"/>
       <c r="I45" s="125"/>
       <c r="J45" s="105"/>
     </row>
@@ -32453,24 +31376,18 @@
         <v>[Admin_login-36]</v>
       </c>
       <c r="B46" s="117" t="s">
+        <v>540</v>
+      </c>
+      <c r="C46" s="117" t="s">
+        <v>536</v>
+      </c>
+      <c r="D46" s="187" t="s">
         <v>543</v>
       </c>
-      <c r="C46" s="117" t="s">
-        <v>539</v>
-      </c>
-      <c r="D46" s="187" t="s">
-        <v>546</v>
-      </c>
       <c r="E46" s="186"/>
-      <c r="F46" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="242"/>
       <c r="I46" s="125"/>
       <c r="J46" s="105"/>
     </row>
@@ -32480,24 +31397,18 @@
         <v>[Admin_login-37]</v>
       </c>
       <c r="B47" s="117" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C47" s="117" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D47" s="187" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E47" s="186"/>
-      <c r="F47" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="242"/>
       <c r="I47" s="125"/>
       <c r="J47" s="105"/>
     </row>
@@ -32507,24 +31418,18 @@
         <v>[Admin_login-38]</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C48" s="117" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D48" s="187" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E48" s="186"/>
-      <c r="F48" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="242"/>
       <c r="I48" s="125"/>
       <c r="J48" s="105"/>
     </row>
@@ -32534,24 +31439,18 @@
         <v>[Admin_login-39]</v>
       </c>
       <c r="B49" s="117" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C49" s="117" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D49" s="187" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E49" s="186"/>
-      <c r="F49" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="242"/>
       <c r="I49" s="186"/>
       <c r="J49" s="105"/>
     </row>
@@ -32561,24 +31460,18 @@
         <v>[Admin_login-40]</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D50" s="187" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E50" s="186"/>
-      <c r="F50" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="242"/>
       <c r="I50" s="125"/>
       <c r="J50" s="105"/>
     </row>
@@ -32588,24 +31481,18 @@
         <v>[Admin_login-41]</v>
       </c>
       <c r="B51" s="117" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C51" s="117" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D51" s="187" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E51" s="186"/>
-      <c r="F51" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="242"/>
       <c r="I51" s="125"/>
       <c r="J51" s="105"/>
     </row>
@@ -32615,31 +31502,25 @@
         <v>[Admin_login-42]</v>
       </c>
       <c r="B52" s="117" t="s">
+        <v>555</v>
+      </c>
+      <c r="C52" s="117" t="s">
         <v>558</v>
       </c>
-      <c r="C52" s="117" t="s">
-        <v>561</v>
-      </c>
       <c r="D52" s="187" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E52" s="186"/>
-      <c r="F52" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="242"/>
       <c r="I52" s="125"/>
       <c r="J52" s="105"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
       <c r="A53" s="165"/>
       <c r="B53" s="184" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C53" s="183"/>
       <c r="D53" s="183"/>
@@ -32656,24 +31537,18 @@
         <v>[Admin_login-44]</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C54" s="117" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D54" s="187" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E54" s="186"/>
-      <c r="F54" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="242"/>
       <c r="I54" s="125"/>
       <c r="J54" s="105"/>
     </row>
@@ -32683,24 +31558,18 @@
         <v>[Admin_login-45]</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C55" s="117" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D55" s="187" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E55" s="186"/>
-      <c r="F55" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="242"/>
       <c r="I55" s="125"/>
       <c r="J55" s="105"/>
     </row>
@@ -32710,24 +31579,18 @@
         <v>[Admin_login-46]</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C56" s="117" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D56" s="187" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E56" s="186"/>
-      <c r="F56" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="242"/>
       <c r="I56" s="125"/>
       <c r="J56" s="105"/>
     </row>
@@ -32737,24 +31600,18 @@
         <v>[Admin_login-47]</v>
       </c>
       <c r="B57" s="117" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C57" s="117" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D57" s="187" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E57" s="186"/>
-      <c r="F57" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="242"/>
       <c r="I57" s="125"/>
       <c r="J57" s="105"/>
     </row>
@@ -32764,24 +31621,18 @@
         <v>[Admin_login-48]</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C58" s="117" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D58" s="187" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E58" s="186"/>
-      <c r="F58" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F58" s="117"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="242"/>
       <c r="I58" s="125"/>
       <c r="J58" s="105"/>
     </row>
@@ -32791,24 +31642,18 @@
         <v>[Admin_login-49]</v>
       </c>
       <c r="B59" s="117" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C59" s="117" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D59" s="187" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E59" s="186"/>
-      <c r="F59" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="242"/>
       <c r="I59" s="125"/>
       <c r="J59" s="105"/>
     </row>
@@ -32818,24 +31663,18 @@
         <v>[Admin_login-50]</v>
       </c>
       <c r="B60" s="117" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C60" s="117" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D60" s="187" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E60" s="186"/>
-      <c r="F60" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="242"/>
       <c r="I60" s="125"/>
       <c r="J60" s="105"/>
     </row>
@@ -32845,24 +31684,18 @@
         <v>[Admin_login-51]</v>
       </c>
       <c r="B61" s="117" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C61" s="117" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D61" s="187" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E61" s="186"/>
-      <c r="F61" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="242"/>
       <c r="I61" s="125"/>
       <c r="J61" s="105"/>
     </row>
@@ -32872,24 +31705,18 @@
         <v>[Admin_login-52]</v>
       </c>
       <c r="B62" s="117" t="s">
+        <v>585</v>
+      </c>
+      <c r="C62" s="117" t="s">
+        <v>587</v>
+      </c>
+      <c r="D62" s="187" t="s">
         <v>588</v>
       </c>
-      <c r="C62" s="117" t="s">
-        <v>590</v>
-      </c>
-      <c r="D62" s="187" t="s">
-        <v>591</v>
-      </c>
       <c r="E62" s="186"/>
-      <c r="F62" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F62" s="117"/>
+      <c r="G62" s="117"/>
+      <c r="H62" s="242"/>
       <c r="I62" s="125"/>
       <c r="J62" s="105"/>
     </row>
@@ -32899,24 +31726,18 @@
         <v>[Admin_login-53]</v>
       </c>
       <c r="B63" s="117" t="s">
+        <v>586</v>
+      </c>
+      <c r="C63" s="117" t="s">
+        <v>590</v>
+      </c>
+      <c r="D63" s="187" t="s">
         <v>589</v>
       </c>
-      <c r="C63" s="117" t="s">
-        <v>593</v>
-      </c>
-      <c r="D63" s="187" t="s">
-        <v>592</v>
-      </c>
       <c r="E63" s="186"/>
-      <c r="F63" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H63" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F63" s="117"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="242"/>
       <c r="I63" s="125"/>
       <c r="J63" s="105"/>
     </row>
@@ -32926,24 +31747,18 @@
         <v>[Admin_login-54]</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C64" s="117" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D64" s="187" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E64" s="186"/>
-      <c r="F64" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="242"/>
       <c r="I64" s="125"/>
       <c r="J64" s="105"/>
     </row>
@@ -32953,24 +31768,18 @@
         <v>[Admin_login-55]</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C65" s="117" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D65" s="187" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E65" s="168"/>
-      <c r="F65" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H65" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F65" s="117"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="242"/>
       <c r="I65" s="168"/>
       <c r="J65" s="105"/>
     </row>
@@ -32980,24 +31789,18 @@
         <v>[Admin_login-56]</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D66" s="187" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E66" s="168"/>
-      <c r="F66" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="242"/>
       <c r="I66" s="168"/>
       <c r="J66" s="105"/>
     </row>
@@ -33007,24 +31810,18 @@
         <v>[Admin_login-57]</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C67" s="117" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D67" s="187" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E67" s="168"/>
-      <c r="F67" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F67" s="117"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="242"/>
       <c r="I67" s="168"/>
       <c r="J67" s="105"/>
     </row>
@@ -33034,24 +31831,18 @@
         <v>[Admin_login-58]</v>
       </c>
       <c r="B68" s="117" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C68" s="117" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D68" s="187" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E68" s="168"/>
-      <c r="F68" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="242"/>
       <c r="I68" s="168"/>
       <c r="J68" s="105"/>
     </row>
@@ -33061,24 +31852,18 @@
         <v>[Admin_login-59]</v>
       </c>
       <c r="B69" s="117" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C69" s="117" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D69" s="187" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E69" s="168"/>
-      <c r="F69" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F69" s="117"/>
+      <c r="G69" s="117"/>
+      <c r="H69" s="242"/>
       <c r="I69" s="168"/>
       <c r="J69" s="105"/>
     </row>
@@ -33088,24 +31873,18 @@
         <v>[Admin_login-60]</v>
       </c>
       <c r="B70" s="117" t="s">
+        <v>605</v>
+      </c>
+      <c r="C70" s="117" t="s">
         <v>608</v>
       </c>
-      <c r="C70" s="117" t="s">
+      <c r="D70" s="187" t="s">
         <v>611</v>
       </c>
-      <c r="D70" s="187" t="s">
-        <v>614</v>
-      </c>
       <c r="E70" s="168"/>
-      <c r="F70" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F70" s="117"/>
+      <c r="G70" s="117"/>
+      <c r="H70" s="242"/>
       <c r="I70" s="168"/>
       <c r="J70" s="105"/>
     </row>
@@ -33115,24 +31894,18 @@
         <v>[Admin_login-61]</v>
       </c>
       <c r="B71" s="117" t="s">
+        <v>606</v>
+      </c>
+      <c r="C71" s="117" t="s">
         <v>609</v>
       </c>
-      <c r="C71" s="117" t="s">
-        <v>612</v>
-      </c>
       <c r="D71" s="187" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E71" s="168"/>
-      <c r="F71" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F71" s="117"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="242"/>
       <c r="I71" s="168"/>
       <c r="J71" s="105"/>
     </row>
@@ -33142,24 +31915,18 @@
         <v>[Admin_login-62]</v>
       </c>
       <c r="B72" s="117" t="s">
+        <v>607</v>
+      </c>
+      <c r="C72" s="117" t="s">
         <v>610</v>
       </c>
-      <c r="C72" s="117" t="s">
-        <v>613</v>
-      </c>
       <c r="D72" s="187" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E72" s="168"/>
-      <c r="F72" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F72" s="117"/>
+      <c r="G72" s="117"/>
+      <c r="H72" s="242"/>
       <c r="I72" s="168"/>
       <c r="J72" s="105"/>
     </row>
@@ -33169,24 +31936,18 @@
         <v>[Admin_login-63]</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C73" s="117" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D73" s="187" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E73" s="168"/>
-      <c r="F73" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F73" s="117"/>
+      <c r="G73" s="117"/>
+      <c r="H73" s="242"/>
       <c r="I73" s="168"/>
       <c r="J73" s="105"/>
     </row>
@@ -33196,24 +31957,18 @@
         <v>[Admin_login-64]</v>
       </c>
       <c r="B74" s="117" t="s">
+        <v>614</v>
+      </c>
+      <c r="C74" s="117" t="s">
         <v>617</v>
       </c>
-      <c r="C74" s="117" t="s">
+      <c r="D74" s="187" t="s">
         <v>620</v>
       </c>
-      <c r="D74" s="187" t="s">
-        <v>623</v>
-      </c>
       <c r="E74" s="168"/>
-      <c r="F74" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H74" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F74" s="117"/>
+      <c r="G74" s="117"/>
+      <c r="H74" s="242"/>
       <c r="I74" s="168"/>
       <c r="J74" s="105"/>
     </row>
@@ -33223,24 +31978,18 @@
         <v>[Admin_login-65]</v>
       </c>
       <c r="B75" s="117" t="s">
+        <v>615</v>
+      </c>
+      <c r="C75" s="117" t="s">
         <v>618</v>
       </c>
-      <c r="C75" s="117" t="s">
-        <v>621</v>
-      </c>
       <c r="D75" s="187" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E75" s="168"/>
-      <c r="F75" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F75" s="117"/>
+      <c r="G75" s="117"/>
+      <c r="H75" s="242"/>
       <c r="I75" s="168"/>
       <c r="J75" s="105"/>
     </row>
@@ -33250,24 +31999,18 @@
         <v>[Admin_login-66]</v>
       </c>
       <c r="B76" s="117" t="s">
+        <v>616</v>
+      </c>
+      <c r="C76" s="117" t="s">
         <v>619</v>
       </c>
-      <c r="C76" s="117" t="s">
+      <c r="D76" s="187" t="s">
         <v>622</v>
       </c>
-      <c r="D76" s="187" t="s">
-        <v>625</v>
-      </c>
       <c r="E76" s="168"/>
-      <c r="F76" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H76" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F76" s="117"/>
+      <c r="G76" s="117"/>
+      <c r="H76" s="242"/>
       <c r="I76" s="168"/>
       <c r="J76" s="105"/>
     </row>
@@ -33277,24 +32020,18 @@
         <v>[Admin_login-67]</v>
       </c>
       <c r="B77" s="117" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C77" s="117" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D77" s="187" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E77" s="168"/>
-      <c r="F77" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H77" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F77" s="117"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="242"/>
       <c r="I77" s="168"/>
       <c r="J77" s="105"/>
     </row>
@@ -33304,24 +32041,18 @@
         <v>[Admin_login-68]</v>
       </c>
       <c r="B78" s="117" t="s">
+        <v>625</v>
+      </c>
+      <c r="C78" s="117" t="s">
         <v>628</v>
       </c>
-      <c r="C78" s="117" t="s">
-        <v>631</v>
-      </c>
       <c r="D78" s="187" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E78" s="168"/>
-      <c r="F78" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H78" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F78" s="117"/>
+      <c r="G78" s="117"/>
+      <c r="H78" s="242"/>
       <c r="I78" s="168"/>
       <c r="J78" s="105"/>
     </row>
@@ -33331,24 +32062,18 @@
         <v>[Admin_login-69]</v>
       </c>
       <c r="B79" s="117" t="s">
+        <v>626</v>
+      </c>
+      <c r="C79" s="117" t="s">
         <v>629</v>
       </c>
-      <c r="C79" s="117" t="s">
-        <v>632</v>
-      </c>
       <c r="D79" s="187" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E79" s="168"/>
-      <c r="F79" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F79" s="117"/>
+      <c r="G79" s="117"/>
+      <c r="H79" s="242"/>
       <c r="I79" s="168"/>
       <c r="J79" s="105"/>
     </row>
@@ -33358,24 +32083,18 @@
         <v>[Admin_login-70]</v>
       </c>
       <c r="B80" s="117" t="s">
+        <v>627</v>
+      </c>
+      <c r="C80" s="117" t="s">
         <v>630</v>
       </c>
-      <c r="C80" s="117" t="s">
-        <v>633</v>
-      </c>
       <c r="D80" s="187" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E80" s="168"/>
-      <c r="F80" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H80" s="242">
-        <v>42412</v>
-      </c>
+      <c r="F80" s="117"/>
+      <c r="G80" s="117"/>
+      <c r="H80" s="242"/>
       <c r="I80" s="168"/>
       <c r="J80" s="105"/>
     </row>
@@ -33465,7 +32184,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" spans="1:1">
